--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
@@ -670,7 +670,7 @@
         <v>1.76</v>
       </c>
       <c r="G2" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="H2" t="n">
         <v>4.1</v>
@@ -682,7 +682,7 @@
         <v>4.7</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,7 +691,7 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.12</v>
@@ -706,19 +706,19 @@
         <v>1.96</v>
       </c>
       <c r="S2" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="T2" t="n">
         <v>1.47</v>
       </c>
       <c r="U2" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="V2" t="n">
         <v>1.29</v>
       </c>
       <c r="W2" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X2" t="n">
         <v>980</v>
@@ -760,7 +760,7 @@
         <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>980</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>2.86</v>
       </c>
       <c r="G3" t="n">
-        <v>970</v>
+        <v>3.55</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>2.72</v>
       </c>
       <c r="I3" t="n">
-        <v>970</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>2.52</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>3.05</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="N3" t="n">
-        <v>1.25</v>
+        <v>2.16</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="R3" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -940,16 +940,16 @@
         <v>4.8</v>
       </c>
       <c r="G4" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
         <v>1.78</v>
       </c>
       <c r="I4" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
         <v>3.95</v>
@@ -958,7 +958,7 @@
         <v>1.45</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
         <v>3.05</v>
@@ -970,13 +970,13 @@
         <v>1.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R4" t="n">
         <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T4" t="n">
         <v>1.98</v>
@@ -985,7 +985,7 @@
         <v>1.84</v>
       </c>
       <c r="V4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W4" t="n">
         <v>1.2</v>
@@ -1102,10 +1102,10 @@
         <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R5" t="n">
         <v>1.65</v>
@@ -1114,7 +1114,7 @@
         <v>2.42</v>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U5" t="n">
         <v>1.96</v>
@@ -1162,13 +1162,13 @@
         <v>36</v>
       </c>
       <c r="AJ5" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AK5" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AL5" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AM5" t="n">
         <v>150</v>
@@ -1237,7 +1237,7 @@
         <v>1.46</v>
       </c>
       <c r="P6" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q6" t="n">
         <v>2.36</v>
@@ -1381,7 +1381,7 @@
         <v>1.64</v>
       </c>
       <c r="S7" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="T7" t="n">
         <v>2.62</v>
@@ -1429,7 +1429,7 @@
         <v>55</v>
       </c>
       <c r="AI7" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AJ7" t="n">
         <v>7.8</v>
@@ -1441,7 +1441,7 @@
         <v>60</v>
       </c>
       <c r="AM7" t="n">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="AN7" t="n">
         <v>3.7</v>
@@ -1756,13 +1756,13 @@
         <v>3.95</v>
       </c>
       <c r="I10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J10" t="n">
         <v>2.9</v>
       </c>
       <c r="K10" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
         <v>1.81</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
         <v>4.7</v>
       </c>
       <c r="K2" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
@@ -703,7 +703,7 @@
         <v>1.39</v>
       </c>
       <c r="R2" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="S2" t="n">
         <v>1.96</v>
@@ -724,52 +724,52 @@
         <v>980</v>
       </c>
       <c r="Y2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z2" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AF2" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AJ2" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
         <v>980</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO2" t="n">
         <v>980</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="G3" t="n">
         <v>3.55</v>
@@ -811,16 +811,16 @@
         <v>2.72</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="K3" t="n">
         <v>3.05</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="M3" t="n">
         <v>1.17</v>
@@ -850,7 +850,7 @@
         <v>1.61</v>
       </c>
       <c r="V3" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="W3" t="n">
         <v>1.39</v>
@@ -862,10 +862,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB3" t="n">
         <v>9.6</v>
@@ -877,25 +877,25 @@
         <v>18</v>
       </c>
       <c r="AE3" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF3" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AG3" t="n">
         <v>20</v>
       </c>
       <c r="AH3" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AI3" t="n">
         <v>120</v>
       </c>
       <c r="AJ3" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AK3" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="n">
         <v>130</v>
@@ -940,25 +940,25 @@
         <v>4.8</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H4" t="n">
         <v>1.78</v>
       </c>
       <c r="I4" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
         <v>3.95</v>
       </c>
       <c r="L4" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
         <v>3.05</v>
@@ -973,7 +973,7 @@
         <v>2.14</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
@@ -982,10 +982,10 @@
         <v>1.98</v>
       </c>
       <c r="U4" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="W4" t="n">
         <v>1.2</v>
@@ -994,7 +994,7 @@
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1006,7 +1006,7 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1024,13 +1024,13 @@
         <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AL4" t="n">
         <v>110</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1087,7 +1087,7 @@
         <v>5.8</v>
       </c>
       <c r="K5" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>2.64</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R5" t="n">
         <v>1.65</v>
@@ -1114,10 +1114,10 @@
         <v>2.42</v>
       </c>
       <c r="T5" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.95</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.96</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>40</v>
       </c>
       <c r="AC5" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD5" t="n">
         <v>11</v>
@@ -1168,13 +1168,13 @@
         <v>170</v>
       </c>
       <c r="AL5" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AM5" t="n">
         <v>150</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AO5" t="n">
         <v>4.7</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G6" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.2</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>1.46</v>
       </c>
       <c r="P6" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R6" t="n">
         <v>1.25</v>
@@ -1249,10 +1249,10 @@
         <v>4.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U6" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1270,10 +1270,10 @@
         <v>20</v>
       </c>
       <c r="AA6" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC6" t="n">
         <v>7.2</v>
@@ -1294,7 +1294,7 @@
         <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="n">
         <v>44</v>
@@ -1354,7 +1354,7 @@
         <v>23</v>
       </c>
       <c r="J7" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="K7" t="n">
         <v>8.800000000000001</v>
@@ -1375,10 +1375,10 @@
         <v>2.62</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R7" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S7" t="n">
         <v>2.48</v>
@@ -1441,7 +1441,7 @@
         <v>60</v>
       </c>
       <c r="AM7" t="n">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="AN7" t="n">
         <v>3.7</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G8" t="n">
         <v>2.66</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="I8" t="n">
         <v>3.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
         <v>3.45</v>
@@ -1534,13 +1534,13 @@
         <v>13.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z8" t="n">
         <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AB8" t="n">
         <v>10.5</v>
@@ -1558,7 +1558,7 @@
         <v>17</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
         <v>17.5</v>
@@ -1570,7 +1570,7 @@
         <v>38</v>
       </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL8" t="n">
         <v>42</v>
@@ -1582,7 +1582,7 @@
         <v>25</v>
       </c>
       <c r="AO8" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -1615,10 +1615,10 @@
         <v>2.5</v>
       </c>
       <c r="G9" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
         <v>4.2</v>
@@ -1627,7 +1627,7 @@
         <v>2.8</v>
       </c>
       <c r="K9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1756,7 +1756,7 @@
         <v>3.95</v>
       </c>
       <c r="I10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J10" t="n">
         <v>2.9</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G2" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.12</v>
       </c>
       <c r="P2" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="Q2" t="n">
         <v>1.39</v>
       </c>
       <c r="R2" t="n">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="S2" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="T2" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="U2" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W2" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="X2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>980</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.78</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>3.55</v>
+        <v>980</v>
       </c>
       <c r="H3" t="n">
-        <v>2.72</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>980</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>3.05</v>
+        <v>980</v>
       </c>
       <c r="L3" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.16</v>
+        <v>1.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.8</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="T3" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,109 +937,109 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.8</v>
+        <v>1.36</v>
       </c>
       <c r="G4" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.78</v>
+        <v>1.36</v>
       </c>
       <c r="I4" t="n">
-        <v>1.95</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
         <v>3.95</v>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.05</v>
+        <v>1.25</v>
       </c>
       <c r="O4" t="n">
         <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.14</v>
+        <v>1.39</v>
       </c>
       <c r="R4" t="n">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V4" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1078,13 +1078,13 @@
         <v>11.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="I5" t="n">
         <v>1.37</v>
       </c>
       <c r="J5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K5" t="n">
         <v>6.2</v>
@@ -1096,28 +1096,28 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>2.64</v>
+        <v>2.44</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="n">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="T5" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U5" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,58 +1126,58 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="G6" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H6" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
         <v>3.2</v>
@@ -1237,10 +1237,10 @@
         <v>1.46</v>
       </c>
       <c r="P6" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R6" t="n">
         <v>1.25</v>
@@ -1249,10 +1249,10 @@
         <v>4.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U6" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,58 +1261,58 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>9</v>
-      </c>
       <c r="AC6" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AO6" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7">
@@ -1348,7 +1348,7 @@
         <v>1.2</v>
       </c>
       <c r="H7" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I7" t="n">
         <v>23</v>
@@ -1372,22 +1372,22 @@
         <v>1.19</v>
       </c>
       <c r="P7" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R7" t="n">
         <v>1.63</v>
       </c>
       <c r="S7" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,43 +1408,43 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>55</v>
+        <v>360</v>
       </c>
       <c r="AI7" t="n">
-        <v>410</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>570</v>
       </c>
       <c r="AM7" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,28 +1477,28 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="G8" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>1.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
         <v>11.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>10.5</v>
       </c>
       <c r="AC8" t="n">
         <v>7.6</v>
@@ -1552,37 +1552,37 @@
         <v>13.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AK8" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AL8" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
     </row>
     <row r="9">
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G9" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
         <v>4.2</v>
@@ -1627,7 +1627,7 @@
         <v>2.8</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="G10" t="n">
         <v>2.38</v>
       </c>
       <c r="H10" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
         <v>2.9</v>
       </c>
       <c r="K10" t="n">
-        <v>3.15</v>
+        <v>1000</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
@@ -670,7 +670,7 @@
         <v>1.76</v>
       </c>
       <c r="G2" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="H2" t="n">
         <v>4.4</v>
@@ -679,100 +679,100 @@
         <v>4.6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K2" t="n">
         <v>4.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="S2" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="T2" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="V2" t="n">
         <v>1.28</v>
       </c>
       <c r="W2" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AM2" t="n">
         <v>980</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>2.78</v>
       </c>
       <c r="G3" t="n">
-        <v>980</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>2.72</v>
       </c>
       <c r="I3" t="n">
-        <v>980</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S3" t="n">
         <v>1.02</v>
       </c>
-      <c r="K3" t="n">
-        <v>980</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.01</v>
-      </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE3" t="n">
         <v>65</v>
       </c>
-      <c r="AB3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -937,109 +937,109 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.36</v>
+        <v>4.5</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.36</v>
+        <v>1.78</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>1.94</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
         <v>3.95</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>1.25</v>
+        <v>3.05</v>
       </c>
       <c r="O4" t="n">
         <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.39</v>
+        <v>2.14</v>
       </c>
       <c r="R4" t="n">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="S4" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="U4" t="n">
         <v>1.84</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,10 +1075,10 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="I5" t="n">
         <v>1.37</v>
@@ -1096,25 +1096,25 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P5" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="R5" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="S5" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="T5" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U5" t="n">
         <v>1.98</v>
@@ -1126,58 +1126,58 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="6">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="G6" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>3.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P6" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R6" t="n">
         <v>1.25</v>
@@ -1249,10 +1249,10 @@
         <v>4.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U6" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,58 +1261,58 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN6" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AO6" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -1348,7 +1348,7 @@
         <v>1.2</v>
       </c>
       <c r="H7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I7" t="n">
         <v>23</v>
@@ -1372,7 +1372,7 @@
         <v>1.19</v>
       </c>
       <c r="P7" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="Q7" t="n">
         <v>1.58</v>
@@ -1381,10 +1381,10 @@
         <v>1.63</v>
       </c>
       <c r="S7" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="U7" t="n">
         <v>1.57</v>
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="Y7" t="n">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,43 +1408,43 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>360</v>
+        <v>55</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>570</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1483,13 +1483,13 @@
         <v>2.7</v>
       </c>
       <c r="H8" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>3.5</v>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1531,58 +1531,58 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
         <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ8" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AK8" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AO8" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1615,10 +1615,10 @@
         <v>2.48</v>
       </c>
       <c r="G9" t="n">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="I9" t="n">
         <v>4.2</v>
@@ -1627,7 +1627,7 @@
         <v>2.8</v>
       </c>
       <c r="K9" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G10" t="n">
         <v>2.38</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="J10" t="n">
         <v>2.9</v>
       </c>
       <c r="K10" t="n">
-        <v>1000</v>
+        <v>3.15</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="G2" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I2" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="J2" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K2" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
         <v>1.22</v>
@@ -691,34 +691,34 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R2" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="S2" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="T2" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="U2" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="V2" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="W2" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="X2" t="n">
         <v>34</v>
@@ -727,58 +727,58 @@
         <v>980</v>
       </c>
       <c r="Z2" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AA2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AF2" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI2" t="n">
         <v>980</v>
       </c>
       <c r="AJ2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL2" t="n">
         <v>980</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>25</v>
       </c>
       <c r="AM2" t="n">
         <v>980</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="AO2" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>JS Omrane</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Esperance Sportive Zarzis</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.72</v>
+        <v>2.28</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>2.84</v>
       </c>
       <c r="J3" t="n">
-        <v>2.42</v>
+        <v>2.9</v>
       </c>
       <c r="K3" t="n">
-        <v>3.05</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.16</v>
+        <v>3.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.7</v>
+        <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.38</v>
+        <v>1.78</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.8</v>
+        <v>2.02</v>
       </c>
       <c r="R3" t="n">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="S3" t="n">
-        <v>1.02</v>
+        <v>3.1</v>
       </c>
       <c r="T3" t="n">
-        <v>2.32</v>
+        <v>1.55</v>
       </c>
       <c r="U3" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="V3" t="n">
-        <v>1.4</v>
+        <v>1.54</v>
       </c>
       <c r="W3" t="n">
         <v>1.33</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>18.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AA3" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>970</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AE3" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AF3" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AH3" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AI3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>JS Omrane</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Academico de Viseu</t>
+          <t>Esperance Sportive Zarzis</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.5</v>
+        <v>2.78</v>
       </c>
       <c r="G4" t="n">
-        <v>6.6</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.78</v>
+        <v>2.72</v>
       </c>
       <c r="I4" t="n">
-        <v>1.94</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>2.46</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>3.05</v>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="N4" t="n">
-        <v>3.05</v>
+        <v>2.16</v>
       </c>
       <c r="O4" t="n">
-        <v>1.39</v>
+        <v>1.7</v>
       </c>
       <c r="P4" t="n">
-        <v>1.71</v>
+        <v>1.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.14</v>
+        <v>2.8</v>
       </c>
       <c r="R4" t="n">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="S4" t="n">
-        <v>3.75</v>
+        <v>1.02</v>
       </c>
       <c r="T4" t="n">
-        <v>1.98</v>
+        <v>2.32</v>
       </c>
       <c r="U4" t="n">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="V4" t="n">
-        <v>2.06</v>
+        <v>1.45</v>
       </c>
       <c r="W4" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
         <v>980</v>
       </c>
       <c r="AF4" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AI4" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK4" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AL4" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AN4" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Academico de Viseu</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>4.9</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>6.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.34</v>
+        <v>1.78</v>
       </c>
       <c r="I5" t="n">
-        <v>1.37</v>
+        <v>1.98</v>
       </c>
       <c r="J5" t="n">
-        <v>5.9</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>6.2</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>5.7</v>
+        <v>3.05</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>2.62</v>
+        <v>1.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.56</v>
+        <v>2.14</v>
       </c>
       <c r="R5" t="n">
-        <v>1.64</v>
+        <v>1.26</v>
       </c>
       <c r="S5" t="n">
-        <v>2.42</v>
+        <v>3.75</v>
       </c>
       <c r="T5" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="U5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.98</v>
       </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="X5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
-        <v>11.5</v>
+        <v>24</v>
       </c>
       <c r="AB5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>14</v>
+        <v>9.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AF5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL5" t="n">
         <v>110</v>
       </c>
-      <c r="AG5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>400</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>170</v>
-      </c>
-      <c r="AL5" t="n">
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
         <v>140</v>
       </c>
-      <c r="AM5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>200</v>
-      </c>
       <c r="AO5" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,66 +1193,66 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>2.76</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>1.37</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="K6" t="n">
-        <v>3.3</v>
+        <v>6.2</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>1.7</v>
+        <v>2.62</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.34</v>
+        <v>1.55</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="S6" t="n">
-        <v>4.6</v>
+        <v>2.42</v>
       </c>
       <c r="T6" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="U6" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1261,64 +1261,64 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y6" t="n">
         <v>11</v>
       </c>
-      <c r="Y6" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="Z6" t="n">
-        <v>19.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA6" t="n">
-        <v>55</v>
+        <v>11.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.199999999999999</v>
+        <v>40</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.2</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG6" t="n">
         <v>40</v>
       </c>
-      <c r="AF6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>13</v>
-      </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AJ6" t="n">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="AK6" t="n">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="AM6" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN6" t="n">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="AO6" t="n">
-        <v>44</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,66 +1328,66 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>St Pauli</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.18</v>
+        <v>2.7</v>
       </c>
       <c r="G7" t="n">
-        <v>1.2</v>
+        <v>2.76</v>
       </c>
       <c r="H7" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>23</v>
+        <v>3.1</v>
       </c>
       <c r="J7" t="n">
-        <v>8.4</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>8.800000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>5.8</v>
+        <v>3.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.19</v>
+        <v>1.45</v>
       </c>
       <c r="P7" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.58</v>
+        <v>2.34</v>
       </c>
       <c r="R7" t="n">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="S7" t="n">
-        <v>2.48</v>
+        <v>4.6</v>
       </c>
       <c r="T7" t="n">
-        <v>2.62</v>
+        <v>1.97</v>
       </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>1.97</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,64 +1396,64 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>60</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB7" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>20</v>
+        <v>7.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>85</v>
+        <v>13.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF7" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AG7" t="n">
         <v>13</v>
       </c>
       <c r="AH7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL7" t="n">
         <v>55</v>
       </c>
-      <c r="AI7" t="n">
-        <v>410</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>60</v>
-      </c>
       <c r="AM7" t="n">
-        <v>440</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.7</v>
+        <v>36</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,66 +1463,66 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>20</v>
+      </c>
+      <c r="I8" t="n">
+        <v>23</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T8" t="n">
         <v>2.62</v>
       </c>
-      <c r="G8" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.81</v>
-      </c>
       <c r="U8" t="n">
-        <v>2.16</v>
+        <v>1.59</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,64 +1531,64 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>13.5</v>
+        <v>28</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.5</v>
+        <v>60</v>
       </c>
       <c r="Z8" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.6</v>
+        <v>19.5</v>
       </c>
       <c r="AD8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>580</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG8" t="n">
         <v>13</v>
       </c>
-      <c r="AE8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH8" t="n">
-        <v>17.5</v>
+        <v>55</v>
       </c>
       <c r="AI8" t="n">
-        <v>46</v>
+        <v>390</v>
       </c>
       <c r="AJ8" t="n">
-        <v>40</v>
+        <v>7.8</v>
       </c>
       <c r="AK8" t="n">
-        <v>30</v>
+        <v>15.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="AN8" t="n">
-        <v>26</v>
+        <v>3.7</v>
       </c>
       <c r="AO8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,42 +1598,42 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="G9" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="H9" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,58 +1666,58 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -1733,125 +1733,260 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Lanus</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>CA Independiente</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Estudiantes</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="F11" t="n">
         <v>2.28</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>2.38</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>3.95</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>4.4</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J11" t="n">
         <v>2.9</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K11" t="n">
         <v>3.15</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="n">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +670,7 @@
         <v>1.68</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H2" t="n">
         <v>4.7</v>
@@ -691,22 +691,22 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="S2" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="T2" t="n">
         <v>1.48</v>
@@ -718,61 +718,61 @@
         <v>1.25</v>
       </c>
       <c r="W2" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="X2" t="n">
         <v>34</v>
       </c>
       <c r="Y2" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="Z2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>20</v>
       </c>
-      <c r="AC2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE2" t="n">
+      <c r="AK2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM2" t="n">
         <v>55</v>
       </c>
-      <c r="AF2" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>980</v>
-      </c>
       <c r="AN2" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H3" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="J3" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
         <v>4.2</v>
@@ -823,40 +823,40 @@
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O3" t="n">
         <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.72</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="X3" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="Y3" t="n">
         <v>970</v>
@@ -865,7 +865,7 @@
         <v>970</v>
       </c>
       <c r="AA3" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AB3" t="n">
         <v>970</v>
@@ -889,25 +889,25 @@
         <v>970</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,123 +1058,123 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Academico de Viseu</t>
+          <t>Paradou</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.9</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>1.98</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>3.05</v>
+        <v>1.24</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.7</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>1.26</v>
+        <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>3.75</v>
+        <v>1.01</v>
       </c>
       <c r="T5" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="H6" t="n">
-        <v>1.33</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>1.37</v>
+        <v>500</v>
       </c>
       <c r="J6" t="n">
-        <v>5.9</v>
+        <v>1.02</v>
       </c>
       <c r="K6" t="n">
-        <v>6.2</v>
+        <v>950</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>5.7</v>
+        <v>1.24</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>2.62</v>
+        <v>1.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>1.12</v>
       </c>
       <c r="S6" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="T6" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,66 +1328,66 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>FC Metaloglobus Bucuresti</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.7</v>
+        <v>6.2</v>
       </c>
       <c r="G7" t="n">
-        <v>2.76</v>
+        <v>8.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>1.66</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>1.77</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,64 +1396,64 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,66 +1463,66 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.18</v>
+        <v>1.04</v>
       </c>
       <c r="G8" t="n">
-        <v>1.2</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>20</v>
+        <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>8.4</v>
+        <v>1.02</v>
       </c>
       <c r="K8" t="n">
-        <v>8.800000000000001</v>
+        <v>950</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.6</v>
+        <v>1.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,64 +1531,64 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>410</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Academico de Viseu</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.54</v>
+        <v>4.9</v>
       </c>
       <c r="G9" t="n">
-        <v>2.56</v>
+        <v>6.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>1.77</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>1.98</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P9" t="n">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="U9" t="n">
-        <v>2.14</v>
+        <v>1.84</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z9" t="n">
         <v>12</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>22</v>
       </c>
       <c r="AA9" t="n">
         <v>980</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
         <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="AL9" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AM9" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="AO9" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,36 +1733,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.5</v>
+        <v>5.1</v>
       </c>
       <c r="G10" t="n">
-        <v>2.68</v>
+        <v>5.8</v>
       </c>
       <c r="H10" t="n">
-        <v>3.65</v>
+        <v>1.81</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="J10" t="n">
-        <v>2.8</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1858,135 +1858,810 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Paris St-G</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>390</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>170</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>St Pauli</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>21</v>
+      </c>
+      <c r="I13" t="n">
+        <v>23</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>580</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>380</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>410</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Argentinian Primera Division</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>2026-01-23</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Lanus</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>CA Independiente</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Estudiantes</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="F16" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J16" t="n">
         <v>2.9</v>
       </c>
-      <c r="K11" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="n">
+      <c r="K16" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO16"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="G2" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="H2" t="n">
         <v>4.7</v>
@@ -679,10 +679,10 @@
         <v>4.9</v>
       </c>
       <c r="J2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K2" t="n">
         <v>4.9</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5</v>
       </c>
       <c r="L2" t="n">
         <v>1.22</v>
@@ -706,19 +706,19 @@
         <v>1.96</v>
       </c>
       <c r="S2" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="T2" t="n">
         <v>1.48</v>
       </c>
       <c r="U2" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="V2" t="n">
         <v>1.25</v>
       </c>
       <c r="W2" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="X2" t="n">
         <v>34</v>
@@ -754,10 +754,10 @@
         <v>16</v>
       </c>
       <c r="AI2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
         <v>16</v>
@@ -802,28 +802,28 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="I3" t="n">
-        <v>2.96</v>
+        <v>2.72</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="K3" t="n">
         <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
         <v>3.35</v>
@@ -832,28 +832,28 @@
         <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="Q3" t="n">
         <v>1.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T3" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="W3" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X3" t="n">
         <v>970</v>
@@ -865,13 +865,13 @@
         <v>970</v>
       </c>
       <c r="AA3" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB3" t="n">
         <v>970</v>
       </c>
       <c r="AC3" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
         <v>970</v>
@@ -892,22 +892,22 @@
         <v>55</v>
       </c>
       <c r="AJ3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL3" t="n">
         <v>65</v>
       </c>
-      <c r="AK3" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>60</v>
-      </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN3" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AO3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -940,16 +940,16 @@
         <v>2.78</v>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>2.72</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="K4" t="n">
         <v>3.05</v>
@@ -958,7 +958,7 @@
         <v>1.58</v>
       </c>
       <c r="M4" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
         <v>2.16</v>
@@ -985,10 +985,10 @@
         <v>1.61</v>
       </c>
       <c r="V4" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="W4" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="X4" t="n">
         <v>8</v>
@@ -997,7 +997,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
         <v>60</v>
@@ -1006,13 +1006,13 @@
         <v>9.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="AD4" t="n">
         <v>18</v>
       </c>
       <c r="AE4" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AF4" t="n">
         <v>21</v>
@@ -1027,10 +1027,10 @@
         <v>120</v>
       </c>
       <c r="AJ4" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AK4" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AL4" t="n">
         <v>130</v>
@@ -1042,7 +1042,7 @@
         <v>120</v>
       </c>
       <c r="AO4" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
@@ -1084,7 +1084,7 @@
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K5" t="n">
         <v>950</v>
@@ -1096,7 +1096,7 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G6" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="H6" t="n">
         <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="J6" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K6" t="n">
         <v>950</v>
@@ -1231,7 +1231,7 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1489,22 +1489,22 @@
         <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K8" t="n">
         <v>950</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
         <v>1.24</v>
@@ -1513,82 +1513,82 @@
         <v>1.01</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,123 +1598,123 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Academico de Viseu</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.9</v>
+        <v>1.25</v>
       </c>
       <c r="G9" t="n">
-        <v>6.6</v>
+        <v>1.33</v>
       </c>
       <c r="H9" t="n">
-        <v>1.77</v>
+        <v>10.5</v>
       </c>
       <c r="I9" t="n">
-        <v>1.98</v>
+        <v>18.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>6</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>8.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>3.05</v>
+        <v>4.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.39</v>
+        <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>1.71</v>
+        <v>2.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.14</v>
+        <v>1.64</v>
       </c>
       <c r="R9" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
-        <v>3.75</v>
+        <v>2.64</v>
       </c>
       <c r="T9" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="U9" t="n">
-        <v>1.84</v>
+        <v>1.53</v>
       </c>
       <c r="V9" t="n">
-        <v>1.98</v>
+        <v>1.06</v>
       </c>
       <c r="W9" t="n">
-        <v>1.18</v>
+        <v>4</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.4</v>
+        <v>42</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="AA9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.4</v>
+        <v>18.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="AE9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AG9" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AI9" t="n">
-        <v>980</v>
+        <v>240</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>100</v>
+        <v>18.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>140</v>
+        <v>5.7</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.1</v>
+        <v>2.7</v>
       </c>
       <c r="G10" t="n">
-        <v>5.8</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>1.81</v>
+        <v>2.62</v>
       </c>
       <c r="I10" t="n">
-        <v>1.95</v>
+        <v>3.15</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>2.92</v>
+        <v>1.72</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.28</v>
+        <v>2.06</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>1.58</v>
       </c>
       <c r="G11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="X11" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF11" t="n">
         <v>11</v>
       </c>
-      <c r="H11" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K11" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N11" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y11" t="n">
+      <c r="AG11" t="n">
         <v>11</v>
       </c>
-      <c r="Z11" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE11" t="n">
+      <c r="AH11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>15</v>
       </c>
-      <c r="AF11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>390</v>
-      </c>
       <c r="AK11" t="n">
-        <v>170</v>
+        <v>16.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>200</v>
+        <v>7.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>4.7</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>2.24</v>
       </c>
       <c r="G12" t="n">
-        <v>2.76</v>
+        <v>2.42</v>
       </c>
       <c r="H12" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>1.69</v>
+        <v>2.12</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.34</v>
+        <v>1.78</v>
       </c>
       <c r="R12" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="S12" t="n">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.800000000000001</v>
+        <v>16</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AA12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="n">
         <v>17</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AJ12" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AK12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL12" t="n">
         <v>36</v>
       </c>
-      <c r="AL12" t="n">
-        <v>55</v>
-      </c>
       <c r="AM12" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,123 +2138,123 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>SV Darmstadt</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.18</v>
+        <v>1.98</v>
       </c>
       <c r="G13" t="n">
-        <v>1.2</v>
+        <v>2.06</v>
       </c>
       <c r="H13" t="n">
-        <v>21</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD13" t="n">
         <v>23</v>
       </c>
-      <c r="J13" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y13" t="n">
+      <c r="AE13" t="n">
         <v>60</v>
       </c>
-      <c r="Z13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>580</v>
-      </c>
       <c r="AF13" t="n">
-        <v>7.2</v>
+        <v>20</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>380</v>
+        <v>65</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7.8</v>
+        <v>32</v>
       </c>
       <c r="AK13" t="n">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="n">
-        <v>410</v>
+        <v>95</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,54 +2273,54 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.54</v>
+        <v>5.1</v>
       </c>
       <c r="G14" t="n">
-        <v>2.56</v>
+        <v>5.8</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>1.82</v>
       </c>
       <c r="I14" t="n">
-        <v>3.2</v>
+        <v>1.94</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,64 +2341,64 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,260 +2408,1880 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Academico de Viseu</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.5</v>
+        <v>4.9</v>
       </c>
       <c r="G15" t="n">
-        <v>2.66</v>
+        <v>6.6</v>
       </c>
       <c r="H15" t="n">
-        <v>3.65</v>
+        <v>1.77</v>
       </c>
       <c r="I15" t="n">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="J15" t="n">
-        <v>2.8</v>
+        <v>3.45</v>
       </c>
       <c r="K15" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N15" t="n">
         <v>3.05</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>German 3 Liga</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Viktoria Koln</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Saarbrucken</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Caen</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Bourg-en-Bresse</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Chateauroux</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Paris 13 Atletico</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Versailles 78 FC</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Stade Briochin</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Fleury Merogis</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Le Puy</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Valenciennes</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Orleans</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Paris St-G</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="G23" t="n">
+        <v>11</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K23" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>390</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>170</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>200</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>St Pauli</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>21</v>
+      </c>
+      <c r="I25" t="n">
+        <v>23</v>
+      </c>
+      <c r="J25" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>590</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>390</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>410</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>Argentinian Primera Division</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>2026-01-23</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Lanus</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>CA Independiente</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Estudiantes</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="F28" t="n">
         <v>2.44</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G28" t="n">
         <v>2.5</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H28" t="n">
         <v>3.9</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I28" t="n">
         <v>4.2</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J28" t="n">
         <v>2.9</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K28" t="n">
         <v>3</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="n">
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO28"/>
+  <dimension ref="A1:AO51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,16 +670,16 @@
         <v>1.7</v>
       </c>
       <c r="G2" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
         <v>4.7</v>
       </c>
       <c r="I2" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K2" t="n">
         <v>4.9</v>
@@ -691,7 +691,7 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.13</v>
@@ -703,22 +703,22 @@
         <v>1.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="S2" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="T2" t="n">
         <v>1.48</v>
       </c>
       <c r="U2" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="V2" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W2" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X2" t="n">
         <v>34</v>
@@ -733,7 +733,7 @@
         <v>110</v>
       </c>
       <c r="AB2" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC2" t="n">
         <v>13</v>
@@ -769,7 +769,7 @@
         <v>55</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AO2" t="n">
         <v>29</v>
@@ -805,13 +805,13 @@
         <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H3" t="n">
         <v>2.28</v>
       </c>
       <c r="I3" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="J3" t="n">
         <v>2.98</v>
@@ -853,7 +853,7 @@
         <v>1.6</v>
       </c>
       <c r="W3" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X3" t="n">
         <v>970</v>
@@ -1000,7 +1000,7 @@
         <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="n">
         <v>9.6</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>1.33</v>
       </c>
       <c r="H9" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I9" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="J9" t="n">
         <v>6</v>
@@ -1651,7 +1651,7 @@
         <v>1.48</v>
       </c>
       <c r="S9" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="T9" t="n">
         <v>2.1</v>
@@ -1669,7 +1669,7 @@
         <v>28</v>
       </c>
       <c r="Y9" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Z9" t="n">
         <v>170</v>
@@ -1753,7 +1753,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
       <c r="I10" t="n">
         <v>3.15</v>
@@ -1969,7 +1969,7 @@
         <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ11" t="n">
         <v>15</v>
@@ -2026,7 +2026,7 @@
         <v>3.15</v>
       </c>
       <c r="I12" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J12" t="n">
         <v>3.6</v>
@@ -2041,31 +2041,31 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
         <v>2.12</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R12" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="S12" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="V12" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W12" t="n">
         <v>1.7</v>
@@ -2161,7 +2161,7 @@
         <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
         <v>3.9</v>
@@ -2176,10 +2176,10 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
         <v>2.3</v>
@@ -2188,16 +2188,16 @@
         <v>1.66</v>
       </c>
       <c r="R13" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="S13" t="n">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="T13" t="n">
         <v>1.63</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>2.36</v>
       </c>
       <c r="V13" t="n">
         <v>1.33</v>
@@ -2206,58 +2206,58 @@
         <v>1.95</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y13" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Z13" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AA13" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>9.6</v>
       </c>
       <c r="AD13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>23</v>
       </c>
-      <c r="AE13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>32</v>
-      </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AM13" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -2320,7 +2320,7 @@
         <v>1.65</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>1.95</v>
       </c>
       <c r="J15" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
         <v>3.95</v>
@@ -2470,10 +2470,10 @@
         <v>1.84</v>
       </c>
       <c r="V15" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W15" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2560,16 +2560,16 @@
         <v>2.58</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H16" t="n">
         <v>2.62</v>
       </c>
       <c r="I16" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="K16" t="n">
         <v>4.4</v>
@@ -2590,13 +2590,13 @@
         <v>2.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="R16" t="n">
         <v>1.36</v>
       </c>
       <c r="S16" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T16" t="n">
         <v>1.01</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G17" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="I17" t="n">
         <v>8.4</v>
@@ -2710,16 +2710,16 @@
         <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P17" t="n">
         <v>1.76</v>
@@ -2728,76 +2728,76 @@
         <v>2.06</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2836,7 +2836,7 @@
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J18" t="n">
         <v>2.98</v>
@@ -2845,94 +2845,94 @@
         <v>3.45</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P18" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q18" t="n">
         <v>2.38</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G19" t="n">
         <v>3.2</v>
@@ -2974,100 +2974,100 @@
         <v>3.35</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K19" t="n">
         <v>3.45</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3103,10 +3103,10 @@
         <v>4.1</v>
       </c>
       <c r="H20" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="I20" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="J20" t="n">
         <v>3.15</v>
@@ -3115,16 +3115,16 @@
         <v>3.7</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P20" t="n">
         <v>1.74</v>
@@ -3133,76 +3133,76 @@
         <v>2.1</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3232,112 +3232,112 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G21" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I21" t="n">
         <v>4.6</v>
       </c>
       <c r="J21" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K21" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P21" t="n">
         <v>1.73</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3373,7 +3373,7 @@
         <v>2.86</v>
       </c>
       <c r="H22" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I22" t="n">
         <v>3.85</v>
@@ -3385,16 +3385,16 @@
         <v>3.55</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P22" t="n">
         <v>1.7</v>
@@ -3403,82 +3403,82 @@
         <v>2.22</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Etoile Carouge</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>9.800000000000001</v>
+        <v>2.54</v>
       </c>
       <c r="G23" t="n">
-        <v>11</v>
+        <v>3.05</v>
       </c>
       <c r="H23" t="n">
-        <v>1.35</v>
+        <v>2.74</v>
       </c>
       <c r="I23" t="n">
-        <v>1.37</v>
+        <v>3.2</v>
       </c>
       <c r="J23" t="n">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
-        <v>6.2</v>
+        <v>3.8</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>5.8</v>
+        <v>1.85</v>
       </c>
       <c r="O23" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="P23" t="n">
-        <v>2.64</v>
+        <v>1.85</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.56</v>
+        <v>1.86</v>
       </c>
       <c r="R23" t="n">
-        <v>1.65</v>
+        <v>1.27</v>
       </c>
       <c r="S23" t="n">
-        <v>2.42</v>
+        <v>2.98</v>
       </c>
       <c r="T23" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="U23" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X23" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.72</v>
+        <v>1.97</v>
       </c>
       <c r="G24" t="n">
-        <v>2.74</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>3.05</v>
+        <v>1.94</v>
       </c>
       <c r="O24" t="n">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>1.69</v>
+        <v>1.94</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.36</v>
+        <v>1.92</v>
       </c>
       <c r="R24" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>4.6</v>
+        <v>1.92</v>
       </c>
       <c r="T24" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X24" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.800000000000001</v>
+        <v>21</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.5</v>
+        <v>44</v>
       </c>
       <c r="AA24" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.2</v>
+        <v>11.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AE24" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AF24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AJ24" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AK24" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM24" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,78 +3758,78 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.18</v>
+        <v>1.91</v>
       </c>
       <c r="G25" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R25" t="n">
         <v>1.2</v>
       </c>
-      <c r="H25" t="n">
-        <v>21</v>
-      </c>
-      <c r="I25" t="n">
-        <v>23</v>
-      </c>
-      <c r="J25" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N25" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.63</v>
-      </c>
       <c r="S25" t="n">
-        <v>2.48</v>
+        <v>3.6</v>
       </c>
       <c r="T25" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="U25" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="X25" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
         <v>1000</v>
@@ -3838,43 +3838,43 @@
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>590</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>410</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.54</v>
+        <v>2.96</v>
       </c>
       <c r="G26" t="n">
-        <v>2.56</v>
+        <v>3.65</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>2.52</v>
       </c>
       <c r="I26" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="J26" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="K26" t="n">
         <v>3.5</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P26" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T26" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="U26" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X26" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,260 +4028,3365 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.5</v>
+        <v>2.78</v>
       </c>
       <c r="G27" t="n">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="H27" t="n">
-        <v>3.65</v>
+        <v>2.9</v>
       </c>
       <c r="I27" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>550</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Paris St-G</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="G29" t="n">
+        <v>11</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X29" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>38</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>400</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>170</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>200</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Cambuur Leeuwarden</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>FC Eindhoven</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I30" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W30" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="X30" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Vitesse Arnhem</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X31" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Roda JC</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>FC Oss</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W32" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="X32" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>De Graafschap</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K33" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>VVV Venlo</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N34" t="n">
+        <v>6</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>FC Dordrecht</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="X35" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>MVV Maastricht</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Jong FC Utrecht</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X36" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Swiss Challenge League</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>16:15:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>FC Vaduz</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>FC Wil</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K37" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W37" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="X37" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Burgos</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X38" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Triestina</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Lumezzane</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>FC Giugliano</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Cavese 1919</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K40" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>St Pauli</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X41" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Italian Serie B</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Carrarese</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H43" t="n">
+        <v>22</v>
+      </c>
+      <c r="I43" t="n">
+        <v>23</v>
+      </c>
+      <c r="J43" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N43" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W43" t="n">
+        <v>6</v>
+      </c>
+      <c r="X43" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>580</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>380</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>410</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Scottish Championship</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Arbroath</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Morton</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X44" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Bala Town</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Flint Town United</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3</v>
+      </c>
+      <c r="K45" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Briton Ferry Llansawel</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Llanelli Town</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K46" t="n">
+        <v>950</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W46" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Cardiff Metropolitan</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Haverfordwest County</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>AVS Futebol SAD</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>Argentinian Primera Division</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>2026-01-23</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Lanus</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>CA Independiente</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>Estudiantes</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="F51" t="n">
         <v>2.44</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G51" t="n">
         <v>2.5</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H51" t="n">
         <v>3.9</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I51" t="n">
         <v>4.2</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J51" t="n">
         <v>2.9</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K51" t="n">
         <v>3</v>
       </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO28" t="n">
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO51" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO51"/>
+  <dimension ref="A1:AO53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="H2" t="n">
         <v>4.7</v>
@@ -679,7 +679,7 @@
         <v>4.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K2" t="n">
         <v>4.9</v>
@@ -694,7 +694,7 @@
         <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P2" t="n">
         <v>3.3</v>
@@ -712,13 +712,13 @@
         <v>1.48</v>
       </c>
       <c r="U2" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
         <v>1.26</v>
       </c>
       <c r="W2" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="X2" t="n">
         <v>34</v>
@@ -739,7 +739,7 @@
         <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
         <v>48</v>
@@ -760,7 +760,7 @@
         <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
         <v>22</v>
@@ -805,7 +805,7 @@
         <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
         <v>2.28</v>
@@ -826,10 +826,10 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
         <v>1.79</v>
@@ -853,28 +853,28 @@
         <v>1.6</v>
       </c>
       <c r="W3" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AB3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
         <v>9.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>970</v>
@@ -883,7 +883,7 @@
         <v>970</v>
       </c>
       <c r="AG3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
         <v>970</v>
@@ -907,7 +907,7 @@
         <v>50</v>
       </c>
       <c r="AO3" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
     </row>
     <row r="4">
@@ -1015,13 +1015,13 @@
         <v>65</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AI4" t="n">
         <v>120</v>
@@ -1084,10 +1084,10 @@
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
       <c r="H6" t="n">
         <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>170</v>
+        <v>970</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1489,10 +1489,10 @@
         <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K8" t="n">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1618,10 +1618,10 @@
         <v>1.33</v>
       </c>
       <c r="H9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I9" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="J9" t="n">
         <v>6</v>
@@ -1666,10 +1666,10 @@
         <v>4</v>
       </c>
       <c r="X9" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="Y9" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="Z9" t="n">
         <v>170</v>
@@ -1681,7 +1681,7 @@
         <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AD9" t="n">
         <v>60</v>
@@ -1705,7 +1705,7 @@
         <v>11.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AL9" t="n">
         <v>60</v>
@@ -1888,7 +1888,7 @@
         <v>1.6</v>
       </c>
       <c r="H11" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I11" t="n">
         <v>7.2</v>
@@ -1897,7 +1897,7 @@
         <v>4.4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L11" t="n">
         <v>1.31</v>
@@ -1906,7 +1906,7 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O11" t="n">
         <v>1.22</v>
@@ -1915,7 +1915,7 @@
         <v>2.28</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R11" t="n">
         <v>1.51</v>
@@ -1924,10 +1924,10 @@
         <v>2.64</v>
       </c>
       <c r="T11" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="U11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V11" t="n">
         <v>1.16</v>
@@ -1987,7 +1987,7 @@
         <v>7.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="H12" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
         <v>3.6</v>
@@ -2041,7 +2041,7 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O12" t="n">
         <v>1.25</v>
@@ -2065,10 +2065,10 @@
         <v>2.34</v>
       </c>
       <c r="V12" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W12" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="X12" t="n">
         <v>22</v>
@@ -2077,7 +2077,7 @@
         <v>16</v>
       </c>
       <c r="Z12" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AA12" t="n">
         <v>60</v>
@@ -2092,7 +2092,7 @@
         <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AF12" t="n">
         <v>17</v>
@@ -2104,16 +2104,16 @@
         <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AJ12" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AL12" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AM12" t="n">
         <v>75</v>
@@ -2122,7 +2122,7 @@
         <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
     </row>
     <row r="13">
@@ -2155,7 +2155,7 @@
         <v>1.98</v>
       </c>
       <c r="G13" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>3.9</v>
@@ -2176,13 +2176,13 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O13" t="n">
         <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q13" t="n">
         <v>1.66</v>
@@ -2197,22 +2197,22 @@
         <v>1.63</v>
       </c>
       <c r="U13" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V13" t="n">
         <v>1.33</v>
       </c>
       <c r="W13" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
         <v>25</v>
       </c>
       <c r="Y13" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="Z13" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AA13" t="n">
         <v>75</v>
@@ -2224,10 +2224,10 @@
         <v>9.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AE13" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AF13" t="n">
         <v>14.5</v>
@@ -2236,19 +2236,19 @@
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AI13" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AK13" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AL13" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AM13" t="n">
         <v>70</v>
@@ -2257,7 +2257,7 @@
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
     </row>
     <row r="14">
@@ -2317,10 +2317,10 @@
         <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2425,7 +2425,7 @@
         <v>4.9</v>
       </c>
       <c r="G15" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="H15" t="n">
         <v>1.77</v>
@@ -2440,34 +2440,34 @@
         <v>3.95</v>
       </c>
       <c r="L15" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S15" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T15" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="U15" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V15" t="n">
         <v>2.04</v>
@@ -2491,7 +2491,7 @@
         <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD15" t="n">
         <v>1000</v>
@@ -2566,10 +2566,10 @@
         <v>2.62</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J16" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="K16" t="n">
         <v>4.4</v>
@@ -2833,7 +2833,7 @@
         <v>2.58</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
         <v>4.1</v>
@@ -2875,52 +2875,52 @@
         <v>1.72</v>
       </c>
       <c r="V18" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W18" t="n">
         <v>1.63</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Y18" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Z18" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AA18" t="n">
         <v>95</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AC18" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AE18" t="n">
         <v>65</v>
       </c>
       <c r="AF18" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AG18" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AI18" t="n">
         <v>90</v>
       </c>
       <c r="AJ18" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AK18" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AL18" t="n">
         <v>70</v>
@@ -2929,7 +2929,7 @@
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AO18" t="n">
         <v>85</v>
@@ -3007,7 +3007,7 @@
         <v>1.67</v>
       </c>
       <c r="U19" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="V19" t="n">
         <v>1.42</v>
@@ -3100,13 +3100,13 @@
         <v>3.45</v>
       </c>
       <c r="G20" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="H20" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I20" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="J20" t="n">
         <v>3.15</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="G22" t="n">
         <v>2.86</v>
@@ -3376,7 +3376,7 @@
         <v>2.9</v>
       </c>
       <c r="I22" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="J22" t="n">
         <v>3.05</v>
@@ -3397,7 +3397,7 @@
         <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q22" t="n">
         <v>2.22</v>
@@ -3535,7 +3535,7 @@
         <v>1.85</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R23" t="n">
         <v>1.27</v>
@@ -3679,10 +3679,10 @@
         <v>1.92</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V24" t="n">
         <v>1.3</v>
@@ -3739,7 +3739,7 @@
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -4084,10 +4084,10 @@
         <v>4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="V27" t="n">
         <v>1.5</v>
@@ -4180,7 +4180,7 @@
         <v>2.2</v>
       </c>
       <c r="G28" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H28" t="n">
         <v>3.4</v>
@@ -4213,7 +4213,7 @@
         <v>2.06</v>
       </c>
       <c r="R28" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S28" t="n">
         <v>3.7</v>
@@ -4312,10 +4312,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="H29" t="n">
         <v>1.35</v>
@@ -4336,10 +4336,10 @@
         <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P29" t="n">
         <v>2.64</v>
@@ -4384,13 +4384,13 @@
         <v>14</v>
       </c>
       <c r="AD29" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
       </c>
       <c r="AF29" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AG29" t="n">
         <v>38</v>
@@ -4402,7 +4402,7 @@
         <v>36</v>
       </c>
       <c r="AJ29" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AK29" t="n">
         <v>170</v>
@@ -4414,7 +4414,7 @@
         <v>150</v>
       </c>
       <c r="AN29" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AO29" t="n">
         <v>4.6</v>
@@ -4438,31 +4438,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.42</v>
+        <v>2.26</v>
       </c>
       <c r="G30" t="n">
-        <v>1.51</v>
+        <v>2.66</v>
       </c>
       <c r="H30" t="n">
-        <v>6.8</v>
+        <v>2.74</v>
       </c>
       <c r="I30" t="n">
-        <v>8.800000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="J30" t="n">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="K30" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4471,88 +4471,88 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>5.6</v>
+        <v>1.01</v>
       </c>
       <c r="O30" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="P30" t="n">
-        <v>2.56</v>
+        <v>3.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.55</v>
+        <v>1.39</v>
       </c>
       <c r="R30" t="n">
-        <v>1.62</v>
+        <v>1.87</v>
       </c>
       <c r="S30" t="n">
-        <v>2.22</v>
+        <v>1.39</v>
       </c>
       <c r="T30" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="U30" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>1.13</v>
+        <v>1.43</v>
       </c>
       <c r="W30" t="n">
-        <v>2.96</v>
+        <v>1.6</v>
       </c>
       <c r="X30" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4618,13 +4618,13 @@
         <v>1.51</v>
       </c>
       <c r="R31" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="S31" t="n">
         <v>2.06</v>
       </c>
       <c r="T31" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="U31" t="n">
         <v>1.01</v>
@@ -4687,7 +4687,7 @@
         <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G32" t="n">
         <v>1.8</v>
@@ -4726,7 +4726,7 @@
         <v>4.6</v>
       </c>
       <c r="I32" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="J32" t="n">
         <v>4.1</v>
@@ -4756,7 +4756,7 @@
         <v>1.58</v>
       </c>
       <c r="S32" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="T32" t="n">
         <v>1.61</v>
@@ -4771,10 +4771,10 @@
         <v>2.24</v>
       </c>
       <c r="X32" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="Y32" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="Z32" t="n">
         <v>55</v>
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.26</v>
+        <v>2.9</v>
       </c>
       <c r="G33" t="n">
-        <v>2.48</v>
+        <v>3.15</v>
       </c>
       <c r="H33" t="n">
-        <v>2.7</v>
+        <v>2.24</v>
       </c>
       <c r="I33" t="n">
-        <v>3.3</v>
+        <v>2.46</v>
       </c>
       <c r="J33" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K33" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N33" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="O33" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="P33" t="n">
-        <v>3.1</v>
+        <v>2.46</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="R33" t="n">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="S33" t="n">
-        <v>1.89</v>
+        <v>2.34</v>
       </c>
       <c r="T33" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>2.52</v>
       </c>
       <c r="V33" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="W33" t="n">
         <v>1.46</v>
       </c>
-      <c r="W33" t="n">
-        <v>1.7</v>
-      </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="34">
@@ -4978,31 +4978,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.87</v>
+        <v>1.42</v>
       </c>
       <c r="G34" t="n">
-        <v>2.02</v>
+        <v>1.51</v>
       </c>
       <c r="H34" t="n">
-        <v>3.85</v>
+        <v>6.8</v>
       </c>
       <c r="I34" t="n">
-        <v>4.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="K34" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5011,88 +5011,88 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="O34" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>2.7</v>
+        <v>2.56</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="R34" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S34" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="T34" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="U34" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V34" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="W34" t="n">
-        <v>1.99</v>
+        <v>2.96</v>
       </c>
       <c r="X34" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y34" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="Z34" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AA34" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="AB34" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AC34" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AD34" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AE34" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AF34" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AG34" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI34" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AK34" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AL34" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AM34" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
@@ -5113,31 +5113,31 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="H35" t="n">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="I35" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="J35" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -5146,85 +5146,85 @@
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>1.02</v>
+        <v>6</v>
       </c>
       <c r="O35" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P35" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="R35" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="S35" t="n">
         <v>2.02</v>
       </c>
       <c r="T35" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="U35" t="n">
         <v>1.01</v>
       </c>
       <c r="V35" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="W35" t="n">
-        <v>1.77</v>
+        <v>1.99</v>
       </c>
       <c r="X35" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="Z35" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AA35" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AB35" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF35" t="n">
         <v>23</v>
       </c>
-      <c r="AC35" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>26</v>
-      </c>
       <c r="AG35" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH35" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI35" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ35" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AK35" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AL35" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AM35" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>3.15</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
-        <v>2.24</v>
+        <v>3.2</v>
       </c>
       <c r="I36" t="n">
-        <v>2.46</v>
+        <v>3.85</v>
       </c>
       <c r="J36" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K36" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
       </c>
       <c r="M36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N36" t="n">
         <v>1.02</v>
       </c>
-      <c r="N36" t="n">
-        <v>4.6</v>
-      </c>
       <c r="O36" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P36" t="n">
-        <v>2.46</v>
+        <v>2.68</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="R36" t="n">
         <v>1.59</v>
       </c>
       <c r="S36" t="n">
-        <v>2.34</v>
+        <v>2.02</v>
       </c>
       <c r="T36" t="n">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="U36" t="n">
-        <v>2.52</v>
+        <v>2.16</v>
       </c>
       <c r="V36" t="n">
-        <v>1.69</v>
+        <v>1.38</v>
       </c>
       <c r="W36" t="n">
-        <v>1.46</v>
+        <v>1.77</v>
       </c>
       <c r="X36" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="Y36" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Z36" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AA36" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AB36" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AC36" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AE36" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AF36" t="n">
         <v>26</v>
       </c>
       <c r="AG36" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AH36" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AI36" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AJ36" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AK36" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AL36" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AM36" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN36" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="AO36" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
@@ -5503,7 +5503,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5518,112 +5518,112 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
       <c r="G38" t="n">
-        <v>2.32</v>
+        <v>3.4</v>
       </c>
       <c r="H38" t="n">
-        <v>3.85</v>
+        <v>2.52</v>
       </c>
       <c r="I38" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="J38" t="n">
-        <v>3.1</v>
+        <v>2.78</v>
       </c>
       <c r="K38" t="n">
-        <v>3.35</v>
+        <v>5.2</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N38" t="n">
         <v>1.54</v>
       </c>
       <c r="O38" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="P38" t="n">
         <v>1.54</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.58</v>
+        <v>2.12</v>
       </c>
       <c r="R38" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>2.12</v>
       </c>
       <c r="T38" t="n">
         <v>1.01</v>
       </c>
       <c r="U38" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="V38" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="W38" t="n">
-        <v>1.75</v>
+        <v>1.41</v>
       </c>
       <c r="X38" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Y38" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z38" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA38" t="n">
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC38" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD38" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE38" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG38" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH38" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI38" t="n">
         <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM38" t="n">
         <v>1000</v>
@@ -5662,46 +5662,46 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.02</v>
+        <v>2.3</v>
       </c>
       <c r="G39" t="n">
-        <v>1000</v>
+        <v>2.92</v>
       </c>
       <c r="H39" t="n">
-        <v>1.02</v>
+        <v>3.2</v>
       </c>
       <c r="I39" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>1.02</v>
+        <v>2.42</v>
       </c>
       <c r="K39" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M39" t="n">
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>1.24</v>
+        <v>1.62</v>
       </c>
       <c r="O39" t="n">
         <v>1.01</v>
       </c>
       <c r="P39" t="n">
-        <v>1.24</v>
+        <v>1.62</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.02</v>
+        <v>2.12</v>
       </c>
       <c r="R39" t="n">
         <v>1.18</v>
       </c>
       <c r="S39" t="n">
-        <v>1.02</v>
+        <v>2.12</v>
       </c>
       <c r="T39" t="n">
         <v>1.01</v>
@@ -5710,10 +5710,10 @@
         <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="W39" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,121 +5788,121 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="G40" t="n">
-        <v>3.45</v>
+        <v>2.32</v>
       </c>
       <c r="H40" t="n">
-        <v>2.52</v>
+        <v>3.85</v>
       </c>
       <c r="I40" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="J40" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="K40" t="n">
-        <v>5.2</v>
+        <v>3.35</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N40" t="n">
-        <v>1.54</v>
+        <v>2.62</v>
       </c>
       <c r="O40" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="P40" t="n">
         <v>1.54</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.12</v>
+        <v>2.58</v>
       </c>
       <c r="R40" t="n">
         <v>1.18</v>
       </c>
       <c r="S40" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T40" t="n">
         <v>2.12</v>
       </c>
-      <c r="T40" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="V40" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="W40" t="n">
-        <v>1.41</v>
+        <v>1.75</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM40" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41">
@@ -5950,7 +5950,7 @@
         <v>3.3</v>
       </c>
       <c r="L41" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M41" t="n">
         <v>1.1</v>
@@ -5965,7 +5965,7 @@
         <v>1.69</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R41" t="n">
         <v>1.25</v>
@@ -6079,7 +6079,7 @@
         <v>3.95</v>
       </c>
       <c r="J42" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K42" t="n">
         <v>3.25</v>
@@ -6100,7 +6100,7 @@
         <v>1.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R42" t="n">
         <v>1.28</v>
@@ -6109,10 +6109,10 @@
         <v>3.85</v>
       </c>
       <c r="T42" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U42" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V42" t="n">
         <v>1.34</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G43" t="n">
         <v>1.2</v>
       </c>
       <c r="H43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I43" t="n">
         <v>23</v>
@@ -6238,7 +6238,7 @@
         <v>1.58</v>
       </c>
       <c r="R43" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S43" t="n">
         <v>2.48</v>
@@ -6268,16 +6268,16 @@
         <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC43" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AD43" t="n">
         <v>80</v>
       </c>
       <c r="AE43" t="n">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="AF43" t="n">
         <v>7.2</v>
@@ -6289,7 +6289,7 @@
         <v>55</v>
       </c>
       <c r="AI43" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AJ43" t="n">
         <v>7.8</v>
@@ -6304,7 +6304,7 @@
         <v>410</v>
       </c>
       <c r="AN43" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AO43" t="n">
         <v>1000</v>
@@ -6337,10 +6337,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G44" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H44" t="n">
         <v>3.75</v>
@@ -6349,10 +6349,10 @@
         <v>4.7</v>
       </c>
       <c r="J44" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K44" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
@@ -6376,7 +6376,7 @@
         <v>1.24</v>
       </c>
       <c r="S44" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T44" t="n">
         <v>1.01</v>
@@ -6388,7 +6388,7 @@
         <v>1.29</v>
       </c>
       <c r="W44" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X44" t="n">
         <v>17.5</v>
@@ -6472,112 +6472,112 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.58</v>
+        <v>2.94</v>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H45" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="I45" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>5</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S45" t="n">
         <v>3.15</v>
       </c>
-      <c r="J45" t="n">
-        <v>3</v>
-      </c>
-      <c r="K45" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.78</v>
-      </c>
       <c r="T45" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="U45" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V45" t="n">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="W45" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="X45" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y45" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z45" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA45" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB45" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC45" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD45" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF45" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG45" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH45" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI45" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK45" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL45" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM45" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN45" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO45" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46">
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G46" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H46" t="n">
-        <v>1.09</v>
+        <v>7.8</v>
       </c>
       <c r="I46" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="J46" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="K46" t="n">
-        <v>950</v>
+        <v>12.5</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
@@ -6631,16 +6631,16 @@
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="O46" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="P46" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="R46" t="n">
         <v>1.66</v>
@@ -6655,10 +6655,10 @@
         <v>1.01</v>
       </c>
       <c r="V46" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W46" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="G47" t="n">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="H47" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I47" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="J47" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="K47" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
@@ -6766,22 +6766,22 @@
         <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="O47" t="n">
         <v>1.01</v>
       </c>
       <c r="P47" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="R47" t="n">
         <v>1.18</v>
       </c>
       <c r="S47" t="n">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="T47" t="n">
         <v>1.01</v>
@@ -6790,10 +6790,10 @@
         <v>1.01</v>
       </c>
       <c r="V47" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W47" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="X47" t="n">
         <v>1000</v>
@@ -7012,40 +7012,40 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="G49" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H49" t="n">
         <v>4.5</v>
       </c>
       <c r="I49" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="J49" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K49" t="n">
         <v>3.5</v>
       </c>
       <c r="L49" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M49" t="n">
         <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>1.67</v>
+        <v>2.92</v>
       </c>
       <c r="O49" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="P49" t="n">
         <v>1.67</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="R49" t="n">
         <v>1.2</v>
@@ -7060,55 +7060,55 @@
         <v>1.01</v>
       </c>
       <c r="V49" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="W49" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="X49" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z49" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA49" t="n">
         <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD49" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE49" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF49" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG49" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI49" t="n">
         <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK49" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL49" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM49" t="n">
         <v>1000</v>
@@ -7123,7 +7123,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7133,36 +7133,36 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Deportivo Recoleta</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -7177,10 +7177,10 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -7268,125 +7268,395 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="G51" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="H51" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="I51" t="n">
         <v>4.2</v>
       </c>
       <c r="J51" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K51" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J52" t="n">
         <v>2.9</v>
       </c>
-      <c r="K51" t="n">
-        <v>3</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" t="n">
-        <v>0</v>
-      </c>
-      <c r="S51" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" t="n">
-        <v>0</v>
-      </c>
-      <c r="U51" t="n">
-        <v>0</v>
-      </c>
-      <c r="V51" t="n">
-        <v>0</v>
-      </c>
-      <c r="W51" t="n">
-        <v>0</v>
-      </c>
-      <c r="X51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO51" t="n">
+      <c r="K52" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>20:15:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Club 2 de Mayo de Pedro Juan Cab</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Sportivo Luquen</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO53" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO53"/>
+  <dimension ref="A1:AO54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G2" t="n">
         <v>1.74</v>
@@ -676,7 +676,7 @@
         <v>4.7</v>
       </c>
       <c r="I2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J2" t="n">
         <v>4.7</v>
@@ -691,7 +691,7 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O2" t="n">
         <v>1.12</v>
@@ -706,13 +706,13 @@
         <v>1.97</v>
       </c>
       <c r="S2" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="T2" t="n">
         <v>1.48</v>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="V2" t="n">
         <v>1.26</v>
@@ -724,7 +724,7 @@
         <v>34</v>
       </c>
       <c r="Y2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="n">
         <v>50</v>
@@ -736,7 +736,7 @@
         <v>18.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD2" t="n">
         <v>20</v>
@@ -805,49 +805,49 @@
         <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I3" t="n">
         <v>2.66</v>
       </c>
       <c r="J3" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>1.05</v>
       </c>
       <c r="P3" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="R3" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V3" t="n">
         <v>1.6</v>
@@ -865,7 +865,7 @@
         <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
@@ -877,16 +877,16 @@
         <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AF3" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AG3" t="n">
         <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
         <v>55</v>
@@ -895,7 +895,7 @@
         <v>75</v>
       </c>
       <c r="AK3" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
         <v>65</v>
@@ -904,10 +904,10 @@
         <v>130</v>
       </c>
       <c r="AN3" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AO3" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4">
@@ -1015,13 +1015,13 @@
         <v>65</v>
       </c>
       <c r="AF4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AI4" t="n">
         <v>120</v>
@@ -1084,7 +1084,7 @@
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K5" t="n">
         <v>970</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G6" t="n">
         <v>970</v>
@@ -1219,7 +1219,7 @@
         <v>970</v>
       </c>
       <c r="J6" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="K6" t="n">
         <v>970</v>
@@ -1489,7 +1489,7 @@
         <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K8" t="n">
         <v>970</v>
@@ -1618,7 +1618,7 @@
         <v>1.33</v>
       </c>
       <c r="H9" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="I9" t="n">
         <v>18.5</v>
@@ -1681,7 +1681,7 @@
         <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
         <v>60</v>
@@ -1705,7 +1705,7 @@
         <v>11.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
         <v>60</v>
@@ -1750,19 +1750,19 @@
         <v>2.7</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="H10" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="I10" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1795,10 +1795,10 @@
         <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W10" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -2020,7 +2020,7 @@
         <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
@@ -2068,7 +2068,7 @@
         <v>1.38</v>
       </c>
       <c r="W12" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X12" t="n">
         <v>22</v>
@@ -2317,10 +2317,10 @@
         <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>3.25</v>
       </c>
       <c r="J16" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K16" t="n">
         <v>4.4</v>
@@ -2698,7 +2698,7 @@
         <v>1.75</v>
       </c>
       <c r="H17" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
         <v>8.4</v>
@@ -2833,10 +2833,10 @@
         <v>2.58</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I18" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="J18" t="n">
         <v>2.98</v>
@@ -2851,22 +2851,22 @@
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>2.78</v>
+        <v>1.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.47</v>
+        <v>1.09</v>
       </c>
       <c r="P18" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="R18" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="T18" t="n">
         <v>1.82</v>
@@ -2875,7 +2875,7 @@
         <v>1.72</v>
       </c>
       <c r="V18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W18" t="n">
         <v>1.63</v>
@@ -2983,91 +2983,91 @@
         <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>1.61</v>
+        <v>2.78</v>
       </c>
       <c r="O19" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="P19" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q19" t="n">
         <v>2.34</v>
       </c>
       <c r="R19" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="U19" t="n">
-        <v>1.66</v>
+        <v>1.87</v>
       </c>
       <c r="V19" t="n">
         <v>1.42</v>
       </c>
       <c r="W19" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -3103,7 +3103,7 @@
         <v>4.5</v>
       </c>
       <c r="H20" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="I20" t="n">
         <v>2.56</v>
@@ -3130,7 +3130,7 @@
         <v>1.74</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R20" t="n">
         <v>1.23</v>
@@ -3256,13 +3256,13 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="O21" t="n">
         <v>1.01</v>
       </c>
       <c r="P21" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="Q21" t="n">
         <v>2.04</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="G22" t="n">
         <v>2.86</v>
@@ -3376,7 +3376,7 @@
         <v>2.9</v>
       </c>
       <c r="I22" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="J22" t="n">
         <v>3.05</v>
@@ -3535,7 +3535,7 @@
         <v>1.85</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R23" t="n">
         <v>1.27</v>
@@ -3550,10 +3550,10 @@
         <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="W23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="G25" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="H25" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="I25" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K25" t="n">
-        <v>3.75</v>
+        <v>980</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3802,10 +3802,10 @@
         <v>1.42</v>
       </c>
       <c r="P25" t="n">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.24</v>
+        <v>1.42</v>
       </c>
       <c r="R25" t="n">
         <v>1.2</v>
@@ -3823,7 +3823,7 @@
         <v>1.22</v>
       </c>
       <c r="W25" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3916,7 +3916,7 @@
         <v>2.52</v>
       </c>
       <c r="I26" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="J26" t="n">
         <v>3.05</v>
@@ -3931,16 +3931,16 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="O26" t="n">
         <v>1.41</v>
       </c>
       <c r="P26" t="n">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.26</v>
+        <v>1.41</v>
       </c>
       <c r="R26" t="n">
         <v>1.19</v>
@@ -3955,7 +3955,7 @@
         <v>1.01</v>
       </c>
       <c r="V26" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W26" t="n">
         <v>1.37</v>
@@ -4066,7 +4066,7 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>2.76</v>
+        <v>1.72</v>
       </c>
       <c r="O27" t="n">
         <v>1.46</v>
@@ -4078,10 +4078,10 @@
         <v>2.34</v>
       </c>
       <c r="R27" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T27" t="n">
         <v>1.68</v>
@@ -4180,7 +4180,7 @@
         <v>2.2</v>
       </c>
       <c r="G28" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H28" t="n">
         <v>3.4</v>
@@ -4213,7 +4213,7 @@
         <v>2.06</v>
       </c>
       <c r="R28" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S28" t="n">
         <v>3.7</v>
@@ -4315,7 +4315,7 @@
         <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="H29" t="n">
         <v>1.35</v>
@@ -4342,7 +4342,7 @@
         <v>1.19</v>
       </c>
       <c r="P29" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="Q29" t="n">
         <v>1.56</v>
@@ -4354,7 +4354,7 @@
         <v>2.42</v>
       </c>
       <c r="T29" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U29" t="n">
         <v>1.96</v>
@@ -4366,13 +4366,13 @@
         <v>1.1</v>
       </c>
       <c r="X29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y29" t="n">
         <v>11</v>
       </c>
       <c r="Z29" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AA29" t="n">
         <v>11.5</v>
@@ -4381,43 +4381,43 @@
         <v>38</v>
       </c>
       <c r="AC29" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AG29" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AH29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI29" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ29" t="n">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="AK29" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AL29" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AM29" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN29" t="n">
         <v>150</v>
       </c>
-      <c r="AN29" t="n">
-        <v>190</v>
-      </c>
       <c r="AO29" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.26</v>
+        <v>1.64</v>
       </c>
       <c r="G30" t="n">
-        <v>2.66</v>
+        <v>1.8</v>
       </c>
       <c r="H30" t="n">
-        <v>2.74</v>
+        <v>4.6</v>
       </c>
       <c r="I30" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="J30" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K30" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N30" t="n">
         <v>5.2</v>
       </c>
-      <c r="L30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N30" t="n">
-        <v>1.01</v>
-      </c>
       <c r="O30" t="n">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="P30" t="n">
-        <v>3.1</v>
+        <v>2.44</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="R30" t="n">
-        <v>1.87</v>
+        <v>1.58</v>
       </c>
       <c r="S30" t="n">
-        <v>1.39</v>
+        <v>2.38</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="V30" t="n">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="W30" t="n">
-        <v>1.6</v>
+        <v>2.24</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31">
@@ -4627,7 +4627,7 @@
         <v>1.47</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="V31" t="n">
         <v>2.16</v>
@@ -4708,31 +4708,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>3.15</v>
       </c>
       <c r="H32" t="n">
-        <v>4.6</v>
+        <v>2.24</v>
       </c>
       <c r="I32" t="n">
-        <v>6.2</v>
+        <v>2.46</v>
       </c>
       <c r="J32" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="K32" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4741,34 +4741,34 @@
         <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="O32" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P32" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="R32" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S32" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="T32" t="n">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="U32" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="V32" t="n">
-        <v>1.21</v>
+        <v>1.69</v>
       </c>
       <c r="W32" t="n">
-        <v>2.24</v>
+        <v>1.46</v>
       </c>
       <c r="X32" t="n">
         <v>970</v>
@@ -4777,52 +4777,52 @@
         <v>970</v>
       </c>
       <c r="Z32" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AA32" t="n">
-        <v>130</v>
+        <v>970</v>
       </c>
       <c r="AB32" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AC32" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AD32" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AE32" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="AF32" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AG32" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH32" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI32" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AJ32" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="AK32" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AL32" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AM32" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AN32" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AO32" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.9</v>
+        <v>2.26</v>
       </c>
       <c r="G33" t="n">
-        <v>3.15</v>
+        <v>2.66</v>
       </c>
       <c r="H33" t="n">
-        <v>2.24</v>
+        <v>2.74</v>
       </c>
       <c r="I33" t="n">
-        <v>2.46</v>
+        <v>3.3</v>
       </c>
       <c r="J33" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K33" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="O33" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="P33" t="n">
-        <v>2.46</v>
+        <v>3.1</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="R33" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W33" t="n">
         <v>1.6</v>
       </c>
-      <c r="S33" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U33" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.46</v>
-      </c>
       <c r="X33" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD33" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH33" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI33" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -5020,7 +5020,7 @@
         <v>2.56</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="R34" t="n">
         <v>1.63</v>
@@ -5125,13 +5125,13 @@
         <v>1.87</v>
       </c>
       <c r="G35" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
         <v>3.85</v>
       </c>
       <c r="I35" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="J35" t="n">
         <v>4</v>
@@ -5146,13 +5146,13 @@
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="O35" t="n">
         <v>1.14</v>
       </c>
       <c r="P35" t="n">
-        <v>2.7</v>
+        <v>1.62</v>
       </c>
       <c r="Q35" t="n">
         <v>1.47</v>
@@ -5164,7 +5164,7 @@
         <v>2.02</v>
       </c>
       <c r="T35" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="U35" t="n">
         <v>1.01</v>
@@ -5173,7 +5173,7 @@
         <v>1.32</v>
       </c>
       <c r="W35" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="X35" t="n">
         <v>1000</v>
@@ -5191,7 +5191,7 @@
         <v>22</v>
       </c>
       <c r="AC35" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD35" t="n">
         <v>25</v>
@@ -5395,7 +5395,7 @@
         <v>1.64</v>
       </c>
       <c r="G37" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H37" t="n">
         <v>5.1</v>
@@ -5404,7 +5404,7 @@
         <v>6.6</v>
       </c>
       <c r="J37" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K37" t="n">
         <v>5.2</v>
@@ -5416,7 +5416,7 @@
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="O37" t="n">
         <v>1.25</v>
@@ -5434,22 +5434,22 @@
         <v>2.6</v>
       </c>
       <c r="T37" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="U37" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V37" t="n">
         <v>1.17</v>
       </c>
       <c r="W37" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="X37" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="Y37" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="Z37" t="n">
         <v>1000</v>
@@ -5458,34 +5458,34 @@
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AC37" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AD37" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AE37" t="n">
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AG37" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AH37" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AI37" t="n">
         <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AK37" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AL37" t="n">
         <v>1000</v>
@@ -5494,7 +5494,7 @@
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5662,46 +5662,46 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="G39" t="n">
-        <v>2.92</v>
+        <v>3.65</v>
       </c>
       <c r="H39" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="J39" t="n">
         <v>2.42</v>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="L39" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="M39" t="n">
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="O39" t="n">
         <v>1.01</v>
       </c>
       <c r="P39" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="R39" t="n">
         <v>1.18</v>
       </c>
       <c r="S39" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="T39" t="n">
         <v>1.01</v>
@@ -5710,10 +5710,10 @@
         <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="W39" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G40" t="n">
         <v>2.32</v>
@@ -5857,7 +5857,7 @@
         <v>11.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AA40" t="n">
         <v>130</v>
@@ -5869,10 +5869,10 @@
         <v>7.8</v>
       </c>
       <c r="AD40" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AE40" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF40" t="n">
         <v>13.5</v>
@@ -5881,16 +5881,16 @@
         <v>12.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AI40" t="n">
         <v>120</v>
       </c>
       <c r="AJ40" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AK40" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AL40" t="n">
         <v>65</v>
@@ -5899,7 +5899,7 @@
         <v>240</v>
       </c>
       <c r="AN40" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AO40" t="n">
         <v>130</v>
@@ -5944,13 +5944,13 @@
         <v>3.15</v>
       </c>
       <c r="J41" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K41" t="n">
         <v>3.3</v>
       </c>
       <c r="L41" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M41" t="n">
         <v>1.1</v>
@@ -5968,7 +5968,7 @@
         <v>2.36</v>
       </c>
       <c r="R41" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S41" t="n">
         <v>4.6</v>
@@ -6073,7 +6073,7 @@
         <v>2.44</v>
       </c>
       <c r="H42" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I42" t="n">
         <v>3.95</v>
@@ -6082,7 +6082,7 @@
         <v>3.2</v>
       </c>
       <c r="K42" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
@@ -6157,13 +6157,13 @@
         <v>75</v>
       </c>
       <c r="AJ42" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AK42" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AL42" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AM42" t="n">
         <v>140</v>
@@ -6208,10 +6208,10 @@
         <v>1.2</v>
       </c>
       <c r="H43" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I43" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J43" t="n">
         <v>8.4</v>
@@ -6220,7 +6220,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="L43" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -6235,13 +6235,13 @@
         <v>2.62</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R43" t="n">
         <v>1.63</v>
       </c>
       <c r="S43" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="T43" t="n">
         <v>2.62</v>
@@ -6256,7 +6256,7 @@
         <v>6</v>
       </c>
       <c r="X43" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y43" t="n">
         <v>60</v>
@@ -6271,7 +6271,7 @@
         <v>9.4</v>
       </c>
       <c r="AC43" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AD43" t="n">
         <v>80</v>
@@ -6280,7 +6280,7 @@
         <v>600</v>
       </c>
       <c r="AF43" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AG43" t="n">
         <v>13</v>
@@ -6340,19 +6340,19 @@
         <v>2.06</v>
       </c>
       <c r="G44" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H44" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I44" t="n">
         <v>4.7</v>
       </c>
       <c r="J44" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K44" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
@@ -6361,16 +6361,16 @@
         <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="O44" t="n">
         <v>1.01</v>
       </c>
       <c r="P44" t="n">
-        <v>1.79</v>
+        <v>1.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.06</v>
+        <v>1.36</v>
       </c>
       <c r="R44" t="n">
         <v>1.24</v>
@@ -6379,25 +6379,25 @@
         <v>3.2</v>
       </c>
       <c r="T44" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="U44" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="V44" t="n">
         <v>1.29</v>
       </c>
       <c r="W44" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X44" t="n">
         <v>17.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="Z44" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AA44" t="n">
         <v>1000</v>
@@ -6409,28 +6409,28 @@
         <v>11</v>
       </c>
       <c r="AD44" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AE44" t="n">
         <v>70</v>
       </c>
       <c r="AF44" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AG44" t="n">
         <v>15</v>
       </c>
       <c r="AH44" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AI44" t="n">
         <v>90</v>
       </c>
       <c r="AJ44" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AK44" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AL44" t="n">
         <v>55</v>
@@ -6487,7 +6487,7 @@
         <v>3.1</v>
       </c>
       <c r="K45" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6514,10 +6514,10 @@
         <v>3.15</v>
       </c>
       <c r="T45" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="U45" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="V45" t="n">
         <v>1.61</v>
@@ -6526,46 +6526,46 @@
         <v>1.38</v>
       </c>
       <c r="X45" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Y45" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Z45" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AA45" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AB45" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AC45" t="n">
         <v>9.4</v>
       </c>
       <c r="AD45" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AE45" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AF45" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AG45" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AH45" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AI45" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AJ45" t="n">
         <v>65</v>
       </c>
       <c r="AK45" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AL45" t="n">
         <v>55</v>
@@ -6574,10 +6574,10 @@
         <v>100</v>
       </c>
       <c r="AN45" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AO45" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
     </row>
     <row r="46">
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="G46" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="H46" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="I46" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="J46" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="K46" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
@@ -6631,7 +6631,7 @@
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O46" t="n">
         <v>1.12</v>
@@ -6640,7 +6640,7 @@
         <v>2.8</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="R46" t="n">
         <v>1.66</v>
@@ -6655,10 +6655,10 @@
         <v>1.01</v>
       </c>
       <c r="V46" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="W46" t="n">
-        <v>3.2</v>
+        <v>2.86</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="G47" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="H47" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J47" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="K47" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
@@ -6766,22 +6766,22 @@
         <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="O47" t="n">
         <v>1.01</v>
       </c>
       <c r="P47" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="R47" t="n">
         <v>1.18</v>
       </c>
       <c r="S47" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="T47" t="n">
         <v>1.01</v>
@@ -6790,10 +6790,10 @@
         <v>1.01</v>
       </c>
       <c r="V47" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="W47" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="X47" t="n">
         <v>1000</v>
@@ -6919,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U48" t="n">
         <v>2.14</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="G49" t="n">
         <v>2.06</v>
@@ -7288,7 +7288,7 @@
         <v>2.66</v>
       </c>
       <c r="H51" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I51" t="n">
         <v>4.2</v>
@@ -7297,7 +7297,7 @@
         <v>2.8</v>
       </c>
       <c r="K51" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="G52" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H52" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I52" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J52" t="n">
         <v>2.9</v>
       </c>
       <c r="K52" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -7658,6 +7658,141 @@
       </c>
       <c r="AO53" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>20:20:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Cucuta Deportivo</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K54" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO54"/>
+  <dimension ref="A1:AO55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,7 +706,7 @@
         <v>1.97</v>
       </c>
       <c r="S2" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="T2" t="n">
         <v>1.48</v>
@@ -724,7 +724,7 @@
         <v>34</v>
       </c>
       <c r="Y2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z2" t="n">
         <v>50</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="G3" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="H3" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="I3" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -844,16 +844,16 @@
         <v>3.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
@@ -976,7 +976,7 @@
         <v>1.13</v>
       </c>
       <c r="S4" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
         <v>2.32</v>
@@ -1058,36 +1058,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>ES Mostaganem</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Paradou</t>
+          <t>Olympique Akbou</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>2.44</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>2.68</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>2.46</v>
       </c>
       <c r="K5" t="n">
-        <v>970</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="R5" t="n">
         <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1120,10 +1120,10 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1198,31 +1198,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Paradou</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.09</v>
+        <v>1.74</v>
       </c>
       <c r="G6" t="n">
-        <v>970</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>1.09</v>
+        <v>2.74</v>
       </c>
       <c r="K6" t="n">
-        <v>970</v>
+        <v>5.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,22 +1231,22 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="R6" t="n">
         <v>1.12</v>
       </c>
       <c r="S6" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1255,10 +1255,10 @@
         <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucuresti</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6.2</v>
+        <v>1.09</v>
       </c>
       <c r="G7" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="H7" t="n">
-        <v>1.66</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>1.77</v>
+        <v>970</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>1.09</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>970</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.64</v>
+        <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>FC Metaloglobus Bucuresti</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>6.2</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>1.77</v>
       </c>
       <c r="J8" t="n">
-        <v>1.03</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>970</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>1.64</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="R8" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,118 +1603,118 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>APOEL</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N9" t="n">
         <v>1.25</v>
       </c>
-      <c r="G9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="H9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4.5</v>
-      </c>
       <c r="O9" t="n">
-        <v>1.21</v>
+        <v>1.59</v>
       </c>
       <c r="P9" t="n">
-        <v>2.24</v>
+        <v>1.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.64</v>
+        <v>2.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.12</v>
       </c>
       <c r="S9" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="T9" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="W9" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="X9" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
         <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
         <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,31 +1738,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Villefranche Beaujolais</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.7</v>
+        <v>1.25</v>
       </c>
       <c r="G10" t="n">
-        <v>2.94</v>
+        <v>1.33</v>
       </c>
       <c r="H10" t="n">
-        <v>2.82</v>
+        <v>10.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>18.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.45</v>
+        <v>8.4</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,85 +1771,85 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.72</v>
+        <v>4.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>1.71</v>
+        <v>2.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.06</v>
+        <v>1.64</v>
       </c>
       <c r="R10" t="n">
-        <v>1.21</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
-        <v>3.4</v>
+        <v>2.64</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="V10" t="n">
-        <v>1.48</v>
+        <v>1.06</v>
       </c>
       <c r="W10" t="n">
-        <v>1.52</v>
+        <v>4</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.58</v>
+        <v>2.7</v>
       </c>
       <c r="G11" t="n">
-        <v>1.6</v>
+        <v>2.94</v>
       </c>
       <c r="H11" t="n">
-        <v>6.6</v>
+        <v>2.82</v>
       </c>
       <c r="I11" t="n">
-        <v>7.2</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>4.8</v>
+        <v>1.72</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>2.28</v>
+        <v>1.71</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.65</v>
+        <v>2.16</v>
       </c>
       <c r="R11" t="n">
-        <v>1.51</v>
+        <v>1.21</v>
       </c>
       <c r="S11" t="n">
-        <v>2.64</v>
+        <v>3.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>1.16</v>
+        <v>1.48</v>
       </c>
       <c r="W11" t="n">
-        <v>2.66</v>
+        <v>1.52</v>
       </c>
       <c r="X11" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,126 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>1.58</v>
       </c>
       <c r="G12" t="n">
-        <v>2.32</v>
+        <v>1.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>6.6</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>4.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="R12" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="S12" t="n">
-        <v>2.88</v>
+        <v>2.64</v>
       </c>
       <c r="T12" t="n">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="U12" t="n">
-        <v>2.34</v>
+        <v>2.08</v>
       </c>
       <c r="V12" t="n">
-        <v>1.38</v>
+        <v>1.16</v>
       </c>
       <c r="W12" t="n">
-        <v>1.75</v>
+        <v>2.66</v>
       </c>
       <c r="X12" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH12" t="n">
         <v>22</v>
       </c>
-      <c r="Y12" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD12" t="n">
+      <c r="AI12" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>15</v>
       </c>
-      <c r="AE12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>970</v>
-      </c>
       <c r="AK12" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AM12" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>7.2</v>
       </c>
       <c r="AO12" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -2143,118 +2143,118 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SV Darmstadt</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.98</v>
+        <v>2.18</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="R13" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="S13" t="n">
-        <v>2.66</v>
+        <v>2.88</v>
       </c>
       <c r="T13" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U13" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="V13" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="X13" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="Z13" t="n">
         <v>970</v>
       </c>
       <c r="AA13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM13" t="n">
         <v>75</v>
       </c>
-      <c r="AB13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>970</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>970</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>70</v>
-      </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO13" t="n">
         <v>970</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>SV Darmstadt</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5.1</v>
+        <v>1.98</v>
       </c>
       <c r="G14" t="n">
-        <v>5.8</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>1.82</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>1.94</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="K14" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>2.92</v>
+        <v>4.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.08</v>
+        <v>1.66</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Academico de Viseu</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="G15" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="H15" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="I15" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P15" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R15" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,118 +2548,118 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Viktoria Koln</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Saarbrucken</t>
+          <t>Academico de Viseu</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.58</v>
+        <v>4.9</v>
       </c>
       <c r="G16" t="n">
-        <v>2.98</v>
+        <v>6.2</v>
       </c>
       <c r="H16" t="n">
-        <v>2.62</v>
+        <v>1.77</v>
       </c>
       <c r="I16" t="n">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="J16" t="n">
-        <v>2.82</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2.1</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.65</v>
-      </c>
       <c r="R16" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="S16" t="n">
-        <v>2.54</v>
+        <v>3.7</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V16" t="n">
-        <v>1.49</v>
+        <v>2.04</v>
       </c>
       <c r="W16" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Z16" t="n">
         <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB16" t="n">
         <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ16" t="n">
         <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,36 +2678,36 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Viktoria Koln</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Saarbrucken</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.61</v>
+        <v>2.58</v>
       </c>
       <c r="G17" t="n">
-        <v>1.75</v>
+        <v>2.98</v>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>2.62</v>
       </c>
       <c r="I17" t="n">
-        <v>8.4</v>
+        <v>3.25</v>
       </c>
       <c r="J17" t="n">
-        <v>3.65</v>
+        <v>2.82</v>
       </c>
       <c r="K17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2716,22 +2716,22 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>1.77</v>
+        <v>2.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="P17" t="n">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.06</v>
+        <v>1.65</v>
       </c>
       <c r="R17" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="S17" t="n">
-        <v>3.2</v>
+        <v>2.54</v>
       </c>
       <c r="T17" t="n">
         <v>1.01</v>
@@ -2740,10 +2740,10 @@
         <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.13</v>
+        <v>1.49</v>
       </c>
       <c r="W17" t="n">
-        <v>2.32</v>
+        <v>1.5</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Bourg-en-Bresse</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.26</v>
+        <v>1.61</v>
       </c>
       <c r="G18" t="n">
-        <v>2.58</v>
+        <v>1.75</v>
       </c>
       <c r="H18" t="n">
-        <v>3.15</v>
+        <v>6</v>
       </c>
       <c r="I18" t="n">
-        <v>4.4</v>
+        <v>8.4</v>
       </c>
       <c r="J18" t="n">
-        <v>2.98</v>
+        <v>3.65</v>
       </c>
       <c r="K18" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="O18" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.48</v>
+        <v>1.76</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="R18" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S18" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.82</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="W18" t="n">
-        <v>1.63</v>
+        <v>2.32</v>
       </c>
       <c r="X18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Paris 13 Atletico</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>2.58</v>
       </c>
       <c r="H19" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="I19" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="J19" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="K19" t="n">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>2.78</v>
+        <v>1.01</v>
       </c>
       <c r="O19" t="n">
-        <v>1.45</v>
+        <v>1.07</v>
       </c>
       <c r="P19" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="R19" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="T19" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="U19" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="V19" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="X19" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Y19" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Z19" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AA19" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AE19" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AG19" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AI19" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AJ19" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AK19" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AL19" t="n">
         <v>70</v>
       </c>
       <c r="AM19" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AO19" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="F20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K20" t="n">
         <v>3.45</v>
       </c>
-      <c r="G20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L20" t="n">
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>1.01</v>
+        <v>2.78</v>
       </c>
       <c r="O20" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="P20" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.08</v>
+        <v>2.34</v>
       </c>
       <c r="R20" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S20" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V20" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="W20" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -3223,31 +3223,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Le Puy</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.04</v>
+        <v>3.15</v>
       </c>
       <c r="G21" t="n">
-        <v>2.62</v>
+        <v>4.1</v>
       </c>
       <c r="H21" t="n">
-        <v>3.35</v>
+        <v>2.18</v>
       </c>
       <c r="I21" t="n">
-        <v>4.6</v>
+        <v>2.42</v>
       </c>
       <c r="J21" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="K21" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3256,22 +3256,22 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="O21" t="n">
         <v>1.01</v>
       </c>
       <c r="P21" t="n">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T21" t="n">
         <v>1.01</v>
@@ -3280,10 +3280,10 @@
         <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="W21" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3358,31 +3358,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="G22" t="n">
-        <v>2.86</v>
+        <v>2.58</v>
       </c>
       <c r="H22" t="n">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="I22" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="J22" t="n">
         <v>3.05</v>
       </c>
       <c r="K22" t="n">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3391,19 +3391,19 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="O22" t="n">
         <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="R22" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S22" t="n">
         <v>3.4</v>
@@ -3415,10 +3415,10 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="W22" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,31 +3493,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="G23" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J23" t="n">
         <v>3.05</v>
       </c>
-      <c r="H23" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K23" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3526,22 +3526,22 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="O23" t="n">
         <v>1.01</v>
       </c>
       <c r="P23" t="n">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.86</v>
+        <v>2.22</v>
       </c>
       <c r="R23" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="S23" t="n">
-        <v>2.98</v>
+        <v>3.4</v>
       </c>
       <c r="T23" t="n">
         <v>1.01</v>
@@ -3550,10 +3550,10 @@
         <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="W23" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,36 +3623,36 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Etoile Carouge</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.97</v>
+        <v>2.52</v>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>2.74</v>
       </c>
       <c r="I24" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="K24" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,85 +3661,85 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="R24" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S24" t="n">
-        <v>1.92</v>
+        <v>2.98</v>
       </c>
       <c r="T24" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="W24" t="n">
-        <v>1.9</v>
+        <v>1.48</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3763,31 +3763,31 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.78</v>
+        <v>1.97</v>
       </c>
       <c r="G25" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K25" t="n">
-        <v>980</v>
+        <v>3.9</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,85 +3796,85 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="O25" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
         <v>1.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="R25" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>3.6</v>
+        <v>1.01</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V25" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="W25" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3898,31 +3898,31 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.96</v>
+        <v>1.91</v>
       </c>
       <c r="G26" t="n">
-        <v>3.65</v>
+        <v>2.16</v>
       </c>
       <c r="H26" t="n">
-        <v>2.52</v>
+        <v>4.2</v>
       </c>
       <c r="I26" t="n">
-        <v>2.84</v>
+        <v>5.8</v>
       </c>
       <c r="J26" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K26" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -3931,22 +3931,22 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="O26" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P26" t="n">
         <v>1.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="R26" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S26" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="T26" t="n">
         <v>1.01</v>
@@ -3955,10 +3955,10 @@
         <v>1.01</v>
       </c>
       <c r="V26" t="n">
-        <v>1.54</v>
+        <v>1.21</v>
       </c>
       <c r="W26" t="n">
-        <v>1.37</v>
+        <v>1.86</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4033,31 +4033,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="H27" t="n">
-        <v>2.9</v>
+        <v>2.56</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K27" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4066,79 +4066,79 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="O27" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="P27" t="n">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.34</v>
+        <v>1.43</v>
       </c>
       <c r="R27" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S27" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T27" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="U27" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W27" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="X27" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.2</v>
+        <v>2.78</v>
       </c>
       <c r="G28" t="n">
-        <v>2.36</v>
+        <v>2.92</v>
       </c>
       <c r="H28" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="I28" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K28" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="L28" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>3.5</v>
+        <v>1.71</v>
       </c>
       <c r="O28" t="n">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="P28" t="n">
-        <v>1.83</v>
+        <v>1.52</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="R28" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="T28" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="U28" t="n">
-        <v>2.06</v>
+        <v>1.64</v>
       </c>
       <c r="V28" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="W28" t="n">
-        <v>1.73</v>
+        <v>1.52</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z28" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AA28" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI28" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AJ28" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AK28" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AL28" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AM28" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
         <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>2.2</v>
       </c>
       <c r="G29" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB29" t="n">
         <v>11</v>
       </c>
-      <c r="H29" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="J29" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K29" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N29" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V29" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X29" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>38</v>
-      </c>
       <c r="AC29" t="n">
-        <v>13.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD29" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AF29" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AI29" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AJ29" t="n">
-        <v>360</v>
+        <v>980</v>
       </c>
       <c r="AK29" t="n">
-        <v>140</v>
+        <v>980</v>
       </c>
       <c r="AL29" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AM29" t="n">
-        <v>140</v>
+        <v>550</v>
       </c>
       <c r="AN29" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>4.7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.64</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>11</v>
       </c>
       <c r="H30" t="n">
-        <v>4.6</v>
+        <v>1.35</v>
       </c>
       <c r="I30" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N30" t="n">
         <v>5.7</v>
-      </c>
-      <c r="J30" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N30" t="n">
-        <v>5.2</v>
       </c>
       <c r="O30" t="n">
         <v>1.19</v>
       </c>
       <c r="P30" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="R30" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="S30" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="T30" t="n">
-        <v>1.61</v>
+        <v>1.94</v>
       </c>
       <c r="U30" t="n">
-        <v>2.28</v>
+        <v>1.97</v>
       </c>
       <c r="V30" t="n">
-        <v>1.21</v>
+        <v>3.7</v>
       </c>
       <c r="W30" t="n">
-        <v>2.24</v>
+        <v>1.1</v>
       </c>
       <c r="X30" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="Y30" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="Z30" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="AA30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>350</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM30" t="n">
         <v>130</v>
       </c>
-      <c r="AB30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>85</v>
-      </c>
       <c r="AN30" t="n">
-        <v>8.800000000000001</v>
+        <v>150</v>
       </c>
       <c r="AO30" t="n">
-        <v>55</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="31">
@@ -4573,31 +4573,31 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>2.24</v>
       </c>
       <c r="H31" t="n">
-        <v>1.7</v>
+        <v>2.94</v>
       </c>
       <c r="I31" t="n">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="J31" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4606,88 +4606,88 @@
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>2.58</v>
+        <v>3.35</v>
       </c>
       <c r="O31" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="P31" t="n">
-        <v>2.58</v>
+        <v>3.35</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="R31" t="n">
-        <v>1.54</v>
+        <v>1.87</v>
       </c>
       <c r="S31" t="n">
-        <v>2.06</v>
+        <v>1.37</v>
       </c>
       <c r="T31" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="U31" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>2.16</v>
+        <v>1.43</v>
       </c>
       <c r="W31" t="n">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="X31" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
         <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
         <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="G32" t="n">
-        <v>3.15</v>
+        <v>5</v>
       </c>
       <c r="H32" t="n">
-        <v>2.24</v>
+        <v>1.7</v>
       </c>
       <c r="I32" t="n">
-        <v>2.46</v>
+        <v>1.85</v>
       </c>
       <c r="J32" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="K32" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>4.6</v>
+        <v>2.58</v>
       </c>
       <c r="O32" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P32" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="R32" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="S32" t="n">
-        <v>2.34</v>
+        <v>2.06</v>
       </c>
       <c r="T32" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="U32" t="n">
-        <v>2.52</v>
+        <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>1.69</v>
+        <v>2.16</v>
       </c>
       <c r="W32" t="n">
-        <v>1.46</v>
+        <v>1.25</v>
       </c>
       <c r="X32" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="Y32" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AA32" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AB32" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AC32" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AD32" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AF32" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AG32" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AH32" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AI32" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AJ32" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AL32" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AM32" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AN32" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.26</v>
+        <v>1.66</v>
       </c>
       <c r="G33" t="n">
-        <v>2.66</v>
+        <v>1.8</v>
       </c>
       <c r="H33" t="n">
-        <v>2.74</v>
+        <v>4.6</v>
       </c>
       <c r="I33" t="n">
-        <v>3.3</v>
+        <v>5.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K33" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N33" t="n">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="O33" t="n">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="P33" t="n">
-        <v>3.1</v>
+        <v>2.44</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="R33" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="S33" t="n">
-        <v>1.39</v>
+        <v>2.4</v>
       </c>
       <c r="T33" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="V33" t="n">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="W33" t="n">
-        <v>1.6</v>
+        <v>2.24</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34">
@@ -4978,67 +4978,67 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.42</v>
+        <v>2.76</v>
       </c>
       <c r="G34" t="n">
-        <v>1.51</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>6.8</v>
+        <v>2.24</v>
       </c>
       <c r="I34" t="n">
-        <v>8.800000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="J34" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="K34" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N34" t="n">
-        <v>5.6</v>
+        <v>2.78</v>
       </c>
       <c r="O34" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P34" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="R34" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="S34" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T34" t="n">
-        <v>1.73</v>
+        <v>1.54</v>
       </c>
       <c r="U34" t="n">
-        <v>2.08</v>
+        <v>2.52</v>
       </c>
       <c r="V34" t="n">
-        <v>1.13</v>
+        <v>1.71</v>
       </c>
       <c r="W34" t="n">
-        <v>2.96</v>
+        <v>1.5</v>
       </c>
       <c r="X34" t="n">
         <v>970</v>
@@ -5047,10 +5047,10 @@
         <v>970</v>
       </c>
       <c r="Z34" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="AA34" t="n">
-        <v>240</v>
+        <v>970</v>
       </c>
       <c r="AB34" t="n">
         <v>970</v>
@@ -5062,37 +5062,37 @@
         <v>970</v>
       </c>
       <c r="AE34" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
       <c r="AF34" t="n">
         <v>970</v>
       </c>
       <c r="AG34" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AH34" t="n">
         <v>970</v>
       </c>
       <c r="AI34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM34" t="n">
         <v>80</v>
       </c>
-      <c r="AJ34" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>970</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>120</v>
-      </c>
       <c r="AN34" t="n">
-        <v>5.6</v>
+        <v>970</v>
       </c>
       <c r="AO34" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
     </row>
     <row r="35">
@@ -5113,31 +5113,31 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.87</v>
+        <v>1.42</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1.51</v>
       </c>
       <c r="H35" t="n">
-        <v>3.85</v>
+        <v>6.8</v>
       </c>
       <c r="I35" t="n">
-        <v>4.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="K35" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -5146,70 +5146,70 @@
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>1.01</v>
+        <v>5.6</v>
       </c>
       <c r="O35" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="P35" t="n">
-        <v>1.62</v>
+        <v>2.56</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="R35" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S35" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="T35" t="n">
-        <v>1.41</v>
+        <v>1.73</v>
       </c>
       <c r="U35" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V35" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="W35" t="n">
-        <v>2</v>
+        <v>2.96</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y35" t="n">
         <v>970</v>
       </c>
       <c r="Z35" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AA35" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="AB35" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AC35" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AD35" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AE35" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AF35" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AG35" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AH35" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI35" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="n">
         <v>970</v>
@@ -5221,13 +5221,13 @@
         <v>970</v>
       </c>
       <c r="AM35" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AN35" t="n">
-        <v>11</v>
+        <v>5.6</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36">
@@ -5248,31 +5248,31 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>2.04</v>
       </c>
       <c r="H36" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="I36" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="J36" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K36" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5281,70 +5281,70 @@
         <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="O36" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P36" t="n">
-        <v>2.68</v>
+        <v>1.62</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="R36" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="S36" t="n">
         <v>2.02</v>
       </c>
       <c r="T36" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="U36" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="V36" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="W36" t="n">
-        <v>1.77</v>
+        <v>1.97</v>
       </c>
       <c r="X36" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y36" t="n">
         <v>970</v>
       </c>
       <c r="Z36" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AA36" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AB36" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC36" t="n">
         <v>15.5</v>
       </c>
       <c r="AD36" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF36" t="n">
         <v>23</v>
       </c>
-      <c r="AE36" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>26</v>
-      </c>
       <c r="AG36" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH36" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI36" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ36" t="n">
         <v>970</v>
@@ -5356,10 +5356,10 @@
         <v>970</v>
       </c>
       <c r="AM36" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN36" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -5368,7 +5368,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,36 +5378,36 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FC Wil</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="H37" t="n">
-        <v>5.1</v>
+        <v>3.2</v>
       </c>
       <c r="I37" t="n">
-        <v>6.6</v>
+        <v>3.85</v>
       </c>
       <c r="J37" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="K37" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5416,34 +5416,34 @@
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>2.08</v>
+        <v>1.02</v>
       </c>
       <c r="O37" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="P37" t="n">
-        <v>2.08</v>
+        <v>2.68</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.73</v>
+        <v>1.47</v>
       </c>
       <c r="R37" t="n">
-        <v>1.34</v>
+        <v>1.59</v>
       </c>
       <c r="S37" t="n">
-        <v>2.6</v>
+        <v>2.02</v>
       </c>
       <c r="T37" t="n">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="U37" t="n">
-        <v>1.89</v>
+        <v>2.16</v>
       </c>
       <c r="V37" t="n">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
       <c r="W37" t="n">
-        <v>2.28</v>
+        <v>1.77</v>
       </c>
       <c r="X37" t="n">
         <v>970</v>
@@ -5452,34 +5452,34 @@
         <v>970</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB37" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AC37" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF37" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AG37" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AH37" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ37" t="n">
         <v>970</v>
@@ -5488,13 +5488,13 @@
         <v>970</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN37" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5503,7 +5503,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,36 +5513,36 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>FC Wil</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.44</v>
+        <v>1.64</v>
       </c>
       <c r="G38" t="n">
-        <v>3.4</v>
+        <v>1.78</v>
       </c>
       <c r="H38" t="n">
-        <v>2.52</v>
+        <v>5.2</v>
       </c>
       <c r="I38" t="n">
-        <v>3.65</v>
+        <v>6.6</v>
       </c>
       <c r="J38" t="n">
-        <v>2.78</v>
+        <v>3.45</v>
       </c>
       <c r="K38" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
@@ -5551,40 +5551,40 @@
         <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>1.54</v>
+        <v>2.08</v>
       </c>
       <c r="O38" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="P38" t="n">
-        <v>1.54</v>
+        <v>2.08</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.12</v>
+        <v>1.74</v>
       </c>
       <c r="R38" t="n">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="S38" t="n">
-        <v>2.12</v>
+        <v>2.6</v>
       </c>
       <c r="T38" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="U38" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V38" t="n">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="W38" t="n">
-        <v>1.41</v>
+        <v>2.28</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z38" t="n">
         <v>1000</v>
@@ -5593,34 +5593,34 @@
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC38" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE38" t="n">
         <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH38" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI38" t="n">
         <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL38" t="n">
         <v>1000</v>
@@ -5629,7 +5629,7 @@
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5653,55 +5653,55 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Lumezzane</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="G39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I39" t="n">
         <v>3.65</v>
       </c>
-      <c r="H39" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="I39" t="n">
-        <v>4.1</v>
-      </c>
       <c r="J39" t="n">
-        <v>2.42</v>
+        <v>2.78</v>
       </c>
       <c r="K39" t="n">
-        <v>3.65</v>
+        <v>5.2</v>
       </c>
       <c r="L39" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M39" t="n">
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>1.4</v>
+        <v>1.54</v>
       </c>
       <c r="O39" t="n">
         <v>1.01</v>
       </c>
       <c r="P39" t="n">
-        <v>1.4</v>
+        <v>1.54</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="R39" t="n">
         <v>1.18</v>
       </c>
       <c r="S39" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="T39" t="n">
         <v>1.01</v>
@@ -5710,10 +5710,10 @@
         <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="W39" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,127 +5788,127 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Lumezzane</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.22</v>
+        <v>2.6</v>
       </c>
       <c r="G40" t="n">
-        <v>2.32</v>
+        <v>3.6</v>
       </c>
       <c r="H40" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K40" t="n">
         <v>3.85</v>
       </c>
-      <c r="I40" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.35</v>
-      </c>
       <c r="L40" t="n">
         <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>2.62</v>
+        <v>1.42</v>
       </c>
       <c r="O40" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="P40" t="n">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.58</v>
+        <v>2.36</v>
       </c>
       <c r="R40" t="n">
         <v>1.18</v>
       </c>
       <c r="S40" t="n">
-        <v>5.5</v>
+        <v>2.36</v>
       </c>
       <c r="T40" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="U40" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W40" t="n">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="X40" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z40" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA40" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC40" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD40" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE40" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH40" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI40" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK40" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL40" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5923,127 +5923,127 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.68</v>
+        <v>2.18</v>
       </c>
       <c r="G41" t="n">
-        <v>2.72</v>
+        <v>2.32</v>
       </c>
       <c r="H41" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J41" t="n">
         <v>3.1</v>
       </c>
-      <c r="I41" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K41" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L41" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N41" t="n">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
       <c r="O41" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="P41" t="n">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="R41" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="S41" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="T41" t="n">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="U41" t="n">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="V41" t="n">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="W41" t="n">
-        <v>1.58</v>
+        <v>1.76</v>
       </c>
       <c r="X41" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AA41" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AB41" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AD41" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF41" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>16</v>
       </c>
       <c r="AG41" t="n">
         <v>12.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AI41" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AJ41" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AK41" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AL41" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM41" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="AN41" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AO41" t="n">
-        <v>44</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,25 +6058,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>St Pauli</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.28</v>
+        <v>2.68</v>
       </c>
       <c r="G42" t="n">
-        <v>2.44</v>
+        <v>2.72</v>
       </c>
       <c r="H42" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="J42" t="n">
         <v>3.2</v>
@@ -6085,100 +6085,100 @@
         <v>3.3</v>
       </c>
       <c r="L42" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N42" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O42" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P42" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="R42" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="S42" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="T42" t="n">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="V42" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="W42" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="X42" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG42" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y42" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>12</v>
-      </c>
       <c r="AH42" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI42" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AJ42" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AK42" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AL42" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AM42" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO42" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,132 +6188,132 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.19</v>
+        <v>2.3</v>
       </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>2.44</v>
       </c>
       <c r="H43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X43" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH43" t="n">
         <v>23</v>
       </c>
-      <c r="I43" t="n">
-        <v>24</v>
-      </c>
-      <c r="J43" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="K43" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N43" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P43" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T43" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W43" t="n">
-        <v>6</v>
-      </c>
-      <c r="X43" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>80</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>600</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH43" t="n">
+      <c r="AI43" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO43" t="n">
         <v>55</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>390</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>410</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,118 +6328,118 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Arbroath</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.06</v>
+        <v>1.19</v>
       </c>
       <c r="G44" t="n">
-        <v>2.12</v>
+        <v>1.2</v>
       </c>
       <c r="H44" t="n">
-        <v>3.8</v>
+        <v>23</v>
       </c>
       <c r="I44" t="n">
-        <v>4.7</v>
+        <v>25</v>
       </c>
       <c r="J44" t="n">
-        <v>3.5</v>
+        <v>8.4</v>
       </c>
       <c r="K44" t="n">
-        <v>3.85</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M44" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
-        <v>1.01</v>
+        <v>5.8</v>
       </c>
       <c r="O44" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="P44" t="n">
-        <v>1.25</v>
+        <v>2.62</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.36</v>
+        <v>1.59</v>
       </c>
       <c r="R44" t="n">
-        <v>1.24</v>
+        <v>1.64</v>
       </c>
       <c r="S44" t="n">
-        <v>3.2</v>
+        <v>2.52</v>
       </c>
       <c r="T44" t="n">
-        <v>1.6</v>
+        <v>2.62</v>
       </c>
       <c r="U44" t="n">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="V44" t="n">
-        <v>1.29</v>
+        <v>1.04</v>
       </c>
       <c r="W44" t="n">
-        <v>1.89</v>
+        <v>6</v>
       </c>
       <c r="X44" t="n">
-        <v>17.5</v>
+        <v>30</v>
       </c>
       <c r="Y44" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="Z44" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA44" t="n">
         <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC44" t="n">
-        <v>11</v>
+        <v>19.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AE44" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
       <c r="AF44" t="n">
-        <v>970</v>
+        <v>7</v>
       </c>
       <c r="AG44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH44" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AI44" t="n">
-        <v>90</v>
+        <v>390</v>
       </c>
       <c r="AJ44" t="n">
-        <v>970</v>
+        <v>7.8</v>
       </c>
       <c r="AK44" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AL44" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM44" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AN44" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="AO44" t="n">
         <v>1000</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,70 +6463,70 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Arbroath</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.94</v>
+        <v>2.06</v>
       </c>
       <c r="G45" t="n">
-        <v>3.6</v>
+        <v>2.12</v>
       </c>
       <c r="H45" t="n">
-        <v>2.24</v>
+        <v>3.8</v>
       </c>
       <c r="I45" t="n">
-        <v>2.64</v>
+        <v>4.7</v>
       </c>
       <c r="J45" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="K45" t="n">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>3.75</v>
+        <v>1.66</v>
       </c>
       <c r="O45" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V45" t="n">
         <v>1.29</v>
       </c>
-      <c r="P45" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S45" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U45" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1.61</v>
-      </c>
       <c r="W45" t="n">
-        <v>1.38</v>
+        <v>1.89</v>
       </c>
       <c r="X45" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="Y45" t="n">
         <v>970</v>
@@ -6535,34 +6535,34 @@
         <v>970</v>
       </c>
       <c r="AA45" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AC45" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AD45" t="n">
         <v>970</v>
       </c>
       <c r="AE45" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AF45" t="n">
         <v>970</v>
       </c>
       <c r="AG45" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AH45" t="n">
         <v>970</v>
       </c>
       <c r="AI45" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="AJ45" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AK45" t="n">
         <v>970</v>
@@ -6571,13 +6571,13 @@
         <v>55</v>
       </c>
       <c r="AM45" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO45" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46">
@@ -6598,121 +6598,121 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Llanelli Town</t>
+          <t>Flint Town United</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.26</v>
+        <v>2.94</v>
       </c>
       <c r="G46" t="n">
-        <v>1.54</v>
+        <v>3.6</v>
       </c>
       <c r="H46" t="n">
-        <v>7</v>
+        <v>2.24</v>
       </c>
       <c r="I46" t="n">
-        <v>1000</v>
+        <v>2.64</v>
       </c>
       <c r="J46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K46" t="n">
         <v>4.8</v>
       </c>
-      <c r="K46" t="n">
-        <v>15.5</v>
-      </c>
       <c r="L46" t="n">
         <v>1.01</v>
       </c>
       <c r="M46" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="O46" t="n">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="P46" t="n">
-        <v>2.8</v>
+        <v>1.94</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.36</v>
+        <v>1.84</v>
       </c>
       <c r="R46" t="n">
-        <v>1.66</v>
+        <v>1.37</v>
       </c>
       <c r="S46" t="n">
-        <v>1.86</v>
+        <v>3.15</v>
       </c>
       <c r="T46" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="U46" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V46" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="W46" t="n">
-        <v>2.86</v>
+        <v>1.38</v>
       </c>
       <c r="X46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC46" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM46" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="47">
@@ -6733,31 +6733,31 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Llanelli Town</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.26</v>
+        <v>1.26</v>
       </c>
       <c r="G47" t="n">
-        <v>2.46</v>
+        <v>1.54</v>
       </c>
       <c r="H47" t="n">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="I47" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="J47" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="K47" t="n">
-        <v>3.9</v>
+        <v>15.5</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
@@ -6766,22 +6766,22 @@
         <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="O47" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="P47" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.84</v>
+        <v>1.36</v>
       </c>
       <c r="R47" t="n">
-        <v>1.18</v>
+        <v>1.66</v>
       </c>
       <c r="S47" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="T47" t="n">
         <v>1.01</v>
@@ -6790,10 +6790,10 @@
         <v>1.01</v>
       </c>
       <c r="V47" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="W47" t="n">
-        <v>1.68</v>
+        <v>2.86</v>
       </c>
       <c r="X47" t="n">
         <v>1000</v>
@@ -6853,7 +6853,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6863,132 +6863,132 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.54</v>
+        <v>2.26</v>
       </c>
       <c r="G48" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="H48" t="n">
         <v>3.1</v>
       </c>
       <c r="I48" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J48" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K48" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M48" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P48" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="T48" t="n">
-        <v>1.82</v>
+        <v>1.01</v>
       </c>
       <c r="U48" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="X48" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y48" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z48" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA48" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC48" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD48" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE48" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF48" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG48" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH48" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI48" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK48" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL48" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM48" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO48" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6998,132 +6998,132 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>AVS Futebol SAD</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.96</v>
+        <v>2.54</v>
       </c>
       <c r="G49" t="n">
-        <v>2.06</v>
+        <v>2.58</v>
       </c>
       <c r="H49" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="I49" t="n">
-        <v>5.2</v>
+        <v>3.2</v>
       </c>
       <c r="J49" t="n">
         <v>3.4</v>
       </c>
       <c r="K49" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L49" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="R49" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="U49" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="V49" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Z49" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AA49" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB49" t="n">
         <v>10.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="AD49" t="n">
-        <v>29</v>
+        <v>13.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="AF49" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG49" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AI49" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ49" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK49" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO49" t="n">
         <v>36</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7133,132 +7133,132 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>AVS Futebol SAD</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P50" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V50" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q50" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R50" t="n">
-        <v>0</v>
-      </c>
-      <c r="S50" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" t="n">
-        <v>0</v>
-      </c>
-      <c r="U50" t="n">
-        <v>0</v>
-      </c>
-      <c r="V50" t="n">
-        <v>0</v>
-      </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="X50" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z50" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD50" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE50" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF50" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG50" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK50" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL50" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7268,36 +7268,36 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Deportivo Recoleta</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -7312,10 +7312,10 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7403,36 +7403,36 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="G52" t="n">
-        <v>2.4</v>
+        <v>2.66</v>
       </c>
       <c r="H52" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I52" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J52" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="K52" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -7528,7 +7528,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7538,36 +7538,36 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Club 2 de Mayo de Pedro Juan Cab</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sportivo Luquen</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -7582,10 +7582,10 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -7663,135 +7663,270 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>20:15:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Club 2 de Mayo de Pedro Juan Cab</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Sportivo Luquen</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>2026-01-23</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>20:20:00</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>La Equidad</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>Cucuta Deportivo</t>
         </is>
       </c>
-      <c r="F54" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="G54" t="n">
+      <c r="F55" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G55" t="n">
         <v>2.58</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H55" t="n">
         <v>3.7</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I55" t="n">
         <v>4.4</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J55" t="n">
         <v>2.94</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K55" t="n">
         <v>3.4</v>
       </c>
-      <c r="L54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N54" t="n">
+      <c r="L55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N55" t="n">
         <v>1.56</v>
       </c>
-      <c r="O54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R54" t="n">
+      <c r="O55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R55" t="n">
         <v>1.16</v>
       </c>
-      <c r="S54" t="n">
+      <c r="S55" t="n">
         <v>4</v>
       </c>
-      <c r="T54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V54" t="n">
+      <c r="T55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V55" t="n">
         <v>1.29</v>
       </c>
-      <c r="W54" t="n">
+      <c r="W55" t="n">
         <v>1.63</v>
       </c>
-      <c r="X54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO54" t="n">
+      <c r="X55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO55" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO55"/>
+  <dimension ref="A1:AO58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,7 +676,7 @@
         <v>4.7</v>
       </c>
       <c r="I2" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J2" t="n">
         <v>4.7</v>
@@ -685,19 +685,19 @@
         <v>4.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q2" t="n">
         <v>1.4</v>
@@ -712,7 +712,7 @@
         <v>1.48</v>
       </c>
       <c r="U2" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="V2" t="n">
         <v>1.26</v>
@@ -721,10 +721,10 @@
         <v>2.34</v>
       </c>
       <c r="X2" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="n">
         <v>34</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>36</v>
       </c>
       <c r="Z2" t="n">
         <v>50</v>
@@ -742,7 +742,7 @@
         <v>20</v>
       </c>
       <c r="AE2" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF2" t="n">
         <v>15.5</v>
@@ -772,7 +772,7 @@
         <v>5.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -808,10 +808,10 @@
         <v>3.95</v>
       </c>
       <c r="H3" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
         <v>3.15</v>
@@ -850,10 +850,10 @@
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="W3" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
@@ -952,7 +952,7 @@
         <v>2.42</v>
       </c>
       <c r="K4" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L4" t="n">
         <v>1.58</v>
@@ -961,28 +961,28 @@
         <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="O4" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="P4" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="R4" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S4" t="n">
         <v>1.01</v>
       </c>
       <c r="T4" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="U4" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="V4" t="n">
         <v>1.4</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G5" t="n">
         <v>3.6</v>
       </c>
       <c r="H5" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="I5" t="n">
         <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,13 +1096,13 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Q5" t="n">
         <v>2.42</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="J6" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="K6" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,22 +1231,22 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="R6" t="n">
         <v>1.12</v>
       </c>
       <c r="S6" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1255,10 +1255,10 @@
         <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="W6" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1483,7 +1483,7 @@
         <v>8.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="I8" t="n">
         <v>1.77</v>
@@ -1510,7 +1510,7 @@
         <v>1.64</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>2.06</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="K9" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="L9" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
@@ -1639,19 +1639,19 @@
         <v>1.25</v>
       </c>
       <c r="O9" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
         <v>1.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="R9" t="n">
         <v>1.12</v>
       </c>
       <c r="S9" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="T9" t="n">
         <v>1.01</v>
@@ -1660,10 +1660,10 @@
         <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="W9" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1750,7 +1750,7 @@
         <v>1.25</v>
       </c>
       <c r="G10" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H10" t="n">
         <v>10.5</v>
@@ -1768,7 +1768,7 @@
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
         <v>4.5</v>
@@ -1780,13 +1780,13 @@
         <v>2.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R10" t="n">
         <v>1.48</v>
       </c>
       <c r="S10" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="T10" t="n">
         <v>2.1</v>
@@ -1816,7 +1816,7 @@
         <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="n">
         <v>60</v>
@@ -1828,16 +1828,16 @@
         <v>9</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH10" t="n">
         <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK10" t="n">
         <v>970</v>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1888,7 +1888,7 @@
         <v>2.94</v>
       </c>
       <c r="H11" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I11" t="n">
         <v>3.1</v>
@@ -1915,7 +1915,7 @@
         <v>1.71</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R11" t="n">
         <v>1.21</v>
@@ -1933,7 +1933,7 @@
         <v>1.48</v>
       </c>
       <c r="W11" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2023,7 +2023,7 @@
         <v>1.6</v>
       </c>
       <c r="H12" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I12" t="n">
         <v>7.2</v>
@@ -2032,7 +2032,7 @@
         <v>4.4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L12" t="n">
         <v>1.31</v>
@@ -2041,19 +2041,19 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O12" t="n">
         <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R12" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S12" t="n">
         <v>2.64</v>
@@ -2077,10 +2077,10 @@
         <v>28</v>
       </c>
       <c r="Z12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA12" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB12" t="n">
         <v>10.5</v>
@@ -2092,7 +2092,7 @@
         <v>27</v>
       </c>
       <c r="AE12" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF12" t="n">
         <v>11</v>
@@ -2104,7 +2104,7 @@
         <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="n">
         <v>15</v>
@@ -2113,13 +2113,13 @@
         <v>16.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM12" t="n">
         <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO12" t="n">
         <v>110</v>
@@ -2155,13 +2155,13 @@
         <v>2.18</v>
       </c>
       <c r="G13" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H13" t="n">
         <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J13" t="n">
         <v>3.6</v>
@@ -2170,43 +2170,43 @@
         <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P13" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="R13" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="S13" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U13" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V13" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W13" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y13" t="n">
         <v>16</v>
@@ -2215,7 +2215,7 @@
         <v>970</v>
       </c>
       <c r="AA13" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="n">
         <v>12.5</v>
@@ -2227,7 +2227,7 @@
         <v>15</v>
       </c>
       <c r="AE13" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AF13" t="n">
         <v>17</v>
@@ -2251,13 +2251,13 @@
         <v>970</v>
       </c>
       <c r="AM13" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AN13" t="n">
         <v>16</v>
       </c>
       <c r="AO13" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -2317,13 +2317,13 @@
         <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
         <v>2.66</v>
@@ -2353,10 +2353,10 @@
         <v>75</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD14" t="n">
         <v>1000</v>
@@ -2455,7 +2455,7 @@
         <v>1.66</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="G16" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="H16" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="I16" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="J16" t="n">
         <v>3.4</v>
@@ -2575,7 +2575,7 @@
         <v>3.95</v>
       </c>
       <c r="L16" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
@@ -2605,7 +2605,7 @@
         <v>1.86</v>
       </c>
       <c r="V16" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W16" t="n">
         <v>1.2</v>
@@ -2650,10 +2650,10 @@
         <v>1000</v>
       </c>
       <c r="AK16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL16" t="n">
         <v>100</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>110</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
@@ -2695,19 +2695,19 @@
         <v>2.58</v>
       </c>
       <c r="G17" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="H17" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I17" t="n">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="J17" t="n">
-        <v>2.82</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2716,13 +2716,13 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O17" t="n">
         <v>1.24</v>
       </c>
       <c r="P17" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q17" t="n">
         <v>1.65</v>
@@ -2740,10 +2740,10 @@
         <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="W17" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2830,16 +2830,16 @@
         <v>1.61</v>
       </c>
       <c r="G18" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="I18" t="n">
         <v>8.4</v>
       </c>
       <c r="J18" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
         <v>4.3</v>
@@ -2851,16 +2851,16 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="O18" t="n">
         <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R18" t="n">
         <v>1.23</v>
@@ -2878,7 +2878,7 @@
         <v>1.13</v>
       </c>
       <c r="W18" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="G19" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="H19" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I19" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K19" t="n">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
@@ -2986,7 +2986,7 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="O19" t="n">
         <v>1.07</v>
@@ -3013,7 +3013,7 @@
         <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X19" t="n">
         <v>970</v>
@@ -3028,7 +3028,7 @@
         <v>95</v>
       </c>
       <c r="AB19" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC19" t="n">
         <v>8.800000000000001</v>
@@ -3058,7 +3058,7 @@
         <v>970</v>
       </c>
       <c r="AL19" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
@@ -3106,7 +3106,7 @@
         <v>2.86</v>
       </c>
       <c r="I20" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J20" t="n">
         <v>2.98</v>
@@ -3121,13 +3121,13 @@
         <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O20" t="n">
         <v>1.45</v>
       </c>
       <c r="P20" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q20" t="n">
         <v>2.34</v>
@@ -3145,7 +3145,7 @@
         <v>1.87</v>
       </c>
       <c r="V20" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W20" t="n">
         <v>1.5</v>
@@ -3169,7 +3169,7 @@
         <v>8.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE20" t="n">
         <v>55</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="G21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
         <v>2.18</v>
       </c>
       <c r="I21" t="n">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="J21" t="n">
         <v>3.15</v>
@@ -3265,7 +3265,7 @@
         <v>1.74</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R21" t="n">
         <v>1.23</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G23" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H23" t="n">
         <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J23" t="n">
         <v>3.05</v>
       </c>
       <c r="K23" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3532,10 +3532,10 @@
         <v>1.01</v>
       </c>
       <c r="P23" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R23" t="n">
         <v>1.23</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G24" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="H24" t="n">
         <v>2.74</v>
@@ -3649,7 +3649,7 @@
         <v>3.35</v>
       </c>
       <c r="J24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K24" t="n">
         <v>3.8</v>
@@ -3661,16 +3661,16 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="O24" t="n">
         <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="R24" t="n">
         <v>1.27</v>
@@ -3685,10 +3685,10 @@
         <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="W24" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G25" t="n">
         <v>2.1</v>
@@ -3781,7 +3781,7 @@
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J25" t="n">
         <v>3.6</v>
@@ -3799,13 +3799,13 @@
         <v>1.01</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P25" t="n">
         <v>1.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R25" t="n">
         <v>1.18</v>
@@ -3814,7 +3814,7 @@
         <v>1.01</v>
       </c>
       <c r="T25" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="U25" t="n">
         <v>1.92</v>
@@ -3823,7 +3823,7 @@
         <v>1.3</v>
       </c>
       <c r="W25" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X25" t="n">
         <v>20</v>
@@ -3838,7 +3838,7 @@
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC25" t="n">
         <v>11.5</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="G26" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H26" t="n">
         <v>4.2</v>
       </c>
       <c r="I26" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J26" t="n">
         <v>3.3</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>980</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -3955,10 +3955,10 @@
         <v>1.01</v>
       </c>
       <c r="V26" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W26" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="G28" t="n">
         <v>2.92</v>
@@ -4204,13 +4204,13 @@
         <v>1.71</v>
       </c>
       <c r="O28" t="n">
-        <v>1.46</v>
+        <v>1.02</v>
       </c>
       <c r="P28" t="n">
         <v>1.52</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.96</v>
+        <v>2.18</v>
       </c>
       <c r="R28" t="n">
         <v>1.18</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="G29" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="H29" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I29" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J29" t="n">
         <v>3.4</v>
       </c>
       <c r="K29" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4339,7 +4339,7 @@
         <v>3.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P29" t="n">
         <v>1.83</v>
@@ -4351,7 +4351,7 @@
         <v>1.31</v>
       </c>
       <c r="S29" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T29" t="n">
         <v>1.83</v>
@@ -4360,10 +4360,10 @@
         <v>2.06</v>
       </c>
       <c r="V29" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W29" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4375,7 +4375,7 @@
         <v>980</v>
       </c>
       <c r="AA29" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB29" t="n">
         <v>11</v>
@@ -4405,7 +4405,7 @@
         <v>980</v>
       </c>
       <c r="AK29" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AL29" t="n">
         <v>980</v>
@@ -4471,16 +4471,16 @@
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O30" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P30" t="n">
         <v>2.62</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R30" t="n">
         <v>1.65</v>
@@ -4492,7 +4492,7 @@
         <v>1.94</v>
       </c>
       <c r="U30" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V30" t="n">
         <v>3.7</v>
@@ -4507,7 +4507,7 @@
         <v>11</v>
       </c>
       <c r="Z30" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA30" t="n">
         <v>11.5</v>
@@ -4573,31 +4573,31 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="G31" t="n">
-        <v>2.24</v>
+        <v>5</v>
       </c>
       <c r="H31" t="n">
-        <v>2.94</v>
+        <v>1.7</v>
       </c>
       <c r="I31" t="n">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="J31" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="K31" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4606,88 +4606,88 @@
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>3.35</v>
+        <v>2.58</v>
       </c>
       <c r="O31" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="P31" t="n">
-        <v>3.35</v>
+        <v>2.58</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="R31" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S31" t="n">
         <v>1.87</v>
       </c>
-      <c r="S31" t="n">
-        <v>1.37</v>
-      </c>
       <c r="T31" t="n">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="V31" t="n">
-        <v>1.43</v>
+        <v>2.16</v>
       </c>
       <c r="W31" t="n">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ31" t="n">
         <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN31" t="n">
         <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.3</v>
+        <v>1.66</v>
       </c>
       <c r="G32" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="I32" t="n">
-        <v>1.85</v>
+        <v>5.6</v>
       </c>
       <c r="J32" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>2.58</v>
+        <v>5.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="P32" t="n">
-        <v>2.58</v>
+        <v>2.42</v>
       </c>
       <c r="Q32" t="n">
         <v>1.51</v>
       </c>
       <c r="R32" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S32" t="n">
-        <v>2.06</v>
+        <v>2.4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="U32" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="V32" t="n">
-        <v>2.16</v>
+        <v>1.21</v>
       </c>
       <c r="W32" t="n">
-        <v>1.25</v>
+        <v>2.24</v>
       </c>
       <c r="X32" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="Y32" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK32" t="n">
         <v>20</v>
       </c>
-      <c r="Z32" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>36</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>70</v>
-      </c>
       <c r="AL32" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AM32" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AO32" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.66</v>
+        <v>2.1</v>
       </c>
       <c r="G33" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W33" t="n">
         <v>1.8</v>
       </c>
-      <c r="H33" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I33" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J33" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K33" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N33" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U33" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W33" t="n">
-        <v>2.24</v>
-      </c>
       <c r="X33" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD33" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH33" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI33" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4978,67 +4978,67 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.76</v>
+        <v>1.42</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>1.51</v>
       </c>
       <c r="H34" t="n">
-        <v>2.24</v>
+        <v>6.8</v>
       </c>
       <c r="I34" t="n">
-        <v>2.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="K34" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>2.78</v>
+        <v>5.6</v>
       </c>
       <c r="O34" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="R34" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="S34" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="U34" t="n">
-        <v>2.52</v>
+        <v>2.08</v>
       </c>
       <c r="V34" t="n">
-        <v>1.71</v>
+        <v>1.13</v>
       </c>
       <c r="W34" t="n">
-        <v>1.5</v>
+        <v>2.96</v>
       </c>
       <c r="X34" t="n">
         <v>970</v>
@@ -5047,10 +5047,10 @@
         <v>970</v>
       </c>
       <c r="Z34" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AA34" t="n">
-        <v>970</v>
+        <v>240</v>
       </c>
       <c r="AB34" t="n">
         <v>970</v>
@@ -5062,22 +5062,22 @@
         <v>970</v>
       </c>
       <c r="AE34" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="AF34" t="n">
         <v>970</v>
       </c>
       <c r="AG34" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH34" t="n">
         <v>970</v>
       </c>
       <c r="AI34" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AK34" t="n">
         <v>970</v>
@@ -5086,13 +5086,13 @@
         <v>970</v>
       </c>
       <c r="AM34" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AN34" t="n">
-        <v>970</v>
+        <v>5.6</v>
       </c>
       <c r="AO34" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
@@ -5113,31 +5113,31 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.42</v>
+        <v>1.87</v>
       </c>
       <c r="G35" t="n">
-        <v>1.51</v>
+        <v>2.04</v>
       </c>
       <c r="H35" t="n">
-        <v>6.8</v>
+        <v>3.9</v>
       </c>
       <c r="I35" t="n">
-        <v>8.800000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="J35" t="n">
-        <v>5.1</v>
+        <v>3.95</v>
       </c>
       <c r="K35" t="n">
-        <v>6.2</v>
+        <v>4.8</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -5146,88 +5146,88 @@
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>5.6</v>
+        <v>1.01</v>
       </c>
       <c r="O35" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="P35" t="n">
-        <v>2.56</v>
+        <v>1.62</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="R35" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S35" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="T35" t="n">
-        <v>1.73</v>
+        <v>1.41</v>
       </c>
       <c r="U35" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="V35" t="n">
-        <v>1.13</v>
+        <v>1.32</v>
       </c>
       <c r="W35" t="n">
-        <v>2.96</v>
+        <v>1.97</v>
       </c>
       <c r="X35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
         <v>970</v>
       </c>
       <c r="Z35" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AA35" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="AB35" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AC35" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AE35" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AF35" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AG35" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN35" t="n">
         <v>11</v>
       </c>
-      <c r="AH35" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>970</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>5.6</v>
-      </c>
       <c r="AO35" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -5248,31 +5248,31 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J36" t="n">
         <v>3.9</v>
       </c>
-      <c r="I36" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.95</v>
-      </c>
       <c r="K36" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5281,70 +5281,70 @@
         <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>1.01</v>
+        <v>2.68</v>
       </c>
       <c r="O36" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P36" t="n">
-        <v>1.62</v>
+        <v>2.68</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="R36" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="S36" t="n">
         <v>2.02</v>
       </c>
       <c r="T36" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="U36" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V36" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="W36" t="n">
-        <v>1.97</v>
+        <v>1.77</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y36" t="n">
         <v>970</v>
       </c>
       <c r="Z36" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AA36" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB36" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC36" t="n">
         <v>15.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE36" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AF36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG36" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH36" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI36" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ36" t="n">
         <v>970</v>
@@ -5356,10 +5356,10 @@
         <v>970</v>
       </c>
       <c r="AM36" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN36" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -5383,67 +5383,67 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>2.76</v>
       </c>
       <c r="G37" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
-        <v>3.2</v>
+        <v>2.24</v>
       </c>
       <c r="I37" t="n">
-        <v>3.85</v>
+        <v>2.4</v>
       </c>
       <c r="J37" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="K37" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>1.02</v>
+        <v>2.78</v>
       </c>
       <c r="O37" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P37" t="n">
-        <v>2.68</v>
+        <v>2.54</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="R37" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="S37" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="T37" t="n">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="U37" t="n">
-        <v>2.16</v>
+        <v>2.52</v>
       </c>
       <c r="V37" t="n">
-        <v>1.38</v>
+        <v>1.71</v>
       </c>
       <c r="W37" t="n">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
       <c r="X37" t="n">
         <v>970</v>
@@ -5455,35 +5455,35 @@
         <v>970</v>
       </c>
       <c r="AA37" t="n">
-        <v>85</v>
+        <v>970</v>
       </c>
       <c r="AB37" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AC37" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AD37" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AE37" t="n">
         <v>970</v>
       </c>
       <c r="AF37" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AG37" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AH37" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI37" t="n">
+        <v>970</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>50</v>
       </c>
-      <c r="AJ37" t="n">
-        <v>970</v>
-      </c>
       <c r="AK37" t="n">
         <v>970</v>
       </c>
@@ -5491,13 +5491,13 @@
         <v>970</v>
       </c>
       <c r="AM37" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN37" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="38">
@@ -5638,7 +5638,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5653,127 +5653,127 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="G39" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H39" t="n">
-        <v>2.52</v>
+        <v>3.95</v>
       </c>
       <c r="I39" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="J39" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="K39" t="n">
-        <v>5.2</v>
+        <v>3.35</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N39" t="n">
-        <v>1.54</v>
+        <v>2.62</v>
       </c>
       <c r="O39" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="P39" t="n">
         <v>1.54</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.12</v>
+        <v>2.58</v>
       </c>
       <c r="R39" t="n">
         <v>1.18</v>
       </c>
       <c r="S39" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T39" t="n">
         <v>2.12</v>
       </c>
-      <c r="T39" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U39" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="V39" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="W39" t="n">
-        <v>1.41</v>
+        <v>1.76</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC39" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD39" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF39" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI39" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK39" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,127 +5788,127 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>St Pauli</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Lumezzane</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="G40" t="n">
-        <v>3.6</v>
+        <v>2.72</v>
       </c>
       <c r="H40" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="I40" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="J40" t="n">
-        <v>2.42</v>
+        <v>3.2</v>
       </c>
       <c r="K40" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N40" t="n">
-        <v>1.42</v>
+        <v>3.1</v>
       </c>
       <c r="O40" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="P40" t="n">
-        <v>1.42</v>
+        <v>1.69</v>
       </c>
       <c r="Q40" t="n">
         <v>2.36</v>
       </c>
       <c r="R40" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S40" t="n">
-        <v>2.36</v>
+        <v>4.6</v>
       </c>
       <c r="T40" t="n">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="V40" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="W40" t="n">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM40" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5923,103 +5923,103 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="G41" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="H41" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="I41" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="J41" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K41" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>2.62</v>
+        <v>3.2</v>
       </c>
       <c r="O41" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="P41" t="n">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.58</v>
+        <v>2.14</v>
       </c>
       <c r="R41" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S41" t="n">
-        <v>5.6</v>
+        <v>3.85</v>
       </c>
       <c r="T41" t="n">
-        <v>2.12</v>
+        <v>1.84</v>
       </c>
       <c r="U41" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="W41" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="X41" t="n">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="Z41" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AA41" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AB41" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="AC41" t="n">
         <v>7.8</v>
       </c>
       <c r="AD41" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AF41" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH41" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AI41" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AJ41" t="n">
         <v>970</v>
@@ -6028,22 +6028,22 @@
         <v>970</v>
       </c>
       <c r="AL41" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AM41" t="n">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="AN41" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AO41" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,127 +6058,127 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Lumezzane</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.68</v>
+        <v>2.32</v>
       </c>
       <c r="G42" t="n">
-        <v>2.72</v>
+        <v>3.15</v>
       </c>
       <c r="H42" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I42" t="n">
-        <v>3.15</v>
+        <v>4.7</v>
       </c>
       <c r="J42" t="n">
-        <v>3.2</v>
+        <v>2.42</v>
       </c>
       <c r="K42" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="L42" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M42" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>3.1</v>
+        <v>1.44</v>
       </c>
       <c r="O42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P42" t="n">
         <v>1.44</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.69</v>
       </c>
       <c r="Q42" t="n">
         <v>2.36</v>
       </c>
       <c r="R42" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="S42" t="n">
-        <v>4.6</v>
+        <v>2.36</v>
       </c>
       <c r="T42" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="U42" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="V42" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W42" t="n">
         <v>1.46</v>
       </c>
-      <c r="W42" t="n">
-        <v>1.58</v>
-      </c>
       <c r="X42" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z42" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA42" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD42" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE42" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG42" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH42" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI42" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6193,127 +6193,127 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="G43" t="n">
-        <v>2.44</v>
+        <v>3.35</v>
       </c>
       <c r="H43" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="I43" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="J43" t="n">
-        <v>3.25</v>
+        <v>2.78</v>
       </c>
       <c r="K43" t="n">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>3.2</v>
+        <v>1.54</v>
       </c>
       <c r="O43" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="P43" t="n">
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R43" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="S43" t="n">
-        <v>3.85</v>
+        <v>2.16</v>
       </c>
       <c r="T43" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="U43" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="V43" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="W43" t="n">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="X43" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y43" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z43" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA43" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC43" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD43" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE43" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG43" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH43" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI43" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK43" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL43" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM43" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,73 +6328,73 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.19</v>
+        <v>2.28</v>
       </c>
       <c r="G44" t="n">
-        <v>1.2</v>
+        <v>2.48</v>
       </c>
       <c r="H44" t="n">
-        <v>23</v>
+        <v>3.1</v>
       </c>
       <c r="I44" t="n">
-        <v>25</v>
+        <v>3.7</v>
       </c>
       <c r="J44" t="n">
-        <v>8.4</v>
+        <v>3.45</v>
       </c>
       <c r="K44" t="n">
-        <v>8.800000000000001</v>
+        <v>3.85</v>
       </c>
       <c r="L44" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M44" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>5.8</v>
+        <v>2</v>
       </c>
       <c r="O44" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="P44" t="n">
-        <v>2.62</v>
+        <v>2</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.59</v>
+        <v>1.86</v>
       </c>
       <c r="R44" t="n">
-        <v>1.64</v>
+        <v>1.18</v>
       </c>
       <c r="S44" t="n">
-        <v>2.52</v>
+        <v>1.72</v>
       </c>
       <c r="T44" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="U44" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="V44" t="n">
-        <v>1.04</v>
+        <v>1.33</v>
       </c>
       <c r="W44" t="n">
-        <v>6</v>
+        <v>1.67</v>
       </c>
       <c r="X44" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y44" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Z44" t="n">
         <v>1000</v>
@@ -6403,43 +6403,43 @@
         <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC44" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AD44" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AE44" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AG44" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH44" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AI44" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AJ44" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AK44" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AL44" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM44" t="n">
-        <v>410</v>
+        <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="AO44" t="n">
         <v>1000</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,31 +6463,31 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Arbroath</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Llanelli Town</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.06</v>
+        <v>1.26</v>
       </c>
       <c r="G45" t="n">
-        <v>2.12</v>
+        <v>1.53</v>
       </c>
       <c r="H45" t="n">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="I45" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="J45" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="K45" t="n">
-        <v>3.85</v>
+        <v>15.5</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6496,79 +6496,79 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R45" t="n">
         <v>1.66</v>
       </c>
-      <c r="O45" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.24</v>
-      </c>
       <c r="S45" t="n">
-        <v>3.2</v>
+        <v>1.86</v>
       </c>
       <c r="T45" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="U45" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="V45" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="W45" t="n">
-        <v>1.89</v>
+        <v>2.86</v>
       </c>
       <c r="X45" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y45" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z45" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA45" t="n">
         <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC45" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD45" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE45" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF45" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG45" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH45" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI45" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK45" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL45" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM45" t="n">
         <v>1000</v>
@@ -6583,7 +6583,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6598,70 +6598,70 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Arbroath</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.94</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>3.6</v>
+        <v>2.12</v>
       </c>
       <c r="H46" t="n">
-        <v>2.24</v>
+        <v>3.85</v>
       </c>
       <c r="I46" t="n">
-        <v>2.64</v>
+        <v>4.7</v>
       </c>
       <c r="J46" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K46" t="n">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
       </c>
       <c r="M46" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>3.75</v>
+        <v>1.66</v>
       </c>
       <c r="O46" t="n">
-        <v>1.29</v>
+        <v>1.02</v>
       </c>
       <c r="P46" t="n">
-        <v>1.94</v>
+        <v>1.66</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="R46" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="S46" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T46" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="U46" t="n">
-        <v>2.16</v>
+        <v>1.72</v>
       </c>
       <c r="V46" t="n">
-        <v>1.61</v>
+        <v>1.27</v>
       </c>
       <c r="W46" t="n">
-        <v>1.38</v>
+        <v>1.89</v>
       </c>
       <c r="X46" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="Y46" t="n">
         <v>970</v>
@@ -6670,34 +6670,34 @@
         <v>970</v>
       </c>
       <c r="AA46" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AD46" t="n">
         <v>970</v>
       </c>
       <c r="AE46" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AF46" t="n">
         <v>970</v>
       </c>
       <c r="AG46" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AH46" t="n">
         <v>970</v>
       </c>
       <c r="AI46" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="AJ46" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AK46" t="n">
         <v>970</v>
@@ -6706,19 +6706,19 @@
         <v>55</v>
       </c>
       <c r="AM46" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO46" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,118 +6733,118 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Llanelli Town</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="G47" t="n">
-        <v>1.54</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
+        <v>23</v>
+      </c>
+      <c r="I47" t="n">
+        <v>25</v>
+      </c>
+      <c r="J47" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K47" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W47" t="n">
+        <v>6</v>
+      </c>
+      <c r="X47" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>600</v>
+      </c>
+      <c r="AF47" t="n">
         <v>7</v>
       </c>
-      <c r="I47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J47" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="AG47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>390</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AK47" t="n">
         <v>15.5</v>
       </c>
-      <c r="L47" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P47" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="T47" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V47" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W47" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="X47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL47" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM47" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AN47" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="AO47" t="n">
         <v>1000</v>
@@ -6868,121 +6868,121 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Flint Town United</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.26</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>2.46</v>
+        <v>3.6</v>
       </c>
       <c r="H48" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J48" t="n">
         <v>3.1</v>
       </c>
-      <c r="I48" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3.45</v>
-      </c>
       <c r="K48" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="L48" t="n">
         <v>1.01</v>
       </c>
       <c r="M48" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="O48" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P48" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="Q48" t="n">
         <v>1.84</v>
       </c>
       <c r="R48" t="n">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="S48" t="n">
-        <v>1.71</v>
+        <v>3.15</v>
       </c>
       <c r="T48" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="U48" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="V48" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="W48" t="n">
-        <v>1.68</v>
+        <v>1.38</v>
       </c>
       <c r="X48" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y48" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z48" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA48" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB48" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC48" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD48" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE48" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF48" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG48" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH48" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI48" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK48" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM48" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN48" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="49">
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="G50" t="n">
         <v>2.06</v>
@@ -7558,7 +7558,7 @@
         <v>2.4</v>
       </c>
       <c r="H53" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I53" t="n">
         <v>4.3</v>
@@ -7825,7 +7825,7 @@
         <v>2.22</v>
       </c>
       <c r="G55" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="H55" t="n">
         <v>3.7</v>
@@ -7846,7 +7846,7 @@
         <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="O55" t="n">
         <v>1.01</v>
@@ -7855,7 +7855,7 @@
         <v>1.54</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="R55" t="n">
         <v>1.16</v>
@@ -7873,7 +7873,7 @@
         <v>1.29</v>
       </c>
       <c r="W55" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="X55" t="n">
         <v>1000</v>
@@ -7927,6 +7927,411 @@
         <v>1000</v>
       </c>
       <c r="AO55" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>22:15:00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Independiente Rivadavia</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Atl Tucuman</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>22:15:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Talleres</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Newells</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Alianza FC Valledupar</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H58" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W58" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="X58" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO58" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO58"/>
+  <dimension ref="A1:AO60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +673,7 @@
         <v>1.74</v>
       </c>
       <c r="H2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I2" t="n">
         <v>4.8</v>
@@ -685,34 +685,34 @@
         <v>4.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P2" t="n">
         <v>3.35</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.97</v>
       </c>
-      <c r="S2" t="n">
-        <v>1.98</v>
-      </c>
       <c r="T2" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="U2" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
         <v>1.26</v>
@@ -751,10 +751,10 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="n">
         <v>22</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,60 +788,60 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Imisli FK</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Araz Nakhchivan PFK</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="G3" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.96</v>
+        <v>1.34</v>
       </c>
       <c r="O3" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.69</v>
+        <v>1.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.91</v>
+        <v>2.62</v>
       </c>
       <c r="R3" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>3.3</v>
+        <v>2.62</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -850,10 +850,10 @@
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="W3" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -865,55 +865,55 @@
         <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
         <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>JS Omrane</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Esperance Sportive Zarzis</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H4" t="n">
-        <v>2.72</v>
+        <v>2.2</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>2.68</v>
       </c>
       <c r="J4" t="n">
-        <v>2.42</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>2.14</v>
+        <v>2.96</v>
       </c>
       <c r="O4" t="n">
-        <v>1.68</v>
+        <v>1.06</v>
       </c>
       <c r="P4" t="n">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.78</v>
+        <v>1.92</v>
       </c>
       <c r="R4" t="n">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="T4" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X4" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL4" t="n">
         <v>65</v>
       </c>
-      <c r="AF4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL4" t="n">
+      <c r="AM4" t="n">
         <v>130</v>
       </c>
-      <c r="AM4" t="n">
-        <v>350</v>
-      </c>
       <c r="AN4" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AO4" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,36 +1058,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ES Mostaganem</t>
+          <t>JS Omrane</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Olympique Akbou</t>
+          <t>Esperance Sportive Zarzis</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.46</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
-        <v>3.6</v>
+        <v>980</v>
       </c>
       <c r="H5" t="n">
-        <v>2.72</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>980</v>
       </c>
       <c r="J5" t="n">
-        <v>2.48</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>4.4</v>
+        <v>980</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
         <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1120,10 +1120,10 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1147,7 +1147,7 @@
         <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF5" t="n">
         <v>1000</v>
@@ -1156,7 +1156,7 @@
         <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1193,60 +1193,60 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>ES Mostaganem</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Paradou</t>
+          <t>Olympique Akbou</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>2.46</v>
       </c>
       <c r="G6" t="n">
-        <v>2.22</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>2.72</v>
       </c>
       <c r="I6" t="n">
-        <v>6.6</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.66</v>
+        <v>2.48</v>
       </c>
       <c r="K6" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.3</v>
+        <v>2.82</v>
       </c>
       <c r="R6" t="n">
         <v>1.12</v>
       </c>
       <c r="S6" t="n">
-        <v>2.3</v>
+        <v>2.84</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1255,10 +1255,10 @@
         <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="W6" t="n">
-        <v>1.81</v>
+        <v>1.39</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1333,31 +1333,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Paradou</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.09</v>
+        <v>1.98</v>
       </c>
       <c r="G7" t="n">
-        <v>970</v>
+        <v>2.66</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>3.35</v>
       </c>
       <c r="I7" t="n">
-        <v>970</v>
+        <v>5.4</v>
       </c>
       <c r="J7" t="n">
-        <v>1.09</v>
+        <v>2.74</v>
       </c>
       <c r="K7" t="n">
-        <v>970</v>
+        <v>5.1</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,22 +1366,22 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.25</v>
+        <v>2.44</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="P7" t="n">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="R7" t="n">
         <v>1.12</v>
       </c>
       <c r="S7" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1390,10 +1390,10 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucuresti</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6.2</v>
+        <v>1.09</v>
       </c>
       <c r="G8" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="H8" t="n">
-        <v>1.67</v>
+        <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>1.77</v>
+        <v>970</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>1.09</v>
       </c>
       <c r="K8" t="n">
-        <v>3.9</v>
+        <v>970</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.64</v>
+        <v>1.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,60 +1598,60 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Neftchi Baku</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>Zira</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.54</v>
+        <v>2.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1.98</v>
+        <v>3.8</v>
       </c>
       <c r="H9" t="n">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>3.45</v>
       </c>
       <c r="J9" t="n">
-        <v>2.42</v>
+        <v>2.74</v>
       </c>
       <c r="K9" t="n">
-        <v>970</v>
+        <v>5.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.66</v>
+        <v>2.24</v>
       </c>
       <c r="R9" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>2.66</v>
+        <v>2.24</v>
       </c>
       <c r="T9" t="n">
         <v>1.01</v>
@@ -1660,10 +1660,10 @@
         <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="W9" t="n">
-        <v>2.02</v>
+        <v>1.35</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>APOEL</t>
+          <t>FC Metaloglobus Bucuresti</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.25</v>
+        <v>6.2</v>
       </c>
       <c r="G10" t="n">
-        <v>1.32</v>
+        <v>8.6</v>
       </c>
       <c r="H10" t="n">
-        <v>10.5</v>
+        <v>1.7</v>
       </c>
       <c r="I10" t="n">
-        <v>18.5</v>
+        <v>1.81</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>8.4</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.24</v>
+        <v>1.62</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.63</v>
+        <v>2.16</v>
       </c>
       <c r="R10" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,100 +1873,100 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Villefranche Beaujolais</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="G11" t="n">
-        <v>2.94</v>
+        <v>1.76</v>
       </c>
       <c r="H11" t="n">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" t="n">
         <v>3.1</v>
       </c>
-      <c r="J11" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K11" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N11" t="n">
-        <v>1.72</v>
+        <v>2.38</v>
       </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="P11" t="n">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.14</v>
+        <v>2.84</v>
       </c>
       <c r="R11" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="S11" t="n">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>2.68</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="V11" t="n">
-        <v>1.48</v>
+        <v>1.11</v>
       </c>
       <c r="W11" t="n">
-        <v>1.51</v>
+        <v>2.3</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG11" t="n">
         <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="G12" t="n">
-        <v>1.6</v>
+        <v>1.31</v>
       </c>
       <c r="H12" t="n">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="I12" t="n">
-        <v>7.2</v>
+        <v>17</v>
       </c>
       <c r="J12" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="K12" t="n">
-        <v>4.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L12" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="Q12" t="n">
         <v>1.63</v>
       </c>
       <c r="R12" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="S12" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="T12" t="n">
-        <v>1.76</v>
+        <v>2.12</v>
       </c>
       <c r="U12" t="n">
-        <v>2.08</v>
+        <v>1.53</v>
       </c>
       <c r="V12" t="n">
-        <v>1.16</v>
+        <v>1.06</v>
       </c>
       <c r="W12" t="n">
-        <v>2.66</v>
+        <v>4.2</v>
       </c>
       <c r="X12" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="Y12" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="Z12" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="AA12" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
         <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="AD12" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AE12" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>11</v>
       </c>
-      <c r="AG12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>15</v>
-      </c>
       <c r="AK12" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="AO12" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.18</v>
+        <v>2.7</v>
       </c>
       <c r="G13" t="n">
-        <v>2.34</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>2.74</v>
       </c>
       <c r="I13" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>4.1</v>
+        <v>1.72</v>
       </c>
       <c r="O13" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.79</v>
+        <v>2.12</v>
       </c>
       <c r="R13" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="T13" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="W13" t="n">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="X13" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,42 +2273,42 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SV Darmstadt</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.98</v>
+        <v>1.58</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>6.4</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
         <v>4.9</v>
@@ -2320,85 +2320,85 @@
         <v>2.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S14" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W14" t="n">
         <v>2.66</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2</v>
       </c>
       <c r="X14" t="n">
         <v>25</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z14" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AA14" t="n">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="AB14" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE14" t="n">
-        <v>970</v>
+        <v>100</v>
       </c>
       <c r="AF14" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AG14" t="n">
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5.1</v>
+        <v>2.18</v>
       </c>
       <c r="G15" t="n">
-        <v>5.8</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
-        <v>1.82</v>
+        <v>3.35</v>
       </c>
       <c r="I15" t="n">
-        <v>1.94</v>
+        <v>3.65</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
         <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>2.92</v>
+        <v>4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="n">
         <v>1.66</v>
       </c>
-      <c r="Q15" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>SV Darmstadt</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Academico de Viseu</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.7</v>
+        <v>1.98</v>
       </c>
       <c r="G16" t="n">
-        <v>5.9</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>1.78</v>
+        <v>3.9</v>
       </c>
       <c r="I16" t="n">
-        <v>1.94</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>1.73</v>
+        <v>2.36</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="R16" t="n">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
       <c r="S16" t="n">
-        <v>3.7</v>
+        <v>2.62</v>
       </c>
       <c r="T16" t="n">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.86</v>
+        <v>2.42</v>
       </c>
       <c r="V16" t="n">
-        <v>2.06</v>
+        <v>1.33</v>
       </c>
       <c r="W16" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA16" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AF16" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK16" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>100</v>
+        <v>970</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Viktoria Koln</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Saarbrucken</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.58</v>
+        <v>4.9</v>
       </c>
       <c r="G17" t="n">
-        <v>3.05</v>
+        <v>5.6</v>
       </c>
       <c r="H17" t="n">
-        <v>2.64</v>
+        <v>1.85</v>
       </c>
       <c r="I17" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>2.94</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.12</v>
-      </c>
       <c r="O17" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="P17" t="n">
-        <v>2.12</v>
+        <v>1.66</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="R17" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,33 +2813,33 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Viktoria Koln</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Saarbrucken</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.61</v>
+        <v>2.58</v>
       </c>
       <c r="G18" t="n">
-        <v>1.76</v>
+        <v>3.05</v>
       </c>
       <c r="H18" t="n">
-        <v>5.3</v>
+        <v>2.64</v>
       </c>
       <c r="I18" t="n">
-        <v>8.4</v>
+        <v>2.94</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K18" t="n">
         <v>4.3</v>
@@ -2851,22 +2851,22 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.76</v>
+        <v>2.12</v>
       </c>
       <c r="O18" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="P18" t="n">
-        <v>1.75</v>
+        <v>2.12</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.04</v>
+        <v>1.66</v>
       </c>
       <c r="R18" t="n">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="S18" t="n">
-        <v>3.2</v>
+        <v>2.58</v>
       </c>
       <c r="T18" t="n">
         <v>1.01</v>
@@ -2875,10 +2875,10 @@
         <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.13</v>
+        <v>1.52</v>
       </c>
       <c r="W18" t="n">
-        <v>2.3</v>
+        <v>1.54</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,126 +2948,126 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Bourg-en-Bresse</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Academico de Viseu</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.1</v>
+        <v>4.6</v>
       </c>
       <c r="G19" t="n">
-        <v>2.74</v>
+        <v>5.4</v>
       </c>
       <c r="H19" t="n">
-        <v>2.94</v>
+        <v>1.84</v>
       </c>
       <c r="I19" t="n">
-        <v>4.1</v>
+        <v>1.97</v>
       </c>
       <c r="J19" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>5.7</v>
+        <v>3.85</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>1.52</v>
+        <v>3.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>1.52</v>
+        <v>1.76</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="R19" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="T19" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="U19" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="V19" t="n">
-        <v>1.33</v>
+        <v>2.02</v>
       </c>
       <c r="W19" t="n">
-        <v>1.64</v>
+        <v>1.22</v>
       </c>
       <c r="X19" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>970</v>
+        <v>8.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AG19" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AH19" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL19" t="n">
         <v>90</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>65</v>
-      </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN19" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="AO19" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Paris 13 Atletico</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.6</v>
+        <v>1.62</v>
       </c>
       <c r="G20" t="n">
-        <v>2.98</v>
+        <v>1.79</v>
       </c>
       <c r="H20" t="n">
-        <v>2.86</v>
+        <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>3.3</v>
+        <v>8.4</v>
       </c>
       <c r="J20" t="n">
-        <v>2.98</v>
+        <v>3.65</v>
       </c>
       <c r="K20" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>2.8</v>
+        <v>1.77</v>
       </c>
       <c r="O20" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="P20" t="n">
-        <v>1.61</v>
+        <v>1.77</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.34</v>
+        <v>2.06</v>
       </c>
       <c r="R20" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>4.4</v>
+        <v>3.35</v>
       </c>
       <c r="T20" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>1.43</v>
+        <v>1.13</v>
       </c>
       <c r="W20" t="n">
-        <v>1.5</v>
+        <v>2.26</v>
       </c>
       <c r="X20" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.4</v>
+        <v>2.18</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>2.56</v>
       </c>
       <c r="H21" t="n">
-        <v>2.18</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>2.58</v>
+        <v>4.1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K21" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>1.01</v>
+        <v>2.82</v>
       </c>
       <c r="O21" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="P21" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.06</v>
+        <v>2.34</v>
       </c>
       <c r="R21" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S21" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V21" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="W21" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Le Puy</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.08</v>
+        <v>2.68</v>
       </c>
       <c r="G22" t="n">
-        <v>2.58</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.45</v>
       </c>
-      <c r="I22" t="n">
+      <c r="L22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S22" t="n">
         <v>4.5</v>
       </c>
-      <c r="J22" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.4</v>
-      </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V22" t="n">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="W22" t="n">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
@@ -3493,31 +3493,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.34</v>
+        <v>3.35</v>
       </c>
       <c r="G23" t="n">
-        <v>2.68</v>
+        <v>3.9</v>
       </c>
       <c r="H23" t="n">
-        <v>3.1</v>
+        <v>2.22</v>
       </c>
       <c r="I23" t="n">
-        <v>3.9</v>
+        <v>2.46</v>
       </c>
       <c r="J23" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K23" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3532,16 +3532,16 @@
         <v>1.01</v>
       </c>
       <c r="P23" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="R23" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T23" t="n">
         <v>1.01</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,31 +3628,31 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.54</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>3.05</v>
+        <v>2.62</v>
       </c>
       <c r="H24" t="n">
-        <v>2.74</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>3.35</v>
+        <v>4.6</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="K24" t="n">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,34 +3661,34 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="O24" t="n">
         <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="R24" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V24" t="n">
         <v>1.27</v>
       </c>
-      <c r="S24" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.43</v>
-      </c>
       <c r="W24" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,37 +3758,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.98</v>
+        <v>2.24</v>
       </c>
       <c r="G25" t="n">
-        <v>2.1</v>
+        <v>2.84</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="J25" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.6</v>
       </c>
-      <c r="K25" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L25" t="n">
         <v>1.01</v>
       </c>
@@ -3799,82 +3799,82 @@
         <v>1.01</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="P25" t="n">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="R25" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S25" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="U25" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="W25" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="X25" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,36 +3893,36 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Etoile Carouge</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.73</v>
+        <v>2.54</v>
       </c>
       <c r="G26" t="n">
-        <v>2.12</v>
+        <v>3.05</v>
       </c>
       <c r="H26" t="n">
-        <v>4.2</v>
+        <v>2.74</v>
       </c>
       <c r="I26" t="n">
-        <v>5.6</v>
+        <v>3.35</v>
       </c>
       <c r="J26" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K26" t="n">
-        <v>980</v>
+        <v>3.8</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -3931,34 +3931,34 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="O26" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="P26" t="n">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="Q26" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.43</v>
       </c>
-      <c r="R26" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.22</v>
-      </c>
       <c r="W26" t="n">
-        <v>1.89</v>
+        <v>1.53</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4033,67 +4033,67 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>2.26</v>
       </c>
       <c r="G27" t="n">
-        <v>3.25</v>
+        <v>2.42</v>
       </c>
       <c r="H27" t="n">
-        <v>2.56</v>
+        <v>3.35</v>
       </c>
       <c r="I27" t="n">
-        <v>2.74</v>
+        <v>3.7</v>
       </c>
       <c r="J27" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K27" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="P27" t="n">
-        <v>1.25</v>
+        <v>1.83</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.43</v>
+        <v>2.06</v>
       </c>
       <c r="R27" t="n">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="S27" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V27" t="n">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
       <c r="W27" t="n">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4102,22 +4102,22 @@
         <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
         <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF27" t="n">
         <v>1000</v>
@@ -4126,28 +4126,28 @@
         <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="AN27" t="n">
         <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -4168,31 +4168,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.76</v>
+        <v>1.97</v>
       </c>
       <c r="G28" t="n">
-        <v>2.92</v>
+        <v>2.1</v>
       </c>
       <c r="H28" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="J28" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K28" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4201,85 +4201,85 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="O28" t="n">
-        <v>1.02</v>
+        <v>1.3</v>
       </c>
       <c r="P28" t="n">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.18</v>
+        <v>1.3</v>
       </c>
       <c r="R28" t="n">
         <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>3.9</v>
+        <v>1.01</v>
       </c>
       <c r="T28" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="U28" t="n">
-        <v>1.64</v>
+        <v>1.92</v>
       </c>
       <c r="V28" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="W28" t="n">
-        <v>1.52</v>
+        <v>1.92</v>
       </c>
       <c r="X28" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="Y28" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Z28" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH28" t="n">
         <v>25</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>29</v>
       </c>
       <c r="AI28" t="n">
         <v>85</v>
       </c>
       <c r="AJ28" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AK28" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AL28" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.26</v>
+        <v>1.93</v>
       </c>
       <c r="G29" t="n">
-        <v>2.42</v>
+        <v>2.08</v>
       </c>
       <c r="H29" t="n">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="I29" t="n">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="J29" t="n">
         <v>3.4</v>
       </c>
       <c r="K29" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N29" t="n">
-        <v>3.5</v>
+        <v>2.98</v>
       </c>
       <c r="O29" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="P29" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U29" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q29" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.06</v>
-      </c>
       <c r="V29" t="n">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="W29" t="n">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z29" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AA29" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="AB29" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE29" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AI29" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AK29" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AL29" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM29" t="n">
-        <v>550</v>
+        <v>180</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO29" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="H30" t="n">
-        <v>1.35</v>
+        <v>2.56</v>
       </c>
       <c r="I30" t="n">
-        <v>1.37</v>
+        <v>2.74</v>
       </c>
       <c r="J30" t="n">
-        <v>5.9</v>
+        <v>3.15</v>
       </c>
       <c r="K30" t="n">
-        <v>6.2</v>
+        <v>3.45</v>
       </c>
       <c r="L30" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>5.8</v>
+        <v>1.01</v>
       </c>
       <c r="O30" t="n">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="P30" t="n">
-        <v>2.62</v>
+        <v>1.25</v>
       </c>
       <c r="Q30" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V30" t="n">
         <v>1.57</v>
       </c>
-      <c r="R30" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V30" t="n">
-        <v>3.7</v>
-      </c>
       <c r="W30" t="n">
-        <v>1.1</v>
+        <v>1.45</v>
       </c>
       <c r="X30" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4.3</v>
+        <v>2.76</v>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>2.92</v>
       </c>
       <c r="H31" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="I31" t="n">
-        <v>1.85</v>
+        <v>3.05</v>
       </c>
       <c r="J31" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>3.35</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N31" t="n">
-        <v>2.58</v>
+        <v>2.82</v>
       </c>
       <c r="O31" t="n">
-        <v>1.15</v>
+        <v>1.46</v>
       </c>
       <c r="P31" t="n">
-        <v>2.58</v>
+        <v>1.61</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.51</v>
+        <v>2.36</v>
       </c>
       <c r="R31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W31" t="n">
         <v>1.52</v>
       </c>
-      <c r="S31" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V31" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.25</v>
-      </c>
       <c r="X31" t="n">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>20</v>
+        <v>9.6</v>
       </c>
       <c r="Z31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA31" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AB31" t="n">
-        <v>36</v>
+        <v>9.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>16</v>
+        <v>7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AE31" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AF31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI31" t="n">
         <v>60</v>
       </c>
-      <c r="AG31" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>38</v>
-      </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK31" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="AL31" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM31" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO31" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.66</v>
+        <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>11</v>
       </c>
       <c r="H32" t="n">
-        <v>4.6</v>
+        <v>1.35</v>
       </c>
       <c r="I32" t="n">
-        <v>5.6</v>
+        <v>1.37</v>
       </c>
       <c r="J32" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="K32" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M32" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="O32" t="n">
         <v>1.19</v>
       </c>
       <c r="P32" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S32" t="n">
         <v>2.42</v>
       </c>
-      <c r="Q32" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.4</v>
-      </c>
       <c r="T32" t="n">
-        <v>1.61</v>
+        <v>1.95</v>
       </c>
       <c r="U32" t="n">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="V32" t="n">
-        <v>1.21</v>
+        <v>3.75</v>
       </c>
       <c r="W32" t="n">
-        <v>2.24</v>
+        <v>1.1</v>
       </c>
       <c r="X32" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="Y32" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="Z32" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="AA32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>350</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM32" t="n">
         <v>130</v>
       </c>
-      <c r="AB32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>85</v>
-      </c>
       <c r="AN32" t="n">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="AO32" t="n">
-        <v>55</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.1</v>
+        <v>1.71</v>
       </c>
       <c r="G33" t="n">
-        <v>2.24</v>
+        <v>1.85</v>
       </c>
       <c r="H33" t="n">
-        <v>2.94</v>
+        <v>4.4</v>
       </c>
       <c r="I33" t="n">
-        <v>3.3</v>
+        <v>5.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K33" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N33" t="n">
-        <v>3.35</v>
+        <v>5.2</v>
       </c>
       <c r="O33" t="n">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="P33" t="n">
-        <v>3.35</v>
+        <v>2.44</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="R33" t="n">
-        <v>1.87</v>
+        <v>1.58</v>
       </c>
       <c r="S33" t="n">
-        <v>1.37</v>
+        <v>2.2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="V33" t="n">
-        <v>1.43</v>
+        <v>1.23</v>
       </c>
       <c r="W33" t="n">
-        <v>1.8</v>
+        <v>2.16</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="34">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.42</v>
+        <v>4.3</v>
       </c>
       <c r="G34" t="n">
+        <v>5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q34" t="n">
         <v>1.51</v>
       </c>
-      <c r="H34" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="I34" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="J34" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K34" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N34" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.52</v>
-      </c>
       <c r="R34" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="S34" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="T34" t="n">
-        <v>1.73</v>
+        <v>1.49</v>
       </c>
       <c r="U34" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="V34" t="n">
-        <v>1.13</v>
+        <v>2.18</v>
       </c>
       <c r="W34" t="n">
-        <v>2.96</v>
+        <v>1.25</v>
       </c>
       <c r="X34" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="Y34" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="Z34" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK34" t="n">
         <v>70</v>
       </c>
-      <c r="AA34" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>970</v>
-      </c>
       <c r="AL34" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AM34" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AN34" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -5113,103 +5113,103 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.87</v>
+        <v>2.16</v>
       </c>
       <c r="G35" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="H35" t="n">
-        <v>3.9</v>
+        <v>2.88</v>
       </c>
       <c r="I35" t="n">
-        <v>4.8</v>
+        <v>3.25</v>
       </c>
       <c r="J35" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M35" t="n">
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="O35" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="P35" t="n">
-        <v>1.62</v>
+        <v>3.35</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="R35" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="S35" t="n">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="T35" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="U35" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="V35" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="W35" t="n">
-        <v>1.97</v>
+        <v>1.79</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y35" t="n">
         <v>970</v>
       </c>
       <c r="Z35" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AA35" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AB35" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AC35" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AD35" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AE35" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AF35" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AG35" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH35" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI35" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AJ35" t="n">
         <v>970</v>
@@ -5221,13 +5221,13 @@
         <v>970</v>
       </c>
       <c r="AM35" t="n">
-        <v>75</v>
+        <v>970</v>
       </c>
       <c r="AN35" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="36">
@@ -5248,31 +5248,31 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>1.51</v>
       </c>
       <c r="H36" t="n">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="I36" t="n">
-        <v>3.85</v>
+        <v>9</v>
       </c>
       <c r="J36" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="K36" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5281,34 +5281,34 @@
         <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>2.68</v>
+        <v>5.7</v>
       </c>
       <c r="O36" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P36" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="R36" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="S36" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="T36" t="n">
-        <v>1.33</v>
+        <v>1.76</v>
       </c>
       <c r="U36" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="V36" t="n">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="W36" t="n">
-        <v>1.77</v>
+        <v>2.98</v>
       </c>
       <c r="X36" t="n">
         <v>970</v>
@@ -5317,34 +5317,34 @@
         <v>970</v>
       </c>
       <c r="Z36" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AA36" t="n">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="AB36" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AC36" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AD36" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AE36" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="AF36" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AG36" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AH36" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI36" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AJ36" t="n">
         <v>970</v>
@@ -5356,13 +5356,13 @@
         <v>970</v>
       </c>
       <c r="AM36" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AN36" t="n">
-        <v>13</v>
+        <v>5.4</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37">
@@ -5383,106 +5383,106 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.76</v>
+        <v>1.88</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>2.02</v>
       </c>
       <c r="H37" t="n">
-        <v>2.24</v>
+        <v>3.9</v>
       </c>
       <c r="I37" t="n">
-        <v>2.4</v>
+        <v>4.4</v>
       </c>
       <c r="J37" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>2.78</v>
+        <v>1.01</v>
       </c>
       <c r="O37" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P37" t="n">
-        <v>2.54</v>
+        <v>1.63</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="R37" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="S37" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="T37" t="n">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="U37" t="n">
-        <v>2.52</v>
+        <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>1.71</v>
+        <v>1.31</v>
       </c>
       <c r="W37" t="n">
-        <v>1.5</v>
+        <v>1.98</v>
       </c>
       <c r="X37" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y37" t="n">
         <v>970</v>
       </c>
       <c r="Z37" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AA37" t="n">
-        <v>970</v>
+        <v>100</v>
       </c>
       <c r="AB37" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AC37" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AE37" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AF37" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AG37" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AH37" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AI37" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AJ37" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AK37" t="n">
         <v>970</v>
@@ -5491,19 +5491,19 @@
         <v>970</v>
       </c>
       <c r="AM37" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN37" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AO37" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,73 +5513,73 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FC Wil</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W38" t="n">
         <v>1.78</v>
       </c>
-      <c r="H38" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K38" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P38" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S38" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W38" t="n">
-        <v>2.28</v>
-      </c>
       <c r="X38" t="n">
         <v>970</v>
       </c>
@@ -5587,34 +5587,34 @@
         <v>970</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB38" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AC38" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF38" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AG38" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AH38" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ38" t="n">
         <v>970</v>
@@ -5623,13 +5623,13 @@
         <v>970</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN38" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5638,7 +5638,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,132 +5648,132 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.18</v>
+        <v>2.72</v>
       </c>
       <c r="G39" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
-        <v>3.95</v>
+        <v>2.26</v>
       </c>
       <c r="I39" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="J39" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="K39" t="n">
-        <v>3.35</v>
+        <v>4.8</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.12</v>
+        <v>1.02</v>
       </c>
       <c r="N39" t="n">
-        <v>2.62</v>
+        <v>4.6</v>
       </c>
       <c r="O39" t="n">
-        <v>1.55</v>
+        <v>1.19</v>
       </c>
       <c r="P39" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T39" t="n">
         <v>1.54</v>
       </c>
-      <c r="Q39" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="T39" t="n">
-        <v>2.12</v>
-      </c>
       <c r="U39" t="n">
-        <v>1.75</v>
+        <v>2.52</v>
       </c>
       <c r="V39" t="n">
-        <v>1.31</v>
+        <v>1.71</v>
       </c>
       <c r="W39" t="n">
-        <v>1.76</v>
+        <v>1.5</v>
       </c>
       <c r="X39" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="Y39" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="Z39" t="n">
         <v>970</v>
       </c>
       <c r="AA39" t="n">
-        <v>130</v>
+        <v>970</v>
       </c>
       <c r="AB39" t="n">
-        <v>7.4</v>
+        <v>970</v>
       </c>
       <c r="AC39" t="n">
-        <v>7.8</v>
+        <v>970</v>
       </c>
       <c r="AD39" t="n">
         <v>970</v>
       </c>
       <c r="AE39" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="AF39" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AG39" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH39" t="n">
         <v>970</v>
       </c>
       <c r="AI39" t="n">
-        <v>120</v>
+        <v>970</v>
       </c>
       <c r="AJ39" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AK39" t="n">
         <v>970</v>
       </c>
       <c r="AL39" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AM39" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="AN39" t="n">
         <v>970</v>
       </c>
       <c r="AO39" t="n">
-        <v>130</v>
+        <v>970</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>FC Wil</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.68</v>
+        <v>1.64</v>
       </c>
       <c r="G40" t="n">
-        <v>2.72</v>
+        <v>1.78</v>
       </c>
       <c r="H40" t="n">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="I40" t="n">
-        <v>3.15</v>
+        <v>6.6</v>
       </c>
       <c r="J40" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K40" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O40" t="n">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="P40" t="n">
-        <v>1.69</v>
+        <v>2.04</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.36</v>
+        <v>1.75</v>
       </c>
       <c r="R40" t="n">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="S40" t="n">
-        <v>4.6</v>
+        <v>2.92</v>
       </c>
       <c r="T40" t="n">
-        <v>1.97</v>
+        <v>1.77</v>
       </c>
       <c r="U40" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="V40" t="n">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="W40" t="n">
-        <v>1.58</v>
+        <v>2.28</v>
       </c>
       <c r="X40" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="Z40" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="AA40" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>9</v>
+        <v>970</v>
       </c>
       <c r="AC40" t="n">
-        <v>7.2</v>
+        <v>970</v>
       </c>
       <c r="AD40" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AE40" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AF40" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AG40" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH40" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AI40" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AJ40" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AK40" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AL40" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AM40" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN40" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AO40" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5923,127 +5923,127 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>St Pauli</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="G41" t="n">
-        <v>2.44</v>
+        <v>2.72</v>
       </c>
       <c r="H41" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="J41" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K41" t="n">
         <v>3.25</v>
       </c>
-      <c r="K41" t="n">
-        <v>3.3</v>
-      </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M41" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N41" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O41" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P41" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="R41" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="S41" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="T41" t="n">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="U41" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="V41" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="W41" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="X41" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG41" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y41" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>12</v>
-      </c>
       <c r="AH41" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI41" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AJ41" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AK41" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AL41" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AM41" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO41" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,121 +6058,121 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Lumezzane</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G42" t="n">
-        <v>3.15</v>
+        <v>2.44</v>
       </c>
       <c r="H42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N42" t="n">
         <v>3.2</v>
       </c>
-      <c r="I42" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1.44</v>
-      </c>
       <c r="O42" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P42" t="n">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.36</v>
+        <v>2.14</v>
       </c>
       <c r="R42" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S42" t="n">
-        <v>2.36</v>
+        <v>3.85</v>
       </c>
       <c r="T42" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U42" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V42" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="W42" t="n">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB42" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC42" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD42" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF42" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG42" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH42" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43">
@@ -6193,31 +6193,31 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Lumezzane</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="G43" t="n">
-        <v>3.35</v>
+        <v>2.98</v>
       </c>
       <c r="H43" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="I43" t="n">
-        <v>3.65</v>
+        <v>5.3</v>
       </c>
       <c r="J43" t="n">
-        <v>2.78</v>
+        <v>2.44</v>
       </c>
       <c r="K43" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
@@ -6226,22 +6226,22 @@
         <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>1.54</v>
+        <v>2.66</v>
       </c>
       <c r="O43" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="P43" t="n">
         <v>1.54</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.16</v>
+        <v>2.48</v>
       </c>
       <c r="R43" t="n">
         <v>1.18</v>
       </c>
       <c r="S43" t="n">
-        <v>2.16</v>
+        <v>2.48</v>
       </c>
       <c r="T43" t="n">
         <v>1.01</v>
@@ -6250,10 +6250,10 @@
         <v>1.01</v>
       </c>
       <c r="V43" t="n">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="W43" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6313,7 +6313,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,36 +6323,36 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="G44" t="n">
-        <v>2.48</v>
+        <v>3.35</v>
       </c>
       <c r="H44" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="I44" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J44" t="n">
-        <v>3.45</v>
+        <v>2.78</v>
       </c>
       <c r="K44" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
@@ -6361,22 +6361,22 @@
         <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="O44" t="n">
         <v>1.01</v>
       </c>
       <c r="P44" t="n">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.86</v>
+        <v>2.18</v>
       </c>
       <c r="R44" t="n">
         <v>1.18</v>
       </c>
       <c r="S44" t="n">
-        <v>1.72</v>
+        <v>2.18</v>
       </c>
       <c r="T44" t="n">
         <v>1.01</v>
@@ -6385,10 +6385,10 @@
         <v>1.01</v>
       </c>
       <c r="V44" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="W44" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,132 +6458,132 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Llanelli Town</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.26</v>
+        <v>2.18</v>
       </c>
       <c r="G45" t="n">
-        <v>1.53</v>
+        <v>2.32</v>
       </c>
       <c r="H45" t="n">
-        <v>7</v>
+        <v>3.85</v>
       </c>
       <c r="I45" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="J45" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="K45" t="n">
-        <v>15.5</v>
+        <v>3.35</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
       </c>
       <c r="M45" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N45" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O45" t="n">
-        <v>1.12</v>
+        <v>1.55</v>
       </c>
       <c r="P45" t="n">
-        <v>2.8</v>
+        <v>1.54</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.36</v>
+        <v>2.6</v>
       </c>
       <c r="R45" t="n">
-        <v>1.66</v>
+        <v>1.18</v>
       </c>
       <c r="S45" t="n">
-        <v>1.86</v>
+        <v>5.5</v>
       </c>
       <c r="T45" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="U45" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="V45" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="W45" t="n">
-        <v>2.86</v>
+        <v>1.75</v>
       </c>
       <c r="X45" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y45" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA45" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB45" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC45" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD45" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE45" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF45" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI45" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK45" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL45" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM45" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN45" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO45" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6598,31 +6598,31 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Arbroath</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="G46" t="n">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="H46" t="n">
-        <v>3.85</v>
+        <v>2.98</v>
       </c>
       <c r="I46" t="n">
-        <v>4.7</v>
+        <v>3.55</v>
       </c>
       <c r="J46" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K46" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
@@ -6631,79 +6631,79 @@
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>1.66</v>
+        <v>1.86</v>
       </c>
       <c r="O46" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P46" t="n">
-        <v>1.66</v>
+        <v>1.86</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="R46" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="S46" t="n">
-        <v>3.2</v>
+        <v>2.66</v>
       </c>
       <c r="T46" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="U46" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="V46" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="W46" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="X46" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y46" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z46" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA46" t="n">
         <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC46" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD46" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE46" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG46" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH46" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI46" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ46" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK46" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL46" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM46" t="n">
         <v>1000</v>
@@ -6718,7 +6718,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,73 +6733,73 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Llanelli Town</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="G47" t="n">
-        <v>1.2</v>
+        <v>1.41</v>
       </c>
       <c r="H47" t="n">
-        <v>23</v>
+        <v>1.09</v>
       </c>
       <c r="I47" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="J47" t="n">
-        <v>8.4</v>
+        <v>4.6</v>
       </c>
       <c r="K47" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="L47" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>5.8</v>
+        <v>2.72</v>
       </c>
       <c r="O47" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="P47" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.59</v>
+        <v>1.41</v>
       </c>
       <c r="R47" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="S47" t="n">
-        <v>2.5</v>
+        <v>1.86</v>
       </c>
       <c r="T47" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="U47" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="V47" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="W47" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="X47" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y47" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Z47" t="n">
         <v>1000</v>
@@ -6808,43 +6808,43 @@
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC47" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AD47" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AE47" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AG47" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH47" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AI47" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AL47" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM47" t="n">
-        <v>410</v>
+        <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="AO47" t="n">
         <v>1000</v>
@@ -6853,7 +6853,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,67 +6868,67 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Arbroath</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>1.92</v>
       </c>
       <c r="G48" t="n">
-        <v>3.6</v>
+        <v>2.08</v>
       </c>
       <c r="H48" t="n">
-        <v>2.24</v>
+        <v>4.1</v>
       </c>
       <c r="I48" t="n">
-        <v>2.62</v>
+        <v>4.7</v>
       </c>
       <c r="J48" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="K48" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="L48" t="n">
         <v>1.01</v>
       </c>
       <c r="M48" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S48" t="n">
         <v>3.75</v>
       </c>
-      <c r="O48" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S48" t="n">
-        <v>3.15</v>
-      </c>
       <c r="T48" t="n">
-        <v>1.69</v>
+        <v>1.87</v>
       </c>
       <c r="U48" t="n">
-        <v>2.18</v>
+        <v>1.97</v>
       </c>
       <c r="V48" t="n">
-        <v>1.62</v>
+        <v>1.27</v>
       </c>
       <c r="W48" t="n">
-        <v>1.38</v>
+        <v>1.93</v>
       </c>
       <c r="X48" t="n">
         <v>970</v>
@@ -6940,19 +6940,19 @@
         <v>970</v>
       </c>
       <c r="AA48" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="AB48" t="n">
         <v>970</v>
       </c>
       <c r="AC48" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AD48" t="n">
         <v>970</v>
       </c>
       <c r="AE48" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AF48" t="n">
         <v>970</v>
@@ -6964,31 +6964,31 @@
         <v>970</v>
       </c>
       <c r="AI48" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AJ48" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AK48" t="n">
         <v>970</v>
       </c>
       <c r="AL48" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AM48" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="AN48" t="n">
         <v>970</v>
       </c>
       <c r="AO48" t="n">
-        <v>970</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6998,132 +6998,132 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.54</v>
+        <v>1.19</v>
       </c>
       <c r="G49" t="n">
-        <v>2.58</v>
+        <v>1.2</v>
       </c>
       <c r="H49" t="n">
-        <v>3.1</v>
+        <v>23</v>
       </c>
       <c r="I49" t="n">
-        <v>3.2</v>
+        <v>25</v>
       </c>
       <c r="J49" t="n">
-        <v>3.4</v>
+        <v>8.4</v>
       </c>
       <c r="K49" t="n">
-        <v>3.45</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M49" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P49" t="n">
-        <v>1.87</v>
+        <v>2.62</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.08</v>
+        <v>1.59</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T49" t="n">
-        <v>1.82</v>
+        <v>2.62</v>
       </c>
       <c r="U49" t="n">
-        <v>2.14</v>
+        <v>1.58</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X49" t="n">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="Y49" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="Z49" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH49" t="n">
         <v>55</v>
       </c>
-      <c r="AB49" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF49" t="n">
+      <c r="AI49" t="n">
+        <v>390</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AK49" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG49" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>28</v>
-      </c>
       <c r="AL49" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AM49" t="n">
-        <v>110</v>
+        <v>410</v>
       </c>
       <c r="AN49" t="n">
-        <v>24</v>
+        <v>3.65</v>
       </c>
       <c r="AO49" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7133,132 +7133,132 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>AVS Futebol SAD</t>
+          <t>Flint Town United</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.92</v>
+        <v>3.15</v>
       </c>
       <c r="G50" t="n">
-        <v>2.06</v>
+        <v>4</v>
       </c>
       <c r="H50" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="I50" t="n">
-        <v>5.2</v>
+        <v>2.32</v>
       </c>
       <c r="J50" t="n">
         <v>3.4</v>
       </c>
       <c r="K50" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="L50" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="M50" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N50" t="n">
-        <v>2.92</v>
+        <v>3.4</v>
       </c>
       <c r="O50" t="n">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="P50" t="n">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.26</v>
+        <v>1.87</v>
       </c>
       <c r="R50" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="S50" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T50" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="U50" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V50" t="n">
-        <v>1.24</v>
+        <v>1.75</v>
       </c>
       <c r="W50" t="n">
-        <v>1.94</v>
+        <v>1.33</v>
       </c>
       <c r="X50" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Y50" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Z50" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AA50" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB50" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AC50" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AD50" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AE50" t="n">
-        <v>100</v>
+        <v>970</v>
       </c>
       <c r="AF50" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AG50" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AH50" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AI50" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AJ50" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AK50" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AL50" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM50" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN50" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO50" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7268,42 +7268,42 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -7312,10 +7312,10 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>1.24</v>
+        <v>1.87</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7324,10 +7324,10 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -7336,64 +7336,64 @@
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z51" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA51" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB51" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD51" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE51" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF51" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG51" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI51" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK51" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL51" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM51" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN51" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AO51" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7403,132 +7403,132 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>AVS Futebol SAD</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.5</v>
+        <v>1.94</v>
       </c>
       <c r="G52" t="n">
-        <v>2.66</v>
+        <v>2.08</v>
       </c>
       <c r="H52" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="I52" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="J52" t="n">
-        <v>2.8</v>
+        <v>3.35</v>
       </c>
       <c r="K52" t="n">
-        <v>2.98</v>
+        <v>3.5</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AA52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG52" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH52" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK52" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL52" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7538,36 +7538,36 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>Deportivo Recoleta</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -7582,10 +7582,10 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -7663,7 +7663,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7673,36 +7673,36 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Club 2 de Mayo de Pedro Juan Cab</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sportivo Luquen</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -7717,10 +7717,10 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -7798,7 +7798,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7808,132 +7808,132 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="G55" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="H55" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="I55" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="J55" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="K55" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L55" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO55" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7943,36 +7943,36 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>22:15:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Club 2 de Mayo de Pedro Juan Cab</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Atl Tucuman</t>
+          <t>Sportivo Luquen</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -7987,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8068,7 +8068,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8078,260 +8078,530 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>22:15:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.39</v>
+        <v>2.2</v>
       </c>
       <c r="G57" t="n">
-        <v>2.02</v>
+        <v>2.52</v>
       </c>
       <c r="H57" t="n">
-        <v>1.09</v>
+        <v>3.15</v>
       </c>
       <c r="I57" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="J57" t="n">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="K57" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W57" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="X57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>22:15:00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Independiente Rivadavia</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Atl Tucuman</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>22:15:00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Talleres</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Newells</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H59" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I59" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>2026-01-23</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>22:30:00</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>Tolima</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>Alianza FC Valledupar</t>
         </is>
       </c>
-      <c r="F58" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="H58" t="n">
+      <c r="F60" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H60" t="n">
         <v>5.1</v>
       </c>
-      <c r="I58" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K58" t="n">
+      <c r="I60" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K60" t="n">
         <v>3.8</v>
       </c>
-      <c r="L58" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N58" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P58" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R58" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S58" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T58" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U58" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V58" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W58" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="X58" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO58" t="n">
+      <c r="L60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N60" t="n">
+        <v>3</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T60" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W60" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="X60" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO60" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
@@ -676,7 +676,7 @@
         <v>4.6</v>
       </c>
       <c r="I2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J2" t="n">
         <v>4.7</v>
@@ -691,10 +691,10 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P2" t="n">
         <v>3.35</v>
@@ -709,10 +709,10 @@
         <v>1.97</v>
       </c>
       <c r="T2" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="V2" t="n">
         <v>1.26</v>
@@ -727,7 +727,7 @@
         <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="n">
         <v>110</v>
@@ -757,7 +757,7 @@
         <v>38</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>15</v>
@@ -766,13 +766,13 @@
         <v>22</v>
       </c>
       <c r="AM2" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AN2" t="n">
         <v>5.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -802,46 +802,46 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="G3" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="I3" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.34</v>
+        <v>2.24</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.62</v>
+        <v>2.28</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>2.62</v>
+        <v>2.28</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -850,64 +850,64 @@
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="W3" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -943,10 +943,10 @@
         <v>3.95</v>
       </c>
       <c r="H4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I4" t="n">
-        <v>2.68</v>
+        <v>2.82</v>
       </c>
       <c r="J4" t="n">
         <v>3.15</v>
@@ -958,7 +958,7 @@
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
         <v>2.96</v>
@@ -967,10 +967,10 @@
         <v>1.06</v>
       </c>
       <c r="P4" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
         <v>1.25</v>
@@ -985,10 +985,10 @@
         <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="W4" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,40 +1072,40 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>980</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>2.66</v>
       </c>
       <c r="I5" t="n">
-        <v>980</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>2.42</v>
       </c>
       <c r="K5" t="n">
-        <v>980</v>
+        <v>3.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>1.25</v>
+        <v>2.14</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>2.78</v>
       </c>
       <c r="R5" t="n">
         <v>1.12</v>
@@ -1114,70 +1114,70 @@
         <v>1.01</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -1345,13 +1345,13 @@
         <v>1.98</v>
       </c>
       <c r="G7" t="n">
-        <v>2.66</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
         <v>3.35</v>
       </c>
       <c r="I7" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
         <v>2.74</v>
@@ -1390,10 +1390,10 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1615,16 +1615,16 @@
         <v>2.5</v>
       </c>
       <c r="G9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H9" t="n">
         <v>2.32</v>
       </c>
       <c r="I9" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="K9" t="n">
         <v>5.8</v>
@@ -1636,13 +1636,13 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="Q9" t="n">
         <v>2.24</v>
@@ -1660,10 +1660,10 @@
         <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W9" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1750,13 +1750,13 @@
         <v>6.2</v>
       </c>
       <c r="G10" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="I10" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="J10" t="n">
         <v>3.5</v>
@@ -1780,7 +1780,7 @@
         <v>1.62</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1882,76 +1882,76 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="G11" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L11" t="n">
         <v>1.53</v>
       </c>
       <c r="M11" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
         <v>2.38</v>
       </c>
       <c r="O11" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P11" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="R11" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S11" t="n">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="T11" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="U11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V11" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W11" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="X11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="AD11" t="n">
         <v>970</v>
@@ -1960,10 +1960,10 @@
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH11" t="n">
         <v>970</v>
@@ -1972,7 +1972,7 @@
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
         <v>1000</v>
@@ -2017,97 +2017,97 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="G12" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="H12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="J12" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="K12" t="n">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="R12" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="S12" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="T12" t="n">
         <v>2.12</v>
       </c>
       <c r="U12" t="n">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="V12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W12" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="X12" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="Y12" t="n">
         <v>980</v>
       </c>
       <c r="Z12" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AF12" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG12" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
         <v>980</v>
       </c>
       <c r="AI12" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
         <v>19</v>
@@ -2116,10 +2116,10 @@
         <v>60</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2155,16 +2155,16 @@
         <v>2.7</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H13" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="I13" t="n">
         <v>3.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
         <v>3.5</v>
@@ -2185,7 +2185,7 @@
         <v>1.72</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R13" t="n">
         <v>1.22</v>
@@ -2203,7 +2203,7 @@
         <v>1.47</v>
       </c>
       <c r="W13" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2305,7 +2305,7 @@
         <v>4.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2314,22 +2314,22 @@
         <v>4.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P14" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R14" t="n">
         <v>1.52</v>
       </c>
       <c r="S14" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="T14" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U14" t="n">
         <v>2.1</v>
@@ -2341,52 +2341,52 @@
         <v>2.66</v>
       </c>
       <c r="X14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y14" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Z14" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA14" t="n">
         <v>210</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
         <v>27</v>
       </c>
       <c r="AE14" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF14" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK14" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN14" t="n">
         <v>7</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G15" t="n">
         <v>2.3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J15" t="n">
         <v>3.65</v>
@@ -2446,16 +2446,16 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
         <v>2.02</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R15" t="n">
         <v>1.42</v>
@@ -2464,10 +2464,10 @@
         <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="U15" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V15" t="n">
         <v>1.38</v>
@@ -2476,55 +2476,55 @@
         <v>1.76</v>
       </c>
       <c r="X15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AA15" t="n">
         <v>75</v>
       </c>
       <c r="AB15" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC15" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE15" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF15" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="n">
         <v>970</v>
       </c>
       <c r="AJ15" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AK15" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AL15" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AM15" t="n">
         <v>95</v>
       </c>
       <c r="AN15" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
         <v>40</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="H16" t="n">
         <v>3.9</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K16" t="n">
         <v>4.1</v>
@@ -2581,34 +2581,34 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O16" t="n">
         <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="R16" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S16" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="T16" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U16" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V16" t="n">
         <v>1.33</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="X16" t="n">
         <v>25</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="H17" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="I17" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="J17" t="n">
         <v>3.35</v>
@@ -2722,10 +2722,10 @@
         <v>1.44</v>
       </c>
       <c r="P17" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2866,7 +2866,7 @@
         <v>1.38</v>
       </c>
       <c r="S18" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T18" t="n">
         <v>1.01</v>
@@ -2965,10 +2965,10 @@
         <v>4.6</v>
       </c>
       <c r="G19" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H19" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="I19" t="n">
         <v>1.97</v>
@@ -2977,49 +2977,49 @@
         <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L19" t="n">
         <v>1.41</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O19" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P19" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="R19" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="S19" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="T19" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U19" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V19" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W19" t="n">
         <v>1.22</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
@@ -3031,10 +3031,10 @@
         <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
         <v>980</v>
@@ -3052,19 +3052,19 @@
         <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AK19" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AL19" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AM19" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN19" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3100,16 +3100,16 @@
         <v>1.62</v>
       </c>
       <c r="G20" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="H20" t="n">
         <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K20" t="n">
         <v>4.3</v>
@@ -3121,19 +3121,19 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="O20" t="n">
         <v>1.01</v>
       </c>
       <c r="P20" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R20" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S20" t="n">
         <v>3.35</v>
@@ -3148,7 +3148,7 @@
         <v>1.13</v>
       </c>
       <c r="W20" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="G21" t="n">
         <v>2.56</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J21" t="n">
         <v>3.1</v>
@@ -3250,16 +3250,16 @@
         <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M21" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N21" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P21" t="n">
         <v>1.6</v>
@@ -3274,16 +3274,16 @@
         <v>4.1</v>
       </c>
       <c r="T21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.83</v>
       </c>
-      <c r="U21" t="n">
-        <v>1.73</v>
-      </c>
       <c r="V21" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W21" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X21" t="n">
         <v>970</v>
@@ -3313,7 +3313,7 @@
         <v>970</v>
       </c>
       <c r="AG21" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AH21" t="n">
         <v>970</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="G22" t="n">
         <v>3.1</v>
@@ -3376,103 +3376,103 @@
         <v>2.78</v>
       </c>
       <c r="I22" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="O22" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="P22" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="R22" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S22" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="T22" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="U22" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="V22" t="n">
         <v>1.45</v>
       </c>
       <c r="W22" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X22" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y22" t="n">
         <v>12</v>
       </c>
-      <c r="Y22" t="n">
-        <v>11.5</v>
-      </c>
       <c r="Z22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA22" t="n">
         <v>65</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
         <v>16.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG22" t="n">
         <v>15.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI22" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO22" t="n">
         <v>55</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>48</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="23">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G23" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H23" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="I23" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J23" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
         <v>3.65</v>
@@ -3532,7 +3532,7 @@
         <v>1.01</v>
       </c>
       <c r="P23" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q23" t="n">
         <v>2.08</v>
@@ -3541,7 +3541,7 @@
         <v>1.18</v>
       </c>
       <c r="S23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T23" t="n">
         <v>1.01</v>
@@ -3637,34 +3637,34 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="G24" t="n">
-        <v>2.62</v>
+        <v>2.42</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="K24" t="n">
-        <v>5.6</v>
+        <v>3.65</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>1.73</v>
+        <v>3.15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P24" t="n">
         <v>1.73</v>
@@ -3673,76 +3673,76 @@
         <v>1.99</v>
       </c>
       <c r="R24" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S24" t="n">
         <v>3.55</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V24" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="W24" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="G25" t="n">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="H25" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="J25" t="n">
         <v>3.05</v>
       </c>
       <c r="K25" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3805,19 +3805,19 @@
         <v>1.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R25" t="n">
         <v>1.23</v>
       </c>
       <c r="S25" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V25" t="n">
         <v>1.01</v>
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G26" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="H26" t="n">
         <v>2.74</v>
       </c>
       <c r="I26" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K26" t="n">
         <v>3.8</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>1.88</v>
+        <v>3.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P26" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="R26" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="S26" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="T26" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U26" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V26" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W26" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="27">
@@ -4051,7 +4051,7 @@
         <v>3.35</v>
       </c>
       <c r="I27" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J27" t="n">
         <v>3.4</v>
@@ -4090,10 +4090,10 @@
         <v>2.06</v>
       </c>
       <c r="V27" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W27" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4126,10 +4126,10 @@
         <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ27" t="n">
         <v>980</v>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G28" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H28" t="n">
         <v>4</v>
@@ -4192,7 +4192,7 @@
         <v>3.6</v>
       </c>
       <c r="K28" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4219,7 +4219,7 @@
         <v>1.01</v>
       </c>
       <c r="T28" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U28" t="n">
         <v>1.92</v>
@@ -4237,7 +4237,7 @@
         <v>21</v>
       </c>
       <c r="Z28" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
@@ -4252,7 +4252,7 @@
         <v>24</v>
       </c>
       <c r="AE28" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF28" t="n">
         <v>17.5</v>
@@ -4279,7 +4279,7 @@
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4366,7 +4366,7 @@
         <v>1.93</v>
       </c>
       <c r="X29" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="Y29" t="n">
         <v>970</v>
@@ -4453,7 +4453,7 @@
         <v>3.25</v>
       </c>
       <c r="H30" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="I30" t="n">
         <v>2.74</v>
@@ -4492,7 +4492,7 @@
         <v>1.8</v>
       </c>
       <c r="U30" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V30" t="n">
         <v>1.57</v>
@@ -4582,28 +4582,28 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G31" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="H31" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="I31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J31" t="n">
         <v>3.05</v>
       </c>
-      <c r="J31" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K31" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N31" t="n">
         <v>2.82</v>
@@ -4612,16 +4612,16 @@
         <v>1.46</v>
       </c>
       <c r="P31" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q31" t="n">
         <v>2.36</v>
       </c>
       <c r="R31" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S31" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="T31" t="n">
         <v>1.94</v>
@@ -4630,64 +4630,64 @@
         <v>1.89</v>
       </c>
       <c r="V31" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W31" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X31" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="Z31" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AA31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO31" t="n">
         <v>55</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>970</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>970</v>
       </c>
     </row>
     <row r="32">
@@ -4720,16 +4720,16 @@
         <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="H32" t="n">
         <v>1.35</v>
       </c>
       <c r="I32" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="J32" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="K32" t="n">
         <v>6.2</v>
@@ -4744,10 +4744,10 @@
         <v>5.9</v>
       </c>
       <c r="O32" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P32" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q32" t="n">
         <v>1.57</v>
@@ -4762,13 +4762,13 @@
         <v>1.95</v>
       </c>
       <c r="U32" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V32" t="n">
         <v>3.75</v>
       </c>
       <c r="W32" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X32" t="n">
         <v>27</v>
@@ -4786,19 +4786,19 @@
         <v>38</v>
       </c>
       <c r="AC32" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD32" t="n">
         <v>10.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF32" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AG32" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AH32" t="n">
         <v>27</v>
@@ -4807,13 +4807,13 @@
         <v>34</v>
       </c>
       <c r="AJ32" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="AK32" t="n">
         <v>150</v>
       </c>
       <c r="AL32" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM32" t="n">
         <v>130</v>
@@ -4822,7 +4822,7 @@
         <v>150</v>
       </c>
       <c r="AO32" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="33">
@@ -4852,16 +4852,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="G33" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H33" t="n">
         <v>4.4</v>
       </c>
       <c r="I33" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J33" t="n">
         <v>4.1</v>
@@ -4873,7 +4873,7 @@
         <v>1.25</v>
       </c>
       <c r="M33" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
         <v>5.2</v>
@@ -4885,25 +4885,25 @@
         <v>2.44</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R33" t="n">
         <v>1.58</v>
       </c>
       <c r="S33" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="T33" t="n">
         <v>1.6</v>
       </c>
       <c r="U33" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V33" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W33" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X33" t="n">
         <v>970</v>
@@ -4912,7 +4912,7 @@
         <v>28</v>
       </c>
       <c r="Z33" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA33" t="n">
         <v>120</v>
@@ -4927,7 +4927,7 @@
         <v>24</v>
       </c>
       <c r="AE33" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF33" t="n">
         <v>16</v>
@@ -4942,10 +4942,10 @@
         <v>60</v>
       </c>
       <c r="AJ33" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK33" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL33" t="n">
         <v>34</v>
@@ -4957,7 +4957,7 @@
         <v>9</v>
       </c>
       <c r="AO33" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34">
@@ -5023,13 +5023,13 @@
         <v>1.51</v>
       </c>
       <c r="R34" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="S34" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T34" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="U34" t="n">
         <v>1.01</v>
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G35" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="H35" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I35" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K35" t="n">
         <v>4.9</v>
@@ -5146,22 +5146,22 @@
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="O35" t="n">
         <v>1.12</v>
       </c>
       <c r="P35" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q35" t="n">
         <v>1.37</v>
       </c>
       <c r="R35" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="S35" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T35" t="n">
         <v>1.4</v>
@@ -5170,10 +5170,10 @@
         <v>3.1</v>
       </c>
       <c r="V35" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="W35" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="X35" t="n">
         <v>970</v>
@@ -5191,7 +5191,7 @@
         <v>970</v>
       </c>
       <c r="AC35" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AD35" t="n">
         <v>970</v>
@@ -5203,7 +5203,7 @@
         <v>970</v>
       </c>
       <c r="AG35" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AH35" t="n">
         <v>970</v>
@@ -5227,7 +5227,7 @@
         <v>9.4</v>
       </c>
       <c r="AO35" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
     </row>
     <row r="36">
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="G36" t="n">
         <v>1.51</v>
@@ -5266,19 +5266,19 @@
         <v>7</v>
       </c>
       <c r="I36" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="J36" t="n">
         <v>5.1</v>
       </c>
       <c r="K36" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N36" t="n">
         <v>5.7</v>
@@ -5287,10 +5287,10 @@
         <v>1.18</v>
       </c>
       <c r="P36" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R36" t="n">
         <v>1.64</v>
@@ -5302,7 +5302,7 @@
         <v>1.76</v>
       </c>
       <c r="U36" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V36" t="n">
         <v>1.13</v>
@@ -5395,7 +5395,7 @@
         <v>1.88</v>
       </c>
       <c r="G37" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="H37" t="n">
         <v>3.9</v>
@@ -5416,25 +5416,25 @@
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="O37" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P37" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R37" t="n">
         <v>1.63</v>
       </c>
-      <c r="Q37" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S37" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="T37" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="U37" t="n">
         <v>1.01</v>
@@ -5443,7 +5443,7 @@
         <v>1.31</v>
       </c>
       <c r="W37" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5458,7 +5458,7 @@
         <v>100</v>
       </c>
       <c r="AB37" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC37" t="n">
         <v>15.5</v>
@@ -5479,7 +5479,7 @@
         <v>21</v>
       </c>
       <c r="AI37" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ37" t="n">
         <v>970</v>
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G38" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H38" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I38" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="J38" t="n">
         <v>3.95</v>
@@ -5563,28 +5563,28 @@
         <v>1.48</v>
       </c>
       <c r="R38" t="n">
-        <v>1.59</v>
+        <v>1.27</v>
       </c>
       <c r="S38" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="T38" t="n">
         <v>1.38</v>
       </c>
       <c r="U38" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="V38" t="n">
         <v>1.38</v>
       </c>
       <c r="W38" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X38" t="n">
         <v>970</v>
       </c>
       <c r="Y38" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="Z38" t="n">
         <v>970</v>
@@ -5605,16 +5605,16 @@
         <v>970</v>
       </c>
       <c r="AF38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG38" t="n">
         <v>17</v>
       </c>
       <c r="AH38" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI38" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AJ38" t="n">
         <v>970</v>
@@ -5662,13 +5662,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H39" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="I39" t="n">
         <v>2.4</v>
@@ -5677,10 +5677,10 @@
         <v>4.2</v>
       </c>
       <c r="K39" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M39" t="n">
         <v>1.02</v>
@@ -5689,19 +5689,19 @@
         <v>4.6</v>
       </c>
       <c r="O39" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P39" t="n">
         <v>2.54</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="R39" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S39" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="T39" t="n">
         <v>1.54</v>
@@ -5761,7 +5761,7 @@
         <v>970</v>
       </c>
       <c r="AM39" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN39" t="n">
         <v>970</v>
@@ -5806,10 +5806,10 @@
         <v>5.3</v>
       </c>
       <c r="I40" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J40" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K40" t="n">
         <v>4.5</v>
@@ -5821,28 +5821,28 @@
         <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O40" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P40" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q40" t="n">
         <v>1.75</v>
       </c>
       <c r="R40" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S40" t="n">
-        <v>2.92</v>
+        <v>2.72</v>
       </c>
       <c r="T40" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U40" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V40" t="n">
         <v>1.18</v>
@@ -5863,22 +5863,22 @@
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AC40" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AD40" t="n">
         <v>970</v>
       </c>
       <c r="AE40" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF40" t="n">
         <v>970</v>
       </c>
       <c r="AG40" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AH40" t="n">
         <v>970</v>
@@ -5932,16 +5932,16 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G41" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="H41" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I41" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3.15</v>
       </c>
       <c r="J41" t="n">
         <v>3.2</v>
@@ -5956,16 +5956,16 @@
         <v>1.1</v>
       </c>
       <c r="N41" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O41" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P41" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R41" t="n">
         <v>1.26</v>
@@ -5977,19 +5977,19 @@
         <v>1.97</v>
       </c>
       <c r="U41" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V41" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W41" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X41" t="n">
         <v>10</v>
       </c>
       <c r="Y41" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z41" t="n">
         <v>19</v>
@@ -5998,10 +5998,10 @@
         <v>55</v>
       </c>
       <c r="AB41" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD41" t="n">
         <v>13.5</v>
@@ -6016,7 +6016,7 @@
         <v>12.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI41" t="n">
         <v>60</v>
@@ -6031,7 +6031,7 @@
         <v>55</v>
       </c>
       <c r="AM41" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN41" t="n">
         <v>34</v>
@@ -6070,13 +6070,13 @@
         <v>2.3</v>
       </c>
       <c r="G42" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H42" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I42" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J42" t="n">
         <v>3.25</v>
@@ -6085,7 +6085,7 @@
         <v>3.3</v>
       </c>
       <c r="L42" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M42" t="n">
         <v>1.09</v>
@@ -6097,7 +6097,7 @@
         <v>1.4</v>
       </c>
       <c r="P42" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q42" t="n">
         <v>2.14</v>
@@ -6109,10 +6109,10 @@
         <v>3.85</v>
       </c>
       <c r="T42" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V42" t="n">
         <v>1.35</v>
@@ -6121,10 +6121,10 @@
         <v>1.7</v>
       </c>
       <c r="X42" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z42" t="n">
         <v>30</v>
@@ -6136,19 +6136,19 @@
         <v>11</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD42" t="n">
         <v>18.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AF42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG42" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AH42" t="n">
         <v>23</v>
@@ -6157,13 +6157,13 @@
         <v>75</v>
       </c>
       <c r="AJ42" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AK42" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AL42" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AM42" t="n">
         <v>140</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.42</v>
+        <v>2.16</v>
       </c>
       <c r="G43" t="n">
-        <v>2.98</v>
+        <v>2.36</v>
       </c>
       <c r="H43" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I43" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="J43" t="n">
-        <v>2.44</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
         <v>3.45</v>
@@ -6226,22 +6226,22 @@
         <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>2.66</v>
+        <v>3.05</v>
       </c>
       <c r="O43" t="n">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="P43" t="n">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.48</v>
+        <v>2.22</v>
       </c>
       <c r="R43" t="n">
         <v>1.18</v>
       </c>
       <c r="S43" t="n">
-        <v>2.48</v>
+        <v>2.22</v>
       </c>
       <c r="T43" t="n">
         <v>1.01</v>
@@ -6250,10 +6250,10 @@
         <v>1.01</v>
       </c>
       <c r="V43" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="W43" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="G44" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="H44" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="I44" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="J44" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="K44" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
@@ -6361,22 +6361,22 @@
         <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="O44" t="n">
         <v>1.01</v>
       </c>
       <c r="P44" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R44" t="n">
         <v>1.18</v>
       </c>
       <c r="S44" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T44" t="n">
         <v>1.01</v>
@@ -6385,10 +6385,10 @@
         <v>1.01</v>
       </c>
       <c r="V44" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="W44" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="G45" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H45" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I45" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J45" t="n">
         <v>3.1</v>
       </c>
       <c r="K45" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6496,58 +6496,58 @@
         <v>1.12</v>
       </c>
       <c r="N45" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O45" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P45" t="n">
         <v>1.55</v>
       </c>
-      <c r="P45" t="n">
-        <v>1.54</v>
-      </c>
       <c r="Q45" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="R45" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S45" t="n">
         <v>5.5</v>
       </c>
       <c r="T45" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U45" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="V45" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W45" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X45" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y45" t="n">
         <v>11.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AA45" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC45" t="n">
         <v>7.4</v>
       </c>
-      <c r="AC45" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AD45" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AE45" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF45" t="n">
         <v>13.5</v>
@@ -6556,25 +6556,25 @@
         <v>12.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AI45" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ45" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AK45" t="n">
         <v>970</v>
       </c>
       <c r="AL45" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM45" t="n">
         <v>240</v>
       </c>
       <c r="AN45" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AO45" t="n">
         <v>130</v>
@@ -6607,46 +6607,46 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="G46" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="H46" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="I46" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J46" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K46" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="L46" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M46" t="n">
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="O46" t="n">
         <v>1.01</v>
       </c>
       <c r="P46" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.68</v>
+        <v>2.08</v>
       </c>
       <c r="R46" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="S46" t="n">
-        <v>2.66</v>
+        <v>2.08</v>
       </c>
       <c r="T46" t="n">
         <v>1.01</v>
@@ -6655,10 +6655,10 @@
         <v>1.01</v>
       </c>
       <c r="V46" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W46" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6742,64 +6742,64 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="G47" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="H47" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I47" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J47" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V47" t="n">
         <v>1.09</v>
       </c>
-      <c r="I47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J47" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K47" t="n">
-        <v>970</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P47" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="T47" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V47" t="n">
-        <v>1.08</v>
-      </c>
       <c r="W47" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y47" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="Z47" t="n">
         <v>1000</v>
@@ -6808,43 +6808,43 @@
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC47" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD47" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE47" t="n">
         <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG47" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH47" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI47" t="n">
         <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK47" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL47" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM47" t="n">
         <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="AO47" t="n">
         <v>1000</v>
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="G48" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="H48" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J48" t="n">
         <v>3.45</v>
@@ -6901,34 +6901,34 @@
         <v>1.08</v>
       </c>
       <c r="N48" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O48" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P48" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R48" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S48" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T48" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="U48" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="V48" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W48" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="X48" t="n">
         <v>970</v>
@@ -6940,7 +6940,7 @@
         <v>970</v>
       </c>
       <c r="AA48" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB48" t="n">
         <v>970</v>
@@ -6952,37 +6952,37 @@
         <v>970</v>
       </c>
       <c r="AE48" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AO48" t="n">
         <v>70</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>970</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>970</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="49">
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G49" t="n">
         <v>1.19</v>
       </c>
-      <c r="G49" t="n">
-        <v>1.2</v>
-      </c>
       <c r="H49" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I49" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J49" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K49" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="L49" t="n">
         <v>1.29</v>
@@ -7054,7 +7054,7 @@
         <v>2.5</v>
       </c>
       <c r="T49" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="U49" t="n">
         <v>1.58</v>
@@ -7063,7 +7063,7 @@
         <v>1.04</v>
       </c>
       <c r="W49" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="X49" t="n">
         <v>29</v>
@@ -7087,7 +7087,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="AF49" t="n">
         <v>7</v>
@@ -7105,7 +7105,7 @@
         <v>7.8</v>
       </c>
       <c r="AK49" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL49" t="n">
         <v>60</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J50" t="n">
         <v>3.15</v>
       </c>
-      <c r="G50" t="n">
-        <v>4</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K50" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
@@ -7171,35 +7171,35 @@
         <v>1.06</v>
       </c>
       <c r="N50" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O50" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P50" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="R50" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W50" t="n">
         <v>1.36</v>
       </c>
-      <c r="S50" t="n">
-        <v>3</v>
-      </c>
-      <c r="T50" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U50" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V50" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W50" t="n">
-        <v>1.33</v>
-      </c>
       <c r="X50" t="n">
         <v>970</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>970</v>
       </c>
       <c r="AC50" t="n">
-        <v>970</v>
+        <v>9.6</v>
       </c>
       <c r="AD50" t="n">
         <v>970</v>
@@ -7237,16 +7237,16 @@
         <v>970</v>
       </c>
       <c r="AJ50" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK50" t="n">
         <v>970</v>
       </c>
       <c r="AL50" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM50" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN50" t="n">
         <v>970</v>
@@ -7300,16 +7300,16 @@
         <v>3.45</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M51" t="n">
         <v>1.08</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P51" t="n">
         <v>1.87</v>
@@ -7318,10 +7318,10 @@
         <v>2.1</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="T51" t="n">
         <v>1.83</v>
@@ -7330,10 +7330,10 @@
         <v>2.14</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="X51" t="n">
         <v>12.5</v>
@@ -7417,16 +7417,16 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="G52" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H52" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I52" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J52" t="n">
         <v>3.35</v>
@@ -7438,91 +7438,91 @@
         <v>1.51</v>
       </c>
       <c r="M52" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N52" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="O52" t="n">
         <v>1.46</v>
       </c>
       <c r="P52" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R52" t="n">
         <v>1.22</v>
       </c>
       <c r="S52" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T52" t="n">
         <v>2.08</v>
       </c>
       <c r="U52" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V52" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W52" t="n">
         <v>1.94</v>
       </c>
       <c r="X52" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="Z52" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AA52" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB52" t="n">
-        <v>9.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC52" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="AD52" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AE52" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AF52" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AG52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH52" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AI52" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ52" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AK52" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AL52" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AM52" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN52" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO52" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53">
@@ -7822,13 +7822,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="G55" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="H55" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I55" t="n">
         <v>4.7</v>
@@ -7837,7 +7837,7 @@
         <v>2.9</v>
       </c>
       <c r="K55" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -8092,112 +8092,112 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G57" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H57" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="I57" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J57" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="K57" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
       </c>
       <c r="M57" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N57" t="n">
-        <v>1.56</v>
+        <v>2.7</v>
       </c>
       <c r="O57" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="P57" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="R57" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="S57" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="T57" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="U57" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V57" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W57" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="X57" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA57" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB57" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC57" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD57" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE57" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF57" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG57" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH57" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI57" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK57" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL57" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM57" t="n">
         <v>1000</v>
       </c>
       <c r="AN57" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO57" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58">
@@ -8371,10 +8371,10 @@
         <v>5.7</v>
       </c>
       <c r="I59" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="J59" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K59" t="n">
         <v>3.55</v>
@@ -8497,16 +8497,16 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G60" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H60" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I60" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J60" t="n">
         <v>3.25</v>
@@ -8515,46 +8515,46 @@
         <v>3.8</v>
       </c>
       <c r="L60" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M60" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N60" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="O60" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="P60" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="Q60" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T60" t="n">
         <v>2.16</v>
       </c>
-      <c r="R60" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S60" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T60" t="n">
-        <v>2.06</v>
-      </c>
       <c r="U60" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="V60" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="W60" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X60" t="n">
         <v>970</v>
       </c>
       <c r="Y60" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="Z60" t="n">
         <v>55</v>
@@ -8575,7 +8575,7 @@
         <v>120</v>
       </c>
       <c r="AF60" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AG60" t="n">
         <v>970</v>
@@ -8599,10 +8599,10 @@
         <v>1000</v>
       </c>
       <c r="AN60" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AO60" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="G2" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
         <v>4.6</v>
       </c>
       <c r="I2" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K2" t="n">
         <v>4.9</v>
@@ -718,13 +718,13 @@
         <v>1.26</v>
       </c>
       <c r="W2" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X2" t="n">
         <v>36</v>
       </c>
       <c r="Y2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z2" t="n">
         <v>48</v>
@@ -751,10 +751,10 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="n">
         <v>21</v>
@@ -766,7 +766,7 @@
         <v>22</v>
       </c>
       <c r="AM2" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AN2" t="n">
         <v>5.4</v>
@@ -802,34 +802,34 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="I3" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.47</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>2.24</v>
+        <v>1.43</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="P3" t="n">
         <v>1.43</v>
@@ -844,16 +844,16 @@
         <v>2.28</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="V3" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W3" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X3" t="n">
         <v>10.5</v>
@@ -862,31 +862,31 @@
         <v>9.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>55</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC3" t="n">
         <v>8.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AF3" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AG3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
         <v>80</v>
@@ -940,13 +940,13 @@
         <v>2.86</v>
       </c>
       <c r="G4" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
         <v>2.22</v>
       </c>
       <c r="I4" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="J4" t="n">
         <v>3.15</v>
@@ -958,10 +958,10 @@
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
         <v>1.06</v>
@@ -973,10 +973,10 @@
         <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S4" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -985,10 +985,10 @@
         <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1081,7 +1081,7 @@
         <v>2.66</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="J5" t="n">
         <v>2.42</v>
@@ -1120,7 +1120,7 @@
         <v>1.6</v>
       </c>
       <c r="V5" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="W5" t="n">
         <v>1.33</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.46</v>
+        <v>2.76</v>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="K6" t="n">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="L6" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>1.45</v>
+        <v>2.26</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="P6" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.44</v>
       </c>
-      <c r="Q6" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.39</v>
-      </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>2.66</v>
       </c>
       <c r="H7" t="n">
         <v>3.35</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="K7" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>2.44</v>
+        <v>1.45</v>
       </c>
       <c r="O7" t="n">
-        <v>1.48</v>
+        <v>1.06</v>
       </c>
       <c r="P7" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R7" t="n">
         <v>1.12</v>
       </c>
       <c r="S7" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="V7" t="n">
         <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="G8" t="n">
         <v>970</v>
@@ -1627,7 +1627,7 @@
         <v>2.78</v>
       </c>
       <c r="K9" t="n">
-        <v>5.8</v>
+        <v>970</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1660,7 +1660,7 @@
         <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W9" t="n">
         <v>1.37</v>
@@ -1882,40 +1882,40 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="G11" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="H11" t="n">
         <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="J11" t="n">
-        <v>2.98</v>
+        <v>2.84</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L11" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N11" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="O11" t="n">
         <v>1.62</v>
       </c>
       <c r="P11" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="R11" t="n">
         <v>1.15</v>
@@ -1924,7 +1924,7 @@
         <v>5.7</v>
       </c>
       <c r="T11" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="U11" t="n">
         <v>1.53</v>
@@ -1933,25 +1933,25 @@
         <v>1.13</v>
       </c>
       <c r="W11" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="X11" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y11" t="n">
         <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD11" t="n">
         <v>970</v>
@@ -1960,10 +1960,10 @@
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG11" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
         <v>970</v>
@@ -1972,7 +1972,7 @@
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
         <v>1000</v>
@@ -2056,7 +2056,7 @@
         <v>1.45</v>
       </c>
       <c r="S12" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T12" t="n">
         <v>2.12</v>
@@ -2065,7 +2065,7 @@
         <v>1.71</v>
       </c>
       <c r="V12" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W12" t="n">
         <v>3.85</v>
@@ -2083,19 +2083,19 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD12" t="n">
         <v>980</v>
       </c>
       <c r="AE12" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AG12" t="n">
         <v>13</v>
@@ -2104,10 +2104,10 @@
         <v>980</v>
       </c>
       <c r="AI12" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK12" t="n">
         <v>19</v>
@@ -2116,13 +2116,13 @@
         <v>60</v>
       </c>
       <c r="AM12" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN12" t="n">
         <v>6.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13">
@@ -2155,10 +2155,10 @@
         <v>2.7</v>
       </c>
       <c r="G13" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="H13" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="I13" t="n">
         <v>3.1</v>
@@ -2170,16 +2170,16 @@
         <v>3.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>1.72</v>
+        <v>3.05</v>
       </c>
       <c r="O13" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P13" t="n">
         <v>1.72</v>
@@ -2188,76 +2188,76 @@
         <v>2.14</v>
       </c>
       <c r="R13" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S13" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V13" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W13" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -2293,13 +2293,13 @@
         <v>1.6</v>
       </c>
       <c r="H14" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I14" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K14" t="n">
         <v>4.7</v>
@@ -2311,88 +2311,88 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
         <v>2.32</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="R14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="T14" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V14" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W14" t="n">
         <v>2.66</v>
       </c>
       <c r="X14" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD14" t="n">
         <v>26</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AE14" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL14" t="n">
         <v>32</v>
       </c>
-      <c r="Z14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>210</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>36</v>
-      </c>
       <c r="AM14" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN14" t="n">
         <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
@@ -2452,13 +2452,13 @@
         <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q15" t="n">
         <v>1.82</v>
       </c>
       <c r="R15" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S15" t="n">
         <v>3</v>
@@ -2575,7 +2575,7 @@
         <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2587,22 +2587,22 @@
         <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="Q16" t="n">
         <v>1.68</v>
       </c>
       <c r="R16" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S16" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="T16" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U16" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="V16" t="n">
         <v>1.33</v>
@@ -2611,7 +2611,7 @@
         <v>1.96</v>
       </c>
       <c r="X16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y16" t="n">
         <v>1000</v>
@@ -2620,7 +2620,7 @@
         <v>970</v>
       </c>
       <c r="AA16" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="n">
         <v>12.5</v>
@@ -2635,7 +2635,7 @@
         <v>970</v>
       </c>
       <c r="AF16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
@@ -2695,7 +2695,7 @@
         <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H17" t="n">
         <v>1.84</v>
@@ -2830,28 +2830,28 @@
         <v>2.58</v>
       </c>
       <c r="G18" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="H18" t="n">
         <v>2.64</v>
       </c>
       <c r="I18" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J18" t="n">
         <v>3.7</v>
       </c>
       <c r="K18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>2.12</v>
+        <v>4.2</v>
       </c>
       <c r="O18" t="n">
         <v>1.24</v>
@@ -2863,76 +2863,76 @@
         <v>1.66</v>
       </c>
       <c r="R18" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="S18" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="V18" t="n">
         <v>1.52</v>
       </c>
       <c r="W18" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
@@ -2965,7 +2965,7 @@
         <v>4.6</v>
       </c>
       <c r="G19" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H19" t="n">
         <v>1.83</v>
@@ -2983,7 +2983,7 @@
         <v>1.41</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
         <v>3.25</v>
@@ -2995,13 +2995,13 @@
         <v>1.74</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="R19" t="n">
         <v>1.27</v>
       </c>
       <c r="S19" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="T19" t="n">
         <v>1.92</v>
@@ -3121,19 +3121,19 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="O20" t="n">
         <v>1.01</v>
       </c>
       <c r="P20" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q20" t="n">
         <v>2.02</v>
       </c>
       <c r="R20" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="S20" t="n">
         <v>3.35</v>
@@ -3145,7 +3145,7 @@
         <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W20" t="n">
         <v>2.32</v>
@@ -3232,25 +3232,25 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G21" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="K21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="M21" t="n">
         <v>1.1</v>
@@ -3271,16 +3271,16 @@
         <v>1.22</v>
       </c>
       <c r="S21" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U21" t="n">
         <v>1.83</v>
       </c>
       <c r="V21" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="W21" t="n">
         <v>1.64</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G22" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H22" t="n">
         <v>2.78</v>
@@ -3385,7 +3385,7 @@
         <v>3.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="M22" t="n">
         <v>1.09</v>
@@ -3394,19 +3394,19 @@
         <v>2.92</v>
       </c>
       <c r="O22" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P22" t="n">
         <v>1.65</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R22" t="n">
         <v>1.24</v>
       </c>
       <c r="S22" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="T22" t="n">
         <v>1.88</v>
@@ -3508,10 +3508,10 @@
         <v>3.95</v>
       </c>
       <c r="H23" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="I23" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J23" t="n">
         <v>3.2</v>
@@ -3520,16 +3520,16 @@
         <v>3.65</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="O23" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P23" t="n">
         <v>1.75</v>
@@ -3538,76 +3538,76 @@
         <v>2.08</v>
       </c>
       <c r="R23" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S23" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T23" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U23" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V23" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="W23" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G24" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I24" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="J24" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="K24" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L24" t="n">
         <v>1.39</v>
@@ -3685,10 +3685,10 @@
         <v>1.96</v>
       </c>
       <c r="V24" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W24" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="X24" t="n">
         <v>970</v>
@@ -3706,7 +3706,7 @@
         <v>10.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD24" t="n">
         <v>970</v>
@@ -3724,7 +3724,7 @@
         <v>970</v>
       </c>
       <c r="AI24" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ24" t="n">
         <v>970</v>
@@ -3778,7 +3778,7 @@
         <v>2.68</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I25" t="n">
         <v>3.65</v>
@@ -3787,7 +3787,7 @@
         <v>3.05</v>
       </c>
       <c r="K25" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3814,7 +3814,7 @@
         <v>3.55</v>
       </c>
       <c r="T25" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U25" t="n">
         <v>1.78</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="G26" t="n">
         <v>2.94</v>
@@ -3916,7 +3916,7 @@
         <v>2.74</v>
       </c>
       <c r="I26" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J26" t="n">
         <v>3.2</v>
@@ -3925,7 +3925,7 @@
         <v>3.8</v>
       </c>
       <c r="L26" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
@@ -3949,13 +3949,13 @@
         <v>3.6</v>
       </c>
       <c r="T26" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U26" t="n">
         <v>2.06</v>
       </c>
       <c r="V26" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W26" t="n">
         <v>1.52</v>
@@ -4048,19 +4048,19 @@
         <v>2.42</v>
       </c>
       <c r="H27" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J27" t="n">
         <v>3.4</v>
       </c>
       <c r="K27" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M27" t="n">
         <v>1.08</v>
@@ -4069,13 +4069,13 @@
         <v>3.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P27" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R27" t="n">
         <v>1.31</v>
@@ -4090,7 +4090,7 @@
         <v>2.06</v>
       </c>
       <c r="V27" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W27" t="n">
         <v>1.71</v>
@@ -4135,7 +4135,7 @@
         <v>980</v>
       </c>
       <c r="AK27" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AL27" t="n">
         <v>980</v>
@@ -4147,7 +4147,7 @@
         <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
@@ -4198,19 +4198,19 @@
         <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="O28" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P28" t="n">
         <v>1.25</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="R28" t="n">
         <v>1.18</v>
@@ -4219,10 +4219,10 @@
         <v>1.01</v>
       </c>
       <c r="T28" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="U28" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="V28" t="n">
         <v>1.3</v>
@@ -4231,58 +4231,58 @@
         <v>1.92</v>
       </c>
       <c r="X28" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Y28" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Z28" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB28" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AE28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AO28" t="n">
         <v>75</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4312,10 +4312,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G29" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H29" t="n">
         <v>4.5</v>
@@ -4324,28 +4324,28 @@
         <v>5.1</v>
       </c>
       <c r="J29" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K29" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M29" t="n">
         <v>1.09</v>
       </c>
       <c r="N29" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="O29" t="n">
         <v>1.42</v>
       </c>
       <c r="P29" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.24</v>
+        <v>1.98</v>
       </c>
       <c r="R29" t="n">
         <v>1.24</v>
@@ -4363,7 +4363,7 @@
         <v>1.26</v>
       </c>
       <c r="W29" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="X29" t="n">
         <v>970</v>
@@ -4453,16 +4453,16 @@
         <v>3.25</v>
       </c>
       <c r="H30" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I30" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="J30" t="n">
         <v>3.15</v>
       </c>
       <c r="K30" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4471,28 +4471,28 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="O30" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P30" t="n">
         <v>1.25</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="R30" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S30" t="n">
         <v>4.1</v>
       </c>
       <c r="T30" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U30" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="V30" t="n">
         <v>1.57</v>
@@ -4585,7 +4585,7 @@
         <v>2.74</v>
       </c>
       <c r="G31" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="H31" t="n">
         <v>2.98</v>
@@ -4597,10 +4597,10 @@
         <v>3.05</v>
       </c>
       <c r="K31" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M31" t="n">
         <v>1.09</v>
@@ -4621,10 +4621,10 @@
         <v>1.23</v>
       </c>
       <c r="S31" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U31" t="n">
         <v>1.89</v>
@@ -4717,25 +4717,25 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G32" t="n">
         <v>11.5</v>
       </c>
       <c r="H32" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="I32" t="n">
         <v>1.36</v>
       </c>
       <c r="J32" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K32" t="n">
         <v>6.2</v>
       </c>
       <c r="L32" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
@@ -4753,7 +4753,7 @@
         <v>1.57</v>
       </c>
       <c r="R32" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S32" t="n">
         <v>2.42</v>
@@ -4762,7 +4762,7 @@
         <v>1.95</v>
       </c>
       <c r="U32" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V32" t="n">
         <v>3.75</v>
@@ -4771,7 +4771,7 @@
         <v>1.09</v>
       </c>
       <c r="X32" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y32" t="n">
         <v>11</v>
@@ -4786,7 +4786,7 @@
         <v>38</v>
       </c>
       <c r="AC32" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD32" t="n">
         <v>10.5</v>
@@ -4813,13 +4813,13 @@
         <v>150</v>
       </c>
       <c r="AL32" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AM32" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN32" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AO32" t="n">
         <v>4.6</v>
@@ -4873,7 +4873,7 @@
         <v>1.25</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N33" t="n">
         <v>5.2</v>
@@ -5026,10 +5026,10 @@
         <v>1.62</v>
       </c>
       <c r="S34" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="T34" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="U34" t="n">
         <v>1.01</v>
@@ -5092,7 +5092,7 @@
         <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="35">
@@ -5122,13 +5122,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G35" t="n">
         <v>2.32</v>
       </c>
       <c r="H35" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="I35" t="n">
         <v>3.05</v>
@@ -5152,13 +5152,13 @@
         <v>1.12</v>
       </c>
       <c r="P35" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="R35" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="S35" t="n">
         <v>1.8</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="G36" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="H36" t="n">
         <v>7</v>
       </c>
       <c r="I36" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="J36" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="K36" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="L36" t="n">
         <v>1.23</v>
@@ -5281,19 +5281,19 @@
         <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="O36" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P36" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="R36" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="S36" t="n">
         <v>2.22</v>
@@ -5305,19 +5305,19 @@
         <v>2.1</v>
       </c>
       <c r="V36" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W36" t="n">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="X36" t="n">
         <v>970</v>
       </c>
       <c r="Y36" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="Z36" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AA36" t="n">
         <v>240</v>
@@ -5410,7 +5410,7 @@
         <v>4.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M37" t="n">
         <v>1.01</v>
@@ -5428,16 +5428,16 @@
         <v>1.48</v>
       </c>
       <c r="R37" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="S37" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="T37" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="U37" t="n">
-        <v>1.01</v>
+        <v>2.6</v>
       </c>
       <c r="V37" t="n">
         <v>1.31</v>
@@ -5446,58 +5446,58 @@
         <v>2</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y37" t="n">
         <v>970</v>
       </c>
       <c r="Z37" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AA37" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AB37" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AC37" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AE37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM37" t="n">
         <v>55</v>
       </c>
-      <c r="AF37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>970</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>75</v>
-      </c>
       <c r="AN37" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="G38" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H38" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I38" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="J38" t="n">
         <v>3.95</v>
@@ -5545,94 +5545,94 @@
         <v>4.6</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M38" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N38" t="n">
-        <v>1.02</v>
+        <v>6</v>
       </c>
       <c r="O38" t="n">
         <v>1.16</v>
       </c>
       <c r="P38" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R38" t="n">
-        <v>1.27</v>
+        <v>1.69</v>
       </c>
       <c r="S38" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T38" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="U38" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="V38" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W38" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X38" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="Y38" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Z38" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AA38" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AB38" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF38" t="n">
         <v>23</v>
       </c>
-      <c r="AC38" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD38" t="n">
+      <c r="AG38" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AO38" t="n">
         <v>23</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>970</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>970</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="39">
@@ -5665,10 +5665,10 @@
         <v>2.74</v>
       </c>
       <c r="G39" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H39" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I39" t="n">
         <v>2.4</v>
@@ -5701,7 +5701,7 @@
         <v>1.6</v>
       </c>
       <c r="S39" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T39" t="n">
         <v>1.54</v>
@@ -5713,7 +5713,7 @@
         <v>1.71</v>
       </c>
       <c r="W39" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X39" t="n">
         <v>970</v>
@@ -5815,7 +5815,7 @@
         <v>4.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M40" t="n">
         <v>1.05</v>
@@ -5836,7 +5836,7 @@
         <v>1.42</v>
       </c>
       <c r="S40" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T40" t="n">
         <v>1.76</v>
@@ -5935,7 +5935,7 @@
         <v>2.72</v>
       </c>
       <c r="G41" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="H41" t="n">
         <v>3.05</v>
@@ -5962,10 +5962,10 @@
         <v>1.45</v>
       </c>
       <c r="P41" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R41" t="n">
         <v>1.26</v>
@@ -5983,7 +5983,7 @@
         <v>1.47</v>
       </c>
       <c r="W41" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X41" t="n">
         <v>10</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G42" t="n">
         <v>2.42</v>
@@ -6079,13 +6079,13 @@
         <v>3.8</v>
       </c>
       <c r="J42" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K42" t="n">
         <v>3.25</v>
       </c>
-      <c r="K42" t="n">
-        <v>3.3</v>
-      </c>
       <c r="L42" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="M42" t="n">
         <v>1.09</v>
@@ -6097,10 +6097,10 @@
         <v>1.4</v>
       </c>
       <c r="P42" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R42" t="n">
         <v>1.28</v>
@@ -6121,7 +6121,7 @@
         <v>1.7</v>
       </c>
       <c r="X42" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y42" t="n">
         <v>15</v>
@@ -6163,7 +6163,7 @@
         <v>32</v>
       </c>
       <c r="AL42" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AM42" t="n">
         <v>140</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="G43" t="n">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="H43" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I43" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="J43" t="n">
         <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N43" t="n">
         <v>3.05</v>
@@ -6232,82 +6232,82 @@
         <v>1.4</v>
       </c>
       <c r="P43" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q43" t="n">
         <v>2.22</v>
       </c>
       <c r="R43" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S43" t="n">
-        <v>2.22</v>
+        <v>4.1</v>
       </c>
       <c r="T43" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U43" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V43" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="W43" t="n">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="X43" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y43" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z43" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA43" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB43" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC43" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD43" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE43" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF43" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG43" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI43" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK43" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL43" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM43" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN43" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G45" t="n">
         <v>2.3</v>
@@ -6487,7 +6487,7 @@
         <v>3.1</v>
       </c>
       <c r="K45" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6496,16 +6496,16 @@
         <v>1.12</v>
       </c>
       <c r="N45" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="O45" t="n">
         <v>1.56</v>
       </c>
       <c r="P45" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="R45" t="n">
         <v>1.19</v>
@@ -6514,10 +6514,10 @@
         <v>5.5</v>
       </c>
       <c r="T45" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U45" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="V45" t="n">
         <v>1.31</v>
@@ -6532,7 +6532,7 @@
         <v>11.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AA45" t="n">
         <v>130</v>
@@ -6544,7 +6544,7 @@
         <v>7.4</v>
       </c>
       <c r="AD45" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AE45" t="n">
         <v>75</v>
@@ -6553,7 +6553,7 @@
         <v>13.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH45" t="n">
         <v>26</v>
@@ -6562,19 +6562,19 @@
         <v>120</v>
       </c>
       <c r="AJ45" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AK45" t="n">
         <v>970</v>
       </c>
       <c r="AL45" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM45" t="n">
         <v>240</v>
       </c>
       <c r="AN45" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AO45" t="n">
         <v>130</v>
@@ -6610,7 +6610,7 @@
         <v>2.3</v>
       </c>
       <c r="G46" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H46" t="n">
         <v>3.2</v>
@@ -6622,19 +6622,19 @@
         <v>3.35</v>
       </c>
       <c r="K46" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L46" t="n">
         <v>1.34</v>
       </c>
       <c r="M46" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>1.83</v>
+        <v>3.4</v>
       </c>
       <c r="O46" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P46" t="n">
         <v>1.83</v>
@@ -6643,76 +6643,76 @@
         <v>2.08</v>
       </c>
       <c r="R46" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="S46" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U46" t="n">
         <v>2.08</v>
       </c>
-      <c r="T46" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.01</v>
-      </c>
       <c r="V46" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W46" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X46" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA46" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB46" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC46" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD46" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF46" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM46" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO46" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47">
@@ -6742,25 +6742,25 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="G47" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H47" t="n">
         <v>7.6</v>
       </c>
       <c r="I47" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J47" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="K47" t="n">
         <v>7.8</v>
       </c>
       <c r="L47" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M47" t="n">
         <v>1.01</v>
@@ -6772,10 +6772,10 @@
         <v>1.13</v>
       </c>
       <c r="P47" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R47" t="n">
         <v>1.81</v>
@@ -6784,22 +6784,22 @@
         <v>1.98</v>
       </c>
       <c r="T47" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U47" t="n">
         <v>2.14</v>
       </c>
       <c r="V47" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="W47" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="X47" t="n">
         <v>970</v>
       </c>
       <c r="Y47" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="Z47" t="n">
         <v>1000</v>
@@ -6877,112 +6877,112 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="G48" t="n">
-        <v>2.12</v>
+        <v>1.92</v>
       </c>
       <c r="H48" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="I48" t="n">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
       <c r="J48" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="K48" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="L48" t="n">
         <v>1.01</v>
       </c>
       <c r="M48" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N48" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O48" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P48" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="R48" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S48" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T48" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="U48" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="V48" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="W48" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="X48" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="Y48" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="Z48" t="n">
         <v>970</v>
       </c>
       <c r="AA48" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AO48" t="n">
         <v>100</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>970</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="49">
@@ -7015,7 +7015,7 @@
         <v>1.18</v>
       </c>
       <c r="G49" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="H49" t="n">
         <v>22</v>
@@ -7024,10 +7024,10 @@
         <v>24</v>
       </c>
       <c r="J49" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K49" t="n">
         <v>8.800000000000001</v>
-      </c>
-      <c r="K49" t="n">
-        <v>9</v>
       </c>
       <c r="L49" t="n">
         <v>1.29</v>
@@ -7051,10 +7051,10 @@
         <v>1.64</v>
       </c>
       <c r="S49" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T49" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="U49" t="n">
         <v>1.58</v>
@@ -7063,7 +7063,7 @@
         <v>1.04</v>
       </c>
       <c r="W49" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="X49" t="n">
         <v>29</v>
@@ -7078,7 +7078,7 @@
         <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC49" t="n">
         <v>19</v>
@@ -7114,7 +7114,7 @@
         <v>410</v>
       </c>
       <c r="AN49" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AO49" t="n">
         <v>1000</v>
@@ -7165,10 +7165,10 @@
         <v>4.5</v>
       </c>
       <c r="L50" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M50" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N50" t="n">
         <v>3.8</v>
@@ -7186,7 +7186,7 @@
         <v>1.38</v>
       </c>
       <c r="S50" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="T50" t="n">
         <v>1.69</v>
@@ -7300,7 +7300,7 @@
         <v>3.45</v>
       </c>
       <c r="L51" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M51" t="n">
         <v>1.08</v>
@@ -7318,7 +7318,7 @@
         <v>2.1</v>
       </c>
       <c r="R51" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S51" t="n">
         <v>3.8</v>
@@ -7417,16 +7417,16 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G52" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H52" t="n">
         <v>4.6</v>
       </c>
       <c r="I52" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J52" t="n">
         <v>3.35</v>
@@ -7441,19 +7441,19 @@
         <v>1.1</v>
       </c>
       <c r="N52" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="O52" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P52" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q52" t="n">
         <v>2.4</v>
       </c>
       <c r="R52" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S52" t="n">
         <v>4.7</v>
@@ -7462,13 +7462,13 @@
         <v>2.08</v>
       </c>
       <c r="U52" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="V52" t="n">
         <v>1.24</v>
       </c>
       <c r="W52" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X52" t="n">
         <v>10.5</v>
@@ -7702,7 +7702,7 @@
         <v>2.8</v>
       </c>
       <c r="K54" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -7822,13 +7822,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G55" t="n">
         <v>2.28</v>
       </c>
       <c r="H55" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I55" t="n">
         <v>4.7</v>
@@ -8092,94 +8092,94 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G57" t="n">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="H57" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="I57" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="J57" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="K57" t="n">
         <v>3.4</v>
       </c>
       <c r="L57" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M57" t="n">
         <v>1.11</v>
       </c>
       <c r="N57" t="n">
-        <v>2.7</v>
+        <v>2.42</v>
       </c>
       <c r="O57" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P57" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="R57" t="n">
         <v>1.19</v>
       </c>
       <c r="S57" t="n">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="T57" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U57" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="V57" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W57" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="X57" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y57" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z57" t="n">
         <v>970</v>
       </c>
       <c r="AA57" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB57" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AC57" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AD57" t="n">
         <v>970</v>
       </c>
       <c r="AE57" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF57" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AG57" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH57" t="n">
         <v>970</v>
       </c>
       <c r="AI57" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ57" t="n">
         <v>970</v>
@@ -8188,7 +8188,7 @@
         <v>970</v>
       </c>
       <c r="AL57" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM57" t="n">
         <v>1000</v>
@@ -8197,7 +8197,7 @@
         <v>970</v>
       </c>
       <c r="AO57" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58">

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
         <v>4.8</v>
@@ -691,7 +691,7 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.13</v>
@@ -715,10 +715,10 @@
         <v>2.98</v>
       </c>
       <c r="V2" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="X2" t="n">
         <v>36</v>
@@ -772,7 +772,7 @@
         <v>5.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -805,10 +805,10 @@
         <v>3.2</v>
       </c>
       <c r="G3" t="n">
-        <v>5.1</v>
+        <v>970</v>
       </c>
       <c r="H3" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
         <v>2.78</v>
@@ -823,25 +823,25 @@
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -856,7 +856,7 @@
         <v>1.25</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="G4" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.76</v>
+        <v>2.56</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -964,31 +964,31 @@
         <v>3.35</v>
       </c>
       <c r="O4" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
         <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T4" t="n">
         <v>1.67</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="W4" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H5" t="n">
         <v>3.35</v>
@@ -1084,34 +1084,34 @@
         <v>5.6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>2.96</v>
+        <v>1.69</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P5" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>1.02</v>
       </c>
       <c r="R5" t="n">
         <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1123,10 +1123,10 @@
         <v>1.22</v>
       </c>
       <c r="W5" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1342,46 +1342,46 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="G7" t="n">
-        <v>2.04</v>
+        <v>1.75</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>8.199999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>1.87</v>
+        <v>3.95</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="Q7" t="n">
         <v>1.59</v>
       </c>
       <c r="R7" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="S7" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1390,10 +1390,10 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="W7" t="n">
-        <v>1.96</v>
+        <v>2.54</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,52 +1477,52 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J8" t="n">
         <v>2.62</v>
       </c>
       <c r="K8" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N8" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P8" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="R8" t="n">
         <v>1.16</v>
       </c>
       <c r="S8" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U8" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V8" t="n">
         <v>1.41</v>
@@ -1531,10 +1531,10 @@
         <v>1.48</v>
       </c>
       <c r="X8" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z8" t="n">
         <v>23</v>
@@ -1543,7 +1543,7 @@
         <v>75</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
@@ -1561,28 +1561,28 @@
         <v>970</v>
       </c>
       <c r="AH8" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI8" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL8" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AO8" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G9" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="H9" t="n">
         <v>3.35</v>
@@ -1627,7 +1627,7 @@
         <v>2.68</v>
       </c>
       <c r="K9" t="n">
-        <v>5.1</v>
+        <v>970</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1660,10 +1660,10 @@
         <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W9" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1888,31 +1888,31 @@
         <v>3.7</v>
       </c>
       <c r="H11" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J11" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="K11" t="n">
-        <v>970</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="O11" t="n">
         <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q11" t="n">
         <v>2.18</v>
@@ -1930,13 +1930,13 @@
         <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W11" t="n">
         <v>1.37</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y11" t="n">
         <v>1000</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q12" t="n">
         <v>2.36</v>
@@ -2161,7 +2161,7 @@
         <v>6.2</v>
       </c>
       <c r="I13" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="J13" t="n">
         <v>3</v>
@@ -2290,7 +2290,7 @@
         <v>1.31</v>
       </c>
       <c r="G14" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="H14" t="n">
         <v>9.199999999999999</v>
@@ -2299,7 +2299,7 @@
         <v>13.5</v>
       </c>
       <c r="J14" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="K14" t="n">
         <v>6.4</v>
@@ -2311,49 +2311,49 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.24</v>
       </c>
       <c r="P14" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R14" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S14" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U14" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="V14" t="n">
         <v>1.08</v>
       </c>
       <c r="W14" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="X14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y14" t="n">
         <v>980</v>
       </c>
       <c r="Z14" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC14" t="n">
         <v>16</v>
@@ -2365,7 +2365,7 @@
         <v>260</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG14" t="n">
         <v>13</v>
@@ -2374,10 +2374,10 @@
         <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
         <v>19</v>
@@ -2389,7 +2389,7 @@
         <v>250</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO14" t="n">
         <v>390</v>
@@ -2425,10 +2425,10 @@
         <v>2.7</v>
       </c>
       <c r="G15" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H15" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="I15" t="n">
         <v>3.1</v>
@@ -2437,19 +2437,19 @@
         <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
         <v>1.59</v>
       </c>
       <c r="O15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P15" t="n">
         <v>1.59</v>
@@ -2572,7 +2572,7 @@
         <v>4.5</v>
       </c>
       <c r="K16" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L16" t="n">
         <v>1.32</v>
@@ -2587,7 +2587,7 @@
         <v>1.21</v>
       </c>
       <c r="P16" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="Q16" t="n">
         <v>1.65</v>
@@ -2596,13 +2596,13 @@
         <v>1.55</v>
       </c>
       <c r="S16" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T16" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U16" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V16" t="n">
         <v>1.17</v>
@@ -2611,7 +2611,7 @@
         <v>2.68</v>
       </c>
       <c r="X16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="n">
         <v>29</v>
@@ -2656,7 +2656,7 @@
         <v>32</v>
       </c>
       <c r="AM16" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
         <v>7</v>
@@ -2698,7 +2698,7 @@
         <v>2.08</v>
       </c>
       <c r="H17" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
         <v>3.9</v>
@@ -2740,10 +2740,10 @@
         <v>2.4</v>
       </c>
       <c r="V17" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W17" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="X17" t="n">
         <v>22</v>
@@ -2785,7 +2785,7 @@
         <v>25</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL17" t="n">
         <v>29</v>
@@ -2830,10 +2830,10 @@
         <v>2.2</v>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H18" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I18" t="n">
         <v>3.65</v>
@@ -2851,34 +2851,34 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P18" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="R18" t="n">
         <v>1.43</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T18" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U18" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V18" t="n">
         <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X18" t="n">
         <v>21</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G19" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H19" t="n">
         <v>2.64</v>
       </c>
       <c r="I19" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J19" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K19" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
@@ -3001,7 +3001,7 @@
         <v>1.44</v>
       </c>
       <c r="S19" t="n">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
       <c r="T19" t="n">
         <v>1.64</v>
@@ -3010,10 +3010,10 @@
         <v>2.32</v>
       </c>
       <c r="V19" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W19" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X19" t="n">
         <v>22</v>
@@ -3040,7 +3040,7 @@
         <v>36</v>
       </c>
       <c r="AF19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG19" t="n">
         <v>15</v>
@@ -3115,10 +3115,10 @@
         <v>3.85</v>
       </c>
       <c r="L20" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
         <v>3.25</v>
@@ -3127,7 +3127,7 @@
         <v>1.35</v>
       </c>
       <c r="P20" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q20" t="n">
         <v>2.1</v>
@@ -3193,7 +3193,7 @@
         <v>90</v>
       </c>
       <c r="AL20" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM20" t="n">
         <v>170</v>
@@ -3235,13 +3235,13 @@
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H21" t="n">
         <v>1.84</v>
       </c>
       <c r="I21" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="J21" t="n">
         <v>3.35</v>
@@ -3265,7 +3265,7 @@
         <v>1.66</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>2.42</v>
       </c>
       <c r="H22" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
         <v>3.95</v>
@@ -3382,7 +3382,7 @@
         <v>3.05</v>
       </c>
       <c r="K22" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L22" t="n">
         <v>1.39</v>
@@ -3511,7 +3511,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J23" t="n">
         <v>3.7</v>
@@ -3520,7 +3520,7 @@
         <v>4.3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
@@ -3550,7 +3550,7 @@
         <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W23" t="n">
         <v>2.32</v>
@@ -3640,10 +3640,10 @@
         <v>2.26</v>
       </c>
       <c r="G24" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
@@ -3676,7 +3676,7 @@
         <v>1.22</v>
       </c>
       <c r="S24" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T24" t="n">
         <v>1.94</v>
@@ -3688,7 +3688,7 @@
         <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="X24" t="n">
         <v>12</v>
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="G25" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I25" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J25" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
         <v>3.5</v>
@@ -3811,7 +3811,7 @@
         <v>1.24</v>
       </c>
       <c r="S25" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="T25" t="n">
         <v>1.87</v>
@@ -3820,10 +3820,10 @@
         <v>1.92</v>
       </c>
       <c r="V25" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W25" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="X25" t="n">
         <v>13</v>
@@ -3910,13 +3910,13 @@
         <v>3.4</v>
       </c>
       <c r="G26" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H26" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I26" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="J26" t="n">
         <v>3.2</v>
@@ -3955,19 +3955,19 @@
         <v>1.98</v>
       </c>
       <c r="V26" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W26" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X26" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y26" t="n">
         <v>11</v>
       </c>
       <c r="Z26" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA26" t="n">
         <v>38</v>
@@ -3979,16 +3979,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
         <v>34</v>
       </c>
       <c r="AF26" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH26" t="n">
         <v>23</v>
@@ -3997,13 +3997,13 @@
         <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK26" t="n">
         <v>60</v>
       </c>
       <c r="AL26" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM26" t="n">
         <v>140</v>
@@ -4078,7 +4078,7 @@
         <v>2.02</v>
       </c>
       <c r="R27" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S27" t="n">
         <v>3.45</v>
@@ -4207,10 +4207,10 @@
         <v>1.33</v>
       </c>
       <c r="P28" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R28" t="n">
         <v>1.31</v>
@@ -4225,7 +4225,7 @@
         <v>2.06</v>
       </c>
       <c r="V28" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="W28" t="n">
         <v>1.51</v>
@@ -4315,13 +4315,13 @@
         <v>2.74</v>
       </c>
       <c r="G29" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="H29" t="n">
         <v>2.98</v>
       </c>
       <c r="I29" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J29" t="n">
         <v>3.1</v>
@@ -4333,13 +4333,13 @@
         <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
         <v>2.82</v>
       </c>
       <c r="O29" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P29" t="n">
         <v>1.63</v>
@@ -4378,7 +4378,7 @@
         <v>55</v>
       </c>
       <c r="AB29" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC29" t="n">
         <v>8.199999999999999</v>
@@ -4390,10 +4390,10 @@
         <v>46</v>
       </c>
       <c r="AF29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG29" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
         <v>24</v>
@@ -4402,10 +4402,10 @@
         <v>70</v>
       </c>
       <c r="AJ29" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK29" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL29" t="n">
         <v>70</v>
@@ -4414,7 +4414,7 @@
         <v>160</v>
       </c>
       <c r="AN29" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AO29" t="n">
         <v>55</v>
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="G30" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
         <v>2.68</v>
@@ -4462,7 +4462,7 @@
         <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4471,7 +4471,7 @@
         <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="O30" t="n">
         <v>1.43</v>
@@ -4480,7 +4480,7 @@
         <v>1.65</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R30" t="n">
         <v>1.24</v>
@@ -4498,7 +4498,7 @@
         <v>1.51</v>
       </c>
       <c r="W30" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X30" t="n">
         <v>12.5</v>
@@ -4600,7 +4600,7 @@
         <v>3.6</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M31" t="n">
         <v>1.08</v>
@@ -4648,7 +4648,7 @@
         <v>80</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="AC31" t="n">
         <v>8.800000000000001</v>
@@ -4762,7 +4762,7 @@
         <v>1.8</v>
       </c>
       <c r="U32" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V32" t="n">
         <v>1.3</v>
@@ -4852,19 +4852,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="G33" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="H33" t="n">
         <v>4.5</v>
       </c>
       <c r="I33" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K33" t="n">
         <v>3.65</v>
@@ -4882,34 +4882,34 @@
         <v>1.42</v>
       </c>
       <c r="P33" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q33" t="n">
         <v>2.22</v>
       </c>
       <c r="R33" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S33" t="n">
         <v>4.2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U33" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V33" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W33" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="X33" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="Y33" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Z33" t="n">
         <v>970</v>
@@ -4918,34 +4918,34 @@
         <v>140</v>
       </c>
       <c r="AB33" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD33" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AE33" t="n">
         <v>90</v>
       </c>
       <c r="AF33" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AG33" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AI33" t="n">
         <v>100</v>
       </c>
       <c r="AJ33" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AK33" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AL33" t="n">
         <v>55</v>
@@ -4954,7 +4954,7 @@
         <v>180</v>
       </c>
       <c r="AN33" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AO33" t="n">
         <v>120</v>
@@ -4996,10 +4996,10 @@
         <v>1.34</v>
       </c>
       <c r="I34" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="K34" t="n">
         <v>6.2</v>
@@ -5026,16 +5026,16 @@
         <v>1.66</v>
       </c>
       <c r="S34" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T34" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U34" t="n">
         <v>1.98</v>
       </c>
       <c r="V34" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="W34" t="n">
         <v>1.09</v>
@@ -5062,7 +5062,7 @@
         <v>10.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF34" t="n">
         <v>100</v>
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="G35" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J35" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K35" t="n">
         <v>4.9</v>
@@ -5158,7 +5158,7 @@
         <v>1.32</v>
       </c>
       <c r="R35" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S35" t="n">
         <v>1.8</v>
@@ -5170,10 +5170,10 @@
         <v>3.1</v>
       </c>
       <c r="V35" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W35" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X35" t="n">
         <v>970</v>
@@ -5224,7 +5224,7 @@
         <v>970</v>
       </c>
       <c r="AN35" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AO35" t="n">
         <v>13.5</v>
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="G36" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="H36" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="I36" t="n">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="J36" t="n">
         <v>4.1</v>
@@ -5281,7 +5281,7 @@
         <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="O36" t="n">
         <v>1.15</v>
@@ -5293,7 +5293,7 @@
         <v>1.43</v>
       </c>
       <c r="R36" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S36" t="n">
         <v>2.12</v>
@@ -5305,10 +5305,10 @@
         <v>1.01</v>
       </c>
       <c r="V36" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="W36" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="X36" t="n">
         <v>1000</v>
@@ -5392,100 +5392,100 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="G37" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="H37" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="I37" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="J37" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="K37" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L37" t="n">
         <v>1.25</v>
       </c>
       <c r="M37" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O37" t="n">
         <v>1.19</v>
       </c>
       <c r="P37" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="R37" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S37" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T37" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="U37" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="V37" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="W37" t="n">
-        <v>2.2</v>
+        <v>2.48</v>
       </c>
       <c r="X37" t="n">
         <v>30</v>
       </c>
       <c r="Y37" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="Z37" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AA37" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AB37" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AC37" t="n">
         <v>13</v>
       </c>
       <c r="AD37" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AE37" t="n">
         <v>65</v>
       </c>
       <c r="AF37" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AG37" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH37" t="n">
         <v>21</v>
       </c>
       <c r="AI37" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ37" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AL37" t="n">
         <v>34</v>
@@ -5494,7 +5494,7 @@
         <v>85</v>
       </c>
       <c r="AN37" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="AO37" t="n">
         <v>970</v>
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="G38" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="H38" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I38" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="J38" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K38" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L38" t="n">
         <v>1.23</v>
@@ -5557,79 +5557,79 @@
         <v>1.17</v>
       </c>
       <c r="P38" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="Q38" t="n">
         <v>1.5</v>
       </c>
       <c r="R38" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S38" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="T38" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="U38" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V38" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W38" t="n">
         <v>3.25</v>
       </c>
       <c r="X38" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="Y38" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="Z38" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA38" t="n">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AB38" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC38" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AD38" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AE38" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF38" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG38" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH38" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AI38" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AJ38" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK38" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AM38" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN38" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="AO38" t="n">
         <v>120</v>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G39" t="n">
         <v>2.04</v>
@@ -5677,7 +5677,7 @@
         <v>3.95</v>
       </c>
       <c r="K39" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5689,7 +5689,7 @@
         <v>2.54</v>
       </c>
       <c r="O39" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P39" t="n">
         <v>2.54</v>
@@ -5704,7 +5704,7 @@
         <v>2.12</v>
       </c>
       <c r="T39" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="U39" t="n">
         <v>1.01</v>
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="G40" t="n">
-        <v>2.58</v>
+        <v>2.32</v>
       </c>
       <c r="H40" t="n">
-        <v>2.58</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="J40" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="K40" t="n">
-        <v>980</v>
+        <v>4.6</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -5821,19 +5821,19 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="O40" t="n">
         <v>1.16</v>
       </c>
       <c r="P40" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q40" t="n">
         <v>1.42</v>
       </c>
       <c r="R40" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S40" t="n">
         <v>2.04</v>
@@ -5845,10 +5845,10 @@
         <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="W40" t="n">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5950,7 +5950,7 @@
         <v>4.7</v>
       </c>
       <c r="L41" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M41" t="n">
         <v>1.02</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G42" t="n">
         <v>1.78</v>
@@ -6079,10 +6079,10 @@
         <v>7</v>
       </c>
       <c r="J42" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="K42" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L42" t="n">
         <v>1.31</v>
@@ -6106,7 +6106,7 @@
         <v>1.42</v>
       </c>
       <c r="S42" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="T42" t="n">
         <v>1.76</v>
@@ -6118,7 +6118,7 @@
         <v>1.18</v>
       </c>
       <c r="W42" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X42" t="n">
         <v>970</v>
@@ -6148,7 +6148,7 @@
         <v>970</v>
       </c>
       <c r="AG42" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AH42" t="n">
         <v>970</v>
@@ -6337,13 +6337,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G44" t="n">
         <v>2.46</v>
       </c>
       <c r="H44" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I44" t="n">
         <v>3.8</v>
@@ -6352,16 +6352,16 @@
         <v>3.15</v>
       </c>
       <c r="K44" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L44" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="M44" t="n">
         <v>1.09</v>
       </c>
       <c r="N44" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O44" t="n">
         <v>1.4</v>
@@ -6385,7 +6385,7 @@
         <v>2.02</v>
       </c>
       <c r="V44" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W44" t="n">
         <v>1.7</v>
@@ -6409,7 +6409,7 @@
         <v>7.8</v>
       </c>
       <c r="AD44" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE44" t="n">
         <v>60</v>
@@ -6427,22 +6427,22 @@
         <v>65</v>
       </c>
       <c r="AJ44" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AK44" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL44" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AM44" t="n">
         <v>140</v>
       </c>
       <c r="AN44" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO44" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45">
@@ -6472,112 +6472,112 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="G45" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="H45" t="n">
-        <v>2.68</v>
+        <v>2.26</v>
       </c>
       <c r="I45" t="n">
-        <v>3.05</v>
+        <v>2.52</v>
       </c>
       <c r="J45" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="K45" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="L45" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M45" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N45" t="n">
-        <v>3.1</v>
+        <v>2.66</v>
       </c>
       <c r="O45" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="P45" t="n">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="R45" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="T45" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U45" t="n">
-        <v>1.98</v>
+        <v>1.81</v>
       </c>
       <c r="V45" t="n">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="W45" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="X45" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AB45" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AC45" t="n">
         <v>7.4</v>
       </c>
       <c r="AD45" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AF45" t="n">
         <v>970</v>
       </c>
       <c r="AG45" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AH45" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AI45" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AJ45" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AK45" t="n">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="AL45" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="AM45" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AN45" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="AO45" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46">
@@ -6607,13 +6607,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G46" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H46" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="I46" t="n">
         <v>3.85</v>
@@ -6622,7 +6622,7 @@
         <v>2.68</v>
       </c>
       <c r="K46" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
@@ -6631,22 +6631,22 @@
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>1.53</v>
+        <v>2.82</v>
       </c>
       <c r="O46" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="P46" t="n">
         <v>1.52</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R46" t="n">
         <v>1.18</v>
       </c>
       <c r="S46" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T46" t="n">
         <v>1.01</v>
@@ -6742,16 +6742,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="H47" t="n">
         <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J47" t="n">
         <v>3.1</v>
@@ -6766,19 +6766,19 @@
         <v>1.11</v>
       </c>
       <c r="N47" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O47" t="n">
         <v>1.56</v>
       </c>
       <c r="P47" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q47" t="n">
         <v>2.68</v>
       </c>
       <c r="R47" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S47" t="n">
         <v>5.5</v>
@@ -6787,19 +6787,19 @@
         <v>2.18</v>
       </c>
       <c r="U47" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V47" t="n">
         <v>1.3</v>
       </c>
       <c r="W47" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="X47" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z47" t="n">
         <v>36</v>
@@ -6826,7 +6826,7 @@
         <v>13.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI47" t="n">
         <v>120</v>
@@ -6844,7 +6844,7 @@
         <v>240</v>
       </c>
       <c r="AN47" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AO47" t="n">
         <v>130</v>
@@ -7012,19 +7012,19 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="H49" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="I49" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J49" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="K49" t="n">
         <v>6.8</v>
@@ -7033,37 +7033,37 @@
         <v>1.01</v>
       </c>
       <c r="M49" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N49" t="n">
         <v>6.2</v>
       </c>
       <c r="O49" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P49" t="n">
         <v>2.82</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R49" t="n">
         <v>1.73</v>
       </c>
       <c r="S49" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T49" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="U49" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="V49" t="n">
         <v>1.13</v>
       </c>
       <c r="W49" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="X49" t="n">
         <v>970</v>
@@ -7117,7 +7117,7 @@
         <v>970</v>
       </c>
       <c r="AO49" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50">
@@ -7150,13 +7150,13 @@
         <v>1.85</v>
       </c>
       <c r="G50" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="H50" t="n">
         <v>4.5</v>
       </c>
       <c r="I50" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J50" t="n">
         <v>3.55</v>
@@ -7165,7 +7165,7 @@
         <v>3.95</v>
       </c>
       <c r="L50" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M50" t="n">
         <v>1.07</v>
@@ -7177,13 +7177,13 @@
         <v>1.35</v>
       </c>
       <c r="P50" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q50" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R50" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S50" t="n">
         <v>3.7</v>
@@ -7198,13 +7198,13 @@
         <v>1.24</v>
       </c>
       <c r="W50" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X50" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Y50" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z50" t="n">
         <v>970</v>
@@ -7213,22 +7213,22 @@
         <v>130</v>
       </c>
       <c r="AB50" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AC50" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD50" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AE50" t="n">
         <v>70</v>
       </c>
       <c r="AF50" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AG50" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AH50" t="n">
         <v>970</v>
@@ -7237,7 +7237,7 @@
         <v>75</v>
       </c>
       <c r="AJ50" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AK50" t="n">
         <v>970</v>
@@ -7249,10 +7249,10 @@
         <v>140</v>
       </c>
       <c r="AN50" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AO50" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51">
@@ -7291,7 +7291,7 @@
         <v>22</v>
       </c>
       <c r="I51" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J51" t="n">
         <v>8.4</v>
@@ -7309,13 +7309,13 @@
         <v>5.7</v>
       </c>
       <c r="O51" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P51" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R51" t="n">
         <v>1.63</v>
@@ -7351,28 +7351,28 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC51" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AD51" t="n">
         <v>80</v>
       </c>
       <c r="AE51" t="n">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="AF51" t="n">
         <v>7</v>
       </c>
       <c r="AG51" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH51" t="n">
         <v>55</v>
       </c>
       <c r="AI51" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AJ51" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AK51" t="n">
         <v>15</v>
@@ -7420,55 +7420,55 @@
         <v>3.1</v>
       </c>
       <c r="G52" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="H52" t="n">
         <v>2.12</v>
       </c>
       <c r="I52" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J52" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K52" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L52" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M52" t="n">
         <v>1.06</v>
       </c>
       <c r="N52" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O52" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P52" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="R52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="W52" t="n">
         <v>1.37</v>
-      </c>
-      <c r="S52" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U52" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V52" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W52" t="n">
-        <v>1.33</v>
       </c>
       <c r="X52" t="n">
         <v>970</v>
@@ -7513,10 +7513,10 @@
         <v>970</v>
       </c>
       <c r="AL52" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM52" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN52" t="n">
         <v>970</v>
@@ -7552,13 +7552,13 @@
         </is>
       </c>
       <c r="F53" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G53" t="n">
         <v>2.58</v>
       </c>
-      <c r="G53" t="n">
-        <v>2.62</v>
-      </c>
       <c r="H53" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I53" t="n">
         <v>3.15</v>
@@ -7582,7 +7582,7 @@
         <v>1.36</v>
       </c>
       <c r="P53" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q53" t="n">
         <v>2.1</v>
@@ -7603,7 +7603,7 @@
         <v>1.46</v>
       </c>
       <c r="W53" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="X53" t="n">
         <v>12.5</v>
@@ -7654,7 +7654,7 @@
         <v>100</v>
       </c>
       <c r="AN53" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO53" t="n">
         <v>36</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G54" t="n">
         <v>2.02</v>
@@ -7699,7 +7699,7 @@
         <v>5.1</v>
       </c>
       <c r="J54" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K54" t="n">
         <v>3.5</v>
@@ -7720,7 +7720,7 @@
         <v>1.63</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R54" t="n">
         <v>1.24</v>
@@ -7747,52 +7747,52 @@
         <v>14</v>
       </c>
       <c r="Z54" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA54" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AB54" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC54" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD54" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE54" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AF54" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG54" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>12</v>
       </c>
       <c r="AH54" t="n">
         <v>25</v>
       </c>
       <c r="AI54" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ54" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK54" t="n">
         <v>26</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>27</v>
       </c>
       <c r="AL54" t="n">
         <v>55</v>
       </c>
       <c r="AM54" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AN54" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO54" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55">
@@ -7960,7 +7960,7 @@
         <v>2.5</v>
       </c>
       <c r="G56" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H56" t="n">
         <v>3.7</v>
@@ -7969,7 +7969,7 @@
         <v>4.1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="K56" t="n">
         <v>2.92</v>
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="G57" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="H57" t="n">
         <v>4.2</v>
       </c>
       <c r="I57" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J57" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="K57" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         <v>2.36</v>
       </c>
       <c r="G58" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="H58" t="n">
         <v>3.15</v>
@@ -8239,7 +8239,7 @@
         <v>4.5</v>
       </c>
       <c r="J58" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="K58" t="n">
         <v>3.8</v>
@@ -8251,13 +8251,13 @@
         <v>1.01</v>
       </c>
       <c r="N58" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O58" t="n">
         <v>1.41</v>
       </c>
       <c r="P58" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q58" t="n">
         <v>2.06</v>
@@ -8269,16 +8269,16 @@
         <v>3.55</v>
       </c>
       <c r="T58" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U58" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V58" t="n">
         <v>1.29</v>
       </c>
       <c r="W58" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="X58" t="n">
         <v>1000</v>
@@ -8362,13 +8362,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="G59" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="H59" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I59" t="n">
         <v>4.1</v>
@@ -8380,25 +8380,25 @@
         <v>3.25</v>
       </c>
       <c r="L59" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="M59" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N59" t="n">
         <v>2.7</v>
       </c>
       <c r="O59" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P59" t="n">
         <v>1.56</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="R59" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S59" t="n">
         <v>5</v>
@@ -8407,49 +8407,49 @@
         <v>2.02</v>
       </c>
       <c r="U59" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V59" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W59" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X59" t="n">
         <v>10.5</v>
       </c>
       <c r="Y59" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z59" t="n">
         <v>970</v>
       </c>
       <c r="AA59" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AB59" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AC59" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD59" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AE59" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF59" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AG59" t="n">
         <v>14</v>
       </c>
       <c r="AH59" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AI59" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ59" t="n">
         <v>970</v>
@@ -8467,7 +8467,7 @@
         <v>970</v>
       </c>
       <c r="AO59" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60">
@@ -8635,16 +8635,16 @@
         <v>1.43</v>
       </c>
       <c r="G61" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="H61" t="n">
-        <v>4.2</v>
+        <v>1.04</v>
       </c>
       <c r="I61" t="n">
         <v>1000</v>
       </c>
       <c r="J61" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K61" t="n">
         <v>3.55</v>
@@ -8779,7 +8779,7 @@
         <v>7</v>
       </c>
       <c r="J62" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K62" t="n">
         <v>3.8</v>
@@ -8788,7 +8788,7 @@
         <v>1.44</v>
       </c>
       <c r="M62" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N62" t="n">
         <v>2.76</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO62"/>
+  <dimension ref="A1:AO61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,10 +676,10 @@
         <v>4.5</v>
       </c>
       <c r="I2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J2" t="n">
         <v>4.8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.7</v>
       </c>
       <c r="K2" t="n">
         <v>4.9</v>
@@ -691,7 +691,7 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O2" t="n">
         <v>1.13</v>
@@ -700,19 +700,19 @@
         <v>3.35</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R2" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="S2" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="T2" t="n">
         <v>1.47</v>
       </c>
       <c r="U2" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
         <v>1.27</v>
@@ -721,7 +721,7 @@
         <v>2.32</v>
       </c>
       <c r="X2" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="n">
         <v>34</v>
@@ -742,10 +742,10 @@
         <v>19.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -760,7 +760,7 @@
         <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL2" t="n">
         <v>21</v>
@@ -826,10 +826,10 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>1.44</v>
+        <v>2.56</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
         <v>1.44</v>
@@ -955,7 +955,7 @@
         <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -967,10 +967,10 @@
         <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="R4" t="n">
         <v>1.27</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="G7" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I7" t="n">
         <v>8.800000000000001</v>
@@ -1357,13 +1357,13 @@
         <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="L7" t="n">
         <v>1.27</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
         <v>3.95</v>
@@ -1378,10 +1378,10 @@
         <v>1.59</v>
       </c>
       <c r="R7" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1393,7 +1393,7 @@
         <v>1.13</v>
       </c>
       <c r="W7" t="n">
-        <v>2.54</v>
+        <v>2.3</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1480,16 +1480,16 @@
         <v>2.74</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="K8" t="n">
         <v>3.15</v>
@@ -1510,7 +1510,7 @@
         <v>1.47</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="R8" t="n">
         <v>1.16</v>
@@ -1528,7 +1528,7 @@
         <v>1.41</v>
       </c>
       <c r="W8" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X8" t="n">
         <v>8.800000000000001</v>
@@ -1546,7 +1546,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
         <v>970</v>
@@ -1555,7 +1555,7 @@
         <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AG8" t="n">
         <v>970</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G9" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="H9" t="n">
         <v>3.35</v>
@@ -1663,7 +1663,7 @@
         <v>1.28</v>
       </c>
       <c r="W9" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,55 +1738,55 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>Neftchi Baku</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Zira</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>2.46</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>3.35</v>
       </c>
       <c r="J10" t="n">
-        <v>1.03</v>
+        <v>2.84</v>
       </c>
       <c r="K10" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>1.25</v>
+        <v>1.92</v>
       </c>
       <c r="O10" t="n">
         <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>2.18</v>
       </c>
       <c r="R10" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>1.9</v>
+        <v>2.18</v>
       </c>
       <c r="T10" t="n">
         <v>1.01</v>
@@ -1795,13 +1795,13 @@
         <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.14</v>
+        <v>1.42</v>
       </c>
       <c r="W10" t="n">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,70 +1873,70 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Neftchi Baku</t>
+          <t>FC Metaloglobus Bucuresti</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Zira</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.46</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>3.7</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>2.38</v>
+        <v>1.7</v>
       </c>
       <c r="I11" t="n">
-        <v>3.35</v>
+        <v>1.8</v>
       </c>
       <c r="J11" t="n">
-        <v>2.84</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M11" t="n">
         <v>1.01</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
       <c r="N11" t="n">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P11" t="n">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="R11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S11" t="n">
-        <v>2.18</v>
+        <v>4</v>
       </c>
       <c r="T11" t="n">
         <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="V11" t="n">
-        <v>1.42</v>
+        <v>2.24</v>
       </c>
       <c r="W11" t="n">
-        <v>1.37</v>
+        <v>1.14</v>
       </c>
       <c r="X11" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
         <v>1000</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucuresti</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>1.9</v>
       </c>
       <c r="G12" t="n">
-        <v>8</v>
+        <v>2.04</v>
       </c>
       <c r="H12" t="n">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.8</v>
+        <v>6.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>2.82</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="P12" t="n">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.36</v>
+        <v>3.1</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.79</v>
+        <v>1.31</v>
       </c>
       <c r="G13" t="n">
-        <v>1.92</v>
+        <v>1.36</v>
       </c>
       <c r="H13" t="n">
-        <v>6.2</v>
+        <v>10</v>
       </c>
       <c r="I13" t="n">
-        <v>7.6</v>
+        <v>13.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="K13" t="n">
-        <v>3.55</v>
+        <v>6.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
       <c r="M13" t="n">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.65</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>1.42</v>
+        <v>2.14</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.8</v>
+        <v>1.71</v>
       </c>
       <c r="R13" t="n">
-        <v>1.14</v>
+        <v>1.45</v>
       </c>
       <c r="S13" t="n">
-        <v>6</v>
+        <v>2.82</v>
       </c>
       <c r="T13" t="n">
-        <v>2.6</v>
+        <v>2.16</v>
       </c>
       <c r="U13" t="n">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="V13" t="n">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="W13" t="n">
-        <v>2.08</v>
+        <v>3.7</v>
       </c>
       <c r="X13" t="n">
-        <v>8.199999999999999</v>
+        <v>25</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z13" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>6.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.199999999999999</v>
+        <v>16</v>
       </c>
       <c r="AD13" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AF13" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>APOEL</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.31</v>
+        <v>2.7</v>
       </c>
       <c r="G14" t="n">
-        <v>1.39</v>
+        <v>2.94</v>
       </c>
       <c r="H14" t="n">
-        <v>9.199999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="I14" t="n">
-        <v>13.5</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
-        <v>5.5</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
-        <v>6.4</v>
+        <v>3.45</v>
       </c>
       <c r="L14" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.2</v>
+        <v>1.59</v>
       </c>
       <c r="O14" t="n">
-        <v>1.24</v>
+        <v>1.05</v>
       </c>
       <c r="P14" t="n">
-        <v>2.14</v>
+        <v>1.59</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="S14" t="n">
-        <v>2.78</v>
+        <v>3.5</v>
       </c>
       <c r="T14" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.08</v>
+        <v>1.47</v>
       </c>
       <c r="W14" t="n">
-        <v>3.6</v>
+        <v>1.52</v>
       </c>
       <c r="X14" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Villefranche Beaujolais</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.7</v>
+        <v>1.56</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94</v>
+        <v>1.59</v>
       </c>
       <c r="H15" t="n">
-        <v>2.78</v>
+        <v>6.6</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>6.8</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="K15" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>1.59</v>
+        <v>5.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.05</v>
+        <v>1.21</v>
       </c>
       <c r="P15" t="n">
-        <v>1.59</v>
+        <v>2.38</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="R15" t="n">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="S15" t="n">
-        <v>3.5</v>
+        <v>2.66</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="V15" t="n">
-        <v>1.47</v>
+        <v>1.17</v>
       </c>
       <c r="W15" t="n">
-        <v>1.52</v>
+        <v>2.68</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,126 +2543,126 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>SV Darmstadt</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.57</v>
+        <v>1.99</v>
       </c>
       <c r="G16" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="H16" t="n">
-        <v>6.6</v>
+        <v>3.75</v>
       </c>
       <c r="I16" t="n">
-        <v>6.8</v>
+        <v>3.95</v>
       </c>
       <c r="J16" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="K16" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="R16" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="S16" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="T16" t="n">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="U16" t="n">
-        <v>2.14</v>
+        <v>2.42</v>
       </c>
       <c r="V16" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="W16" t="n">
-        <v>2.68</v>
+        <v>1.96</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AA16" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="n">
         <v>12.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="AF16" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG16" t="n">
         <v>10.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM16" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AO16" t="n">
-        <v>80</v>
+        <v>970</v>
       </c>
     </row>
     <row r="17">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SV Darmstadt</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="G17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P17" t="n">
         <v>2.08</v>
       </c>
-      <c r="H17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U17" t="n">
         <v>2.3</v>
       </c>
-      <c r="Q17" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.4</v>
-      </c>
       <c r="V17" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="W17" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="X17" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AA17" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF17" t="n">
         <v>16</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AG17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO17" t="n">
         <v>40</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Viktoria Koln</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Saarbrucken</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.2</v>
+        <v>2.56</v>
       </c>
       <c r="G18" t="n">
-        <v>2.28</v>
+        <v>2.84</v>
       </c>
       <c r="H18" t="n">
-        <v>3.45</v>
+        <v>2.66</v>
       </c>
       <c r="I18" t="n">
-        <v>3.65</v>
+        <v>2.88</v>
       </c>
       <c r="J18" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="P18" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.86</v>
+        <v>1.66</v>
       </c>
       <c r="R18" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S18" t="n">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="T18" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="U18" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V18" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="W18" t="n">
-        <v>1.78</v>
+        <v>1.54</v>
       </c>
       <c r="X18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y18" t="n">
         <v>16</v>
       </c>
       <c r="Z18" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AA18" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AC18" t="n">
         <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AF18" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AJ18" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AK18" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AM18" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN18" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Viktoria Koln</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Saarbrucken</t>
+          <t>Academico de Viseu</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.58</v>
+        <v>4.4</v>
       </c>
       <c r="G19" t="n">
-        <v>2.84</v>
+        <v>5.2</v>
       </c>
       <c r="H19" t="n">
-        <v>2.64</v>
+        <v>1.88</v>
       </c>
       <c r="I19" t="n">
-        <v>2.88</v>
+        <v>2.02</v>
       </c>
       <c r="J19" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="O19" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="P19" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2.12</v>
       </c>
-      <c r="Q19" t="n">
-        <v>1.65</v>
-      </c>
       <c r="R19" t="n">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="S19" t="n">
-        <v>2.76</v>
+        <v>3.85</v>
       </c>
       <c r="T19" t="n">
-        <v>1.64</v>
+        <v>1.9</v>
       </c>
       <c r="U19" t="n">
-        <v>2.32</v>
+        <v>1.92</v>
       </c>
       <c r="V19" t="n">
-        <v>1.53</v>
+        <v>1.98</v>
       </c>
       <c r="W19" t="n">
-        <v>1.54</v>
+        <v>1.23</v>
       </c>
       <c r="X19" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="Y19" t="n">
-        <v>16</v>
+        <v>9.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AB19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD19" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AH19" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="AK19" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="AM19" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="AO19" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,118 +3088,118 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Academico de Viseu</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H20" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="I20" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="J20" t="n">
         <v>3.35</v>
       </c>
       <c r="K20" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L20" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="O20" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="R20" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="S20" t="n">
         <v>3.7</v>
       </c>
       <c r="T20" t="n">
-        <v>1.92</v>
+        <v>1.72</v>
       </c>
       <c r="U20" t="n">
-        <v>1.89</v>
+        <v>1.55</v>
       </c>
       <c r="V20" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W20" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X20" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="Z20" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA20" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AF20" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AG20" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AH20" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AI20" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AJ20" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,126 +3218,126 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="G21" t="n">
-        <v>5.6</v>
+        <v>2.42</v>
       </c>
       <c r="H21" t="n">
-        <v>1.84</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.96</v>
       </c>
-      <c r="J21" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Le Puy</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.2</v>
+        <v>1.62</v>
       </c>
       <c r="G22" t="n">
-        <v>2.42</v>
+        <v>1.75</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>3.95</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="K22" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>3.15</v>
+        <v>1.25</v>
       </c>
       <c r="O22" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.73</v>
+        <v>1.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="R22" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="S22" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="U22" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.34</v>
+        <v>1.14</v>
       </c>
       <c r="W22" t="n">
-        <v>1.71</v>
+        <v>2.32</v>
       </c>
       <c r="X22" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="F23" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P23" t="n">
         <v>1.61</v>
       </c>
-      <c r="G23" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-      <c r="I23" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.25</v>
-      </c>
       <c r="Q23" t="n">
-        <v>1.89</v>
+        <v>2.34</v>
       </c>
       <c r="R23" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="S23" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="U23" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V23" t="n">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="W23" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Bourg-en-Bresse</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.26</v>
+        <v>2.62</v>
       </c>
       <c r="G24" t="n">
-        <v>2.52</v>
+        <v>3.15</v>
       </c>
       <c r="H24" t="n">
-        <v>3.35</v>
+        <v>2.8</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L24" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="M24" t="n">
         <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="O24" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="P24" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="R24" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S24" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="T24" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="U24" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="V24" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="W24" t="n">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="X24" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y24" t="n">
         <v>12</v>
       </c>
-      <c r="Y24" t="n">
-        <v>13.5</v>
-      </c>
       <c r="Z24" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AA24" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AC24" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AF24" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AG24" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AJ24" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AL24" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM24" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AN24" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AO24" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
@@ -3763,121 +3763,121 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Paris 13 Atletico</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.62</v>
+        <v>3.4</v>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="H25" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="I25" t="n">
-        <v>3.25</v>
+        <v>2.46</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L25" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="O25" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="P25" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="R25" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="S25" t="n">
         <v>3.85</v>
       </c>
       <c r="T25" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="U25" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="V25" t="n">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="W25" t="n">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
       <c r="X25" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z25" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="AA25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN25" t="n">
         <v>65</v>
       </c>
-      <c r="AB25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>46</v>
-      </c>
       <c r="AO25" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
@@ -3898,127 +3898,127 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.4</v>
+        <v>1.31</v>
       </c>
       <c r="G26" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="H26" t="n">
-        <v>2.2</v>
+        <v>2.88</v>
       </c>
       <c r="I26" t="n">
-        <v>2.46</v>
+        <v>4.2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.2</v>
+        <v>2.84</v>
       </c>
       <c r="K26" t="n">
-        <v>3.65</v>
+        <v>980</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="O26" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="P26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T26" t="n">
         <v>1.74</v>
       </c>
-      <c r="Q26" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.83</v>
-      </c>
       <c r="U26" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="V26" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="W26" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="X26" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Etoile Carouge</t>
         </is>
       </c>
       <c r="F27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R27" t="n">
         <v>1.31</v>
       </c>
-      <c r="G27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K27" t="n">
-        <v>980</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.21</v>
-      </c>
       <c r="S27" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U27" t="n">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="V27" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="W27" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,126 +4163,126 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="G28" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H28" t="n">
-        <v>2.74</v>
+        <v>2.98</v>
       </c>
       <c r="I28" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K28" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="L28" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N28" t="n">
-        <v>3.5</v>
+        <v>2.82</v>
       </c>
       <c r="O28" t="n">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="P28" t="n">
-        <v>1.84</v>
+        <v>1.63</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.97</v>
+        <v>2.36</v>
       </c>
       <c r="R28" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="S28" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.74</v>
+        <v>1.94</v>
       </c>
       <c r="U28" t="n">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="V28" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="W28" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X28" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Z28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA28" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AB28" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG28" t="n">
         <v>15</v>
       </c>
-      <c r="AE28" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>14</v>
-      </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>55</v>
       </c>
-      <c r="AJ28" t="n">
-        <v>970</v>
-      </c>
       <c r="AK28" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AL28" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AM28" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AN28" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AO28" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
@@ -4303,31 +4303,31 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="G29" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I29" t="n">
         <v>2.98</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3.15</v>
       </c>
       <c r="J29" t="n">
         <v>3.1</v>
       </c>
       <c r="K29" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4336,79 +4336,79 @@
         <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="O29" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P29" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="R29" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S29" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="T29" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="U29" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V29" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W29" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="X29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y29" t="n">
         <v>11.5</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>11</v>
       </c>
       <c r="Z29" t="n">
         <v>22</v>
       </c>
       <c r="AA29" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB29" t="n">
         <v>10.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD29" t="n">
         <v>15.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH29" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ29" t="n">
         <v>55</v>
       </c>
       <c r="AK29" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL29" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM29" t="n">
         <v>160</v>
@@ -4417,7 +4417,7 @@
         <v>46</v>
       </c>
       <c r="AO29" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.84</v>
+        <v>2.24</v>
       </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>2.42</v>
       </c>
       <c r="H30" t="n">
-        <v>2.68</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>2.96</v>
+        <v>3.7</v>
       </c>
       <c r="J30" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K30" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M30" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="P30" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="R30" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="S30" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="T30" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="U30" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="V30" t="n">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="W30" t="n">
-        <v>1.47</v>
+        <v>1.71</v>
       </c>
       <c r="X30" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AA30" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AB30" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD30" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AF30" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
         <v>60</v>
       </c>
       <c r="AJ30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>550</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO30" t="n">
         <v>55</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>46</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="31">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.24</v>
+        <v>1.98</v>
       </c>
       <c r="G31" t="n">
-        <v>2.42</v>
+        <v>2.08</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="J31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K31" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="L31" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>3.5</v>
+        <v>1.78</v>
       </c>
       <c r="O31" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="P31" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="R31" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V31" t="n">
         <v>1.3</v>
       </c>
-      <c r="S31" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.37</v>
-      </c>
       <c r="W31" t="n">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z31" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA31" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AB31" t="n">
-        <v>520</v>
+        <v>9.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE31" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ31" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AK31" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AL31" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AM31" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
@@ -4708,127 +4708,127 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="G32" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I32" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="J32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K32" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.85</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>3.65</v>
+        <v>2.98</v>
       </c>
       <c r="O32" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="P32" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="Q32" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W32" t="n">
         <v>1.96</v>
       </c>
-      <c r="R32" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.92</v>
-      </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Z32" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB32" t="n">
-        <v>12.5</v>
+        <v>7.8</v>
       </c>
       <c r="AC32" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG32" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD32" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>15</v>
-      </c>
       <c r="AH32" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AI32" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AK32" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AL32" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,127 +4843,127 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.89</v>
+        <v>10.5</v>
       </c>
       <c r="G33" t="n">
-        <v>2.02</v>
+        <v>11.5</v>
       </c>
       <c r="H33" t="n">
-        <v>4.5</v>
+        <v>1.35</v>
       </c>
       <c r="I33" t="n">
-        <v>5.3</v>
+        <v>1.37</v>
       </c>
       <c r="J33" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="K33" t="n">
-        <v>3.65</v>
+        <v>5.9</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M33" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>2.98</v>
+        <v>5.9</v>
       </c>
       <c r="O33" t="n">
-        <v>1.42</v>
+        <v>1.19</v>
       </c>
       <c r="P33" t="n">
-        <v>1.67</v>
+        <v>2.64</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.22</v>
+        <v>1.57</v>
       </c>
       <c r="R33" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="S33" t="n">
-        <v>4.2</v>
+        <v>2.42</v>
       </c>
       <c r="T33" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U33" t="n">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="V33" t="n">
-        <v>1.24</v>
+        <v>3.7</v>
       </c>
       <c r="W33" t="n">
-        <v>1.98</v>
+        <v>1.1</v>
       </c>
       <c r="X33" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="Y33" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="Z33" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AA33" t="n">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.8</v>
+        <v>40</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="AD33" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>90</v>
+        <v>13.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>970</v>
+        <v>100</v>
       </c>
       <c r="AG33" t="n">
-        <v>11.5</v>
+        <v>38</v>
       </c>
       <c r="AH33" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AI33" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="AJ33" t="n">
-        <v>970</v>
+        <v>380</v>
       </c>
       <c r="AK33" t="n">
-        <v>970</v>
+        <v>150</v>
       </c>
       <c r="AL33" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AM33" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="AN33" t="n">
-        <v>970</v>
+        <v>150</v>
       </c>
       <c r="AO33" t="n">
-        <v>120</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>11</v>
+        <v>2.16</v>
       </c>
       <c r="G34" t="n">
-        <v>11.5</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
-        <v>1.34</v>
+        <v>2.86</v>
       </c>
       <c r="I34" t="n">
-        <v>1.36</v>
+        <v>3.1</v>
       </c>
       <c r="J34" t="n">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="K34" t="n">
-        <v>6.2</v>
+        <v>4.9</v>
       </c>
       <c r="L34" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="M34" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="O34" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="P34" t="n">
-        <v>2.64</v>
+        <v>3.35</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.57</v>
+        <v>1.32</v>
       </c>
       <c r="R34" t="n">
-        <v>1.66</v>
+        <v>1.97</v>
       </c>
       <c r="S34" t="n">
-        <v>2.42</v>
+        <v>1.8</v>
       </c>
       <c r="T34" t="n">
-        <v>1.96</v>
+        <v>1.4</v>
       </c>
       <c r="U34" t="n">
-        <v>1.98</v>
+        <v>3.1</v>
       </c>
       <c r="V34" t="n">
-        <v>3.8</v>
+        <v>1.47</v>
       </c>
       <c r="W34" t="n">
-        <v>1.09</v>
+        <v>1.76</v>
       </c>
       <c r="X34" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="Y34" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="Z34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>970</v>
+      </c>
+      <c r="AN34" t="n">
         <v>9</v>
       </c>
-      <c r="AA34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC34" t="n">
+      <c r="AO34" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>38</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>470</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>170</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>4.6</v>
       </c>
     </row>
     <row r="35">
@@ -5113,25 +5113,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.16</v>
+        <v>4.2</v>
       </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>6.8</v>
       </c>
       <c r="H35" t="n">
-        <v>2.86</v>
+        <v>1.62</v>
       </c>
       <c r="I35" t="n">
-        <v>3.1</v>
+        <v>1.92</v>
       </c>
       <c r="J35" t="n">
         <v>4.1</v>
@@ -5140,94 +5140,94 @@
         <v>4.9</v>
       </c>
       <c r="L35" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>6.8</v>
+        <v>2.36</v>
       </c>
       <c r="O35" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="P35" t="n">
-        <v>3.35</v>
+        <v>2.36</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.32</v>
+        <v>1.64</v>
       </c>
       <c r="R35" t="n">
-        <v>1.97</v>
+        <v>1.56</v>
       </c>
       <c r="S35" t="n">
-        <v>1.8</v>
+        <v>2.16</v>
       </c>
       <c r="T35" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="U35" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="V35" t="n">
-        <v>1.47</v>
+        <v>2.08</v>
       </c>
       <c r="W35" t="n">
-        <v>1.76</v>
+        <v>1.17</v>
       </c>
       <c r="X35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4.5</v>
+        <v>1.64</v>
       </c>
       <c r="G36" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="X36" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN36" t="n">
         <v>6.8</v>
       </c>
-      <c r="H36" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J36" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K36" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V36" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="X36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37">
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.59</v>
+        <v>1.37</v>
       </c>
       <c r="G37" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="H37" t="n">
-        <v>5.3</v>
+        <v>7.6</v>
       </c>
       <c r="I37" t="n">
-        <v>6.2</v>
+        <v>9.4</v>
       </c>
       <c r="J37" t="n">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="K37" t="n">
-        <v>4.7</v>
+        <v>6.4</v>
       </c>
       <c r="L37" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M37" t="n">
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="O37" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P37" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="R37" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="S37" t="n">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="T37" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="U37" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="V37" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="W37" t="n">
-        <v>2.48</v>
+        <v>3.3</v>
       </c>
       <c r="X37" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="Y37" t="n">
         <v>970</v>
       </c>
       <c r="Z37" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="AB37" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC37" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AD37" t="n">
         <v>970</v>
       </c>
       <c r="AE37" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AF37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG37" t="n">
         <v>11</v>
       </c>
       <c r="AH37" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI37" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AJ37" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AL37" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AM37" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AN37" t="n">
-        <v>6.8</v>
+        <v>5.1</v>
       </c>
       <c r="AO37" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.37</v>
+        <v>1.9</v>
       </c>
       <c r="G38" t="n">
-        <v>1.43</v>
+        <v>2.04</v>
       </c>
       <c r="H38" t="n">
-        <v>7.6</v>
+        <v>3.85</v>
       </c>
       <c r="I38" t="n">
-        <v>9</v>
+        <v>4.4</v>
       </c>
       <c r="J38" t="n">
-        <v>5.4</v>
+        <v>3.95</v>
       </c>
       <c r="K38" t="n">
-        <v>6.4</v>
+        <v>4.4</v>
       </c>
       <c r="L38" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="M38" t="n">
         <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>5.9</v>
+        <v>2.54</v>
       </c>
       <c r="O38" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P38" t="n">
-        <v>2.66</v>
+        <v>2.54</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R38" t="n">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="S38" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="T38" t="n">
-        <v>1.77</v>
+        <v>1.45</v>
       </c>
       <c r="U38" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="V38" t="n">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="W38" t="n">
-        <v>3.25</v>
+        <v>1.96</v>
       </c>
       <c r="X38" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="Y38" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="Z38" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM38" t="n">
         <v>80</v>
       </c>
-      <c r="AA38" t="n">
-        <v>280</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>970</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>130</v>
-      </c>
       <c r="AN38" t="n">
-        <v>5.1</v>
+        <v>11.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39">
@@ -5653,118 +5653,118 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.9</v>
+        <v>2.18</v>
       </c>
       <c r="G39" t="n">
-        <v>2.04</v>
+        <v>2.32</v>
       </c>
       <c r="H39" t="n">
-        <v>3.85</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>4.4</v>
+        <v>3.45</v>
       </c>
       <c r="J39" t="n">
         <v>3.95</v>
       </c>
       <c r="K39" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M39" t="n">
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>2.54</v>
+        <v>1.6</v>
       </c>
       <c r="O39" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P39" t="n">
-        <v>2.54</v>
+        <v>1.6</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="R39" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S39" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="T39" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="U39" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="V39" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="W39" t="n">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
       <c r="X39" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z39" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AC39" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AD39" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE39" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG39" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH39" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI39" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5788,127 +5788,127 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.1</v>
+        <v>2.72</v>
       </c>
       <c r="G40" t="n">
-        <v>2.32</v>
+        <v>2.98</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2.24</v>
       </c>
       <c r="I40" t="n">
-        <v>3.45</v>
+        <v>2.42</v>
       </c>
       <c r="J40" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="K40" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N40" t="n">
-        <v>1.6</v>
+        <v>5.6</v>
       </c>
       <c r="O40" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P40" t="n">
-        <v>1.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="R40" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S40" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="T40" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>2.52</v>
       </c>
       <c r="V40" t="n">
-        <v>1.4</v>
+        <v>1.71</v>
       </c>
       <c r="W40" t="n">
-        <v>1.76</v>
+        <v>1.5</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM40" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,111 +5918,111 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>FC Wil</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.68</v>
+        <v>1.64</v>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>1.77</v>
       </c>
       <c r="H41" t="n">
-        <v>2.26</v>
+        <v>5.2</v>
       </c>
       <c r="I41" t="n">
-        <v>2.42</v>
+        <v>6.6</v>
       </c>
       <c r="J41" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="K41" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L41" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="M41" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N41" t="n">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="O41" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="P41" t="n">
-        <v>2.54</v>
+        <v>2.06</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="R41" t="n">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="S41" t="n">
-        <v>2.26</v>
+        <v>2.78</v>
       </c>
       <c r="T41" t="n">
-        <v>1.53</v>
+        <v>1.76</v>
       </c>
       <c r="U41" t="n">
-        <v>2.48</v>
+        <v>2.04</v>
       </c>
       <c r="V41" t="n">
-        <v>1.71</v>
+        <v>1.17</v>
       </c>
       <c r="W41" t="n">
-        <v>1.51</v>
+        <v>2.28</v>
       </c>
       <c r="X41" t="n">
         <v>970</v>
       </c>
       <c r="Y41" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="Z41" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AA41" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AC41" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AD41" t="n">
         <v>970</v>
       </c>
       <c r="AE41" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AF41" t="n">
         <v>970</v>
       </c>
       <c r="AG41" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AH41" t="n">
         <v>970</v>
       </c>
       <c r="AI41" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AJ41" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AK41" t="n">
         <v>970</v>
@@ -6031,19 +6031,19 @@
         <v>970</v>
       </c>
       <c r="AM41" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AN41" t="n">
         <v>970</v>
       </c>
       <c r="AO41" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,132 +6053,132 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>St Pauli</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FC Wil</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.65</v>
+        <v>2.78</v>
       </c>
       <c r="G42" t="n">
-        <v>1.78</v>
+        <v>2.82</v>
       </c>
       <c r="H42" t="n">
-        <v>5.2</v>
+        <v>2.98</v>
       </c>
       <c r="I42" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X42" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC42" t="n">
         <v>7</v>
       </c>
-      <c r="J42" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K42" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N42" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P42" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U42" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W42" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="X42" t="n">
-        <v>970</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z42" t="n">
+      <c r="AD42" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL42" t="n">
         <v>55</v>
       </c>
-      <c r="AA42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>970</v>
-      </c>
       <c r="AM42" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN42" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AO42" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6193,127 +6193,127 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.78</v>
+        <v>2.34</v>
       </c>
       <c r="G43" t="n">
-        <v>2.8</v>
+        <v>2.46</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I43" t="n">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="J43" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K43" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L43" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="M43" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O43" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="P43" t="n">
         <v>1.7</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="R43" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S43" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="T43" t="n">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="U43" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V43" t="n">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="W43" t="n">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="X43" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AA43" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AB43" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AC43" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AD43" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AE43" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AF43" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG43" t="n">
         <v>12.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AI43" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ43" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AK43" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL43" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO43" t="n">
         <v>55</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,121 +6328,121 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Lumezzane</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.32</v>
+        <v>3.25</v>
       </c>
       <c r="G44" t="n">
-        <v>2.46</v>
+        <v>3.8</v>
       </c>
       <c r="H44" t="n">
-        <v>3.45</v>
+        <v>2.34</v>
       </c>
       <c r="I44" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="J44" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K44" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L44" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="M44" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N44" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O44" t="n">
         <v>1.4</v>
       </c>
       <c r="P44" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="R44" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="S44" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="T44" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U44" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="V44" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W44" t="n">
         <v>1.36</v>
       </c>
-      <c r="W44" t="n">
-        <v>1.7</v>
-      </c>
       <c r="X44" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>14.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z44" t="n">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="AA44" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ44" t="n">
         <v>75</v>
       </c>
-      <c r="AB44" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>36</v>
-      </c>
       <c r="AK44" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>75</v>
+      </c>
+      <c r="AO44" t="n">
         <v>30</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>970</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="45">
@@ -6463,127 +6463,127 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Lumezzane</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.4</v>
+        <v>2.36</v>
       </c>
       <c r="G45" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="H45" t="n">
-        <v>2.26</v>
+        <v>2.84</v>
       </c>
       <c r="I45" t="n">
-        <v>2.52</v>
+        <v>3.85</v>
       </c>
       <c r="J45" t="n">
-        <v>3.1</v>
+        <v>2.68</v>
       </c>
       <c r="K45" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="L45" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M45" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>2.66</v>
+        <v>1.53</v>
       </c>
       <c r="O45" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="P45" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="R45" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S45" t="n">
-        <v>4.6</v>
+        <v>2.22</v>
       </c>
       <c r="T45" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="U45" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="V45" t="n">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="W45" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="X45" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y45" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z45" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA45" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC45" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD45" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE45" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF45" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG45" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH45" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI45" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK45" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AL45" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AM45" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AO45" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6598,127 +6598,127 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>2.28</v>
       </c>
       <c r="H46" t="n">
-        <v>2.84</v>
+        <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="J46" t="n">
-        <v>2.68</v>
+        <v>3.2</v>
       </c>
       <c r="K46" t="n">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
       </c>
       <c r="M46" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N46" t="n">
-        <v>2.82</v>
+        <v>2.68</v>
       </c>
       <c r="O46" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="P46" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.2</v>
+        <v>2.66</v>
       </c>
       <c r="R46" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S46" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="T46" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="U46" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V46" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="W46" t="n">
-        <v>1.5</v>
+        <v>1.79</v>
       </c>
       <c r="X46" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA46" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB46" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC46" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD46" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF46" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG46" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI46" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM46" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO46" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6728,126 +6728,126 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="G47" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="H47" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="I47" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="J47" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K47" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N47" t="n">
-        <v>2.62</v>
+        <v>3.4</v>
       </c>
       <c r="O47" t="n">
-        <v>1.56</v>
+        <v>1.35</v>
       </c>
       <c r="P47" t="n">
-        <v>1.55</v>
+        <v>1.83</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.68</v>
+        <v>2.1</v>
       </c>
       <c r="R47" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="S47" t="n">
-        <v>5.5</v>
+        <v>3.65</v>
       </c>
       <c r="T47" t="n">
-        <v>2.18</v>
+        <v>1.81</v>
       </c>
       <c r="U47" t="n">
-        <v>1.78</v>
+        <v>2.08</v>
       </c>
       <c r="V47" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="W47" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="X47" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="Y47" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="Z47" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AA47" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AB47" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AC47" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD47" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH47" t="n">
         <v>22</v>
       </c>
-      <c r="AE47" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>29</v>
-      </c>
       <c r="AI47" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM47" t="n">
         <v>120</v>
       </c>
-      <c r="AJ47" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>240</v>
-      </c>
       <c r="AN47" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AO47" t="n">
-        <v>130</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48">
@@ -6868,127 +6868,127 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Llanelli Town</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.3</v>
+        <v>1.42</v>
       </c>
       <c r="G48" t="n">
-        <v>2.5</v>
+        <v>1.52</v>
       </c>
       <c r="H48" t="n">
-        <v>3.2</v>
+        <v>6.6</v>
       </c>
       <c r="I48" t="n">
-        <v>3.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J48" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="K48" t="n">
-        <v>3.65</v>
+        <v>6.6</v>
       </c>
       <c r="L48" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M48" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N48" t="n">
-        <v>3.4</v>
+        <v>6.2</v>
       </c>
       <c r="O48" t="n">
-        <v>1.35</v>
+        <v>1.16</v>
       </c>
       <c r="P48" t="n">
-        <v>1.81</v>
+        <v>2.82</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.1</v>
+        <v>1.46</v>
       </c>
       <c r="R48" t="n">
-        <v>1.32</v>
+        <v>1.73</v>
       </c>
       <c r="S48" t="n">
-        <v>3.65</v>
+        <v>2.16</v>
       </c>
       <c r="T48" t="n">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="U48" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="V48" t="n">
-        <v>1.39</v>
+        <v>1.13</v>
       </c>
       <c r="W48" t="n">
-        <v>1.66</v>
+        <v>2.92</v>
       </c>
       <c r="X48" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Y48" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="Z48" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA48" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AC48" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AD48" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AE48" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF48" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AG48" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AH48" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI48" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AK48" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AL48" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AM48" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AO48" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -7003,91 +7003,91 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Arbroath</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Llanelli Town</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.42</v>
+        <v>1.85</v>
       </c>
       <c r="G49" t="n">
-        <v>1.52</v>
+        <v>1.98</v>
       </c>
       <c r="H49" t="n">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="I49" t="n">
-        <v>8.800000000000001</v>
+        <v>5.1</v>
       </c>
       <c r="J49" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="K49" t="n">
-        <v>6.8</v>
+        <v>3.95</v>
       </c>
       <c r="L49" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M49" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N49" t="n">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
       <c r="O49" t="n">
-        <v>1.16</v>
+        <v>1.35</v>
       </c>
       <c r="P49" t="n">
-        <v>2.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.46</v>
+        <v>2.02</v>
       </c>
       <c r="R49" t="n">
-        <v>1.73</v>
+        <v>1.31</v>
       </c>
       <c r="S49" t="n">
-        <v>2.16</v>
+        <v>3.7</v>
       </c>
       <c r="T49" t="n">
-        <v>1.66</v>
+        <v>1.87</v>
       </c>
       <c r="U49" t="n">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="V49" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="W49" t="n">
-        <v>2.92</v>
+        <v>2.02</v>
       </c>
       <c r="X49" t="n">
         <v>970</v>
       </c>
       <c r="Y49" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="Z49" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA49" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB49" t="n">
-        <v>970</v>
+        <v>8.4</v>
       </c>
       <c r="AC49" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="AD49" t="n">
         <v>970</v>
       </c>
       <c r="AE49" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF49" t="n">
         <v>970</v>
@@ -7099,7 +7099,7 @@
         <v>970</v>
       </c>
       <c r="AI49" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ49" t="n">
         <v>970</v>
@@ -7111,19 +7111,19 @@
         <v>970</v>
       </c>
       <c r="AM49" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN49" t="n">
         <v>970</v>
       </c>
       <c r="AO49" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7138,127 +7138,127 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Arbroath</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.85</v>
+        <v>1.19</v>
       </c>
       <c r="G50" t="n">
-        <v>1.99</v>
+        <v>1.2</v>
       </c>
       <c r="H50" t="n">
-        <v>4.5</v>
+        <v>22</v>
       </c>
       <c r="I50" t="n">
-        <v>5.1</v>
+        <v>23</v>
       </c>
       <c r="J50" t="n">
-        <v>3.55</v>
+        <v>8.4</v>
       </c>
       <c r="K50" t="n">
-        <v>3.95</v>
+        <v>8.6</v>
       </c>
       <c r="L50" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M50" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N50" t="n">
-        <v>3.4</v>
+        <v>5.7</v>
       </c>
       <c r="O50" t="n">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="P50" t="n">
-        <v>1.83</v>
+        <v>2.58</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.02</v>
+        <v>1.61</v>
       </c>
       <c r="R50" t="n">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="S50" t="n">
-        <v>3.7</v>
+        <v>2.54</v>
       </c>
       <c r="T50" t="n">
-        <v>1.87</v>
+        <v>2.58</v>
       </c>
       <c r="U50" t="n">
-        <v>1.96</v>
+        <v>1.58</v>
       </c>
       <c r="V50" t="n">
-        <v>1.24</v>
+        <v>1.04</v>
       </c>
       <c r="W50" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X50" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="Y50" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="Z50" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA50" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AC50" t="n">
-        <v>8.6</v>
+        <v>18.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AE50" t="n">
-        <v>70</v>
+        <v>590</v>
       </c>
       <c r="AF50" t="n">
-        <v>970</v>
+        <v>7</v>
       </c>
       <c r="AG50" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AI50" t="n">
-        <v>75</v>
+        <v>390</v>
       </c>
       <c r="AJ50" t="n">
-        <v>970</v>
+        <v>8</v>
       </c>
       <c r="AK50" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AL50" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AM50" t="n">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="AN50" t="n">
-        <v>970</v>
+        <v>3.8</v>
       </c>
       <c r="AO50" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7273,127 +7273,127 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Flint Town United</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.18</v>
+        <v>3.1</v>
       </c>
       <c r="G51" t="n">
-        <v>1.2</v>
+        <v>3.65</v>
       </c>
       <c r="H51" t="n">
-        <v>22</v>
+        <v>2.12</v>
       </c>
       <c r="I51" t="n">
-        <v>23</v>
+        <v>2.4</v>
       </c>
       <c r="J51" t="n">
-        <v>8.4</v>
+        <v>3.25</v>
       </c>
       <c r="K51" t="n">
-        <v>8.800000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="L51" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M51" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N51" t="n">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="O51" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="P51" t="n">
-        <v>2.6</v>
+        <v>2.04</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.6</v>
+        <v>1.79</v>
       </c>
       <c r="R51" t="n">
-        <v>1.63</v>
+        <v>1.4</v>
       </c>
       <c r="S51" t="n">
-        <v>2.52</v>
+        <v>2.96</v>
       </c>
       <c r="T51" t="n">
-        <v>2.6</v>
+        <v>1.68</v>
       </c>
       <c r="U51" t="n">
-        <v>1.58</v>
+        <v>2.2</v>
       </c>
       <c r="V51" t="n">
-        <v>1.04</v>
+        <v>1.71</v>
       </c>
       <c r="W51" t="n">
-        <v>6</v>
+        <v>1.37</v>
       </c>
       <c r="X51" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="Y51" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="Z51" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA51" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB51" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AC51" t="n">
-        <v>19.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD51" t="n">
-        <v>80</v>
+        <v>970</v>
       </c>
       <c r="AE51" t="n">
-        <v>610</v>
+        <v>970</v>
       </c>
       <c r="AF51" t="n">
-        <v>7</v>
+        <v>970</v>
       </c>
       <c r="AG51" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH51" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AI51" t="n">
-        <v>400</v>
+        <v>970</v>
       </c>
       <c r="AJ51" t="n">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="AK51" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AL51" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM51" t="n">
-        <v>420</v>
+        <v>95</v>
       </c>
       <c r="AN51" t="n">
-        <v>3.7</v>
+        <v>970</v>
       </c>
       <c r="AO51" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7403,132 +7403,132 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="F52" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H52" t="n">
         <v>3.1</v>
       </c>
-      <c r="G52" t="n">
+      <c r="I52" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N52" t="n">
         <v>3.65</v>
       </c>
-      <c r="H52" t="n">
+      <c r="O52" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q52" t="n">
         <v>2.12</v>
       </c>
-      <c r="I52" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K52" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N52" t="n">
-        <v>4</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P52" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1.78</v>
-      </c>
       <c r="R52" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="S52" t="n">
-        <v>2.96</v>
+        <v>3.8</v>
       </c>
       <c r="T52" t="n">
-        <v>1.66</v>
+        <v>1.84</v>
       </c>
       <c r="U52" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="V52" t="n">
-        <v>1.71</v>
+        <v>1.45</v>
       </c>
       <c r="W52" t="n">
-        <v>1.37</v>
+        <v>1.63</v>
       </c>
       <c r="X52" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AA52" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AB52" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>9.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AD52" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AE52" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AF52" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AG52" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AI52" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AJ52" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AK52" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AL52" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AM52" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN52" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AO52" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7538,132 +7538,132 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>AVS Futebol SAD</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.56</v>
+        <v>1.96</v>
       </c>
       <c r="G53" t="n">
-        <v>2.58</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="I53" t="n">
-        <v>3.15</v>
+        <v>5</v>
       </c>
       <c r="J53" t="n">
         <v>3.4</v>
       </c>
       <c r="K53" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L53" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="M53" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N53" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="O53" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="P53" t="n">
-        <v>1.88</v>
+        <v>1.64</v>
       </c>
       <c r="Q53" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T53" t="n">
         <v>2.1</v>
       </c>
-      <c r="R53" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S53" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1.83</v>
-      </c>
       <c r="U53" t="n">
-        <v>2.14</v>
+        <v>1.82</v>
       </c>
       <c r="V53" t="n">
-        <v>1.46</v>
+        <v>1.25</v>
       </c>
       <c r="W53" t="n">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="X53" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y53" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="Z53" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD53" t="n">
         <v>21</v>
       </c>
-      <c r="AA53" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AE53" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AF53" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AG53" t="n">
         <v>11.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="AI53" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AJ53" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AK53" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL53" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AM53" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="AN53" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO53" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7673,132 +7673,132 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Deportivo Recoleta</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>AVS Futebol SAD</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>1.63</v>
+        <v>1.24</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="R54" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="W54" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z54" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AB54" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AC54" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AD54" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AF54" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG54" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH54" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AI54" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AJ54" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AK54" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AL54" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM54" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN54" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AO54" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7808,36 +7808,36 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -7852,10 +7852,10 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -7943,36 +7943,36 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="G56" t="n">
-        <v>2.66</v>
+        <v>2.4</v>
       </c>
       <c r="H56" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="I56" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="J56" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="K56" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -8068,7 +8068,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8078,132 +8078,132 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>Club 2 de Mayo de Pedro Juan Cab</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Sportivo Luquen</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="G57" t="n">
-        <v>2.38</v>
+        <v>2.94</v>
       </c>
       <c r="H57" t="n">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="I57" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J57" t="n">
-        <v>2.82</v>
+        <v>2.3</v>
       </c>
       <c r="K57" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W57" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8213,132 +8213,132 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Club 2 de Mayo de Pedro Juan Cab</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sportivo Luquen</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="F58" t="n">
         <v>2.36</v>
       </c>
       <c r="G58" t="n">
-        <v>2.94</v>
+        <v>2.6</v>
       </c>
       <c r="H58" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="I58" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J58" t="n">
-        <v>2.28</v>
+        <v>2.92</v>
       </c>
       <c r="K58" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="L58" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M58" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N58" t="n">
-        <v>1.57</v>
+        <v>2.7</v>
       </c>
       <c r="O58" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="P58" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.06</v>
+        <v>2.5</v>
       </c>
       <c r="R58" t="n">
         <v>1.2</v>
       </c>
       <c r="S58" t="n">
-        <v>3.55</v>
+        <v>5</v>
       </c>
       <c r="T58" t="n">
-        <v>1.76</v>
+        <v>2.02</v>
       </c>
       <c r="U58" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V58" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="W58" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="X58" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y58" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z58" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA58" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB58" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC58" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD58" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE58" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF58" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG58" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH58" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI58" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ58" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK58" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL58" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM58" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN58" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO58" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -8348,126 +8348,126 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>22:15:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Atl Tucuman</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.36</v>
+        <v>1.5</v>
       </c>
       <c r="G59" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="H59" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I59" t="n">
-        <v>4.1</v>
+        <v>38</v>
       </c>
       <c r="J59" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K59" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L59" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="V59" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="W59" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Y59" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Z59" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AA59" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AB59" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AC59" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AD59" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AE59" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AF59" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AG59" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AH59" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AI59" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AJ59" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AK59" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AL59" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AM59" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AN59" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AO59" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -8488,31 +8488,31 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Atl Tucuman</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.5</v>
+        <v>1.79</v>
       </c>
       <c r="G60" t="n">
-        <v>2.66</v>
+        <v>1.89</v>
       </c>
       <c r="H60" t="n">
-        <v>3.75</v>
+        <v>5.7</v>
       </c>
       <c r="I60" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="J60" t="n">
-        <v>2.96</v>
+        <v>3.3</v>
       </c>
       <c r="K60" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -8608,7 +8608,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8618,260 +8618,125 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>22:15:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.43</v>
+        <v>1.76</v>
       </c>
       <c r="G61" t="n">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="H61" t="n">
-        <v>1.04</v>
+        <v>5</v>
       </c>
       <c r="I61" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="J61" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K61" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R61" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="V61" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W61" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="X61" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Y61" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z61" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA61" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB61" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC61" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD61" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE61" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AF61" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG61" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH61" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI61" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AJ61" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AK61" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AL61" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM61" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN61" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AO61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2026-01-23</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Alianza FC Valledupar</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5</v>
-      </c>
-      <c r="I62" t="n">
-        <v>7</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K62" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L62" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M62" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N62" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="O62" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P62" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R62" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S62" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T62" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U62" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V62" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W62" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="X62" t="n">
-        <v>970</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM62" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>970</v>
-      </c>
-      <c r="AO62" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.76</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.77</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
@@ -706,19 +706,19 @@
         <v>1.97</v>
       </c>
       <c r="S2" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="T2" t="n">
         <v>1.47</v>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="V2" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X2" t="n">
         <v>38</v>
@@ -730,10 +730,10 @@
         <v>46</v>
       </c>
       <c r="AA2" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC2" t="n">
         <v>12</v>
@@ -748,10 +748,10 @@
         <v>16</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
         <v>38</v>
@@ -766,10 +766,10 @@
         <v>21</v>
       </c>
       <c r="AM2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AO2" t="n">
         <v>24</v>
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="G3" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="H3" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="I3" t="n">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="J3" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="N3" t="n">
-        <v>1.45</v>
+        <v>2.56</v>
       </c>
       <c r="O3" t="n">
-        <v>1.07</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S3" t="n">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.05</v>
+        <v>2.06</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="V3" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="W3" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="X3" t="n">
         <v>15.5</v>
@@ -865,49 +865,49 @@
         <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG3" t="n">
         <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="4">
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G4" t="n">
-        <v>1.64</v>
+        <v>1.41</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="I4" t="n">
-        <v>990</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="K4" t="n">
-        <v>12</v>
+        <v>6.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -967,82 +967,82 @@
         <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R4" t="n">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="S4" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.05</v>
+        <v>1.83</v>
       </c>
       <c r="U4" t="n">
-        <v>1.05</v>
+        <v>1.71</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="W4" t="n">
-        <v>2.56</v>
+        <v>3.4</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="J5" t="n">
         <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>970</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>2.62</v>
+        <v>2.98</v>
       </c>
       <c r="O5" t="n">
-        <v>1.06</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R5" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="S5" t="n">
-        <v>2.84</v>
+        <v>3.25</v>
       </c>
       <c r="T5" t="n">
-        <v>1.05</v>
+        <v>1.72</v>
       </c>
       <c r="U5" t="n">
-        <v>1.05</v>
+        <v>1.81</v>
       </c>
       <c r="V5" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="W5" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="G6" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="I6" t="n">
         <v>2.76</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.34</v>
@@ -1231,16 +1231,16 @@
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>3.5</v>
+        <v>2.66</v>
       </c>
       <c r="O6" t="n">
         <v>1.06</v>
       </c>
       <c r="P6" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R6" t="n">
         <v>1.28</v>
@@ -1258,7 +1258,7 @@
         <v>1.56</v>
       </c>
       <c r="W6" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1270,49 +1270,49 @@
         <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
         <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="G7" t="n">
         <v>2.46</v>
@@ -1357,37 +1357,37 @@
         <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>4.9</v>
+        <v>3.75</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>1.71</v>
+        <v>1.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.06</v>
       </c>
       <c r="P7" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.02</v>
+        <v>1.65</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S7" t="n">
-        <v>1.01</v>
+        <v>2.82</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V7" t="n">
         <v>1.21</v>
@@ -1399,55 +1399,55 @@
         <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8">
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04</v>
+        <v>2.66</v>
       </c>
       <c r="I8" t="n">
         <v>3.15</v>
       </c>
       <c r="J8" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="K8" t="n">
         <v>3.1</v>
@@ -1510,13 +1510,13 @@
         <v>1.37</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="R8" t="n">
         <v>1.12</v>
       </c>
       <c r="S8" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T8" t="n">
         <v>2.3</v>
@@ -1528,10 +1528,10 @@
         <v>1.46</v>
       </c>
       <c r="W8" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="X8" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="Y8" t="n">
         <v>8.6</v>
@@ -1546,7 +1546,7 @@
         <v>9.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
         <v>16</v>
@@ -1615,25 +1615,25 @@
         <v>2.02</v>
       </c>
       <c r="G9" t="n">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="H9" t="n">
-        <v>2.98</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J9" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="K9" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N9" t="n">
         <v>2.12</v>
@@ -1642,16 +1642,16 @@
         <v>1.57</v>
       </c>
       <c r="P9" t="n">
-        <v>1.09</v>
+        <v>1.37</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.57</v>
+        <v>2.46</v>
       </c>
       <c r="R9" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.05</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.57</v>
       </c>
       <c r="T9" t="n">
         <v>2.3</v>
@@ -1660,64 +1660,64 @@
         <v>1.56</v>
       </c>
       <c r="V9" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G10" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="H10" t="n">
         <v>5.1</v>
@@ -1771,37 +1771,37 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>2.02</v>
+        <v>3.2</v>
       </c>
       <c r="O10" t="n">
         <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.23</v>
+        <v>1.56</v>
       </c>
       <c r="R10" t="n">
         <v>1.47</v>
       </c>
       <c r="S10" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W10" t="n">
         <v>2.28</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y10" t="n">
         <v>1000</v>
@@ -1813,10 +1813,10 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
@@ -1825,10 +1825,10 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH10" t="n">
         <v>1000</v>
@@ -1837,19 +1837,19 @@
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G11" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="H11" t="n">
-        <v>1.04</v>
+        <v>2.68</v>
       </c>
       <c r="I11" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
         <v>2.68</v>
       </c>
       <c r="K11" t="n">
-        <v>5.2</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,16 +1906,16 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.38</v>
+        <v>1.98</v>
       </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
         <v>1.38</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="R11" t="n">
         <v>1.12</v>
@@ -1924,16 +1924,16 @@
         <v>4.7</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U11" t="n">
         <v>1.6</v>
       </c>
       <c r="V11" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="W11" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X11" t="n">
         <v>10.5</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G12" t="n">
         <v>2.52</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="J12" t="n">
-        <v>1.03</v>
+        <v>2.94</v>
       </c>
       <c r="K12" t="n">
-        <v>970</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2050,7 +2050,7 @@
         <v>1.45</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R12" t="n">
         <v>1.12</v>
@@ -2065,64 +2065,64 @@
         <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="W12" t="n">
         <v>1.66</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13">
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G13" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="H13" t="n">
-        <v>2.52</v>
+        <v>2.84</v>
       </c>
       <c r="I13" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J13" t="n">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
         <v>1.44</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="P13" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S13" t="n">
-        <v>2.14</v>
+        <v>4.2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="U13" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V13" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W13" t="n">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="X13" t="n">
         <v>15.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14">
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="G14" t="n">
         <v>7.2</v>
@@ -2299,7 +2299,7 @@
         <v>1.77</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K14" t="n">
         <v>3.8</v>
@@ -2314,10 +2314,10 @@
         <v>2.88</v>
       </c>
       <c r="O14" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P14" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q14" t="n">
         <v>2.36</v>
@@ -2344,7 +2344,7 @@
         <v>10.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="Z14" t="n">
         <v>9</v>
@@ -2353,19 +2353,19 @@
         <v>970</v>
       </c>
       <c r="AB14" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AC14" t="n">
         <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="n">
         <v>970</v>
       </c>
       <c r="AF14" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AG14" t="n">
         <v>970</v>
@@ -2374,10 +2374,10 @@
         <v>970</v>
       </c>
       <c r="AI14" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AJ14" t="n">
-        <v>270</v>
+        <v>900</v>
       </c>
       <c r="AK14" t="n">
         <v>150</v>
@@ -2386,13 +2386,13 @@
         <v>160</v>
       </c>
       <c r="AM14" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
         <v>260</v>
       </c>
       <c r="AO14" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -2428,7 +2428,7 @@
         <v>2.02</v>
       </c>
       <c r="H15" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
         <v>6.4</v>
@@ -2479,13 +2479,13 @@
         <v>8</v>
       </c>
       <c r="Y15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z15" t="n">
         <v>970</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB15" t="n">
         <v>6.4</v>
@@ -2497,7 +2497,7 @@
         <v>970</v>
       </c>
       <c r="AE15" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="AF15" t="n">
         <v>11</v>
@@ -2509,7 +2509,7 @@
         <v>970</v>
       </c>
       <c r="AI15" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="AJ15" t="n">
         <v>1000</v>
@@ -2560,7 +2560,7 @@
         <v>1.31</v>
       </c>
       <c r="G16" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="H16" t="n">
         <v>10.5</v>
@@ -2581,7 +2581,7 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O16" t="n">
         <v>1.24</v>
@@ -2590,7 +2590,7 @@
         <v>2.18</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R16" t="n">
         <v>1.46</v>
@@ -2608,7 +2608,7 @@
         <v>1.08</v>
       </c>
       <c r="W16" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="X16" t="n">
         <v>26</v>
@@ -2623,13 +2623,13 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC16" t="n">
         <v>16.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AE16" t="n">
         <v>260</v>
@@ -2641,7 +2641,7 @@
         <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AI16" t="n">
         <v>200</v>
@@ -2653,7 +2653,7 @@
         <v>19</v>
       </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM16" t="n">
         <v>250</v>
@@ -2698,16 +2698,16 @@
         <v>3.35</v>
       </c>
       <c r="H17" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="I17" t="n">
         <v>3.6</v>
       </c>
       <c r="J17" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K17" t="n">
-        <v>950</v>
+        <v>3.45</v>
       </c>
       <c r="L17" t="n">
         <v>1.38</v>
@@ -2722,10 +2722,10 @@
         <v>1.05</v>
       </c>
       <c r="P17" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="R17" t="n">
         <v>1.21</v>
@@ -2746,58 +2746,58 @@
         <v>1.43</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G18" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H18" t="n">
         <v>6.4</v>
@@ -2839,10 +2839,10 @@
         <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K18" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L18" t="n">
         <v>1.32</v>
@@ -2857,10 +2857,10 @@
         <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R18" t="n">
         <v>1.54</v>
@@ -2875,10 +2875,10 @@
         <v>2.14</v>
       </c>
       <c r="V18" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W18" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="X18" t="n">
         <v>22</v>
@@ -2893,7 +2893,7 @@
         <v>190</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
         <v>10.5</v>
@@ -2908,7 +2908,7 @@
         <v>10.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH18" t="n">
         <v>20</v>
@@ -2920,7 +2920,7 @@
         <v>14.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL18" t="n">
         <v>32</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H19" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I19" t="n">
         <v>3.95</v>
@@ -2989,10 +2989,10 @@
         <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q19" t="n">
         <v>1.69</v>
@@ -3007,16 +3007,16 @@
         <v>1.64</v>
       </c>
       <c r="U19" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V19" t="n">
         <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="X19" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y19" t="n">
         <v>23</v>
@@ -3061,13 +3061,13 @@
         <v>29</v>
       </c>
       <c r="AM19" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="n">
         <v>11</v>
       </c>
       <c r="AO19" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G20" t="n">
         <v>2.3</v>
@@ -3127,7 +3127,7 @@
         <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q20" t="n">
         <v>1.87</v>
@@ -3145,13 +3145,13 @@
         <v>2.26</v>
       </c>
       <c r="V20" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W20" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="X20" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Y20" t="n">
         <v>15</v>
@@ -3181,7 +3181,7 @@
         <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AI20" t="n">
         <v>60</v>
@@ -3196,7 +3196,7 @@
         <v>44</v>
       </c>
       <c r="AM20" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN20" t="n">
         <v>17</v>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H21" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="I21" t="n">
         <v>2.86</v>
@@ -3247,7 +3247,7 @@
         <v>3.6</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3289,19 +3289,19 @@
         <v>970</v>
       </c>
       <c r="Y21" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="Z21" t="n">
         <v>970</v>
       </c>
       <c r="AA21" t="n">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="AB21" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AC21" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AD21" t="n">
         <v>970</v>
@@ -3313,16 +3313,16 @@
         <v>970</v>
       </c>
       <c r="AG21" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AH21" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI21" t="n">
         <v>970</v>
       </c>
       <c r="AJ21" t="n">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="AK21" t="n">
         <v>970</v>
@@ -3331,13 +3331,13 @@
         <v>970</v>
       </c>
       <c r="AM21" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AO21" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="H22" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I22" t="n">
         <v>1.88</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.98</v>
       </c>
       <c r="J22" t="n">
         <v>3.5</v>
@@ -3391,19 +3391,19 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P22" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="R22" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S22" t="n">
         <v>3.85</v>
@@ -3412,22 +3412,22 @@
         <v>1.96</v>
       </c>
       <c r="U22" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V22" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="W22" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="X22" t="n">
         <v>14</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="Z22" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
         <v>980</v>
@@ -3451,25 +3451,25 @@
         <v>980</v>
       </c>
       <c r="AH22" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI22" t="n">
         <v>980</v>
       </c>
       <c r="AJ22" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="AK22" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AL22" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="AM22" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="AN22" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K23" t="n">
         <v>4.2</v>
-      </c>
-      <c r="G23" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.65</v>
       </c>
       <c r="L23" t="n">
         <v>1.5</v>
@@ -3526,7 +3526,7 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.56</v>
+        <v>2.58</v>
       </c>
       <c r="O23" t="n">
         <v>1.01</v>
@@ -3535,13 +3535,13 @@
         <v>1.56</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S23" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T23" t="n">
         <v>1.01</v>
@@ -3550,64 +3550,64 @@
         <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="W23" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24">
@@ -3652,7 +3652,7 @@
         <v>3.4</v>
       </c>
       <c r="K24" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3667,7 +3667,7 @@
         <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="Q24" t="n">
         <v>1.91</v>
@@ -3679,10 +3679,10 @@
         <v>3.25</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="U24" t="n">
-        <v>1.02</v>
+        <v>1.67</v>
       </c>
       <c r="V24" t="n">
         <v>1.13</v>
@@ -3703,7 +3703,7 @@
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC24" t="n">
         <v>1000</v>
@@ -3715,10 +3715,10 @@
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH24" t="n">
         <v>1000</v>
@@ -3727,19 +3727,19 @@
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
@@ -3787,7 +3787,7 @@
         <v>2.92</v>
       </c>
       <c r="K25" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.42</v>
@@ -3805,7 +3805,7 @@
         <v>1.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R25" t="n">
         <v>1.18</v>
@@ -3817,7 +3817,7 @@
         <v>1.05</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="V25" t="n">
         <v>1.28</v>
@@ -3835,7 +3835,7 @@
         <v>970</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB25" t="n">
         <v>970</v>
@@ -3847,7 +3847,7 @@
         <v>970</v>
       </c>
       <c r="AE25" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AF25" t="n">
         <v>970</v>
@@ -3859,7 +3859,7 @@
         <v>970</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ25" t="n">
         <v>970</v>
@@ -3868,16 +3868,16 @@
         <v>970</v>
       </c>
       <c r="AL25" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN25" t="n">
         <v>970</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26">
@@ -3928,16 +3928,16 @@
         <v>1.4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="O26" t="n">
         <v>1.43</v>
       </c>
       <c r="P26" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q26" t="n">
         <v>2.26</v>
@@ -3961,7 +3961,7 @@
         <v>1.5</v>
       </c>
       <c r="X26" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y26" t="n">
         <v>12</v>
@@ -3976,7 +3976,7 @@
         <v>11.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD26" t="n">
         <v>16.5</v>
@@ -3991,7 +3991,7 @@
         <v>15.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
         <v>70</v>
@@ -4000,10 +4000,10 @@
         <v>60</v>
       </c>
       <c r="AK26" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL26" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM26" t="n">
         <v>160</v>
@@ -4048,7 +4048,7 @@
         <v>3.85</v>
       </c>
       <c r="H27" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="I27" t="n">
         <v>2.44</v>
@@ -4081,13 +4081,13 @@
         <v>1.22</v>
       </c>
       <c r="S27" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V27" t="n">
         <v>1.01</v>
@@ -4096,7 +4096,7 @@
         <v>1.01</v>
       </c>
       <c r="X27" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y27" t="n">
         <v>970</v>
@@ -4111,7 +4111,7 @@
         <v>970</v>
       </c>
       <c r="AC27" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD27" t="n">
         <v>970</v>
@@ -4129,22 +4129,22 @@
         <v>970</v>
       </c>
       <c r="AI27" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK27" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AO27" t="n">
         <v>970</v>
@@ -4240,7 +4240,7 @@
         <v>970</v>
       </c>
       <c r="AA28" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AB28" t="n">
         <v>10.5</v>
@@ -4261,10 +4261,10 @@
         <v>14</v>
       </c>
       <c r="AH28" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI28" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AJ28" t="n">
         <v>970</v>
@@ -4276,7 +4276,7 @@
         <v>55</v>
       </c>
       <c r="AM28" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AN28" t="n">
         <v>970</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="G29" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="H29" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="I29" t="n">
-        <v>4.2</v>
+        <v>980</v>
       </c>
       <c r="J29" t="n">
-        <v>2.86</v>
+        <v>2.56</v>
       </c>
       <c r="K29" t="n">
-        <v>980</v>
+        <v>3.65</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4345,19 +4345,19 @@
         <v>1.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U29" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V29" t="n">
         <v>1.01</v>
@@ -4366,7 +4366,7 @@
         <v>1.01</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y29" t="n">
         <v>1000</v>
@@ -4378,10 +4378,10 @@
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD29" t="n">
         <v>1000</v>
@@ -4390,10 +4390,10 @@
         <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH29" t="n">
         <v>1000</v>
@@ -4402,19 +4402,19 @@
         <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4447,25 +4447,25 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94</v>
+        <v>2.72</v>
       </c>
       <c r="H30" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="I30" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="K30" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L30" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
@@ -4477,7 +4477,7 @@
         <v>1.33</v>
       </c>
       <c r="P30" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q30" t="n">
         <v>2</v>
@@ -4489,16 +4489,16 @@
         <v>3.55</v>
       </c>
       <c r="T30" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U30" t="n">
         <v>2.06</v>
       </c>
       <c r="V30" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="W30" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="X30" t="n">
         <v>16</v>
@@ -4513,10 +4513,10 @@
         <v>970</v>
       </c>
       <c r="AB30" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD30" t="n">
         <v>15</v>
@@ -4528,7 +4528,7 @@
         <v>21</v>
       </c>
       <c r="AG30" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH30" t="n">
         <v>21</v>
@@ -4543,10 +4543,10 @@
         <v>970</v>
       </c>
       <c r="AL30" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AM30" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AN30" t="n">
         <v>970</v>
@@ -4582,61 +4582,61 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="G31" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H31" t="n">
         <v>4.1</v>
       </c>
       <c r="I31" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="J31" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="P31" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R31" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S31" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="T31" t="n">
-        <v>1.05</v>
+        <v>1.69</v>
       </c>
       <c r="U31" t="n">
         <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="W31" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y31" t="n">
         <v>970</v>
@@ -4645,19 +4645,19 @@
         <v>970</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB31" t="n">
         <v>970</v>
       </c>
       <c r="AC31" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AD31" t="n">
         <v>970</v>
       </c>
       <c r="AE31" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AF31" t="n">
         <v>970</v>
@@ -4669,7 +4669,7 @@
         <v>970</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ31" t="n">
         <v>970</v>
@@ -4681,13 +4681,13 @@
         <v>970</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32">
@@ -4729,7 +4729,7 @@
         <v>5.3</v>
       </c>
       <c r="J32" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K32" t="n">
         <v>3.65</v>
@@ -4771,7 +4771,7 @@
         <v>1.98</v>
       </c>
       <c r="X32" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y32" t="n">
         <v>16.5</v>
@@ -4780,28 +4780,28 @@
         <v>970</v>
       </c>
       <c r="AA32" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AB32" t="n">
         <v>8.4</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD32" t="n">
         <v>23</v>
       </c>
       <c r="AE32" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AF32" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG32" t="n">
         <v>12.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI32" t="n">
         <v>110</v>
@@ -4816,13 +4816,13 @@
         <v>55</v>
       </c>
       <c r="AM32" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="AN32" t="n">
         <v>22</v>
       </c>
       <c r="AO32" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33">
@@ -4852,109 +4852,109 @@
         </is>
       </c>
       <c r="F33" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H33" t="n">
         <v>2.66</v>
       </c>
-      <c r="G33" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2.6</v>
-      </c>
       <c r="I33" t="n">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="J33" t="n">
         <v>3.15</v>
       </c>
       <c r="K33" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>1.54</v>
+        <v>2.9</v>
       </c>
       <c r="O33" t="n">
-        <v>1.07</v>
+        <v>1.45</v>
       </c>
       <c r="P33" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="R33" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="S33" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="T33" t="n">
         <v>1.92</v>
       </c>
       <c r="U33" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="V33" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="W33" t="n">
         <v>1.46</v>
       </c>
       <c r="X33" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="Y33" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB33" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC33" t="n">
-        <v>970</v>
+        <v>7.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AE33" t="n">
         <v>970</v>
       </c>
       <c r="AF33" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AG33" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ33" t="n">
         <v>55</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN33" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AO33" t="n">
         <v>970</v>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="G34" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H34" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I34" t="n">
         <v>2.98</v>
       </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
       <c r="J34" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K34" t="n">
         <v>3.2</v>
@@ -5011,46 +5011,46 @@
         <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="O34" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="P34" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="R34" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S34" t="n">
         <v>4.7</v>
       </c>
       <c r="T34" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="U34" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V34" t="n">
         <v>1.5</v>
       </c>
       <c r="W34" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X34" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="Z34" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AA34" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AB34" t="n">
         <v>9.199999999999999</v>
@@ -5059,13 +5059,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD34" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE34" t="n">
         <v>970</v>
       </c>
       <c r="AF34" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AG34" t="n">
         <v>13.5</v>
@@ -5074,22 +5074,22 @@
         <v>21</v>
       </c>
       <c r="AI34" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AJ34" t="n">
-        <v>970</v>
+        <v>320</v>
       </c>
       <c r="AK34" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AL34" t="n">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="AM34" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN34" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AO34" t="n">
         <v>970</v>
@@ -5122,25 +5122,25 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="G35" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H35" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I35" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J35" t="n">
         <v>3.4</v>
       </c>
       <c r="K35" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M35" t="n">
         <v>1.08</v>
@@ -5155,7 +5155,7 @@
         <v>1.82</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R35" t="n">
         <v>1.31</v>
@@ -5164,13 +5164,13 @@
         <v>3.8</v>
       </c>
       <c r="T35" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U35" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V35" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W35" t="n">
         <v>1.71</v>
@@ -5182,13 +5182,13 @@
         <v>22</v>
       </c>
       <c r="Z35" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AA35" t="n">
         <v>75</v>
       </c>
       <c r="AB35" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC35" t="n">
         <v>8.800000000000001</v>
@@ -5203,7 +5203,7 @@
         <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH35" t="n">
         <v>22</v>
@@ -5215,7 +5215,7 @@
         <v>980</v>
       </c>
       <c r="AK35" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL35" t="n">
         <v>980</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G36" t="n">
         <v>11</v>
@@ -5275,25 +5275,25 @@
         <v>6</v>
       </c>
       <c r="L36" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O36" t="n">
         <v>1.19</v>
       </c>
       <c r="P36" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="Q36" t="n">
         <v>1.57</v>
       </c>
       <c r="R36" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S36" t="n">
         <v>2.42</v>
@@ -5323,13 +5323,13 @@
         <v>11</v>
       </c>
       <c r="AB36" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AC36" t="n">
         <v>13</v>
       </c>
       <c r="AD36" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE36" t="n">
         <v>13.5</v>
@@ -5341,7 +5341,7 @@
         <v>38</v>
       </c>
       <c r="AH36" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI36" t="n">
         <v>32</v>
@@ -5392,106 +5392,106 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="G37" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="H37" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I37" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J37" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="K37" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L37" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M37" t="n">
         <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="O37" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P37" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="R37" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="S37" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="T37" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="U37" t="n">
         <v>2.1</v>
       </c>
       <c r="V37" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W37" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="X37" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="Y37" t="n">
-        <v>970</v>
+        <v>100</v>
       </c>
       <c r="Z37" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AA37" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AB37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC37" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC37" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AD37" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AE37" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AF37" t="n">
         <v>11</v>
       </c>
       <c r="AG37" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="n">
-        <v>85</v>
+        <v>400</v>
       </c>
       <c r="AJ37" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AL37" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AM37" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="AN37" t="n">
         <v>5.8</v>
@@ -5551,22 +5551,22 @@
         <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O38" t="n">
         <v>1.18</v>
       </c>
       <c r="P38" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="R38" t="n">
         <v>1.61</v>
       </c>
       <c r="S38" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="T38" t="n">
         <v>1.6</v>
@@ -5581,25 +5581,25 @@
         <v>1.23</v>
       </c>
       <c r="X38" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y38" t="n">
         <v>13.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB38" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AC38" t="n">
         <v>11.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE38" t="n">
         <v>19.5</v>
@@ -5608,10 +5608,10 @@
         <v>55</v>
       </c>
       <c r="AG38" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AH38" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI38" t="n">
         <v>28</v>
@@ -5623,7 +5623,7 @@
         <v>65</v>
       </c>
       <c r="AL38" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM38" t="n">
         <v>85</v>
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G39" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="H39" t="n">
         <v>5.1</v>
       </c>
       <c r="I39" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J39" t="n">
         <v>4.4</v>
       </c>
       <c r="K39" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L39" t="n">
         <v>1.25</v>
@@ -5692,10 +5692,10 @@
         <v>1.19</v>
       </c>
       <c r="P39" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R39" t="n">
         <v>1.62</v>
@@ -5707,37 +5707,37 @@
         <v>1.65</v>
       </c>
       <c r="U39" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V39" t="n">
         <v>1.21</v>
       </c>
       <c r="W39" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="X39" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="Y39" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="Z39" t="n">
         <v>970</v>
       </c>
       <c r="AA39" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB39" t="n">
         <v>12.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AE39" t="n">
-        <v>65</v>
+        <v>320</v>
       </c>
       <c r="AF39" t="n">
         <v>13</v>
@@ -5746,22 +5746,22 @@
         <v>11</v>
       </c>
       <c r="AH39" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AI39" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="AJ39" t="n">
         <v>20</v>
       </c>
       <c r="AK39" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AL39" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AM39" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AN39" t="n">
         <v>7</v>
@@ -5797,58 +5797,58 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="G40" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H40" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I40" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J40" t="n">
         <v>4.4</v>
       </c>
       <c r="K40" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L40" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M40" t="n">
         <v>1.02</v>
       </c>
       <c r="N40" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="O40" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P40" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R40" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S40" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T40" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="U40" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="V40" t="n">
         <v>1.47</v>
       </c>
       <c r="W40" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="X40" t="n">
         <v>970</v>
@@ -5899,7 +5899,7 @@
         <v>970</v>
       </c>
       <c r="AN40" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO40" t="n">
         <v>970</v>
@@ -5935,7 +5935,7 @@
         <v>1.9</v>
       </c>
       <c r="G41" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H41" t="n">
         <v>3.85</v>
@@ -5947,7 +5947,7 @@
         <v>3.95</v>
       </c>
       <c r="K41" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5962,16 +5962,16 @@
         <v>1.15</v>
       </c>
       <c r="P41" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R41" t="n">
         <v>1.6</v>
       </c>
       <c r="S41" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="T41" t="n">
         <v>1.5</v>
@@ -5983,61 +5983,61 @@
         <v>1.3</v>
       </c>
       <c r="W41" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="42">
@@ -6079,79 +6079,79 @@
         <v>3.4</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K42" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L42" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="M42" t="n">
         <v>1.03</v>
       </c>
       <c r="N42" t="n">
-        <v>2.44</v>
+        <v>5.8</v>
       </c>
       <c r="O42" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P42" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="R42" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="S42" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="T42" t="n">
         <v>1.5</v>
       </c>
       <c r="U42" t="n">
-        <v>1.98</v>
+        <v>2.66</v>
       </c>
       <c r="V42" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W42" t="n">
         <v>1.76</v>
       </c>
       <c r="X42" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y42" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="Z42" t="n">
         <v>970</v>
       </c>
       <c r="AA42" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF42" t="n">
         <v>55</v>
       </c>
-      <c r="AB42" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>970</v>
-      </c>
       <c r="AG42" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AH42" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AI42" t="n">
         <v>40</v>
@@ -6160,16 +6160,16 @@
         <v>970</v>
       </c>
       <c r="AK42" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AL42" t="n">
         <v>970</v>
       </c>
       <c r="AM42" t="n">
-        <v>50</v>
+        <v>580</v>
       </c>
       <c r="AN42" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AO42" t="n">
         <v>970</v>
@@ -6205,19 +6205,19 @@
         <v>2.76</v>
       </c>
       <c r="G43" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H43" t="n">
         <v>2.28</v>
       </c>
       <c r="I43" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="J43" t="n">
         <v>4.2</v>
       </c>
       <c r="K43" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L43" t="n">
         <v>1.23</v>
@@ -6226,16 +6226,16 @@
         <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O43" t="n">
         <v>1.18</v>
       </c>
       <c r="P43" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R43" t="n">
         <v>1.63</v>
@@ -6250,10 +6250,10 @@
         <v>2.58</v>
       </c>
       <c r="V43" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="W43" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X43" t="n">
         <v>970</v>
@@ -6271,7 +6271,7 @@
         <v>970</v>
       </c>
       <c r="AC43" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD43" t="n">
         <v>970</v>
@@ -6301,7 +6301,7 @@
         <v>970</v>
       </c>
       <c r="AM43" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AN43" t="n">
         <v>970</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G44" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="H44" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I44" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J44" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K44" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
@@ -6361,19 +6361,19 @@
         <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O44" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P44" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="R44" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S44" t="n">
         <v>2.84</v>
@@ -6382,13 +6382,13 @@
         <v>1.76</v>
       </c>
       <c r="U44" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V44" t="n">
         <v>1.17</v>
       </c>
       <c r="W44" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="X44" t="n">
         <v>970</v>
@@ -6403,16 +6403,16 @@
         <v>170</v>
       </c>
       <c r="AB44" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AC44" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="AD44" t="n">
         <v>970</v>
       </c>
       <c r="AE44" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF44" t="n">
         <v>970</v>
@@ -6436,7 +6436,7 @@
         <v>970</v>
       </c>
       <c r="AM44" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN44" t="n">
         <v>970</v>
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G45" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H45" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I45" t="n">
         <v>2.98</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3.05</v>
       </c>
       <c r="J45" t="n">
         <v>3.25</v>
@@ -6490,7 +6490,7 @@
         <v>3.3</v>
       </c>
       <c r="L45" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M45" t="n">
         <v>1.1</v>
@@ -6502,16 +6502,16 @@
         <v>1.45</v>
       </c>
       <c r="P45" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R45" t="n">
         <v>1.26</v>
       </c>
       <c r="S45" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T45" t="n">
         <v>1.97</v>
@@ -6520,10 +6520,10 @@
         <v>1.97</v>
       </c>
       <c r="V45" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W45" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X45" t="n">
         <v>10</v>
@@ -6538,7 +6538,7 @@
         <v>50</v>
       </c>
       <c r="AB45" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC45" t="n">
         <v>7</v>
@@ -6565,19 +6565,19 @@
         <v>44</v>
       </c>
       <c r="AK45" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL45" t="n">
         <v>55</v>
       </c>
       <c r="AM45" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN45" t="n">
         <v>36</v>
       </c>
       <c r="AO45" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46">
@@ -6607,40 +6607,40 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G46" t="n">
         <v>2.4</v>
       </c>
       <c r="H46" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I46" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J46" t="n">
         <v>3.2</v>
       </c>
       <c r="K46" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
       </c>
       <c r="M46" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N46" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O46" t="n">
         <v>1.41</v>
       </c>
       <c r="P46" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R46" t="n">
         <v>1.27</v>
@@ -6652,7 +6652,7 @@
         <v>1.9</v>
       </c>
       <c r="U46" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V46" t="n">
         <v>1.36</v>
@@ -6661,10 +6661,10 @@
         <v>1.71</v>
       </c>
       <c r="X46" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="Z46" t="n">
         <v>26</v>
@@ -6685,13 +6685,13 @@
         <v>55</v>
       </c>
       <c r="AF46" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG46" t="n">
         <v>14</v>
       </c>
       <c r="AH46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI46" t="n">
         <v>75</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="G47" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K47" t="n">
         <v>3.35</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K47" t="n">
-        <v>3.3</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
@@ -6766,76 +6766,76 @@
         <v>1.09</v>
       </c>
       <c r="N47" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O47" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P47" t="n">
         <v>1.73</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R47" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S47" t="n">
         <v>4.2</v>
       </c>
       <c r="T47" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U47" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V47" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="W47" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X47" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="Z47" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AA47" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AB47" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC47" t="n">
         <v>7.4</v>
       </c>
       <c r="AD47" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF47" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG47" t="n">
         <v>14</v>
       </c>
       <c r="AH47" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI47" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ47" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK47" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AL47" t="n">
         <v>70</v>
@@ -6844,10 +6844,10 @@
         <v>150</v>
       </c>
       <c r="AN47" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AO47" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48">
@@ -6883,16 +6883,16 @@
         <v>3.25</v>
       </c>
       <c r="H48" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J48" t="n">
         <v>2.68</v>
       </c>
-      <c r="I48" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2.64</v>
-      </c>
       <c r="K48" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="L48" t="n">
         <v>1.01</v>
@@ -6925,64 +6925,64 @@
         <v>1.01</v>
       </c>
       <c r="V48" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W48" t="n">
         <v>1.44</v>
       </c>
       <c r="X48" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y48" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z48" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA48" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB48" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC48" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AD48" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE48" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF48" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG48" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH48" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI48" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK48" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM48" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN48" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49">
@@ -7015,13 +7015,13 @@
         <v>2.22</v>
       </c>
       <c r="G49" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H49" t="n">
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J49" t="n">
         <v>3.2</v>
@@ -7036,22 +7036,22 @@
         <v>1.12</v>
       </c>
       <c r="N49" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="O49" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="P49" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="R49" t="n">
         <v>1.2</v>
       </c>
       <c r="S49" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="T49" t="n">
         <v>2.18</v>
@@ -7063,61 +7063,61 @@
         <v>1.31</v>
       </c>
       <c r="W49" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X49" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="Y49" t="n">
         <v>11.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AA49" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AB49" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC49" t="n">
         <v>8.6</v>
       </c>
       <c r="AD49" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE49" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG49" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AH49" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI49" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AK49" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL49" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM49" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AN49" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AO49" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G50" t="n">
         <v>2.48</v>
@@ -7165,7 +7165,7 @@
         <v>3.65</v>
       </c>
       <c r="L50" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M50" t="n">
         <v>1.06</v>
@@ -7177,10 +7177,10 @@
         <v>1.35</v>
       </c>
       <c r="P50" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R50" t="n">
         <v>1.31</v>
@@ -7195,7 +7195,7 @@
         <v>2.06</v>
       </c>
       <c r="V50" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W50" t="n">
         <v>1.67</v>
@@ -7285,7 +7285,7 @@
         <v>1.4</v>
       </c>
       <c r="G51" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="H51" t="n">
         <v>6.6</v>
@@ -7294,7 +7294,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="J51" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K51" t="n">
         <v>6.6</v>
@@ -7333,7 +7333,7 @@
         <v>1.12</v>
       </c>
       <c r="W51" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="X51" t="n">
         <v>970</v>
@@ -7357,7 +7357,7 @@
         <v>970</v>
       </c>
       <c r="AE51" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="AF51" t="n">
         <v>970</v>
@@ -7369,7 +7369,7 @@
         <v>970</v>
       </c>
       <c r="AI51" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AJ51" t="n">
         <v>970</v>
@@ -7381,13 +7381,13 @@
         <v>970</v>
       </c>
       <c r="AM51" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN51" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AO51" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="52">
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G52" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="H52" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I52" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J52" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K52" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L52" t="n">
         <v>1.34</v>
@@ -7441,13 +7441,13 @@
         <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O52" t="n">
         <v>1.35</v>
       </c>
       <c r="P52" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q52" t="n">
         <v>2.02</v>
@@ -7465,13 +7465,13 @@
         <v>1.98</v>
       </c>
       <c r="V52" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="W52" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="X52" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="Y52" t="n">
         <v>18</v>
@@ -7480,49 +7480,49 @@
         <v>970</v>
       </c>
       <c r="AA52" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AB52" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC52" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AD52" t="n">
         <v>970</v>
       </c>
       <c r="AE52" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AF52" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AG52" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AH52" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AI52" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AJ52" t="n">
         <v>970</v>
       </c>
       <c r="AK52" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AL52" t="n">
         <v>970</v>
       </c>
       <c r="AM52" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN52" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AO52" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
     </row>
     <row r="53">
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="G53" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="H53" t="n">
+        <v>22</v>
+      </c>
+      <c r="I53" t="n">
         <v>23</v>
       </c>
-      <c r="I53" t="n">
-        <v>24</v>
-      </c>
       <c r="J53" t="n">
+        <v>8</v>
+      </c>
+      <c r="K53" t="n">
         <v>8.199999999999999</v>
-      </c>
-      <c r="K53" t="n">
-        <v>8.6</v>
       </c>
       <c r="L53" t="n">
         <v>1.29</v>
@@ -7576,37 +7576,37 @@
         <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O53" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P53" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R53" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S53" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T53" t="n">
         <v>2.56</v>
       </c>
-      <c r="T53" t="n">
-        <v>2.6</v>
-      </c>
       <c r="U53" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="V53" t="n">
         <v>1.04</v>
       </c>
       <c r="W53" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="X53" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y53" t="n">
         <v>60</v>
@@ -7633,19 +7633,19 @@
         <v>7</v>
       </c>
       <c r="AG53" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI53" t="n">
         <v>390</v>
       </c>
       <c r="AJ53" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AK53" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL53" t="n">
         <v>55</v>
@@ -7654,7 +7654,7 @@
         <v>410</v>
       </c>
       <c r="AN53" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AO53" t="n">
         <v>1000</v>
@@ -7693,7 +7693,7 @@
         <v>3.65</v>
       </c>
       <c r="H54" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I54" t="n">
         <v>2.38</v>
@@ -7702,7 +7702,7 @@
         <v>3.5</v>
       </c>
       <c r="K54" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L54" t="n">
         <v>1.33</v>
@@ -7726,7 +7726,7 @@
         <v>1.4</v>
       </c>
       <c r="S54" t="n">
-        <v>2.98</v>
+        <v>2.82</v>
       </c>
       <c r="T54" t="n">
         <v>1.67</v>
@@ -7744,7 +7744,7 @@
         <v>970</v>
       </c>
       <c r="Y54" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="Z54" t="n">
         <v>970</v>
@@ -7753,46 +7753,46 @@
         <v>970</v>
       </c>
       <c r="AB54" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AC54" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AD54" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AE54" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AF54" t="n">
         <v>970</v>
       </c>
       <c r="AG54" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AH54" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI54" t="n">
         <v>970</v>
       </c>
       <c r="AJ54" t="n">
-        <v>70</v>
+        <v>900</v>
       </c>
       <c r="AK54" t="n">
         <v>970</v>
       </c>
       <c r="AL54" t="n">
+        <v>500</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>970</v>
+      </c>
+      <c r="AO54" t="n">
         <v>55</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>970</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>970</v>
       </c>
     </row>
     <row r="55">
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G55" t="n">
         <v>2.52</v>
       </c>
-      <c r="G55" t="n">
-        <v>2.56</v>
-      </c>
       <c r="H55" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I55" t="n">
         <v>3.25</v>
       </c>
       <c r="J55" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K55" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L55" t="n">
         <v>1.46</v>
@@ -7849,19 +7849,19 @@
         <v>3.65</v>
       </c>
       <c r="O55" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P55" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R55" t="n">
         <v>1.33</v>
       </c>
       <c r="S55" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T55" t="n">
         <v>1.83</v>
@@ -7873,13 +7873,13 @@
         <v>1.44</v>
       </c>
       <c r="W55" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X55" t="n">
         <v>12.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z55" t="n">
         <v>21</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="H56" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I56" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J56" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K56" t="n">
         <v>3.4</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3.5</v>
       </c>
       <c r="L56" t="n">
         <v>1.51</v>
@@ -8002,13 +8002,13 @@
         <v>2.12</v>
       </c>
       <c r="U56" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V56" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W56" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="X56" t="n">
         <v>10</v>
@@ -8044,7 +8044,7 @@
         <v>24</v>
       </c>
       <c r="AI56" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ56" t="n">
         <v>25</v>
@@ -8110,94 +8110,94 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P57" t="n">
         <v>1.24</v>
       </c>
       <c r="Q57" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T57" t="n">
         <v>1.01</v>
       </c>
-      <c r="R57" t="n">
-        <v>0</v>
-      </c>
-      <c r="S57" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" t="n">
-        <v>0</v>
-      </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="58">
@@ -8233,7 +8233,7 @@
         <v>2.64</v>
       </c>
       <c r="H58" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I58" t="n">
         <v>4.2</v>
@@ -8257,10 +8257,10 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8365,19 +8365,19 @@
         <v>2.32</v>
       </c>
       <c r="G59" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H59" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I59" t="n">
         <v>4.6</v>
       </c>
       <c r="J59" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="K59" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8497,22 +8497,22 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="H60" t="n">
         <v>3.15</v>
       </c>
       <c r="I60" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="J60" t="n">
-        <v>2.24</v>
+        <v>3.1</v>
       </c>
       <c r="K60" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="L60" t="n">
         <v>1.01</v>
@@ -8545,64 +8545,64 @@
         <v>1.8</v>
       </c>
       <c r="V60" t="n">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="W60" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="X60" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Y60" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z60" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA60" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB60" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AC60" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AD60" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE60" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF60" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG60" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH60" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI60" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ60" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK60" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL60" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM60" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN60" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO60" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61">
@@ -8641,7 +8641,7 @@
         <v>3.25</v>
       </c>
       <c r="I61" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="J61" t="n">
         <v>2.74</v>
@@ -8653,25 +8653,25 @@
         <v>1.01</v>
       </c>
       <c r="M61" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N61" t="n">
         <v>1.24</v>
       </c>
       <c r="O61" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="P61" t="n">
         <v>1.24</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="R61" t="n">
         <v>1.13</v>
       </c>
       <c r="S61" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="T61" t="n">
         <v>1.86</v>
@@ -8680,7 +8680,7 @@
         <v>1.67</v>
       </c>
       <c r="V61" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="W61" t="n">
         <v>1.58</v>
@@ -8689,55 +8689,55 @@
         <v>11</v>
       </c>
       <c r="Y61" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z61" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB61" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AD61" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF61" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG61" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH61" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK61" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN61" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO61" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="62">
@@ -8767,13 +8767,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G62" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="H62" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="I62" t="n">
         <v>1000</v>
@@ -8782,7 +8782,7 @@
         <v>2.96</v>
       </c>
       <c r="K62" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -8797,10 +8797,10 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -8932,10 +8932,10 @@
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -9037,19 +9037,19 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G64" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H64" t="n">
         <v>5.3</v>
       </c>
       <c r="I64" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="J64" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K64" t="n">
         <v>3.75</v>
@@ -9058,7 +9058,7 @@
         <v>1.44</v>
       </c>
       <c r="M64" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N64" t="n">
         <v>2.88</v>
@@ -9100,7 +9100,7 @@
         <v>980</v>
       </c>
       <c r="AA64" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AB64" t="n">
         <v>7.6</v>
@@ -9136,7 +9136,7 @@
         <v>60</v>
       </c>
       <c r="AM64" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN64" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.75</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.76</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
@@ -691,13 +691,13 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O2" t="n">
         <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q2" t="n">
         <v>1.4</v>
@@ -706,13 +706,13 @@
         <v>1.97</v>
       </c>
       <c r="S2" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
         <v>1.47</v>
       </c>
       <c r="U2" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
         <v>1.27</v>
@@ -730,16 +730,16 @@
         <v>46</v>
       </c>
       <c r="AA2" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AB2" t="n">
         <v>18</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
         <v>42</v>
@@ -760,7 +760,7 @@
         <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
         <v>21</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="G3" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="H3" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I3" t="n">
-        <v>2.62</v>
+        <v>2.46</v>
       </c>
       <c r="J3" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L3" t="n">
         <v>1.57</v>
@@ -826,88 +826,88 @@
         <v>1.12</v>
       </c>
       <c r="N3" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="R3" t="n">
         <v>1.19</v>
       </c>
       <c r="S3" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="T3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U3" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V3" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="W3" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="X3" t="n">
         <v>15.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
         <v>980</v>
       </c>
       <c r="AF3" t="n">
+        <v>500</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>500</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>500</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AO3" t="n">
         <v>980</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>500</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>500</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>500</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>970</v>
       </c>
     </row>
     <row r="4">
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="G4" t="n">
         <v>1.41</v>
       </c>
       <c r="H4" t="n">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="I4" t="n">
         <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="K4" t="n">
         <v>6.2</v>
@@ -958,31 +958,31 @@
         <v>1.3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="O4" t="n">
         <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="R4" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S4" t="n">
-        <v>2.1</v>
+        <v>2.58</v>
       </c>
       <c r="T4" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="U4" t="n">
-        <v>1.71</v>
+        <v>1.84</v>
       </c>
       <c r="V4" t="n">
         <v>1.09</v>
@@ -991,55 +991,55 @@
         <v>3.4</v>
       </c>
       <c r="X4" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Y4" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Z4" t="n">
         <v>120</v>
       </c>
       <c r="AA4" t="n">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AE4" t="n">
         <v>200</v>
       </c>
       <c r="AF4" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
         <v>160</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="n">
         <v>180</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="AO4" t="n">
         <v>260</v>
@@ -1072,109 +1072,109 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
         <v>5.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="O5" t="n">
         <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
         <v>1.3</v>
       </c>
       <c r="S5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U5" t="n">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="V5" t="n">
         <v>1.25</v>
       </c>
       <c r="W5" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X5" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD5" t="n">
         <v>1000</v>
       </c>
-      <c r="AB5" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>970</v>
-      </c>
       <c r="AE5" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AF5" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
         <v>970</v>
       </c>
       <c r="AH5" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN5" t="n">
         <v>85</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>500</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>600</v>
       </c>
       <c r="AO5" t="n">
         <v>600</v>
@@ -1207,79 +1207,79 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="H6" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="I6" t="n">
-        <v>2.76</v>
+        <v>2.52</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>2.66</v>
+        <v>3.35</v>
       </c>
       <c r="O6" t="n">
-        <v>1.06</v>
+        <v>1.35</v>
       </c>
       <c r="P6" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="Q6" t="n">
         <v>2.02</v>
       </c>
       <c r="R6" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="T6" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="U6" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="V6" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="W6" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA6" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC6" t="n">
-        <v>500</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE6" t="n">
         <v>980</v>
@@ -1288,16 +1288,16 @@
         <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI6" t="n">
         <v>980</v>
       </c>
-      <c r="AI6" t="n">
-        <v>500</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AK6" t="n">
         <v>980</v>
@@ -1306,13 +1306,13 @@
         <v>500</v>
       </c>
       <c r="AM6" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
         <v>980</v>
       </c>
       <c r="AO6" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="G7" t="n">
-        <v>2.46</v>
+        <v>2.16</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
         <v>3.75</v>
       </c>
       <c r="L7" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>1.1</v>
+        <v>3.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.06</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.65</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="S7" t="n">
-        <v>2.82</v>
+        <v>3.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.05</v>
+        <v>1.84</v>
       </c>
       <c r="U7" t="n">
-        <v>1.05</v>
+        <v>1.96</v>
       </c>
       <c r="V7" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="W7" t="n">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="X7" t="n">
         <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="Z7" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AA7" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>500</v>
+        <v>16</v>
       </c>
       <c r="AC7" t="n">
-        <v>500</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AE7" t="n">
         <v>500</v>
       </c>
       <c r="AF7" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AG7" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AH7" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AI7" t="n">
         <v>500</v>
       </c>
       <c r="AJ7" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AK7" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AL7" t="n">
         <v>500</v>
       </c>
       <c r="AM7" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AO7" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.86</v>
+        <v>3.35</v>
       </c>
       <c r="G8" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="H8" t="n">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="I8" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="J8" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L8" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="M8" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.14</v>
       </c>
-      <c r="N8" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.12</v>
-      </c>
       <c r="S8" t="n">
-        <v>1.05</v>
+        <v>5.8</v>
       </c>
       <c r="T8" t="n">
         <v>2.3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="V8" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="W8" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X8" t="n">
         <v>7.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AA8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>230</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>170</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>330</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AO8" t="n">
         <v>70</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>350</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -1612,58 +1612,58 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="G9" t="n">
-        <v>2.44</v>
+        <v>2.14</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="I9" t="n">
         <v>5.9</v>
       </c>
       <c r="J9" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
         <v>3.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="M9" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="P9" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.46</v>
+        <v>2.78</v>
       </c>
       <c r="R9" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S9" t="n">
-        <v>1.05</v>
+        <v>5.6</v>
       </c>
       <c r="T9" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="U9" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="V9" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W9" t="n">
-        <v>1.69</v>
+        <v>1.87</v>
       </c>
       <c r="X9" t="n">
         <v>15</v>
@@ -1681,7 +1681,7 @@
         <v>14.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>42</v>
+        <v>19.5</v>
       </c>
       <c r="AD9" t="n">
         <v>970</v>
@@ -1690,10 +1690,10 @@
         <v>500</v>
       </c>
       <c r="AF9" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AG9" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="AH9" t="n">
         <v>970</v>
@@ -1705,7 +1705,7 @@
         <v>970</v>
       </c>
       <c r="AK9" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AL9" t="n">
         <v>500</v>
@@ -1717,7 +1717,7 @@
         <v>970</v>
       </c>
       <c r="AO9" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G10" t="n">
         <v>1.76</v>
       </c>
       <c r="H10" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K10" t="n">
         <v>6.8</v>
@@ -1780,10 +1780,10 @@
         <v>1.95</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R10" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
         <v>2.74</v>
@@ -1798,13 +1798,13 @@
         <v>1.06</v>
       </c>
       <c r="W10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X10" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1813,13 +1813,13 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AC10" t="n">
         <v>970</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1828,16 +1828,16 @@
         <v>500</v>
       </c>
       <c r="AG10" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AK10" t="n">
         <v>500</v>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>500</v>
+        <v>29</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H11" t="n">
         <v>2.68</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
@@ -1918,19 +1918,19 @@
         <v>2.22</v>
       </c>
       <c r="R11" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S11" t="n">
         <v>4.7</v>
       </c>
       <c r="T11" t="n">
-        <v>1.96</v>
+        <v>1.05</v>
       </c>
       <c r="U11" t="n">
-        <v>1.6</v>
+        <v>1.05</v>
       </c>
       <c r="V11" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="W11" t="n">
         <v>1.43</v>
@@ -1939,25 +1939,25 @@
         <v>10.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="Z11" t="n">
         <v>970</v>
       </c>
       <c r="AA11" t="n">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="AB11" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AC11" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AD11" t="n">
         <v>970</v>
       </c>
       <c r="AE11" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AF11" t="n">
         <v>970</v>
@@ -1969,25 +1969,25 @@
         <v>970</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ11" t="n">
-        <v>70</v>
+        <v>900</v>
       </c>
       <c r="AK11" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12">
@@ -2017,58 +2017,58 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G12" t="n">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="H12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>5.3</v>
+        <v>14</v>
       </c>
       <c r="J12" t="n">
-        <v>2.94</v>
+        <v>2.7</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P12" t="n">
         <v>1.46</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.45</v>
-      </c>
       <c r="Q12" t="n">
-        <v>1.02</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
         <v>1.12</v>
       </c>
       <c r="S12" t="n">
-        <v>1.01</v>
+        <v>2.64</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V12" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="W12" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="X12" t="n">
         <v>970</v>
@@ -2101,7 +2101,7 @@
         <v>970</v>
       </c>
       <c r="AH12" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AI12" t="n">
         <v>500</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="G13" t="n">
         <v>2.8</v>
@@ -2161,13 +2161,13 @@
         <v>2.84</v>
       </c>
       <c r="I13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J13" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L13" t="n">
         <v>1.44</v>
@@ -2176,19 +2176,19 @@
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>2.5</v>
+        <v>2.78</v>
       </c>
       <c r="O13" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P13" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q13" t="n">
         <v>2.2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S13" t="n">
         <v>4.2</v>
@@ -2197,28 +2197,28 @@
         <v>1.97</v>
       </c>
       <c r="U13" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V13" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W13" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X13" t="n">
         <v>15.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="Z13" t="n">
         <v>970</v>
       </c>
       <c r="AA13" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AC13" t="n">
         <v>14</v>
@@ -2236,13 +2236,13 @@
         <v>970</v>
       </c>
       <c r="AH13" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AI13" t="n">
         <v>500</v>
       </c>
       <c r="AJ13" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AK13" t="n">
         <v>970</v>
@@ -2251,7 +2251,7 @@
         <v>500</v>
       </c>
       <c r="AM13" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
         <v>500</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="G14" t="n">
         <v>7.2</v>
@@ -2311,16 +2311,16 @@
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="O14" t="n">
         <v>1.47</v>
       </c>
       <c r="P14" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R14" t="n">
         <v>1.23</v>
@@ -2350,7 +2350,7 @@
         <v>9</v>
       </c>
       <c r="AA14" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AB14" t="n">
         <v>30</v>
@@ -2362,16 +2362,16 @@
         <v>20</v>
       </c>
       <c r="AE14" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AF14" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="AG14" t="n">
         <v>970</v>
       </c>
       <c r="AH14" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AI14" t="n">
         <v>500</v>
@@ -2383,13 +2383,13 @@
         <v>150</v>
       </c>
       <c r="AL14" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AO14" t="n">
         <v>55</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G15" t="n">
         <v>2.02</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="I15" t="n">
         <v>6.4</v>
       </c>
       <c r="J15" t="n">
-        <v>2.86</v>
+        <v>2.98</v>
       </c>
       <c r="K15" t="n">
         <v>3.3</v>
@@ -2476,10 +2476,10 @@
         <v>1.98</v>
       </c>
       <c r="X15" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>14.5</v>
+        <v>30</v>
       </c>
       <c r="Z15" t="n">
         <v>970</v>
@@ -2488,10 +2488,10 @@
         <v>500</v>
       </c>
       <c r="AB15" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.800000000000001</v>
+        <v>16</v>
       </c>
       <c r="AD15" t="n">
         <v>970</v>
@@ -2500,10 +2500,10 @@
         <v>500</v>
       </c>
       <c r="AF15" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AG15" t="n">
-        <v>14.5</v>
+        <v>40</v>
       </c>
       <c r="AH15" t="n">
         <v>970</v>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="G16" t="n">
         <v>1.34</v>
       </c>
       <c r="H16" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="I16" t="n">
         <v>13.5</v>
@@ -2572,10 +2572,10 @@
         <v>5.6</v>
       </c>
       <c r="K16" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
@@ -2590,7 +2590,7 @@
         <v>2.18</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R16" t="n">
         <v>1.46</v>
@@ -2599,7 +2599,7 @@
         <v>2.78</v>
       </c>
       <c r="T16" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U16" t="n">
         <v>1.71</v>
@@ -2647,7 +2647,7 @@
         <v>200</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AK16" t="n">
         <v>19</v>
@@ -2695,34 +2695,34 @@
         <v>2.7</v>
       </c>
       <c r="G17" t="n">
-        <v>3.35</v>
+        <v>2.94</v>
       </c>
       <c r="H17" t="n">
-        <v>2.56</v>
+        <v>2.8</v>
       </c>
       <c r="I17" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="K17" t="n">
         <v>3.45</v>
       </c>
       <c r="L17" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="O17" t="n">
         <v>1.05</v>
       </c>
       <c r="P17" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="Q17" t="n">
         <v>1.01</v>
@@ -2731,7 +2731,7 @@
         <v>1.21</v>
       </c>
       <c r="S17" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="T17" t="n">
         <v>1.05</v>
@@ -2740,28 +2740,28 @@
         <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="W17" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="X17" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y17" t="n">
         <v>970</v>
       </c>
       <c r="Z17" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AA17" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB17" t="n">
         <v>970</v>
       </c>
       <c r="AC17" t="n">
-        <v>500</v>
+        <v>42</v>
       </c>
       <c r="AD17" t="n">
         <v>970</v>
@@ -2770,7 +2770,7 @@
         <v>500</v>
       </c>
       <c r="AF17" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AG17" t="n">
         <v>970</v>
@@ -2782,7 +2782,7 @@
         <v>500</v>
       </c>
       <c r="AJ17" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AK17" t="n">
         <v>500</v>
@@ -2791,7 +2791,7 @@
         <v>500</v>
       </c>
       <c r="AM17" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
         <v>500</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G18" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="H18" t="n">
         <v>6.4</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J18" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K18" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L18" t="n">
         <v>1.32</v>
@@ -2860,25 +2860,25 @@
         <v>2.38</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R18" t="n">
         <v>1.54</v>
       </c>
       <c r="S18" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T18" t="n">
         <v>1.8</v>
       </c>
       <c r="U18" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V18" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W18" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="X18" t="n">
         <v>22</v>
@@ -2890,7 +2890,7 @@
         <v>60</v>
       </c>
       <c r="AA18" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB18" t="n">
         <v>10.5</v>
@@ -2899,7 +2899,7 @@
         <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
         <v>90</v>
@@ -2911,7 +2911,7 @@
         <v>9.6</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
         <v>80</v>
@@ -2923,7 +2923,7 @@
         <v>15.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM18" t="n">
         <v>100</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G19" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H19" t="n">
         <v>3.85</v>
@@ -2989,34 +2989,34 @@
         <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P19" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R19" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S19" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="T19" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U19" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V19" t="n">
         <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="X19" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="Y19" t="n">
         <v>23</v>
@@ -3025,19 +3025,19 @@
         <v>32</v>
       </c>
       <c r="AA19" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="n">
         <v>12.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD19" t="n">
         <v>16</v>
       </c>
       <c r="AE19" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF19" t="n">
         <v>14.5</v>
@@ -3046,7 +3046,7 @@
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI19" t="n">
         <v>44</v>
@@ -3055,16 +3055,16 @@
         <v>24</v>
       </c>
       <c r="AK19" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM19" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO19" t="n">
         <v>34</v>
@@ -3121,13 +3121,13 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O20" t="n">
         <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q20" t="n">
         <v>1.87</v>
@@ -3154,7 +3154,7 @@
         <v>17</v>
       </c>
       <c r="Y20" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z20" t="n">
         <v>27</v>
@@ -3178,22 +3178,22 @@
         <v>16</v>
       </c>
       <c r="AG20" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
         <v>17.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AJ20" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AK20" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AL20" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AM20" t="n">
         <v>90</v>
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G21" t="n">
         <v>2.82</v>
       </c>
       <c r="H21" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I21" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J21" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
         <v>3.9</v>
@@ -3283,13 +3283,13 @@
         <v>1.53</v>
       </c>
       <c r="W21" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X21" t="n">
         <v>970</v>
       </c>
       <c r="Y21" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="Z21" t="n">
         <v>970</v>
@@ -3298,13 +3298,13 @@
         <v>900</v>
       </c>
       <c r="AB21" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AC21" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AE21" t="n">
         <v>970</v>
@@ -3313,7 +3313,7 @@
         <v>970</v>
       </c>
       <c r="AG21" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="AH21" t="n">
         <v>60</v>
@@ -3373,13 +3373,13 @@
         <v>5.8</v>
       </c>
       <c r="H22" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="I22" t="n">
         <v>1.88</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
         <v>3.85</v>
@@ -3400,7 +3400,7 @@
         <v>1.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
         <v>1.29</v>
@@ -3421,43 +3421,43 @@
         <v>1.21</v>
       </c>
       <c r="X22" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>110</v>
+      </c>
+      <c r="AC22" t="n">
         <v>14</v>
       </c>
-      <c r="Y22" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA22" t="n">
+      <c r="AD22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>500</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>130</v>
+      </c>
+      <c r="AH22" t="n">
         <v>980</v>
       </c>
-      <c r="AB22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>60</v>
-      </c>
       <c r="AI22" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="AJ22" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AK22" t="n">
         <v>500</v>
@@ -3466,13 +3466,13 @@
         <v>500</v>
       </c>
       <c r="AM22" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN22" t="n">
         <v>500</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -3502,112 +3502,112 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="G23" t="n">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="H23" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="I23" t="n">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="J23" t="n">
         <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="L23" t="n">
         <v>1.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>2.58</v>
+        <v>2.96</v>
       </c>
       <c r="O23" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R23" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="S23" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="T23" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="U23" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="V23" t="n">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="W23" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="X23" t="n">
-        <v>500</v>
+        <v>11</v>
       </c>
       <c r="Y23" t="n">
-        <v>500</v>
+        <v>7.2</v>
       </c>
       <c r="Z23" t="n">
-        <v>500</v>
+        <v>11</v>
       </c>
       <c r="AA23" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="AB23" t="n">
-        <v>500</v>
+        <v>14.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>500</v>
+        <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>500</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
-        <v>500</v>
+        <v>24</v>
       </c>
       <c r="AF23" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="AG23" t="n">
-        <v>500</v>
+        <v>21</v>
       </c>
       <c r="AH23" t="n">
-        <v>500</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AJ23" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AK23" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="AL23" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AM23" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN23" t="n">
         <v>500</v>
       </c>
       <c r="AO23" t="n">
-        <v>500</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="24">
@@ -3637,58 +3637,58 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="G24" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H24" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K24" t="n">
         <v>4.8</v>
       </c>
-      <c r="I24" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>7</v>
-      </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.26</v>
+        <v>1.67</v>
       </c>
       <c r="O24" t="n">
         <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.91</v>
+        <v>1.36</v>
       </c>
       <c r="R24" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T24" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
         <v>1.13</v>
       </c>
       <c r="W24" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3706,7 +3706,7 @@
         <v>970</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD24" t="n">
         <v>1000</v>
@@ -3730,16 +3730,16 @@
         <v>970</v>
       </c>
       <c r="AK24" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AL24" t="n">
-        <v>290</v>
+        <v>500</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3772,34 +3772,34 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G25" t="n">
         <v>2.78</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K25" t="n">
         <v>3.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
         <v>1.6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P25" t="n">
         <v>1.6</v>
@@ -3808,25 +3808,25 @@
         <v>2.38</v>
       </c>
       <c r="R25" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S25" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
         <v>1.05</v>
       </c>
       <c r="U25" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W25" t="n">
         <v>1.56</v>
       </c>
       <c r="X25" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y25" t="n">
         <v>970</v>
@@ -3835,13 +3835,13 @@
         <v>970</v>
       </c>
       <c r="AA25" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB25" t="n">
         <v>970</v>
       </c>
       <c r="AC25" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD25" t="n">
         <v>970</v>
@@ -3925,22 +3925,22 @@
         <v>3.45</v>
       </c>
       <c r="L26" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="O26" t="n">
         <v>1.43</v>
       </c>
       <c r="P26" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R26" t="n">
         <v>1.24</v>
@@ -3961,16 +3961,16 @@
         <v>1.5</v>
       </c>
       <c r="X26" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y26" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z26" t="n">
         <v>23</v>
       </c>
       <c r="AA26" t="n">
-        <v>65</v>
+        <v>900</v>
       </c>
       <c r="AB26" t="n">
         <v>11.5</v>
@@ -3979,31 +3979,31 @@
         <v>8.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE26" t="n">
         <v>48</v>
       </c>
       <c r="AF26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG26" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AH26" t="n">
         <v>21</v>
       </c>
       <c r="AI26" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AJ26" t="n">
-        <v>60</v>
+        <v>900</v>
       </c>
       <c r="AK26" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AL26" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AM26" t="n">
         <v>160</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="G27" t="n">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="H27" t="n">
-        <v>2.22</v>
+        <v>1.68</v>
       </c>
       <c r="I27" t="n">
-        <v>2.44</v>
+        <v>2.72</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K27" t="n">
-        <v>3.6</v>
+        <v>11.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4072,22 +4072,22 @@
         <v>1.01</v>
       </c>
       <c r="P27" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R27" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S27" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T27" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U27" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="V27" t="n">
         <v>1.01</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G28" t="n">
         <v>2.38</v>
@@ -4186,16 +4186,16 @@
         <v>3.55</v>
       </c>
       <c r="I28" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J28" t="n">
         <v>3.2</v>
       </c>
       <c r="K28" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
@@ -4207,13 +4207,13 @@
         <v>1.4</v>
       </c>
       <c r="P28" t="n">
-        <v>1.73</v>
+        <v>1.25</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R28" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="S28" t="n">
         <v>3.6</v>
@@ -4237,10 +4237,10 @@
         <v>14.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AA28" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB28" t="n">
         <v>10.5</v>
@@ -4249,10 +4249,10 @@
         <v>9</v>
       </c>
       <c r="AD28" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AE28" t="n">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="AF28" t="n">
         <v>17</v>
@@ -4261,28 +4261,28 @@
         <v>14</v>
       </c>
       <c r="AH28" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AI28" t="n">
         <v>500</v>
       </c>
       <c r="AJ28" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="AK28" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="n">
+        <v>290</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN28" t="n">
         <v>55</v>
       </c>
-      <c r="AM28" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>970</v>
-      </c>
       <c r="AO28" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29">
@@ -4312,19 +4312,19 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.78</v>
+        <v>2.18</v>
       </c>
       <c r="G29" t="n">
-        <v>14.5</v>
+        <v>2.8</v>
       </c>
       <c r="H29" t="n">
-        <v>2.1</v>
+        <v>2.84</v>
       </c>
       <c r="I29" t="n">
-        <v>980</v>
+        <v>3.8</v>
       </c>
       <c r="J29" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="K29" t="n">
         <v>3.65</v>
@@ -4333,7 +4333,7 @@
         <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
         <v>1.02</v>
@@ -4342,22 +4342,22 @@
         <v>1.01</v>
       </c>
       <c r="P29" t="n">
-        <v>1.25</v>
+        <v>1.72</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="R29" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T29" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="U29" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="V29" t="n">
         <v>1.01</v>
@@ -4366,43 +4366,43 @@
         <v>1.01</v>
       </c>
       <c r="X29" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB29" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AC29" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF29" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AG29" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ29" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AK29" t="n">
         <v>500</v>
@@ -4411,13 +4411,13 @@
         <v>500</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN29" t="n">
         <v>500</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30">
@@ -4447,13 +4447,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="G30" t="n">
         <v>2.72</v>
       </c>
       <c r="H30" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="I30" t="n">
         <v>3.15</v>
@@ -4465,7 +4465,7 @@
         <v>3.7</v>
       </c>
       <c r="L30" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
@@ -4501,52 +4501,52 @@
         <v>1.58</v>
       </c>
       <c r="X30" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Y30" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z30" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD30" t="n">
         <v>23</v>
       </c>
-      <c r="AA30" t="n">
-        <v>970</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>15</v>
-      </c>
       <c r="AE30" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AF30" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AG30" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AI30" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AJ30" t="n">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="AK30" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AL30" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AM30" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN30" t="n">
         <v>970</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="G31" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="H31" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I31" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J31" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K31" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4609,31 +4609,31 @@
         <v>3.6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P31" t="n">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="R31" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S31" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="T31" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V31" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W31" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="X31" t="n">
         <v>970</v>
@@ -4732,7 +4732,7 @@
         <v>3.35</v>
       </c>
       <c r="K32" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4774,7 +4774,7 @@
         <v>11.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="Z32" t="n">
         <v>970</v>
@@ -4783,43 +4783,43 @@
         <v>500</v>
       </c>
       <c r="AB32" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AC32" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD32" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="AE32" t="n">
         <v>500</v>
       </c>
       <c r="AF32" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG32" t="n">
         <v>12.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AI32" t="n">
-        <v>110</v>
+        <v>380</v>
       </c>
       <c r="AJ32" t="n">
         <v>27</v>
       </c>
       <c r="AK32" t="n">
-        <v>970</v>
+        <v>75</v>
       </c>
       <c r="AL32" t="n">
+        <v>290</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN32" t="n">
         <v>55</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>22</v>
       </c>
       <c r="AO32" t="n">
         <v>500</v>
@@ -4861,10 +4861,10 @@
         <v>2.66</v>
       </c>
       <c r="I33" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="J33" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
         <v>3.3</v>
@@ -4885,7 +4885,7 @@
         <v>1.65</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R33" t="n">
         <v>1.23</v>
@@ -4900,7 +4900,7 @@
         <v>1.91</v>
       </c>
       <c r="V33" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="W33" t="n">
         <v>1.46</v>
@@ -4909,13 +4909,13 @@
         <v>11</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z33" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>55</v>
+        <v>320</v>
       </c>
       <c r="AB33" t="n">
         <v>9.800000000000001</v>
@@ -4924,10 +4924,10 @@
         <v>7.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="AF33" t="n">
         <v>20</v>
@@ -4939,25 +4939,25 @@
         <v>21</v>
       </c>
       <c r="AI33" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AJ33" t="n">
-        <v>55</v>
+        <v>320</v>
       </c>
       <c r="AK33" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="AL33" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="AM33" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN33" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AO33" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
@@ -4996,13 +4996,13 @@
         <v>2.9</v>
       </c>
       <c r="I34" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
         <v>3.15</v>
       </c>
       <c r="K34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5014,25 +5014,25 @@
         <v>2.72</v>
       </c>
       <c r="O34" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P34" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="R34" t="n">
         <v>1.21</v>
       </c>
       <c r="S34" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="T34" t="n">
         <v>2</v>
       </c>
       <c r="U34" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V34" t="n">
         <v>1.5</v>
@@ -5041,25 +5041,25 @@
         <v>1.52</v>
       </c>
       <c r="X34" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="Y34" t="n">
         <v>9</v>
       </c>
       <c r="Z34" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AA34" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AB34" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AD34" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AE34" t="n">
         <v>970</v>
@@ -5068,31 +5068,31 @@
         <v>34</v>
       </c>
       <c r="AG34" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI34" t="n">
-        <v>85</v>
+        <v>380</v>
       </c>
       <c r="AJ34" t="n">
         <v>320</v>
       </c>
       <c r="AK34" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AL34" t="n">
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="AM34" t="n">
         <v>580</v>
       </c>
       <c r="AN34" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AO34" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
@@ -5122,10 +5122,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G35" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H35" t="n">
         <v>3.35</v>
@@ -5140,7 +5140,7 @@
         <v>3.55</v>
       </c>
       <c r="L35" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
         <v>1.08</v>
@@ -5161,7 +5161,7 @@
         <v>1.31</v>
       </c>
       <c r="S35" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T35" t="n">
         <v>1.84</v>
@@ -5182,10 +5182,10 @@
         <v>22</v>
       </c>
       <c r="Z35" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AA35" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AB35" t="n">
         <v>10.5</v>
@@ -5194,40 +5194,40 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD35" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AE35" t="n">
         <v>980</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG35" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AH35" t="n">
         <v>22</v>
       </c>
       <c r="AI35" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK35" t="n">
         <v>65</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>980</v>
       </c>
       <c r="AL35" t="n">
         <v>980</v>
       </c>
       <c r="AM35" t="n">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO35" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36">
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
+        <v>10</v>
+      </c>
+      <c r="G36" t="n">
         <v>10.5</v>
-      </c>
-      <c r="G36" t="n">
-        <v>11</v>
       </c>
       <c r="H36" t="n">
         <v>1.36</v>
@@ -5269,43 +5269,43 @@
         <v>1.37</v>
       </c>
       <c r="J36" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K36" t="n">
         <v>6</v>
       </c>
       <c r="L36" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="O36" t="n">
         <v>1.19</v>
       </c>
       <c r="P36" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R36" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="S36" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="T36" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U36" t="n">
         <v>1.96</v>
       </c>
-      <c r="U36" t="n">
-        <v>1.98</v>
-      </c>
       <c r="V36" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="W36" t="n">
         <v>1.1</v>
@@ -5314,7 +5314,7 @@
         <v>26</v>
       </c>
       <c r="Y36" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z36" t="n">
         <v>8.800000000000001</v>
@@ -5323,7 +5323,7 @@
         <v>11</v>
       </c>
       <c r="AB36" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC36" t="n">
         <v>13</v>
@@ -5335,7 +5335,7 @@
         <v>13.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AG36" t="n">
         <v>38</v>
@@ -5362,7 +5362,7 @@
         <v>150</v>
       </c>
       <c r="AO36" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="37">
@@ -5401,46 +5401,46 @@
         <v>7.2</v>
       </c>
       <c r="I37" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="K37" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M37" t="n">
         <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="O37" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P37" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R37" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="S37" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="T37" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="U37" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="V37" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W37" t="n">
         <v>3.25</v>
@@ -5455,13 +5455,13 @@
         <v>190</v>
       </c>
       <c r="AA37" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AB37" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD37" t="n">
         <v>75</v>
@@ -5479,13 +5479,13 @@
         <v>46</v>
       </c>
       <c r="AI37" t="n">
-        <v>400</v>
+        <v>190</v>
       </c>
       <c r="AJ37" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL37" t="n">
         <v>75</v>
@@ -5494,7 +5494,7 @@
         <v>330</v>
       </c>
       <c r="AN37" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="AO37" t="n">
         <v>120</v>
@@ -5527,19 +5527,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="G38" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H38" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="I38" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="J38" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K38" t="n">
         <v>4.9</v>
@@ -5557,10 +5557,10 @@
         <v>1.18</v>
       </c>
       <c r="P38" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R38" t="n">
         <v>1.61</v>
@@ -5578,7 +5578,7 @@
         <v>2.28</v>
       </c>
       <c r="W38" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X38" t="n">
         <v>28</v>
@@ -5590,7 +5590,7 @@
         <v>13.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AB38" t="n">
         <v>26</v>
@@ -5599,19 +5599,19 @@
         <v>11.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE38" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AF38" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AG38" t="n">
         <v>21</v>
       </c>
       <c r="AH38" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI38" t="n">
         <v>28</v>
@@ -5620,19 +5620,19 @@
         <v>130</v>
       </c>
       <c r="AK38" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AL38" t="n">
         <v>55</v>
       </c>
       <c r="AM38" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AN38" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AO38" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="39">
@@ -5668,40 +5668,40 @@
         <v>1.71</v>
       </c>
       <c r="H39" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I39" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J39" t="n">
         <v>4.4</v>
       </c>
       <c r="K39" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L39" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M39" t="n">
         <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O39" t="n">
         <v>1.19</v>
       </c>
       <c r="P39" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R39" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S39" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="T39" t="n">
         <v>1.65</v>
@@ -5713,13 +5713,13 @@
         <v>1.21</v>
       </c>
       <c r="W39" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X39" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Y39" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="Z39" t="n">
         <v>970</v>
@@ -5731,7 +5731,7 @@
         <v>12.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD39" t="n">
         <v>42</v>
@@ -5740,7 +5740,7 @@
         <v>320</v>
       </c>
       <c r="AF39" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG39" t="n">
         <v>11</v>
@@ -5752,10 +5752,10 @@
         <v>250</v>
       </c>
       <c r="AJ39" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="AK39" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AL39" t="n">
         <v>65</v>
@@ -5764,7 +5764,7 @@
         <v>580</v>
       </c>
       <c r="AN39" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AO39" t="n">
         <v>970</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G40" t="n">
         <v>2.26</v>
@@ -5809,7 +5809,7 @@
         <v>3.1</v>
       </c>
       <c r="J40" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K40" t="n">
         <v>4.8</v>
@@ -5821,19 +5821,19 @@
         <v>1.02</v>
       </c>
       <c r="N40" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="O40" t="n">
         <v>1.13</v>
       </c>
       <c r="P40" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q40" t="n">
         <v>1.4</v>
       </c>
       <c r="R40" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="S40" t="n">
         <v>2</v>
@@ -5857,49 +5857,49 @@
         <v>970</v>
       </c>
       <c r="Z40" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AA40" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AB40" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AC40" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AD40" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="AE40" t="n">
         <v>970</v>
       </c>
       <c r="AF40" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AG40" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AH40" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AI40" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AJ40" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AK40" t="n">
-        <v>970</v>
+        <v>140</v>
       </c>
       <c r="AL40" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AM40" t="n">
-        <v>970</v>
+        <v>580</v>
       </c>
       <c r="AN40" t="n">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="AO40" t="n">
         <v>970</v>
@@ -5938,13 +5938,13 @@
         <v>2.04</v>
       </c>
       <c r="H41" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I41" t="n">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="J41" t="n">
-        <v>3.95</v>
+        <v>3.35</v>
       </c>
       <c r="K41" t="n">
         <v>4.5</v>
@@ -5956,31 +5956,31 @@
         <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="O41" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P41" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R41" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="S41" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="T41" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U41" t="n">
         <v>1.01</v>
       </c>
       <c r="V41" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W41" t="n">
         <v>1.96</v>
@@ -6001,7 +6001,7 @@
         <v>970</v>
       </c>
       <c r="AC41" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD41" t="n">
         <v>970</v>
@@ -6016,7 +6016,7 @@
         <v>970</v>
       </c>
       <c r="AH41" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AI41" t="n">
         <v>500</v>
@@ -6031,7 +6031,7 @@
         <v>970</v>
       </c>
       <c r="AM41" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN41" t="n">
         <v>970</v>
@@ -6067,19 +6067,19 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="G42" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H42" t="n">
         <v>3.05</v>
       </c>
       <c r="I42" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J42" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K42" t="n">
         <v>4.5</v>
@@ -6091,40 +6091,40 @@
         <v>1.03</v>
       </c>
       <c r="N42" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O42" t="n">
         <v>1.17</v>
       </c>
       <c r="P42" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R42" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S42" t="n">
         <v>2.26</v>
       </c>
       <c r="T42" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U42" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="V42" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W42" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X42" t="n">
         <v>90</v>
       </c>
       <c r="Y42" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="Z42" t="n">
         <v>970</v>
@@ -6133,16 +6133,16 @@
         <v>300</v>
       </c>
       <c r="AB42" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AC42" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE42" t="n">
-        <v>970</v>
+        <v>75</v>
       </c>
       <c r="AF42" t="n">
         <v>55</v>
@@ -6154,16 +6154,16 @@
         <v>21</v>
       </c>
       <c r="AI42" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AJ42" t="n">
         <v>970</v>
       </c>
       <c r="AK42" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AL42" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AM42" t="n">
         <v>580</v>
@@ -6205,7 +6205,7 @@
         <v>2.76</v>
       </c>
       <c r="G43" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="H43" t="n">
         <v>2.28</v>
@@ -6271,10 +6271,10 @@
         <v>970</v>
       </c>
       <c r="AC43" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD43" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AE43" t="n">
         <v>970</v>
@@ -6286,7 +6286,7 @@
         <v>970</v>
       </c>
       <c r="AH43" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI43" t="n">
         <v>970</v>
@@ -6301,13 +6301,13 @@
         <v>970</v>
       </c>
       <c r="AM43" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN43" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AO43" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
@@ -6337,13 +6337,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="G44" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H44" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I44" t="n">
         <v>7</v>
@@ -6367,7 +6367,7 @@
         <v>1.25</v>
       </c>
       <c r="P44" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q44" t="n">
         <v>1.71</v>
@@ -6388,7 +6388,7 @@
         <v>1.17</v>
       </c>
       <c r="W44" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="X44" t="n">
         <v>970</v>
@@ -6397,13 +6397,13 @@
         <v>970</v>
       </c>
       <c r="Z44" t="n">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="AA44" t="n">
         <v>170</v>
       </c>
       <c r="AB44" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AC44" t="n">
         <v>42</v>
@@ -6412,34 +6412,34 @@
         <v>970</v>
       </c>
       <c r="AE44" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>180</v>
+      </c>
+      <c r="AK44" t="n">
         <v>85</v>
       </c>
-      <c r="AF44" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>970</v>
-      </c>
       <c r="AL44" t="n">
         <v>970</v>
       </c>
       <c r="AM44" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN44" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AO44" t="n">
         <v>95</v>
@@ -6472,109 +6472,109 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="G45" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="H45" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="I45" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N45" t="n">
         <v>2.98</v>
       </c>
-      <c r="J45" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K45" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N45" t="n">
-        <v>3.1</v>
-      </c>
       <c r="O45" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="P45" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="R45" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S45" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="T45" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="U45" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="V45" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W45" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="X45" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Y45" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z45" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA45" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AB45" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC45" t="n">
         <v>7</v>
       </c>
       <c r="AD45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG45" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE45" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH45" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI45" t="n">
         <v>60</v>
       </c>
       <c r="AJ45" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN45" t="n">
         <v>44</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>36</v>
       </c>
       <c r="AO45" t="n">
         <v>40</v>
@@ -6610,19 +6610,19 @@
         <v>2.34</v>
       </c>
       <c r="G46" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H46" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I46" t="n">
         <v>3.8</v>
       </c>
       <c r="J46" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K46" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
@@ -6631,25 +6631,25 @@
         <v>1.09</v>
       </c>
       <c r="N46" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O46" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P46" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R46" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S46" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T46" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U46" t="n">
         <v>1.97</v>
@@ -6658,7 +6658,7 @@
         <v>1.36</v>
       </c>
       <c r="W46" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="X46" t="n">
         <v>11.5</v>
@@ -6670,25 +6670,25 @@
         <v>26</v>
       </c>
       <c r="AA46" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AB46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC46" t="n">
         <v>7.6</v>
       </c>
       <c r="AD46" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="AF46" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH46" t="n">
         <v>21</v>
@@ -6697,22 +6697,22 @@
         <v>75</v>
       </c>
       <c r="AJ46" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AK46" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL46" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="AM46" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN46" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO46" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47">
@@ -6742,13 +6742,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="G47" t="n">
         <v>3.25</v>
       </c>
       <c r="H47" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="I47" t="n">
         <v>2.86</v>
@@ -6760,7 +6760,7 @@
         <v>3.35</v>
       </c>
       <c r="L47" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M47" t="n">
         <v>1.09</v>
@@ -6778,7 +6778,7 @@
         <v>2.24</v>
       </c>
       <c r="R47" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S47" t="n">
         <v>4.2</v>
@@ -6787,7 +6787,7 @@
         <v>1.83</v>
       </c>
       <c r="U47" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V47" t="n">
         <v>1.54</v>
@@ -6796,13 +6796,13 @@
         <v>1.44</v>
       </c>
       <c r="X47" t="n">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="Z47" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AA47" t="n">
         <v>46</v>
@@ -6823,7 +6823,7 @@
         <v>20</v>
       </c>
       <c r="AG47" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH47" t="n">
         <v>20</v>
@@ -6832,7 +6832,7 @@
         <v>55</v>
       </c>
       <c r="AJ47" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="n">
         <v>42</v>
@@ -6841,7 +6841,7 @@
         <v>70</v>
       </c>
       <c r="AM47" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN47" t="n">
         <v>46</v>
@@ -6877,19 +6877,19 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="G48" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H48" t="n">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="I48" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="J48" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="K48" t="n">
         <v>3.45</v>
@@ -6901,22 +6901,22 @@
         <v>1.01</v>
       </c>
       <c r="N48" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="O48" t="n">
         <v>1.01</v>
       </c>
       <c r="P48" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R48" t="n">
         <v>1.18</v>
       </c>
       <c r="S48" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="T48" t="n">
         <v>1.01</v>
@@ -6925,40 +6925,40 @@
         <v>1.01</v>
       </c>
       <c r="V48" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W48" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="X48" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y48" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="Z48" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AA48" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB48" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AC48" t="n">
-        <v>500</v>
+        <v>42</v>
       </c>
       <c r="AD48" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AE48" t="n">
         <v>500</v>
       </c>
       <c r="AF48" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AG48" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AH48" t="n">
         <v>500</v>
@@ -6967,7 +6967,7 @@
         <v>500</v>
       </c>
       <c r="AJ48" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AK48" t="n">
         <v>500</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G49" t="n">
         <v>2.28</v>
@@ -7021,7 +7021,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J49" t="n">
         <v>3.2</v>
@@ -7036,16 +7036,16 @@
         <v>1.12</v>
       </c>
       <c r="N49" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="O49" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P49" t="n">
         <v>1.59</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="R49" t="n">
         <v>1.2</v>
@@ -7054,10 +7054,10 @@
         <v>5.4</v>
       </c>
       <c r="T49" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U49" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V49" t="n">
         <v>1.31</v>
@@ -7066,7 +7066,7 @@
         <v>1.78</v>
       </c>
       <c r="X49" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y49" t="n">
         <v>11.5</v>
@@ -7078,7 +7078,7 @@
         <v>100</v>
       </c>
       <c r="AB49" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC49" t="n">
         <v>8.6</v>
@@ -7096,7 +7096,7 @@
         <v>12</v>
       </c>
       <c r="AH49" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI49" t="n">
         <v>100</v>
@@ -7168,7 +7168,7 @@
         <v>1.33</v>
       </c>
       <c r="M50" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N50" t="n">
         <v>3.4</v>
@@ -7183,7 +7183,7 @@
         <v>2.08</v>
       </c>
       <c r="R50" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S50" t="n">
         <v>3.6</v>
@@ -7195,7 +7195,7 @@
         <v>2.06</v>
       </c>
       <c r="V50" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W50" t="n">
         <v>1.67</v>
@@ -7282,19 +7282,19 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="G51" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="H51" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I51" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="J51" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="K51" t="n">
         <v>6.6</v>
@@ -7312,7 +7312,7 @@
         <v>1.15</v>
       </c>
       <c r="P51" t="n">
-        <v>2.56</v>
+        <v>2.74</v>
       </c>
       <c r="Q51" t="n">
         <v>1.46</v>
@@ -7321,7 +7321,7 @@
         <v>1.7</v>
       </c>
       <c r="S51" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="T51" t="n">
         <v>1.66</v>
@@ -7333,7 +7333,7 @@
         <v>1.12</v>
       </c>
       <c r="W51" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="X51" t="n">
         <v>970</v>
@@ -7360,10 +7360,10 @@
         <v>510</v>
       </c>
       <c r="AF51" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AG51" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AH51" t="n">
         <v>970</v>
@@ -7417,19 +7417,19 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="G52" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="I52" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J52" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K52" t="n">
         <v>3.95</v>
@@ -7438,10 +7438,10 @@
         <v>1.34</v>
       </c>
       <c r="M52" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N52" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O52" t="n">
         <v>1.35</v>
@@ -7465,16 +7465,16 @@
         <v>1.98</v>
       </c>
       <c r="V52" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W52" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="X52" t="n">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="Y52" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="Z52" t="n">
         <v>970</v>
@@ -7483,10 +7483,10 @@
         <v>500</v>
       </c>
       <c r="AB52" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AC52" t="n">
-        <v>12.5</v>
+        <v>42</v>
       </c>
       <c r="AD52" t="n">
         <v>970</v>
@@ -7495,13 +7495,13 @@
         <v>500</v>
       </c>
       <c r="AF52" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AG52" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AH52" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AI52" t="n">
         <v>500</v>
@@ -7510,7 +7510,7 @@
         <v>970</v>
       </c>
       <c r="AK52" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AL52" t="n">
         <v>970</v>
@@ -7558,7 +7558,7 @@
         <v>1.21</v>
       </c>
       <c r="H53" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I53" t="n">
         <v>23</v>
@@ -7567,7 +7567,7 @@
         <v>8</v>
       </c>
       <c r="K53" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L53" t="n">
         <v>1.29</v>
@@ -7591,7 +7591,7 @@
         <v>1.63</v>
       </c>
       <c r="S53" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T53" t="n">
         <v>2.56</v>
@@ -7603,16 +7603,16 @@
         <v>1.04</v>
       </c>
       <c r="W53" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X53" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y53" t="n">
         <v>60</v>
       </c>
       <c r="Z53" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AA53" t="n">
         <v>1000</v>
@@ -7621,7 +7621,7 @@
         <v>9</v>
       </c>
       <c r="AC53" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AD53" t="n">
         <v>80</v>
@@ -7642,7 +7642,7 @@
         <v>390</v>
       </c>
       <c r="AJ53" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AK53" t="n">
         <v>14.5</v>
@@ -7651,7 +7651,7 @@
         <v>55</v>
       </c>
       <c r="AM53" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AN53" t="n">
         <v>3.8</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G54" t="n">
         <v>3.65</v>
@@ -7696,25 +7696,25 @@
         <v>2.14</v>
       </c>
       <c r="I54" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="J54" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K54" t="n">
         <v>4</v>
       </c>
       <c r="L54" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M54" t="n">
         <v>1.05</v>
       </c>
       <c r="N54" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O54" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P54" t="n">
         <v>2.04</v>
@@ -7732,10 +7732,10 @@
         <v>1.67</v>
       </c>
       <c r="U54" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V54" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="W54" t="n">
         <v>1.37</v>
@@ -7744,7 +7744,7 @@
         <v>970</v>
       </c>
       <c r="Y54" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="Z54" t="n">
         <v>970</v>
@@ -7753,13 +7753,13 @@
         <v>970</v>
       </c>
       <c r="AB54" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AC54" t="n">
         <v>14</v>
       </c>
       <c r="AD54" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AE54" t="n">
         <v>65</v>
@@ -7768,7 +7768,7 @@
         <v>970</v>
       </c>
       <c r="AG54" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AH54" t="n">
         <v>60</v>
@@ -7783,7 +7783,7 @@
         <v>970</v>
       </c>
       <c r="AL54" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AM54" t="n">
         <v>580</v>
@@ -7846,16 +7846,16 @@
         <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O55" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P55" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R55" t="n">
         <v>1.33</v>
@@ -7924,7 +7924,7 @@
         <v>100</v>
       </c>
       <c r="AN55" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO55" t="n">
         <v>36</v>
@@ -7966,13 +7966,13 @@
         <v>4.6</v>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J56" t="n">
         <v>3.35</v>
       </c>
       <c r="K56" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L56" t="n">
         <v>1.51</v>
@@ -7981,13 +7981,13 @@
         <v>1.1</v>
       </c>
       <c r="N56" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O56" t="n">
         <v>1.47</v>
       </c>
       <c r="P56" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="Q56" t="n">
         <v>2.42</v>
@@ -7999,7 +7999,7 @@
         <v>4.7</v>
       </c>
       <c r="T56" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U56" t="n">
         <v>1.83</v>
@@ -8020,7 +8020,7 @@
         <v>34</v>
       </c>
       <c r="AA56" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB56" t="n">
         <v>7.2</v>
@@ -8032,19 +8032,19 @@
         <v>21</v>
       </c>
       <c r="AE56" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF56" t="n">
         <v>11</v>
       </c>
       <c r="AG56" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH56" t="n">
         <v>24</v>
       </c>
       <c r="AI56" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ56" t="n">
         <v>25</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G58" t="n">
         <v>2.64</v>
@@ -8236,7 +8236,7 @@
         <v>3.8</v>
       </c>
       <c r="I58" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J58" t="n">
         <v>2.76</v>
@@ -8257,10 +8257,10 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>1.07</v>
+        <v>1.35</v>
       </c>
       <c r="Q58" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="G59" t="n">
         <v>2.34</v>
@@ -8377,7 +8377,7 @@
         <v>2.9</v>
       </c>
       <c r="K59" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8497,7 +8497,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G60" t="n">
         <v>2.68</v>
@@ -8512,7 +8512,7 @@
         <v>3.1</v>
       </c>
       <c r="K60" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L60" t="n">
         <v>1.01</v>
@@ -8521,19 +8521,19 @@
         <v>1.01</v>
       </c>
       <c r="N60" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="O60" t="n">
         <v>1.41</v>
       </c>
       <c r="P60" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q60" t="n">
         <v>2.06</v>
       </c>
       <c r="R60" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S60" t="n">
         <v>3.55</v>
@@ -8632,22 +8632,22 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="G61" t="n">
-        <v>2.7</v>
+        <v>2.86</v>
       </c>
       <c r="H61" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I61" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="J61" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="K61" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="L61" t="n">
         <v>1.01</v>
@@ -8674,19 +8674,19 @@
         <v>1.02</v>
       </c>
       <c r="T61" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U61" t="n">
         <v>1.67</v>
       </c>
       <c r="V61" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="W61" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="X61" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y61" t="n">
         <v>970</v>
@@ -8701,7 +8701,7 @@
         <v>970</v>
       </c>
       <c r="AC61" t="n">
-        <v>500</v>
+        <v>42</v>
       </c>
       <c r="AD61" t="n">
         <v>970</v>
@@ -8767,13 +8767,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="G62" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="H62" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="I62" t="n">
         <v>1000</v>
@@ -8800,7 +8800,7 @@
         <v>1.07</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.34</v>
+        <v>2.56</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -8902,19 +8902,19 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.79</v>
+        <v>1.43</v>
       </c>
       <c r="G63" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="I63" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="J63" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K63" t="n">
         <v>3.55</v>
@@ -9106,7 +9106,7 @@
         <v>7.6</v>
       </c>
       <c r="AC64" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD64" t="n">
         <v>980</v>
@@ -9133,7 +9133,7 @@
         <v>980</v>
       </c>
       <c r="AL64" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM64" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I2" t="n">
         <v>4.6</v>
@@ -682,37 +682,37 @@
         <v>4.7</v>
       </c>
       <c r="K2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R2" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="T2" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="V2" t="n">
         <v>1.27</v>
@@ -721,19 +721,19 @@
         <v>2.3</v>
       </c>
       <c r="X2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z2" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AB2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC2" t="n">
         <v>12.5</v>
@@ -766,10 +766,10 @@
         <v>21</v>
       </c>
       <c r="AM2" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AO2" t="n">
         <v>24</v>
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G3" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="H3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="M3" t="n">
         <v>1.12</v>
@@ -832,49 +832,49 @@
         <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="R3" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S3" t="n">
         <v>5.3</v>
       </c>
       <c r="T3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U3" t="n">
         <v>1.78</v>
       </c>
       <c r="V3" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="W3" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="X3" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA3" t="n">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="AB3" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
         <v>980</v>
@@ -883,10 +883,10 @@
         <v>500</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>500</v>
       </c>
       <c r="AH3" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AI3" t="n">
         <v>500</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="G4" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="H4" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I4" t="n">
         <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K4" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.3</v>
@@ -961,34 +961,34 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R4" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
         <v>2.58</v>
       </c>
       <c r="T4" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U4" t="n">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="V4" t="n">
         <v>1.09</v>
       </c>
       <c r="W4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="X4" t="n">
         <v>24</v>
@@ -997,7 +997,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA4" t="n">
         <v>450</v>
@@ -1027,7 +1027,7 @@
         <v>160</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK4" t="n">
         <v>15.5</v>
@@ -1039,10 +1039,10 @@
         <v>180</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5">
@@ -1075,19 +1075,19 @@
         <v>1.86</v>
       </c>
       <c r="G5" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.43</v>
@@ -1096,10 +1096,10 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>2.96</v>
+        <v>3.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P5" t="n">
         <v>1.81</v>
@@ -1108,10 +1108,10 @@
         <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S5" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="T5" t="n">
         <v>1.74</v>
@@ -1129,7 +1129,7 @@
         <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z5" t="n">
         <v>980</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G6" t="n">
         <v>3.55</v>
       </c>
       <c r="H6" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I6" t="n">
         <v>2.52</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
         <v>3.65</v>
@@ -1231,7 +1231,7 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
         <v>1.35</v>
@@ -1240,7 +1240,7 @@
         <v>1.83</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R6" t="n">
         <v>1.31</v>
@@ -1249,13 +1249,13 @@
         <v>3.65</v>
       </c>
       <c r="T6" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U6" t="n">
         <v>2.06</v>
       </c>
       <c r="V6" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
         <v>1.39</v>
@@ -1264,22 +1264,22 @@
         <v>24</v>
       </c>
       <c r="Y6" t="n">
-        <v>500</v>
+        <v>18</v>
       </c>
       <c r="Z6" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AA6" t="n">
         <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AC6" t="n">
         <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
         <v>980</v>
@@ -1291,7 +1291,7 @@
         <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AI6" t="n">
         <v>980</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="G7" t="n">
         <v>2.16</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
         <v>3.75</v>
@@ -1366,7 +1366,7 @@
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1375,22 +1375,22 @@
         <v>1.77</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S7" t="n">
         <v>3.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U7" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V7" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W7" t="n">
         <v>1.86</v>
@@ -1408,10 +1408,10 @@
         <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>16</v>
+        <v>500</v>
       </c>
       <c r="AC7" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
         <v>970</v>
@@ -1420,10 +1420,10 @@
         <v>500</v>
       </c>
       <c r="AF7" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AG7" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AH7" t="n">
         <v>970</v>
@@ -1438,7 +1438,7 @@
         <v>970</v>
       </c>
       <c r="AL7" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
@@ -1480,61 +1480,61 @@
         <v>3.35</v>
       </c>
       <c r="G8" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H8" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="I8" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="J8" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="K8" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="M8" t="n">
         <v>1.16</v>
       </c>
       <c r="N8" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="O8" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P8" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R8" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="S8" t="n">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="T8" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="V8" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W8" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X8" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z8" t="n">
         <v>16</v>
@@ -1543,37 +1543,37 @@
         <v>150</v>
       </c>
       <c r="AB8" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC8" t="n">
         <v>7.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="AF8" t="n">
         <v>23</v>
       </c>
       <c r="AG8" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="AJ8" t="n">
         <v>230</v>
       </c>
       <c r="AK8" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="AL8" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="AM8" t="n">
         <v>500</v>
@@ -1612,61 +1612,61 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.94</v>
+        <v>2.38</v>
       </c>
       <c r="G9" t="n">
-        <v>2.14</v>
+        <v>2.64</v>
       </c>
       <c r="H9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I9" t="n">
         <v>4.7</v>
       </c>
-      <c r="I9" t="n">
-        <v>5.9</v>
-      </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>2.64</v>
       </c>
       <c r="K9" t="n">
-        <v>3.3</v>
+        <v>2.84</v>
       </c>
       <c r="L9" t="n">
-        <v>1.65</v>
+        <v>1.89</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="N9" t="n">
-        <v>2.2</v>
+        <v>1.84</v>
       </c>
       <c r="O9" t="n">
-        <v>1.65</v>
+        <v>1.98</v>
       </c>
       <c r="P9" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="Q9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="S9" t="n">
+        <v>11</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.78</v>
       </c>
-      <c r="R9" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.42</v>
-      </c>
       <c r="U9" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="V9" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="W9" t="n">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
         <v>970</v>
@@ -1678,10 +1678,10 @@
         <v>500</v>
       </c>
       <c r="AB9" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>19.5</v>
+        <v>42</v>
       </c>
       <c r="AD9" t="n">
         <v>970</v>
@@ -1690,10 +1690,10 @@
         <v>500</v>
       </c>
       <c r="AF9" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AG9" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AH9" t="n">
         <v>970</v>
@@ -1705,13 +1705,13 @@
         <v>970</v>
       </c>
       <c r="AK9" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AL9" t="n">
         <v>500</v>
       </c>
       <c r="AM9" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
         <v>970</v>
@@ -1747,58 +1747,58 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="G10" t="n">
-        <v>1.76</v>
+        <v>1.63</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="I10" t="n">
-        <v>16.5</v>
+        <v>7.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="K10" t="n">
-        <v>6.8</v>
+        <v>4.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="R10" t="n">
         <v>1.48</v>
       </c>
       <c r="S10" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T10" t="n">
-        <v>1.05</v>
+        <v>1.8</v>
       </c>
       <c r="U10" t="n">
-        <v>1.05</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="X10" t="n">
         <v>970</v>
@@ -1807,52 +1807,52 @@
         <v>970</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB10" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AD10" t="n">
         <v>970</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AF10" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AH10" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AJ10" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="AK10" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="AL10" t="n">
-        <v>500</v>
+        <v>95</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>29</v>
+        <v>7.8</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
@@ -1882,64 +1882,64 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N11" t="n">
         <v>2.4</v>
       </c>
-      <c r="G11" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="O11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.51</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.43</v>
-      </c>
       <c r="X11" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="Y11" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="Z11" t="n">
         <v>970</v>
@@ -1948,22 +1948,22 @@
         <v>900</v>
       </c>
       <c r="AB11" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AC11" t="n">
-        <v>16.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AE11" t="n">
         <v>500</v>
       </c>
       <c r="AF11" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AG11" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AH11" t="n">
         <v>970</v>
@@ -1975,7 +1975,7 @@
         <v>900</v>
       </c>
       <c r="AK11" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AL11" t="n">
         <v>500</v>
@@ -1984,10 +1984,10 @@
         <v>500</v>
       </c>
       <c r="AN11" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO11" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12">
@@ -2017,100 +2017,100 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G12" t="n">
-        <v>2.64</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>4.4</v>
       </c>
       <c r="J12" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="L12" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>2.4</v>
+        <v>2.66</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="P12" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="R12" t="n">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="S12" t="n">
-        <v>2.64</v>
+        <v>4.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.05</v>
+        <v>2.02</v>
       </c>
       <c r="U12" t="n">
-        <v>1.05</v>
+        <v>1.79</v>
       </c>
       <c r="V12" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W12" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="X12" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y12" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="Z12" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AA12" t="n">
         <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>970</v>
+        <v>7.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>42</v>
+        <v>12.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AE12" t="n">
         <v>500</v>
       </c>
       <c r="AF12" t="n">
-        <v>970</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AI12" t="n">
         <v>500</v>
       </c>
       <c r="AJ12" t="n">
-        <v>900</v>
+        <v>130</v>
       </c>
       <c r="AK12" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="AL12" t="n">
         <v>500</v>
@@ -2119,10 +2119,10 @@
         <v>500</v>
       </c>
       <c r="AN12" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="AO12" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13">
@@ -2161,22 +2161,22 @@
         <v>2.84</v>
       </c>
       <c r="I13" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
         <v>3.65</v>
       </c>
       <c r="L13" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M13" t="n">
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O13" t="n">
         <v>1.45</v>
@@ -2194,22 +2194,22 @@
         <v>4.2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U13" t="n">
         <v>1.87</v>
       </c>
       <c r="V13" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W13" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X13" t="n">
         <v>15.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
         <v>970</v>
@@ -2218,13 +2218,13 @@
         <v>900</v>
       </c>
       <c r="AB13" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>14</v>
+        <v>8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AE13" t="n">
         <v>970</v>
@@ -2233,7 +2233,7 @@
         <v>970</v>
       </c>
       <c r="AG13" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AH13" t="n">
         <v>85</v>
@@ -2254,10 +2254,10 @@
         <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO13" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14">
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="G14" t="n">
         <v>7.2</v>
@@ -2296,7 +2296,7 @@
         <v>1.69</v>
       </c>
       <c r="I14" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="J14" t="n">
         <v>3.55</v>
@@ -2305,22 +2305,22 @@
         <v>3.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M14" t="n">
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O14" t="n">
         <v>1.47</v>
       </c>
       <c r="P14" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R14" t="n">
         <v>1.23</v>
@@ -2329,13 +2329,13 @@
         <v>4.7</v>
       </c>
       <c r="T14" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U14" t="n">
         <v>1.76</v>
       </c>
       <c r="V14" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="W14" t="n">
         <v>1.16</v>
@@ -2476,7 +2476,7 @@
         <v>1.98</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y15" t="n">
         <v>30</v>
@@ -2488,7 +2488,7 @@
         <v>500</v>
       </c>
       <c r="AB15" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="AC15" t="n">
         <v>16</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G16" t="n">
         <v>1.34</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G18" t="n">
         <v>1.57</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.59</v>
       </c>
       <c r="H18" t="n">
         <v>6.4</v>
@@ -2845,7 +2845,7 @@
         <v>4.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -2857,28 +2857,28 @@
         <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R18" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S18" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T18" t="n">
         <v>1.8</v>
       </c>
       <c r="U18" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V18" t="n">
         <v>1.17</v>
       </c>
       <c r="W18" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="X18" t="n">
         <v>22</v>
@@ -2899,7 +2899,7 @@
         <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
         <v>90</v>
@@ -2932,7 +2932,7 @@
         <v>7</v>
       </c>
       <c r="AO18" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -2965,7 +2965,7 @@
         <v>1.99</v>
       </c>
       <c r="G19" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H19" t="n">
         <v>3.85</v>
@@ -2992,43 +2992,43 @@
         <v>1.23</v>
       </c>
       <c r="P19" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="Q19" t="n">
         <v>1.68</v>
       </c>
       <c r="R19" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S19" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T19" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U19" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V19" t="n">
         <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="X19" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Z19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA19" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
         <v>9.4</v>
@@ -3046,7 +3046,7 @@
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI19" t="n">
         <v>44</v>
@@ -3064,10 +3064,10 @@
         <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G20" t="n">
         <v>2.3</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I20" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J20" t="n">
         <v>3.65</v>
@@ -3115,7 +3115,7 @@
         <v>3.7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
@@ -3130,31 +3130,31 @@
         <v>2.08</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R20" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S20" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="U20" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V20" t="n">
         <v>1.39</v>
       </c>
       <c r="W20" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="X20" t="n">
         <v>17</v>
       </c>
       <c r="Y20" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z20" t="n">
         <v>27</v>
@@ -3172,7 +3172,7 @@
         <v>15.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF20" t="n">
         <v>16</v>
@@ -3184,25 +3184,25 @@
         <v>17.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ20" t="n">
         <v>30</v>
       </c>
       <c r="AK20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL20" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM20" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO20" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
@@ -3238,13 +3238,13 @@
         <v>2.82</v>
       </c>
       <c r="H21" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I21" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K21" t="n">
         <v>3.9</v>
@@ -3265,10 +3265,10 @@
         <v>2.12</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="R21" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S21" t="n">
         <v>2.92</v>
@@ -3298,13 +3298,13 @@
         <v>900</v>
       </c>
       <c r="AB21" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AC21" t="n">
         <v>12.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AE21" t="n">
         <v>970</v>
@@ -3394,7 +3394,7 @@
         <v>3.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
         <v>1.8</v>
@@ -3421,7 +3421,7 @@
         <v>1.21</v>
       </c>
       <c r="X22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y22" t="n">
         <v>14.5</v>
@@ -3430,7 +3430,7 @@
         <v>20</v>
       </c>
       <c r="AA22" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AB22" t="n">
         <v>110</v>
@@ -3442,7 +3442,7 @@
         <v>19</v>
       </c>
       <c r="AE22" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AF22" t="n">
         <v>500</v>
@@ -3508,7 +3508,7 @@
         <v>5.2</v>
       </c>
       <c r="H23" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="I23" t="n">
         <v>1.96</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G24" t="n">
         <v>1.87</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I24" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K24" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.35</v>
@@ -3688,13 +3688,13 @@
         <v>1.13</v>
       </c>
       <c r="W24" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z24" t="n">
         <v>1000</v>
@@ -3706,7 +3706,7 @@
         <v>970</v>
       </c>
       <c r="AC24" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD24" t="n">
         <v>1000</v>
@@ -3739,7 +3739,7 @@
         <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3784,7 +3784,7 @@
         <v>4.4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K25" t="n">
         <v>3.5</v>
@@ -3808,13 +3808,13 @@
         <v>2.38</v>
       </c>
       <c r="R25" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S25" t="n">
         <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.05</v>
+        <v>1.87</v>
       </c>
       <c r="U25" t="n">
         <v>1.01</v>
@@ -3907,19 +3907,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G26" t="n">
         <v>2.98</v>
       </c>
       <c r="H26" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I26" t="n">
         <v>3.2</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K26" t="n">
         <v>3.45</v>
@@ -4051,10 +4051,10 @@
         <v>1.68</v>
       </c>
       <c r="I27" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="J27" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K27" t="n">
         <v>11.5</v>
@@ -4183,7 +4183,7 @@
         <v>2.38</v>
       </c>
       <c r="H28" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I28" t="n">
         <v>3.9</v>
@@ -4213,7 +4213,7 @@
         <v>2.02</v>
       </c>
       <c r="R28" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S28" t="n">
         <v>3.6</v>
@@ -4333,7 +4333,7 @@
         <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
         <v>1.02</v>
@@ -4345,16 +4345,16 @@
         <v>1.72</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R29" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S29" t="n">
         <v>3.55</v>
       </c>
       <c r="T29" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="U29" t="n">
         <v>1.96</v>
@@ -4366,7 +4366,7 @@
         <v>1.01</v>
       </c>
       <c r="X29" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="Y29" t="n">
         <v>970</v>
@@ -4447,46 +4447,46 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="G30" t="n">
         <v>2.72</v>
       </c>
       <c r="H30" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I30" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J30" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K30" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L30" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="O30" t="n">
         <v>1.33</v>
       </c>
       <c r="P30" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q30" t="n">
         <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="S30" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T30" t="n">
         <v>1.75</v>
@@ -4495,7 +4495,7 @@
         <v>2.06</v>
       </c>
       <c r="V30" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W30" t="n">
         <v>1.58</v>
@@ -4585,7 +4585,7 @@
         <v>1.8</v>
       </c>
       <c r="G31" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H31" t="n">
         <v>4.2</v>
@@ -4594,7 +4594,7 @@
         <v>5.5</v>
       </c>
       <c r="J31" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K31" t="n">
         <v>3.8</v>
@@ -4609,10 +4609,10 @@
         <v>3.6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="P31" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q31" t="n">
         <v>1.81</v>
@@ -4633,7 +4633,7 @@
         <v>1.22</v>
       </c>
       <c r="W31" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X31" t="n">
         <v>970</v>
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G32" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H32" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I32" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J32" t="n">
         <v>3.35</v>
@@ -4738,40 +4738,40 @@
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N32" t="n">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="O32" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="P32" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="R32" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="S32" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="U32" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="V32" t="n">
         <v>1.23</v>
       </c>
       <c r="W32" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X32" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Y32" t="n">
         <v>26</v>
@@ -4783,10 +4783,10 @@
         <v>500</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD32" t="n">
         <v>50</v>
@@ -4798,16 +4798,16 @@
         <v>11.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AI32" t="n">
         <v>380</v>
       </c>
       <c r="AJ32" t="n">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="AK32" t="n">
         <v>75</v>
@@ -4858,13 +4858,13 @@
         <v>3.15</v>
       </c>
       <c r="H33" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I33" t="n">
         <v>2.86</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K33" t="n">
         <v>3.3</v>
@@ -4999,10 +4999,10 @@
         <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5011,7 +5011,7 @@
         <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="O34" t="n">
         <v>1.5</v>
@@ -5032,7 +5032,7 @@
         <v>2</v>
       </c>
       <c r="U34" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V34" t="n">
         <v>1.5</v>
@@ -5065,7 +5065,7 @@
         <v>970</v>
       </c>
       <c r="AF34" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AG34" t="n">
         <v>14</v>
@@ -5125,7 +5125,7 @@
         <v>2.24</v>
       </c>
       <c r="G35" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H35" t="n">
         <v>3.35</v>
@@ -5149,7 +5149,7 @@
         <v>3.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P35" t="n">
         <v>1.82</v>
@@ -5158,16 +5158,16 @@
         <v>2.12</v>
       </c>
       <c r="R35" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S35" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="T35" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="U35" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="V35" t="n">
         <v>1.37</v>
@@ -5182,7 +5182,7 @@
         <v>22</v>
       </c>
       <c r="Z35" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AA35" t="n">
         <v>500</v>
@@ -5191,16 +5191,16 @@
         <v>10.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD35" t="n">
         <v>27</v>
       </c>
       <c r="AE35" t="n">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AF35" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AG35" t="n">
         <v>18</v>
@@ -5218,7 +5218,7 @@
         <v>65</v>
       </c>
       <c r="AL35" t="n">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AM35" t="n">
         <v>580</v>
@@ -5263,10 +5263,10 @@
         <v>10.5</v>
       </c>
       <c r="H36" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I36" t="n">
         <v>1.36</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1.37</v>
       </c>
       <c r="J36" t="n">
         <v>5.9</v>
@@ -5278,7 +5278,7 @@
         <v>1.26</v>
       </c>
       <c r="M36" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N36" t="n">
         <v>5.8</v>
@@ -5290,13 +5290,13 @@
         <v>2.58</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R36" t="n">
         <v>1.63</v>
       </c>
       <c r="S36" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T36" t="n">
         <v>1.98</v>
@@ -5311,7 +5311,7 @@
         <v>1.1</v>
       </c>
       <c r="X36" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y36" t="n">
         <v>10.5</v>
@@ -5326,7 +5326,7 @@
         <v>38</v>
       </c>
       <c r="AC36" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD36" t="n">
         <v>10.5</v>
@@ -5347,7 +5347,7 @@
         <v>32</v>
       </c>
       <c r="AJ36" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AK36" t="n">
         <v>150</v>
@@ -5392,19 +5392,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="G37" t="n">
         <v>1.44</v>
       </c>
       <c r="H37" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I37" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J37" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="K37" t="n">
         <v>6</v>
@@ -5422,25 +5422,25 @@
         <v>1.17</v>
       </c>
       <c r="P37" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="Q37" t="n">
         <v>1.5</v>
       </c>
       <c r="R37" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S37" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="T37" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U37" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="V37" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W37" t="n">
         <v>3.25</v>
@@ -5470,7 +5470,7 @@
         <v>290</v>
       </c>
       <c r="AF37" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG37" t="n">
         <v>10.5</v>
@@ -5479,7 +5479,7 @@
         <v>46</v>
       </c>
       <c r="AI37" t="n">
-        <v>190</v>
+        <v>400</v>
       </c>
       <c r="AJ37" t="n">
         <v>14.5</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G38" t="n">
         <v>5.4</v>
@@ -5578,7 +5578,7 @@
         <v>2.28</v>
       </c>
       <c r="W38" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X38" t="n">
         <v>28</v>
@@ -5668,7 +5668,7 @@
         <v>1.71</v>
       </c>
       <c r="H39" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I39" t="n">
         <v>5.6</v>
@@ -5680,7 +5680,7 @@
         <v>4.9</v>
       </c>
       <c r="L39" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="M39" t="n">
         <v>1.04</v>
@@ -5698,10 +5698,10 @@
         <v>1.58</v>
       </c>
       <c r="R39" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="S39" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T39" t="n">
         <v>1.65</v>
@@ -5764,7 +5764,7 @@
         <v>580</v>
       </c>
       <c r="AN39" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO39" t="n">
         <v>970</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="G41" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="H41" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I41" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K41" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5968,22 +5968,22 @@
         <v>1.5</v>
       </c>
       <c r="R41" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S41" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="T41" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="U41" t="n">
         <v>1.01</v>
       </c>
       <c r="V41" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W41" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="X41" t="n">
         <v>500</v>
@@ -6097,13 +6097,13 @@
         <v>1.17</v>
       </c>
       <c r="P42" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="Q42" t="n">
         <v>1.5</v>
       </c>
       <c r="R42" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S42" t="n">
         <v>2.26</v>
@@ -6139,7 +6139,7 @@
         <v>13.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE42" t="n">
         <v>75</v>
@@ -6163,7 +6163,7 @@
         <v>50</v>
       </c>
       <c r="AL42" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AM42" t="n">
         <v>580</v>
@@ -6232,7 +6232,7 @@
         <v>1.18</v>
       </c>
       <c r="P43" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q43" t="n">
         <v>1.53</v>
@@ -6304,7 +6304,7 @@
         <v>580</v>
       </c>
       <c r="AN43" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AO43" t="n">
         <v>55</v>
@@ -6337,25 +6337,25 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H44" t="n">
         <v>6</v>
       </c>
       <c r="I44" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J44" t="n">
         <v>3.95</v>
       </c>
       <c r="K44" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M44" t="n">
         <v>1.05</v>
@@ -6367,10 +6367,10 @@
         <v>1.25</v>
       </c>
       <c r="P44" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="R44" t="n">
         <v>1.44</v>
@@ -6385,10 +6385,10 @@
         <v>2.08</v>
       </c>
       <c r="V44" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W44" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="X44" t="n">
         <v>970</v>
@@ -6490,22 +6490,22 @@
         <v>3.25</v>
       </c>
       <c r="L45" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="M45" t="n">
         <v>1.11</v>
       </c>
       <c r="N45" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O45" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P45" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R45" t="n">
         <v>1.24</v>
@@ -6526,13 +6526,13 @@
         <v>1.52</v>
       </c>
       <c r="X45" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Y45" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z45" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA45" t="n">
         <v>46</v>
@@ -6547,10 +6547,10 @@
         <v>13</v>
       </c>
       <c r="AE45" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF45" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG45" t="n">
         <v>13.5</v>
@@ -6565,7 +6565,7 @@
         <v>50</v>
       </c>
       <c r="AK45" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL45" t="n">
         <v>60</v>
@@ -6574,10 +6574,10 @@
         <v>140</v>
       </c>
       <c r="AN45" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO45" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46">
@@ -6607,10 +6607,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G46" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H46" t="n">
         <v>3.65</v>
@@ -6619,7 +6619,7 @@
         <v>3.8</v>
       </c>
       <c r="J46" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K46" t="n">
         <v>3.3</v>
@@ -6628,43 +6628,43 @@
         <v>1.01</v>
       </c>
       <c r="M46" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N46" t="n">
         <v>3.1</v>
       </c>
       <c r="O46" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="P46" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="R46" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S46" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T46" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U46" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="V46" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W46" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="X46" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y46" t="n">
         <v>11.5</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>12</v>
       </c>
       <c r="Z46" t="n">
         <v>26</v>
@@ -6673,10 +6673,10 @@
         <v>500</v>
       </c>
       <c r="AB46" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AC46" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD46" t="n">
         <v>16.5</v>
@@ -6685,7 +6685,7 @@
         <v>250</v>
       </c>
       <c r="AF46" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG46" t="n">
         <v>12.5</v>
@@ -6694,7 +6694,7 @@
         <v>21</v>
       </c>
       <c r="AI46" t="n">
-        <v>75</v>
+        <v>340</v>
       </c>
       <c r="AJ46" t="n">
         <v>85</v>
@@ -6709,7 +6709,7 @@
         <v>580</v>
       </c>
       <c r="AN46" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AO46" t="n">
         <v>500</v>
@@ -6742,13 +6742,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G47" t="n">
         <v>3.25</v>
       </c>
       <c r="H47" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I47" t="n">
         <v>2.86</v>
@@ -6796,10 +6796,10 @@
         <v>1.44</v>
       </c>
       <c r="X47" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z47" t="n">
         <v>16.5</v>
@@ -6832,7 +6832,7 @@
         <v>55</v>
       </c>
       <c r="AJ47" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AK47" t="n">
         <v>42</v>
@@ -7024,28 +7024,28 @@
         <v>4.2</v>
       </c>
       <c r="J49" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K49" t="n">
         <v>3.25</v>
       </c>
       <c r="L49" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="M49" t="n">
         <v>1.12</v>
       </c>
       <c r="N49" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O49" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P49" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="R49" t="n">
         <v>1.2</v>
@@ -7057,7 +7057,7 @@
         <v>2.2</v>
       </c>
       <c r="U49" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V49" t="n">
         <v>1.31</v>
@@ -7069,7 +7069,7 @@
         <v>8.4</v>
       </c>
       <c r="Y49" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z49" t="n">
         <v>28</v>
@@ -7096,7 +7096,7 @@
         <v>12</v>
       </c>
       <c r="AH49" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI49" t="n">
         <v>100</v>
@@ -7153,31 +7153,31 @@
         <v>2.48</v>
       </c>
       <c r="H50" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I50" t="n">
         <v>3.6</v>
       </c>
       <c r="J50" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K50" t="n">
         <v>3.65</v>
       </c>
       <c r="L50" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="M50" t="n">
         <v>1.08</v>
       </c>
       <c r="N50" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O50" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P50" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q50" t="n">
         <v>2.08</v>
@@ -7186,19 +7186,19 @@
         <v>1.32</v>
       </c>
       <c r="S50" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T50" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U50" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V50" t="n">
         <v>1.39</v>
       </c>
       <c r="W50" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X50" t="n">
         <v>16</v>
@@ -7216,7 +7216,7 @@
         <v>12</v>
       </c>
       <c r="AC50" t="n">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD50" t="n">
         <v>18.5</v>
@@ -7282,43 +7282,43 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="G51" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H51" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I51" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="J51" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="K51" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L51" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M51" t="n">
         <v>1.02</v>
       </c>
       <c r="N51" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="O51" t="n">
         <v>1.15</v>
       </c>
       <c r="P51" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="R51" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S51" t="n">
         <v>2.18</v>
@@ -7333,7 +7333,7 @@
         <v>1.12</v>
       </c>
       <c r="W51" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="X51" t="n">
         <v>970</v>
@@ -7438,31 +7438,31 @@
         <v>1.34</v>
       </c>
       <c r="M52" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N52" t="n">
-        <v>3.4</v>
+        <v>2.52</v>
       </c>
       <c r="O52" t="n">
-        <v>1.35</v>
+        <v>1.05</v>
       </c>
       <c r="P52" t="n">
-        <v>1.84</v>
+        <v>1.25</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="R52" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="S52" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="T52" t="n">
-        <v>1.89</v>
+        <v>1.05</v>
       </c>
       <c r="U52" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="V52" t="n">
         <v>1.28</v>
@@ -7471,10 +7471,10 @@
         <v>2</v>
       </c>
       <c r="X52" t="n">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="Y52" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="Z52" t="n">
         <v>970</v>
@@ -7483,10 +7483,10 @@
         <v>500</v>
       </c>
       <c r="AB52" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="AC52" t="n">
-        <v>42</v>
+        <v>12.5</v>
       </c>
       <c r="AD52" t="n">
         <v>970</v>
@@ -7495,22 +7495,22 @@
         <v>500</v>
       </c>
       <c r="AF52" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AG52" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AH52" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AI52" t="n">
         <v>500</v>
       </c>
       <c r="AJ52" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AK52" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AL52" t="n">
         <v>970</v>
@@ -7558,7 +7558,7 @@
         <v>1.21</v>
       </c>
       <c r="H53" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I53" t="n">
         <v>23</v>
@@ -7582,16 +7582,16 @@
         <v>1.2</v>
       </c>
       <c r="P53" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q53" t="n">
         <v>1.6</v>
       </c>
       <c r="R53" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S53" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T53" t="n">
         <v>2.56</v>
@@ -7603,7 +7603,7 @@
         <v>1.04</v>
       </c>
       <c r="W53" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="X53" t="n">
         <v>28</v>
@@ -7621,7 +7621,7 @@
         <v>9</v>
       </c>
       <c r="AC53" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AD53" t="n">
         <v>80</v>
@@ -7648,7 +7648,7 @@
         <v>14.5</v>
       </c>
       <c r="AL53" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM53" t="n">
         <v>400</v>
@@ -7687,49 +7687,49 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G54" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H54" t="n">
         <v>2.14</v>
       </c>
       <c r="I54" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="J54" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K54" t="n">
         <v>4</v>
       </c>
       <c r="L54" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="M54" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O54" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P54" t="n">
         <v>2.04</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="R54" t="n">
         <v>1.4</v>
       </c>
       <c r="S54" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="T54" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U54" t="n">
         <v>2.22</v>
@@ -7762,7 +7762,7 @@
         <v>970</v>
       </c>
       <c r="AE54" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AF54" t="n">
         <v>970</v>
@@ -7777,7 +7777,7 @@
         <v>970</v>
       </c>
       <c r="AJ54" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AK54" t="n">
         <v>970</v>
@@ -7828,10 +7828,10 @@
         <v>2.52</v>
       </c>
       <c r="H55" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I55" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3.25</v>
       </c>
       <c r="J55" t="n">
         <v>3.4</v>
@@ -7846,10 +7846,10 @@
         <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O55" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P55" t="n">
         <v>1.87</v>
@@ -7864,13 +7864,13 @@
         <v>3.85</v>
       </c>
       <c r="T55" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U55" t="n">
         <v>2.14</v>
       </c>
       <c r="V55" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W55" t="n">
         <v>1.65</v>
@@ -7909,7 +7909,7 @@
         <v>17.5</v>
       </c>
       <c r="AI55" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ55" t="n">
         <v>36</v>
@@ -7981,16 +7981,16 @@
         <v>1.1</v>
       </c>
       <c r="N56" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="O56" t="n">
         <v>1.47</v>
       </c>
       <c r="P56" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R56" t="n">
         <v>1.24</v>
@@ -8002,7 +8002,7 @@
         <v>2.1</v>
       </c>
       <c r="U56" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V56" t="n">
         <v>1.25</v>
@@ -8011,7 +8011,7 @@
         <v>1.96</v>
       </c>
       <c r="X56" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Y56" t="n">
         <v>13.5</v>
@@ -8044,7 +8044,7 @@
         <v>24</v>
       </c>
       <c r="AI56" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AJ56" t="n">
         <v>25</v>
@@ -8056,7 +8056,7 @@
         <v>55</v>
       </c>
       <c r="AM56" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN56" t="n">
         <v>21</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G58" t="n">
         <v>2.64</v>
@@ -8236,7 +8236,7 @@
         <v>3.8</v>
       </c>
       <c r="I58" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J58" t="n">
         <v>2.76</v>
@@ -8362,23 +8362,23 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="G59" t="n">
-        <v>2.34</v>
+        <v>2.56</v>
       </c>
       <c r="H59" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="I59" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="J59" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K59" t="n">
         <v>2.9</v>
       </c>
-      <c r="K59" t="n">
-        <v>3</v>
-      </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8506,7 +8506,7 @@
         <v>3.15</v>
       </c>
       <c r="I60" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J60" t="n">
         <v>3.1</v>
@@ -8635,7 +8635,7 @@
         <v>2.2</v>
       </c>
       <c r="G61" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="H61" t="n">
         <v>3.1</v>
@@ -8683,7 +8683,7 @@
         <v>1.28</v>
       </c>
       <c r="W61" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X61" t="n">
         <v>12</v>
@@ -8767,16 +8767,16 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.44</v>
+        <v>2.06</v>
       </c>
       <c r="G62" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="H62" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="I62" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="J62" t="n">
         <v>2.96</v>
@@ -9043,7 +9043,7 @@
         <v>1.86</v>
       </c>
       <c r="H64" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I64" t="n">
         <v>6.6</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
@@ -670,13 +670,13 @@
         <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="H2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
         <v>4.7</v>
@@ -685,55 +685,55 @@
         <v>4.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P2" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="R2" t="n">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="S2" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="T2" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="U2" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W2" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="X2" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Z2" t="n">
         <v>48</v>
       </c>
       <c r="AA2" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AB2" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC2" t="n">
         <v>12.5</v>
@@ -742,10 +742,10 @@
         <v>19</v>
       </c>
       <c r="AE2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -754,25 +754,25 @@
         <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL2" t="n">
         <v>21</v>
       </c>
       <c r="AM2" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -802,91 +802,91 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="G3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H3" t="n">
         <v>2.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
         <v>3.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="M3" t="n">
         <v>1.12</v>
       </c>
       <c r="N3" t="n">
-        <v>2.58</v>
+        <v>2.78</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R3" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S3" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T3" t="n">
         <v>2.1</v>
       </c>
       <c r="U3" t="n">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="V3" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
         <v>1.35</v>
       </c>
       <c r="X3" t="n">
-        <v>14.5</v>
+        <v>9</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
         <v>980</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="AC3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AE3" t="n">
         <v>980</v>
       </c>
       <c r="AF3" t="n">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="AG3" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
         <v>500</v>
@@ -895,13 +895,13 @@
         <v>900</v>
       </c>
       <c r="AK3" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AL3" t="n">
         <v>500</v>
       </c>
       <c r="AM3" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
         <v>600</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="G4" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="H4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="I4" t="n">
-        <v>12</v>
-      </c>
       <c r="J4" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="K4" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="S4" t="n">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="T4" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="V4" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="W4" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="X4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y4" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Z4" t="n">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="AA4" t="n">
-        <v>450</v>
+        <v>310</v>
       </c>
       <c r="AB4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF4" t="n">
         <v>9.6</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>9</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
         <v>15.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM4" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AO4" t="n">
         <v>180</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>250</v>
       </c>
     </row>
     <row r="5">
@@ -1078,16 +1078,16 @@
         <v>2.06</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L5" t="n">
         <v>1.43</v>
@@ -1105,16 +1105,16 @@
         <v>1.81</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R5" t="n">
         <v>1.31</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U5" t="n">
         <v>1.95</v>
@@ -1126,10 +1126,10 @@
         <v>1.94</v>
       </c>
       <c r="X5" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="Y5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
         <v>980</v>
@@ -1138,7 +1138,7 @@
         <v>900</v>
       </c>
       <c r="AB5" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
         <v>42</v>
@@ -1207,103 +1207,103 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G6" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="H6" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="I6" t="n">
         <v>2.52</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
         <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O6" t="n">
         <v>1.35</v>
       </c>
       <c r="P6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T6" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="U6" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="W6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X6" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z6" t="n">
         <v>24</v>
       </c>
-      <c r="Y6" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>500</v>
       </c>
-      <c r="AA6" t="n">
-        <v>900</v>
-      </c>
       <c r="AB6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE6" t="n">
         <v>500</v>
       </c>
-      <c r="AC6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>980</v>
-      </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AG6" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AH6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI6" t="n">
         <v>500</v>
       </c>
-      <c r="AI6" t="n">
-        <v>980</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="AL6" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AM6" t="n">
         <v>580</v>
@@ -1342,46 +1342,46 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="G7" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="I7" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.99</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="S7" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="T7" t="n">
         <v>1.86</v>
@@ -1390,13 +1390,13 @@
         <v>1.94</v>
       </c>
       <c r="V7" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="W7" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="n">
         <v>970</v>
@@ -1408,10 +1408,10 @@
         <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>500</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD7" t="n">
         <v>970</v>
@@ -1420,25 +1420,25 @@
         <v>500</v>
       </c>
       <c r="AF7" t="n">
-        <v>500</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="AH7" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI7" t="n">
         <v>500</v>
       </c>
       <c r="AJ7" t="n">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="AK7" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AL7" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G8" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H8" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="I8" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
         <v>2.7</v>
@@ -1495,52 +1495,52 @@
         <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="M8" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="N8" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="O8" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P8" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="R8" t="n">
         <v>1.12</v>
       </c>
       <c r="S8" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="U8" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="V8" t="n">
         <v>1.56</v>
       </c>
       <c r="W8" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y8" t="n">
         <v>6.8</v>
       </c>
-      <c r="Y8" t="n">
-        <v>7</v>
-      </c>
       <c r="Z8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="AB8" t="n">
         <v>8.800000000000001</v>
@@ -1552,13 +1552,13 @@
         <v>15</v>
       </c>
       <c r="AE8" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="AF8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG8" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
         <v>32</v>
@@ -1570,16 +1570,16 @@
         <v>230</v>
       </c>
       <c r="AK8" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="AL8" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="AM8" t="n">
         <v>500</v>
       </c>
       <c r="AN8" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AO8" t="n">
         <v>70</v>
@@ -1612,58 +1612,58 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="G9" t="n">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J9" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="K9" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="M9" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="O9" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="P9" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="R9" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="S9" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T9" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="U9" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="V9" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X9" t="n">
         <v>11</v>
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="G10" t="n">
-        <v>1.63</v>
+        <v>1.79</v>
       </c>
       <c r="H10" t="n">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>7.2</v>
+        <v>5.7</v>
       </c>
       <c r="J10" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="K10" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U10" t="n">
         <v>2.18</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.02</v>
-      </c>
       <c r="V10" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="W10" t="n">
-        <v>2.58</v>
+        <v>2.28</v>
       </c>
       <c r="X10" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="Y10" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="Z10" t="n">
-        <v>150</v>
+        <v>970</v>
       </c>
       <c r="AA10" t="n">
-        <v>210</v>
+        <v>900</v>
       </c>
       <c r="AB10" t="n">
         <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AD10" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AE10" t="n">
         <v>260</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>9.6</v>
       </c>
       <c r="AH10" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AI10" t="n">
         <v>230</v>
       </c>
       <c r="AJ10" t="n">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="AK10" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AL10" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AM10" t="n">
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11">
@@ -1882,40 +1882,40 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="G11" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="H11" t="n">
         <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J11" t="n">
         <v>2.8</v>
       </c>
       <c r="K11" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="M11" t="n">
         <v>1.14</v>
       </c>
       <c r="N11" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="O11" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P11" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.76</v>
+        <v>2.92</v>
       </c>
       <c r="R11" t="n">
         <v>1.16</v>
@@ -1924,22 +1924,22 @@
         <v>6.2</v>
       </c>
       <c r="T11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U11" t="n">
         <v>1.72</v>
       </c>
       <c r="V11" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W11" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X11" t="n">
         <v>14</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z11" t="n">
         <v>970</v>
@@ -1948,7 +1948,7 @@
         <v>900</v>
       </c>
       <c r="AB11" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AC11" t="n">
         <v>7.4</v>
@@ -1963,7 +1963,7 @@
         <v>500</v>
       </c>
       <c r="AG11" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AH11" t="n">
         <v>970</v>
@@ -2017,61 +2017,61 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
         <v>2.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I12" t="n">
         <v>4.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K12" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L12" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="O12" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="P12" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.32</v>
+        <v>2.58</v>
       </c>
       <c r="R12" t="n">
         <v>1.2</v>
       </c>
       <c r="S12" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="T12" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U12" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="V12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W12" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X12" t="n">
-        <v>9.800000000000001</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
         <v>22</v>
@@ -2083,10 +2083,10 @@
         <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>12.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD12" t="n">
         <v>80</v>
@@ -2098,16 +2098,16 @@
         <v>75</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AH12" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AI12" t="n">
         <v>500</v>
       </c>
       <c r="AJ12" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AK12" t="n">
         <v>260</v>
@@ -2119,7 +2119,7 @@
         <v>500</v>
       </c>
       <c r="AN12" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="AO12" t="n">
         <v>600</v>
@@ -2161,52 +2161,52 @@
         <v>2.84</v>
       </c>
       <c r="I13" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M13" t="n">
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O13" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="P13" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="R13" t="n">
         <v>1.22</v>
       </c>
       <c r="S13" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="T13" t="n">
         <v>1.95</v>
       </c>
       <c r="U13" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V13" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W13" t="n">
         <v>1.55</v>
       </c>
       <c r="X13" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Y13" t="n">
         <v>11</v>
@@ -2230,7 +2230,7 @@
         <v>970</v>
       </c>
       <c r="AF13" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AG13" t="n">
         <v>42</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="G14" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="H14" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="I14" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="J14" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
         <v>3.8</v>
@@ -2311,40 +2311,40 @@
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="O14" t="n">
         <v>1.47</v>
       </c>
       <c r="P14" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="R14" t="n">
         <v>1.23</v>
       </c>
       <c r="S14" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="T14" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="U14" t="n">
         <v>1.76</v>
       </c>
       <c r="V14" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="W14" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X14" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="Z14" t="n">
         <v>9</v>
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G15" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="H15" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I15" t="n">
         <v>6.4</v>
       </c>
       <c r="J15" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>3.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="M15" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="N15" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="O15" t="n">
         <v>1.67</v>
@@ -2461,22 +2461,22 @@
         <v>1.14</v>
       </c>
       <c r="S15" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="T15" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="V15" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W15" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="X15" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
         <v>30</v>
@@ -2518,7 +2518,7 @@
         <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
@@ -2557,58 +2557,58 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="G16" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="H16" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="I16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J16" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="K16" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
         <v>4.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="P16" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="R16" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="S16" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="T16" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="U16" t="n">
         <v>1.71</v>
       </c>
       <c r="V16" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W16" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="X16" t="n">
         <v>26</v>
@@ -2617,16 +2617,16 @@
         <v>980</v>
       </c>
       <c r="Z16" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC16" t="n">
-        <v>16.5</v>
+        <v>42</v>
       </c>
       <c r="AD16" t="n">
         <v>980</v>
@@ -2635,34 +2635,34 @@
         <v>260</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH16" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AI16" t="n">
         <v>200</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="n">
         <v>19</v>
       </c>
       <c r="AL16" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AM16" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AN16" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO16" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17">
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="G17" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="I17" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K17" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>1.61</v>
+        <v>3.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.05</v>
+        <v>1.42</v>
       </c>
       <c r="P17" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="R17" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="S17" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.05</v>
+        <v>1.86</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V17" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="W17" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X17" t="n">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="Y17" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="n">
-        <v>900</v>
+        <v>48</v>
       </c>
       <c r="AB17" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>42</v>
+        <v>7.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>500</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AH17" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AJ17" t="n">
-        <v>900</v>
+        <v>55</v>
       </c>
       <c r="AK17" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="AL17" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AM17" t="n">
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="AO17" t="n">
-        <v>500</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -2830,7 +2830,7 @@
         <v>1.56</v>
       </c>
       <c r="G18" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="H18" t="n">
         <v>6.4</v>
@@ -2851,22 +2851,22 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O18" t="n">
         <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R18" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S18" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="T18" t="n">
         <v>1.8</v>
@@ -2881,7 +2881,7 @@
         <v>2.72</v>
       </c>
       <c r="X18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y18" t="n">
         <v>27</v>
@@ -2899,10 +2899,10 @@
         <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="n">
         <v>10.5</v>
@@ -2914,10 +2914,10 @@
         <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK18" t="n">
         <v>15.5</v>
@@ -2926,13 +2926,13 @@
         <v>29</v>
       </c>
       <c r="AM18" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN18" t="n">
         <v>7</v>
       </c>
       <c r="AO18" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -2962,79 +2962,79 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="G19" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J19" t="n">
         <v>3.85</v>
       </c>
-      <c r="I19" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4</v>
-      </c>
       <c r="K19" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P19" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="Q19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T19" t="n">
         <v>1.68</v>
       </c>
-      <c r="R19" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.64</v>
-      </c>
       <c r="U19" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="V19" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W19" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="X19" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA19" t="n">
         <v>70</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE19" t="n">
         <v>40</v>
@@ -3046,28 +3046,28 @@
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI19" t="n">
         <v>44</v>
       </c>
       <c r="AJ19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK19" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AL19" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -3097,112 +3097,112 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G20" t="n">
         <v>2.26</v>
       </c>
-      <c r="G20" t="n">
-        <v>2.3</v>
-      </c>
       <c r="H20" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J20" t="n">
         <v>3.55</v>
       </c>
-      <c r="J20" t="n">
-        <v>3.65</v>
-      </c>
       <c r="K20" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V20" t="n">
         <v>1.37</v>
       </c>
-      <c r="M20" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.39</v>
-      </c>
       <c r="W20" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X20" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD20" t="n">
         <v>15</v>
       </c>
-      <c r="Z20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AE20" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
         <v>17.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM20" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AN20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO20" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
@@ -3232,46 +3232,46 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="G21" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="H21" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="I21" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J21" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O21" t="n">
         <v>1.26</v>
       </c>
       <c r="P21" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="R21" t="n">
         <v>1.45</v>
       </c>
       <c r="S21" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="T21" t="n">
         <v>1.65</v>
@@ -3280,7 +3280,7 @@
         <v>2.32</v>
       </c>
       <c r="V21" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W21" t="n">
         <v>1.54</v>
@@ -3298,10 +3298,10 @@
         <v>900</v>
       </c>
       <c r="AB21" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AC21" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AD21" t="n">
         <v>970</v>
@@ -3370,16 +3370,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="H22" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="I22" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="J22" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K22" t="n">
         <v>3.85</v>
@@ -3391,34 +3391,34 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.36</v>
       </c>
       <c r="P22" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R22" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S22" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T22" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U22" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V22" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="W22" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="X22" t="n">
         <v>22</v>
@@ -3436,7 +3436,7 @@
         <v>110</v>
       </c>
       <c r="AC22" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AD22" t="n">
         <v>19</v>
@@ -3469,10 +3469,10 @@
         <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO22" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
@@ -3508,46 +3508,46 @@
         <v>5.2</v>
       </c>
       <c r="H23" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="I23" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K23" t="n">
         <v>3.65</v>
       </c>
       <c r="L23" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M23" t="n">
         <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P23" t="n">
         <v>1.66</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="R23" t="n">
         <v>1.24</v>
       </c>
       <c r="S23" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="T23" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U23" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V23" t="n">
         <v>2.04</v>
@@ -3556,13 +3556,13 @@
         <v>1.23</v>
       </c>
       <c r="X23" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z23" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA23" t="n">
         <v>22</v>
@@ -3580,7 +3580,7 @@
         <v>24</v>
       </c>
       <c r="AF23" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AG23" t="n">
         <v>21</v>
@@ -3595,7 +3595,7 @@
         <v>900</v>
       </c>
       <c r="AK23" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="AL23" t="n">
         <v>120</v>
@@ -3607,7 +3607,7 @@
         <v>500</v>
       </c>
       <c r="AO23" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -3637,112 +3637,112 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="G24" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="H24" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
         <v>3.7</v>
       </c>
       <c r="K24" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>1.67</v>
+        <v>3.4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P24" t="n">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.36</v>
+        <v>2.12</v>
       </c>
       <c r="R24" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="S24" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="V24" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W24" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB24" t="n">
-        <v>970</v>
+        <v>7.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF24" t="n">
-        <v>970</v>
+        <v>9.6</v>
       </c>
       <c r="AG24" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ24" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AK24" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AL24" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="AM24" t="n">
         <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>55</v>
+        <v>12.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25">
@@ -3772,106 +3772,106 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="G25" t="n">
-        <v>2.78</v>
+        <v>2.48</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="I25" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="J25" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="K25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.06</v>
+        <v>1.48</v>
       </c>
       <c r="P25" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="R25" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V25" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="W25" t="n">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="X25" t="n">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="Y25" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="Z25" t="n">
-        <v>970</v>
+        <v>100</v>
       </c>
       <c r="AA25" t="n">
         <v>900</v>
       </c>
       <c r="AB25" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AC25" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD25" t="n">
-        <v>970</v>
+        <v>75</v>
       </c>
       <c r="AE25" t="n">
         <v>500</v>
       </c>
       <c r="AF25" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AG25" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AH25" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="n">
         <v>500</v>
       </c>
       <c r="AJ25" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AK25" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AL25" t="n">
         <v>500</v>
       </c>
       <c r="AM25" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN25" t="n">
         <v>970</v>
@@ -3907,109 +3907,109 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="G26" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="H26" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I26" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J26" t="n">
         <v>3.05</v>
       </c>
       <c r="K26" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M26" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O26" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="P26" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="S26" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="T26" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="U26" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="V26" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W26" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X26" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y26" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z26" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>900</v>
+        <v>55</v>
       </c>
       <c r="AB26" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD26" t="n">
         <v>14.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AF26" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AG26" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH26" t="n">
         <v>21</v>
       </c>
       <c r="AI26" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AJ26" t="n">
         <v>900</v>
       </c>
       <c r="AK26" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
       <c r="AL26" t="n">
         <v>160</v>
       </c>
       <c r="AM26" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AO26" t="n">
         <v>55</v>
@@ -4042,112 +4042,112 @@
         </is>
       </c>
       <c r="F27" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J27" t="n">
         <v>3.15</v>
       </c>
-      <c r="G27" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K27" t="n">
-        <v>11.5</v>
+        <v>3.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P27" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="R27" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S27" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="T27" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="U27" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="V27" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="W27" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="X27" t="n">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="Y27" t="n">
-        <v>970</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z27" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AB27" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="AD27" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AF27" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AH27" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AJ27" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="AK27" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AL27" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="AM27" t="n">
         <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AO27" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
@@ -4177,58 +4177,58 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G28" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H28" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I28" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J28" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K28" t="n">
         <v>3.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O28" t="n">
         <v>1.4</v>
       </c>
       <c r="P28" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="S28" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="T28" t="n">
         <v>1.89</v>
       </c>
       <c r="U28" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W28" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="X28" t="n">
         <v>14</v>
@@ -4249,7 +4249,7 @@
         <v>9</v>
       </c>
       <c r="AD28" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
       <c r="AE28" t="n">
         <v>240</v>
@@ -4312,112 +4312,112 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
       <c r="G29" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H29" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="I29" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.66</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N29" t="n">
-        <v>1.02</v>
+        <v>3.3</v>
       </c>
       <c r="O29" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P29" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="Q29" t="n">
         <v>2.2</v>
       </c>
       <c r="R29" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="S29" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="T29" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U29" t="n">
         <v>1.96</v>
       </c>
       <c r="V29" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="W29" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="X29" t="n">
-        <v>500</v>
+        <v>12.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="Z29" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AA29" t="n">
-        <v>900</v>
+        <v>280</v>
       </c>
       <c r="AB29" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AE29" t="n">
-        <v>500</v>
+        <v>190</v>
       </c>
       <c r="AF29" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>500</v>
+        <v>19.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AJ29" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="AK29" t="n">
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="AL29" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="AM29" t="n">
         <v>580</v>
       </c>
       <c r="AN29" t="n">
-        <v>500</v>
+        <v>28</v>
       </c>
       <c r="AO29" t="n">
-        <v>500</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
@@ -4447,67 +4447,67 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="G30" t="n">
-        <v>2.72</v>
+        <v>2.94</v>
       </c>
       <c r="H30" t="n">
-        <v>2.86</v>
+        <v>2.68</v>
       </c>
       <c r="I30" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="J30" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K30" t="n">
         <v>3.65</v>
       </c>
       <c r="L30" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O30" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P30" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R30" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S30" t="n">
         <v>3.65</v>
       </c>
       <c r="T30" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U30" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V30" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="W30" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="X30" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y30" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="Z30" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AA30" t="n">
         <v>900</v>
@@ -4522,25 +4522,25 @@
         <v>23</v>
       </c>
       <c r="AE30" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="AF30" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AG30" t="n">
         <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AI30" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AJ30" t="n">
-        <v>900</v>
+        <v>970</v>
       </c>
       <c r="AK30" t="n">
-        <v>500</v>
+        <v>95</v>
       </c>
       <c r="AL30" t="n">
         <v>970</v>
@@ -4582,31 +4582,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="G31" t="n">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="H31" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I31" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="J31" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K31" t="n">
         <v>3.8</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M31" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O31" t="n">
         <v>1.32</v>
@@ -4615,76 +4615,76 @@
         <v>2.02</v>
       </c>
       <c r="Q31" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T31" t="n">
         <v>1.81</v>
       </c>
-      <c r="R31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.65</v>
-      </c>
       <c r="U31" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="W31" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="X31" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="Z31" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="AA31" t="n">
         <v>500</v>
       </c>
       <c r="AB31" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>500</v>
+        <v>9</v>
       </c>
       <c r="AD31" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="AF31" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AI31" t="n">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="AJ31" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AK31" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AL31" t="n">
-        <v>970</v>
+        <v>180</v>
       </c>
       <c r="AM31" t="n">
         <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AO31" t="n">
         <v>500</v>
@@ -4717,61 +4717,61 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="G32" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="H32" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I32" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="J32" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K32" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M32" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>2.76</v>
+        <v>3.2</v>
       </c>
       <c r="O32" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="P32" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="R32" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="S32" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="T32" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="U32" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="V32" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="W32" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X32" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y32" t="n">
         <v>26</v>
@@ -4783,7 +4783,7 @@
         <v>500</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AC32" t="n">
         <v>8</v>
@@ -4798,7 +4798,7 @@
         <v>11.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH32" t="n">
         <v>60</v>
@@ -4807,13 +4807,13 @@
         <v>380</v>
       </c>
       <c r="AJ32" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="AK32" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AL32" t="n">
-        <v>290</v>
+        <v>970</v>
       </c>
       <c r="AM32" t="n">
         <v>580</v>
@@ -4852,16 +4852,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="G33" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H33" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="I33" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J33" t="n">
         <v>3.2</v>
@@ -4870,40 +4870,40 @@
         <v>3.3</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M33" t="n">
         <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="O33" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P33" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="R33" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S33" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="T33" t="n">
         <v>1.92</v>
       </c>
       <c r="U33" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="V33" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W33" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="X33" t="n">
         <v>11</v>
@@ -4942,7 +4942,7 @@
         <v>150</v>
       </c>
       <c r="AJ33" t="n">
-        <v>320</v>
+        <v>130</v>
       </c>
       <c r="AK33" t="n">
         <v>95</v>
@@ -4957,7 +4957,7 @@
         <v>970</v>
       </c>
       <c r="AO33" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
     </row>
     <row r="34">
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="G34" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
         <v>2.9</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="J34" t="n">
         <v>3.1</v>
@@ -5005,79 +5005,79 @@
         <v>3.2</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="M34" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N34" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="O34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W34" t="n">
         <v>1.5</v>
       </c>
-      <c r="P34" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.52</v>
-      </c>
       <c r="X34" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="Y34" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="Z34" t="n">
         <v>36</v>
       </c>
       <c r="AA34" t="n">
-        <v>55</v>
+        <v>350</v>
       </c>
       <c r="AB34" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD34" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="AE34" t="n">
         <v>970</v>
       </c>
       <c r="AF34" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="AG34" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AI34" t="n">
         <v>380</v>
       </c>
       <c r="AJ34" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="AK34" t="n">
         <v>970</v>
@@ -5122,88 +5122,88 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="G35" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H35" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J35" t="n">
         <v>3.35</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.4</v>
       </c>
       <c r="K35" t="n">
         <v>3.55</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M35" t="n">
         <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O35" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P35" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q35" t="n">
         <v>2.12</v>
       </c>
       <c r="R35" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S35" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="T35" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="U35" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="W35" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="X35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y35" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z35" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AA35" t="n">
         <v>500</v>
       </c>
       <c r="AB35" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AC35" t="n">
         <v>8</v>
       </c>
       <c r="AD35" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE35" t="n">
-        <v>190</v>
+        <v>980</v>
       </c>
       <c r="AF35" t="n">
         <v>27</v>
       </c>
       <c r="AG35" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="AH35" t="n">
         <v>22</v>
@@ -5212,13 +5212,13 @@
         <v>290</v>
       </c>
       <c r="AJ35" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AK35" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AL35" t="n">
-        <v>190</v>
+        <v>980</v>
       </c>
       <c r="AM35" t="n">
         <v>580</v>
@@ -5227,7 +5227,7 @@
         <v>55</v>
       </c>
       <c r="AO35" t="n">
-        <v>90</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36">
@@ -5257,40 +5257,40 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="G36" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="H36" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="I36" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="J36" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K36" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L36" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="M36" t="n">
         <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O36" t="n">
         <v>1.19</v>
       </c>
       <c r="P36" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R36" t="n">
         <v>1.63</v>
@@ -5299,70 +5299,70 @@
         <v>2.5</v>
       </c>
       <c r="T36" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="U36" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="V36" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="W36" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X36" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y36" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z36" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD36" t="n">
         <v>11</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>38</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>10.5</v>
       </c>
       <c r="AE36" t="n">
         <v>13.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AG36" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI36" t="n">
         <v>38</v>
       </c>
-      <c r="AH36" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>32</v>
-      </c>
       <c r="AJ36" t="n">
-        <v>370</v>
+        <v>440</v>
       </c>
       <c r="AK36" t="n">
+        <v>170</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>140</v>
+      </c>
+      <c r="AM36" t="n">
         <v>150</v>
       </c>
-      <c r="AL36" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>130</v>
-      </c>
       <c r="AN36" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="AO36" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="37">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="G37" t="n">
         <v>1.44</v>
@@ -5401,46 +5401,46 @@
         <v>7.4</v>
       </c>
       <c r="I37" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K37" t="n">
         <v>6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="M37" t="n">
         <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O37" t="n">
         <v>1.17</v>
       </c>
       <c r="P37" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R37" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="S37" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U37" t="n">
         <v>2.2</v>
       </c>
-      <c r="T37" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U37" t="n">
-        <v>2.22</v>
-      </c>
       <c r="V37" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W37" t="n">
         <v>3.25</v>
@@ -5449,7 +5449,7 @@
         <v>80</v>
       </c>
       <c r="Y37" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="n">
         <v>190</v>
@@ -5458,7 +5458,7 @@
         <v>230</v>
       </c>
       <c r="AB37" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC37" t="n">
         <v>14.5</v>
@@ -5482,7 +5482,7 @@
         <v>400</v>
       </c>
       <c r="AJ37" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK37" t="n">
         <v>14</v>
@@ -5527,112 +5527,112 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4.7</v>
+        <v>3.95</v>
       </c>
       <c r="G38" t="n">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="H38" t="n">
-        <v>1.66</v>
+        <v>1.91</v>
       </c>
       <c r="I38" t="n">
-        <v>1.68</v>
+        <v>1.96</v>
       </c>
       <c r="J38" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K38" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M38" t="n">
         <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O38" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P38" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="Q38" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T38" t="n">
         <v>1.55</v>
       </c>
-      <c r="R38" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S38" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.6</v>
-      </c>
       <c r="U38" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="V38" t="n">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="W38" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="X38" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y38" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA38" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE38" t="n">
         <v>18.5</v>
       </c>
-      <c r="AB38" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>17</v>
-      </c>
       <c r="AF38" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AG38" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH38" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ38" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="AK38" t="n">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="AL38" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AM38" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN38" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AO38" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -5662,58 +5662,58 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="G39" t="n">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="H39" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="I39" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="J39" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K39" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L39" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M39" t="n">
         <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="O39" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P39" t="n">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R39" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="S39" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="T39" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="U39" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="V39" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="W39" t="n">
-        <v>2.4</v>
+        <v>2.66</v>
       </c>
       <c r="X39" t="n">
         <v>55</v>
@@ -5722,16 +5722,16 @@
         <v>65</v>
       </c>
       <c r="Z39" t="n">
-        <v>970</v>
+        <v>230</v>
       </c>
       <c r="AA39" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AB39" t="n">
         <v>12.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD39" t="n">
         <v>42</v>
@@ -5740,7 +5740,7 @@
         <v>320</v>
       </c>
       <c r="AF39" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG39" t="n">
         <v>11</v>
@@ -5755,7 +5755,7 @@
         <v>36</v>
       </c>
       <c r="AK39" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AL39" t="n">
         <v>65</v>
@@ -5764,7 +5764,7 @@
         <v>580</v>
       </c>
       <c r="AN39" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="AO39" t="n">
         <v>970</v>
@@ -5797,58 +5797,58 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="G40" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="H40" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="I40" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
         <v>4.3</v>
       </c>
       <c r="K40" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L40" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="M40" t="n">
         <v>1.02</v>
       </c>
       <c r="N40" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O40" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P40" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R40" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T40" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="U40" t="n">
         <v>3</v>
       </c>
       <c r="V40" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W40" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="X40" t="n">
         <v>970</v>
@@ -5863,7 +5863,7 @@
         <v>500</v>
       </c>
       <c r="AB40" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AC40" t="n">
         <v>23</v>
@@ -5932,112 +5932,112 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G41" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J41" t="n">
         <v>3.8</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.5</v>
       </c>
       <c r="K41" t="n">
         <v>3.85</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M41" t="n">
         <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>2.42</v>
+        <v>6.2</v>
       </c>
       <c r="O41" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P41" t="n">
-        <v>2.4</v>
+        <v>2.74</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="R41" t="n">
-        <v>1.55</v>
+        <v>1.72</v>
       </c>
       <c r="S41" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="T41" t="n">
         <v>1.51</v>
       </c>
       <c r="U41" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="V41" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W41" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="X41" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="Y41" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="Z41" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="AA41" t="n">
         <v>500</v>
       </c>
       <c r="AB41" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>42</v>
+        <v>10.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AE41" t="n">
         <v>500</v>
       </c>
       <c r="AF41" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AH41" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM41" t="n">
         <v>500</v>
       </c>
-      <c r="AI41" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>970</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>580</v>
-      </c>
       <c r="AN41" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="AO41" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42">
@@ -6067,58 +6067,58 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="G42" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="H42" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I42" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J42" t="n">
         <v>4</v>
       </c>
       <c r="K42" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L42" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="M42" t="n">
         <v>1.03</v>
       </c>
       <c r="N42" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="O42" t="n">
         <v>1.17</v>
       </c>
       <c r="P42" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R42" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="S42" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="T42" t="n">
         <v>1.53</v>
       </c>
       <c r="U42" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="V42" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="W42" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="X42" t="n">
         <v>90</v>
@@ -6142,7 +6142,7 @@
         <v>28</v>
       </c>
       <c r="AE42" t="n">
-        <v>75</v>
+        <v>970</v>
       </c>
       <c r="AF42" t="n">
         <v>55</v>
@@ -6151,7 +6151,7 @@
         <v>18</v>
       </c>
       <c r="AH42" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI42" t="n">
         <v>970</v>
@@ -6169,7 +6169,7 @@
         <v>580</v>
       </c>
       <c r="AN42" t="n">
-        <v>10.5</v>
+        <v>36</v>
       </c>
       <c r="AO42" t="n">
         <v>970</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.76</v>
+        <v>3.15</v>
       </c>
       <c r="G43" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="H43" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="I43" t="n">
-        <v>2.46</v>
+        <v>2.22</v>
       </c>
       <c r="J43" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K43" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L43" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -6229,19 +6229,19 @@
         <v>5.7</v>
       </c>
       <c r="O43" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P43" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="R43" t="n">
         <v>1.63</v>
       </c>
       <c r="S43" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="T43" t="n">
         <v>1.52</v>
@@ -6250,10 +6250,10 @@
         <v>2.58</v>
       </c>
       <c r="V43" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="W43" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="X43" t="n">
         <v>970</v>
@@ -6265,13 +6265,13 @@
         <v>970</v>
       </c>
       <c r="AA43" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AB43" t="n">
         <v>970</v>
       </c>
       <c r="AC43" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AD43" t="n">
         <v>23</v>
@@ -6283,7 +6283,7 @@
         <v>970</v>
       </c>
       <c r="AG43" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AH43" t="n">
         <v>60</v>
@@ -6337,58 +6337,58 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="G44" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="H44" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I44" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="J44" t="n">
         <v>3.95</v>
       </c>
       <c r="K44" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L44" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M44" t="n">
         <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P44" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U44" t="n">
         <v>2.16</v>
       </c>
-      <c r="Q44" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S44" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U44" t="n">
-        <v>2.08</v>
-      </c>
       <c r="V44" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W44" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="X44" t="n">
         <v>970</v>
@@ -6400,7 +6400,7 @@
         <v>190</v>
       </c>
       <c r="AA44" t="n">
-        <v>170</v>
+        <v>900</v>
       </c>
       <c r="AB44" t="n">
         <v>19</v>
@@ -6418,10 +6418,10 @@
         <v>50</v>
       </c>
       <c r="AG44" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="AH44" t="n">
-        <v>970</v>
+        <v>150</v>
       </c>
       <c r="AI44" t="n">
         <v>200</v>
@@ -6439,10 +6439,10 @@
         <v>580</v>
       </c>
       <c r="AN44" t="n">
-        <v>29</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO44" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
@@ -6472,112 +6472,112 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="G45" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="H45" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I45" t="n">
         <v>2.88</v>
       </c>
-      <c r="I45" t="n">
-        <v>2.9</v>
-      </c>
       <c r="J45" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K45" t="n">
         <v>3.2</v>
       </c>
-      <c r="K45" t="n">
-        <v>3.25</v>
-      </c>
       <c r="L45" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="M45" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N45" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="O45" t="n">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="P45" t="n">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.46</v>
+        <v>2.82</v>
       </c>
       <c r="R45" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="S45" t="n">
-        <v>4.8</v>
+        <v>5.9</v>
       </c>
       <c r="T45" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="U45" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="V45" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W45" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X45" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z45" t="n">
         <v>16.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB45" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AC45" t="n">
         <v>7</v>
       </c>
       <c r="AD45" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AF45" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG45" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI45" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ45" t="n">
         <v>60</v>
       </c>
-      <c r="AJ45" t="n">
-        <v>50</v>
-      </c>
       <c r="AK45" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AL45" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AM45" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="AN45" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AO45" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46">
@@ -6607,112 +6607,112 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="G46" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H46" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="I46" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J46" t="n">
         <v>3.2</v>
       </c>
       <c r="K46" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L46" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M46" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N46" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O46" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="P46" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="R46" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S46" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="T46" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="U46" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="V46" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="W46" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="X46" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y46" t="n">
         <v>11.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA46" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="AB46" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC46" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AD46" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE46" t="n">
         <v>250</v>
       </c>
       <c r="AF46" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG46" t="n">
         <v>12.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI46" t="n">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="AJ46" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="AK46" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AL46" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AM46" t="n">
         <v>580</v>
       </c>
       <c r="AN46" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO46" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47">
@@ -6742,40 +6742,40 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="G47" t="n">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="H47" t="n">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="I47" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K47" t="n">
         <v>3.35</v>
       </c>
       <c r="L47" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="M47" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N47" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O47" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="P47" t="n">
         <v>1.73</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R47" t="n">
         <v>1.26</v>
@@ -6784,16 +6784,16 @@
         <v>4.2</v>
       </c>
       <c r="T47" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="V47" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="W47" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X47" t="n">
         <v>10.5</v>
@@ -6802,40 +6802,40 @@
         <v>10.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA47" t="n">
         <v>46</v>
       </c>
       <c r="AB47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC47" t="n">
         <v>7.4</v>
       </c>
       <c r="AD47" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE47" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF47" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH47" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AI47" t="n">
         <v>55</v>
       </c>
       <c r="AJ47" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AK47" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL47" t="n">
         <v>70</v>
@@ -6844,10 +6844,10 @@
         <v>580</v>
       </c>
       <c r="AN47" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AO47" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48">
@@ -6877,97 +6877,97 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="G48" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="H48" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="I48" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="J48" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L48" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M48" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N48" t="n">
-        <v>1.52</v>
+        <v>2.92</v>
       </c>
       <c r="O48" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="P48" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="R48" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S48" t="n">
-        <v>2.22</v>
+        <v>4.7</v>
       </c>
       <c r="T48" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="U48" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="V48" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="W48" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="X48" t="n">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="Y48" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="Z48" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AA48" t="n">
         <v>900</v>
       </c>
       <c r="AB48" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AC48" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD48" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AE48" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AF48" t="n">
         <v>970</v>
       </c>
       <c r="AG48" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AH48" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AI48" t="n">
         <v>500</v>
       </c>
       <c r="AJ48" t="n">
-        <v>900</v>
+        <v>970</v>
       </c>
       <c r="AK48" t="n">
         <v>500</v>
@@ -6979,7 +6979,7 @@
         <v>500</v>
       </c>
       <c r="AN48" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AO48" t="n">
         <v>500</v>
@@ -7015,7 +7015,7 @@
         <v>2.24</v>
       </c>
       <c r="G49" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H49" t="n">
         <v>4</v>
@@ -7027,46 +7027,46 @@
         <v>3.15</v>
       </c>
       <c r="K49" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L49" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="M49" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N49" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="O49" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="P49" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="R49" t="n">
         <v>1.2</v>
       </c>
       <c r="S49" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="T49" t="n">
         <v>2.2</v>
       </c>
       <c r="U49" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="V49" t="n">
         <v>1.31</v>
       </c>
       <c r="W49" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X49" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y49" t="n">
         <v>11</v>
@@ -7078,7 +7078,7 @@
         <v>100</v>
       </c>
       <c r="AB49" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC49" t="n">
         <v>8.6</v>
@@ -7087,7 +7087,7 @@
         <v>18</v>
       </c>
       <c r="AE49" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AF49" t="n">
         <v>12</v>
@@ -7096,7 +7096,7 @@
         <v>12</v>
       </c>
       <c r="AH49" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AI49" t="n">
         <v>100</v>
@@ -7105,19 +7105,19 @@
         <v>30</v>
       </c>
       <c r="AK49" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL49" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM49" t="n">
         <v>200</v>
       </c>
       <c r="AN49" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO49" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50">
@@ -7147,52 +7147,52 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G50" t="n">
         <v>2.48</v>
       </c>
       <c r="H50" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I50" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J50" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K50" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L50" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="M50" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N50" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="O50" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P50" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="R50" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="S50" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="T50" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="U50" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="V50" t="n">
         <v>1.39</v>
@@ -7201,7 +7201,7 @@
         <v>1.68</v>
       </c>
       <c r="X50" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Y50" t="n">
         <v>15</v>
@@ -7216,7 +7216,7 @@
         <v>12</v>
       </c>
       <c r="AC50" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD50" t="n">
         <v>18.5</v>
@@ -7225,7 +7225,7 @@
         <v>55</v>
       </c>
       <c r="AF50" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG50" t="n">
         <v>14.5</v>
@@ -7246,13 +7246,13 @@
         <v>50</v>
       </c>
       <c r="AM50" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN50" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AO50" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51">
@@ -7285,19 +7285,19 @@
         <v>1.45</v>
       </c>
       <c r="G51" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="H51" t="n">
         <v>6.6</v>
       </c>
       <c r="I51" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J51" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K51" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L51" t="n">
         <v>1.26</v>
@@ -7306,16 +7306,16 @@
         <v>1.02</v>
       </c>
       <c r="N51" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O51" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P51" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R51" t="n">
         <v>1.75</v>
@@ -7330,10 +7330,10 @@
         <v>2.2</v>
       </c>
       <c r="V51" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W51" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="X51" t="n">
         <v>970</v>
@@ -7384,7 +7384,7 @@
         <v>330</v>
       </c>
       <c r="AN51" t="n">
-        <v>15</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO51" t="n">
         <v>500</v>
@@ -7435,34 +7435,34 @@
         <v>3.95</v>
       </c>
       <c r="L52" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="M52" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>2.52</v>
+        <v>3.5</v>
       </c>
       <c r="O52" t="n">
-        <v>1.05</v>
+        <v>1.36</v>
       </c>
       <c r="P52" t="n">
-        <v>1.25</v>
+        <v>1.83</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="R52" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="S52" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="T52" t="n">
-        <v>1.05</v>
+        <v>1.9</v>
       </c>
       <c r="U52" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V52" t="n">
         <v>1.28</v>
@@ -7477,13 +7477,13 @@
         <v>32</v>
       </c>
       <c r="Z52" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AA52" t="n">
         <v>500</v>
       </c>
       <c r="AB52" t="n">
-        <v>8.6</v>
+        <v>14</v>
       </c>
       <c r="AC52" t="n">
         <v>12.5</v>
@@ -7519,7 +7519,7 @@
         <v>580</v>
       </c>
       <c r="AN52" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AO52" t="n">
         <v>500</v>
@@ -7558,46 +7558,46 @@
         <v>1.21</v>
       </c>
       <c r="H53" t="n">
+        <v>21</v>
+      </c>
+      <c r="I53" t="n">
         <v>22</v>
       </c>
-      <c r="I53" t="n">
-        <v>23</v>
-      </c>
       <c r="J53" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K53" t="n">
         <v>8.4</v>
       </c>
       <c r="L53" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M53" t="n">
         <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O53" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P53" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="R53" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="S53" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="T53" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="U53" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="V53" t="n">
         <v>1.04</v>
@@ -7606,7 +7606,7 @@
         <v>5.8</v>
       </c>
       <c r="X53" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y53" t="n">
         <v>60</v>
@@ -7618,43 +7618,43 @@
         <v>1000</v>
       </c>
       <c r="AB53" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AC53" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AD53" t="n">
         <v>80</v>
       </c>
       <c r="AE53" t="n">
-        <v>590</v>
+        <v>470</v>
       </c>
       <c r="AF53" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AG53" t="n">
         <v>12.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AI53" t="n">
         <v>390</v>
       </c>
       <c r="AJ53" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK53" t="n">
         <v>14.5</v>
       </c>
       <c r="AL53" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM53" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="AN53" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AO53" t="n">
         <v>1000</v>
@@ -7687,22 +7687,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="G54" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H54" t="n">
         <v>2.14</v>
       </c>
       <c r="I54" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="J54" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K54" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L54" t="n">
         <v>1.38</v>
@@ -7711,7 +7711,7 @@
         <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O54" t="n">
         <v>1.28</v>
@@ -7720,22 +7720,22 @@
         <v>2.04</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R54" t="n">
         <v>1.4</v>
       </c>
       <c r="S54" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T54" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U54" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V54" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="W54" t="n">
         <v>1.37</v>
@@ -7744,7 +7744,7 @@
         <v>970</v>
       </c>
       <c r="Y54" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="Z54" t="n">
         <v>970</v>
@@ -7759,7 +7759,7 @@
         <v>14</v>
       </c>
       <c r="AD54" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AE54" t="n">
         <v>970</v>
@@ -7777,7 +7777,7 @@
         <v>970</v>
       </c>
       <c r="AJ54" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AK54" t="n">
         <v>970</v>
@@ -7822,16 +7822,16 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="G55" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="H55" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I55" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J55" t="n">
         <v>3.4</v>
@@ -7846,10 +7846,10 @@
         <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O55" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P55" t="n">
         <v>1.87</v>
@@ -7861,7 +7861,7 @@
         <v>1.33</v>
       </c>
       <c r="S55" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T55" t="n">
         <v>1.84</v>
@@ -7870,10 +7870,10 @@
         <v>2.14</v>
       </c>
       <c r="V55" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="W55" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="X55" t="n">
         <v>12.5</v>
@@ -7885,22 +7885,22 @@
         <v>21</v>
       </c>
       <c r="AA55" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB55" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC55" t="n">
         <v>7.2</v>
       </c>
       <c r="AD55" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE55" t="n">
         <v>38</v>
       </c>
       <c r="AF55" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG55" t="n">
         <v>11.5</v>
@@ -7909,13 +7909,13 @@
         <v>17.5</v>
       </c>
       <c r="AI55" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ55" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK55" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL55" t="n">
         <v>42</v>
@@ -7924,10 +7924,10 @@
         <v>100</v>
       </c>
       <c r="AN55" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO55" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56">
@@ -7960,19 +7960,19 @@
         <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H56" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I56" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J56" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K56" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L56" t="n">
         <v>1.51</v>
@@ -7981,37 +7981,37 @@
         <v>1.1</v>
       </c>
       <c r="N56" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="O56" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="P56" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="R56" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S56" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="T56" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="U56" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="V56" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W56" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X56" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="Y56" t="n">
         <v>13.5</v>
@@ -8020,49 +8020,49 @@
         <v>34</v>
       </c>
       <c r="AA56" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB56" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AC56" t="n">
         <v>7.8</v>
       </c>
       <c r="AD56" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE56" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF56" t="n">
         <v>11</v>
       </c>
       <c r="AG56" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH56" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK56" t="n">
         <v>24</v>
       </c>
-      <c r="AI56" t="n">
+      <c r="AL56" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AO56" t="n">
         <v>100</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM56" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO56" t="n">
-        <v>120</v>
       </c>
     </row>
     <row r="57">
@@ -8110,28 +8110,28 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M57" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N57" t="n">
-        <v>1.24</v>
+        <v>3.5</v>
       </c>
       <c r="O57" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P57" t="n">
-        <v>1.24</v>
+        <v>1.8</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.36</v>
+        <v>2.14</v>
       </c>
       <c r="R57" t="n">
-        <v>1.08</v>
+        <v>1.3</v>
       </c>
       <c r="S57" t="n">
-        <v>1.36</v>
+        <v>3.95</v>
       </c>
       <c r="T57" t="n">
         <v>1.01</v>
@@ -8227,19 +8227,19 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="G58" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="H58" t="n">
         <v>3.8</v>
       </c>
       <c r="I58" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J58" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="K58" t="n">
         <v>2.92</v>
@@ -8260,7 +8260,7 @@
         <v>1.35</v>
       </c>
       <c r="Q58" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8362,22 +8362,22 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="G59" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="H59" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I59" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="J59" t="n">
         <v>2.88</v>
       </c>
       <c r="K59" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8497,91 +8497,91 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="G60" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="H60" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I60" t="n">
         <v>3.45</v>
       </c>
       <c r="J60" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K60" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L60" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M60" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N60" t="n">
-        <v>1.57</v>
+        <v>3.15</v>
       </c>
       <c r="O60" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P60" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.06</v>
+        <v>2.34</v>
       </c>
       <c r="R60" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S60" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="T60" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="U60" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V60" t="n">
         <v>1.4</v>
       </c>
       <c r="W60" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="X60" t="n">
-        <v>500</v>
+        <v>11</v>
       </c>
       <c r="Y60" t="n">
-        <v>500</v>
+        <v>11</v>
       </c>
       <c r="Z60" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="AA60" t="n">
         <v>900</v>
       </c>
       <c r="AB60" t="n">
-        <v>500</v>
+        <v>9.4</v>
       </c>
       <c r="AC60" t="n">
-        <v>500</v>
+        <v>7.6</v>
       </c>
       <c r="AD60" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="AE60" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AF60" t="n">
-        <v>500</v>
+        <v>190</v>
       </c>
       <c r="AG60" t="n">
-        <v>500</v>
+        <v>13</v>
       </c>
       <c r="AH60" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AI60" t="n">
         <v>500</v>
@@ -8590,7 +8590,7 @@
         <v>900</v>
       </c>
       <c r="AK60" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="AL60" t="n">
         <v>500</v>
@@ -8599,7 +8599,7 @@
         <v>580</v>
       </c>
       <c r="AN60" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AO60" t="n">
         <v>500</v>
@@ -8632,64 +8632,64 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="G61" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="H61" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="I61" t="n">
-        <v>4.6</v>
+        <v>3.85</v>
       </c>
       <c r="J61" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="K61" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="L61" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M61" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N61" t="n">
-        <v>1.24</v>
+        <v>2.68</v>
       </c>
       <c r="O61" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="P61" t="n">
-        <v>1.24</v>
+        <v>1.51</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="R61" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="S61" t="n">
-        <v>1.02</v>
+        <v>5</v>
       </c>
       <c r="T61" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="U61" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="V61" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="W61" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="X61" t="n">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="Y61" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="Z61" t="n">
         <v>970</v>
@@ -8698,22 +8698,22 @@
         <v>500</v>
       </c>
       <c r="AB61" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC61" t="n">
-        <v>42</v>
+        <v>7.4</v>
       </c>
       <c r="AD61" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AE61" t="n">
         <v>500</v>
       </c>
       <c r="AF61" t="n">
-        <v>970</v>
+        <v>190</v>
       </c>
       <c r="AG61" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="AH61" t="n">
         <v>970</v>
@@ -8767,22 +8767,22 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.06</v>
+        <v>2.3</v>
       </c>
       <c r="G62" t="n">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="H62" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="I62" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="J62" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K62" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -8797,10 +8797,10 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>1.07</v>
+        <v>1.56</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.56</v>
+        <v>2.7</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -8902,19 +8902,19 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.43</v>
+        <v>1.83</v>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="H63" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="I63" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="J63" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K63" t="n">
         <v>3.55</v>
@@ -8932,10 +8932,10 @@
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>1.07</v>
+        <v>1.54</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.01</v>
+        <v>2.74</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -9037,61 +9037,61 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="G64" t="n">
         <v>1.86</v>
       </c>
       <c r="H64" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I64" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J64" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K64" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L64" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="M64" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N64" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="O64" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="P64" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="R64" t="n">
         <v>1.23</v>
       </c>
       <c r="S64" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="T64" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U64" t="n">
         <v>1.75</v>
       </c>
       <c r="V64" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W64" t="n">
         <v>2.16</v>
       </c>
       <c r="X64" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y64" t="n">
         <v>1000</v>
@@ -9103,7 +9103,7 @@
         <v>1000</v>
       </c>
       <c r="AB64" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC64" t="n">
         <v>9.199999999999999</v>
@@ -9124,7 +9124,7 @@
         <v>980</v>
       </c>
       <c r="AI64" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ64" t="n">
         <v>980</v>
@@ -9139,10 +9139,10 @@
         <v>1000</v>
       </c>
       <c r="AN64" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO64" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="G2" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="H2" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K2" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O2" t="n">
         <v>1.11</v>
       </c>
       <c r="P2" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="R2" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="T2" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="U2" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="V2" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="W2" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="X2" t="n">
         <v>55</v>
       </c>
       <c r="Y2" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="n">
         <v>90</v>
       </c>
       <c r="AB2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD2" t="n">
         <v>19.5</v>
       </c>
-      <c r="AC2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>19</v>
-      </c>
       <c r="AE2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI2" t="n">
         <v>36</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AM2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -802,100 +802,100 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="I3" t="n">
-        <v>2.46</v>
+        <v>2.78</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="M3" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P3" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R3" t="n">
         <v>1.21</v>
       </c>
       <c r="S3" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="T3" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.64</v>
+        <v>1.81</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="X3" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD3" t="n">
         <v>15</v>
       </c>
-      <c r="AA3" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>500</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>970</v>
-      </c>
       <c r="AE3" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AG3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI3" t="n">
         <v>1000</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>500</v>
       </c>
       <c r="AJ3" t="n">
         <v>900</v>
       </c>
       <c r="AK3" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AL3" t="n">
         <v>500</v>
@@ -904,10 +904,10 @@
         <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AO3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,28 +937,28 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="G4" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="I4" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="J4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K4" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.32</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
         <v>4.7</v>
@@ -967,7 +967,7 @@
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q4" t="n">
         <v>1.68</v>
@@ -979,7 +979,7 @@
         <v>2.72</v>
       </c>
       <c r="T4" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U4" t="n">
         <v>1.9</v>
@@ -988,10 +988,10 @@
         <v>1.11</v>
       </c>
       <c r="W4" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="X4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
         <v>32</v>
@@ -1003,7 +1003,7 @@
         <v>310</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC4" t="n">
         <v>12.5</v>
@@ -1012,10 +1012,10 @@
         <v>34</v>
       </c>
       <c r="AE4" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
@@ -1024,7 +1024,7 @@
         <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AJ4" t="n">
         <v>13</v>
@@ -1036,10 +1036,10 @@
         <v>36</v>
       </c>
       <c r="AM4" t="n">
-        <v>190</v>
+        <v>790</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO4" t="n">
         <v>180</v>
@@ -1075,58 +1075,58 @@
         <v>1.86</v>
       </c>
       <c r="G5" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>4.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R5" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S5" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="T5" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U5" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="V5" t="n">
         <v>1.25</v>
       </c>
       <c r="W5" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="X5" t="n">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1138,10 +1138,10 @@
         <v>900</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1216,10 +1216,10 @@
         <v>2.34</v>
       </c>
       <c r="I6" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
         <v>3.65</v>
@@ -1228,19 +1228,19 @@
         <v>1.44</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O6" t="n">
         <v>1.35</v>
       </c>
       <c r="P6" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R6" t="n">
         <v>1.32</v>
@@ -1252,49 +1252,49 @@
         <v>1.77</v>
       </c>
       <c r="U6" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="W6" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X6" t="n">
         <v>22</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Z6" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
         <v>18.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="AF6" t="n">
         <v>55</v>
       </c>
       <c r="AG6" t="n">
-        <v>500</v>
+        <v>24</v>
       </c>
       <c r="AH6" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AI6" t="n">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="AJ6" t="n">
         <v>500</v>
@@ -1303,7 +1303,7 @@
         <v>500</v>
       </c>
       <c r="AL6" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AM6" t="n">
         <v>580</v>
@@ -1312,7 +1312,7 @@
         <v>980</v>
       </c>
       <c r="AO6" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1345,7 +1345,7 @@
         <v>2.1</v>
       </c>
       <c r="G7" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
         <v>3.65</v>
@@ -1363,10 +1363,10 @@
         <v>1.49</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1375,16 +1375,16 @@
         <v>1.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R7" t="n">
         <v>1.26</v>
       </c>
       <c r="S7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U7" t="n">
         <v>1.94</v>
@@ -1393,13 +1393,13 @@
         <v>1.32</v>
       </c>
       <c r="W7" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X7" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="Z7" t="n">
         <v>970</v>
@@ -1414,7 +1414,7 @@
         <v>14</v>
       </c>
       <c r="AD7" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
         <v>500</v>
@@ -1426,7 +1426,7 @@
         <v>20</v>
       </c>
       <c r="AH7" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AI7" t="n">
         <v>500</v>
@@ -1444,7 +1444,7 @@
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO7" t="n">
         <v>600</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G8" t="n">
         <v>3.9</v>
       </c>
       <c r="H8" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I8" t="n">
         <v>2.8</v>
@@ -1492,22 +1492,22 @@
         <v>2.7</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="L8" t="n">
         <v>1.74</v>
       </c>
       <c r="M8" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="N8" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="O8" t="n">
         <v>1.75</v>
       </c>
       <c r="P8" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Q8" t="n">
         <v>3.35</v>
@@ -1522,7 +1522,7 @@
         <v>2.42</v>
       </c>
       <c r="U8" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="V8" t="n">
         <v>1.56</v>
@@ -1537,13 +1537,13 @@
         <v>6.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA8" t="n">
         <v>70</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC8" t="n">
         <v>7.2</v>
@@ -1558,7 +1558,7 @@
         <v>24</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH8" t="n">
         <v>32</v>
@@ -1579,7 +1579,7 @@
         <v>500</v>
       </c>
       <c r="AN8" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="AO8" t="n">
         <v>70</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="G9" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="H9" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="L9" t="n">
         <v>1.83</v>
@@ -1639,31 +1639,31 @@
         <v>2.04</v>
       </c>
       <c r="O9" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="P9" t="n">
         <v>1.31</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="R9" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="S9" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="T9" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="U9" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="V9" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="X9" t="n">
         <v>11</v>
@@ -1678,7 +1678,7 @@
         <v>500</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
         <v>42</v>
@@ -1747,28 +1747,28 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="G10" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="I10" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
         <v>4.4</v>
@@ -1777,28 +1777,28 @@
         <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q10" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T10" t="n">
         <v>1.73</v>
       </c>
-      <c r="R10" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.71</v>
-      </c>
       <c r="U10" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="V10" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="W10" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="X10" t="n">
         <v>46</v>
@@ -1819,13 +1819,13 @@
         <v>17</v>
       </c>
       <c r="AD10" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AE10" t="n">
         <v>260</v>
       </c>
       <c r="AF10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
         <v>9.6</v>
@@ -1837,10 +1837,10 @@
         <v>230</v>
       </c>
       <c r="AJ10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK10" t="n">
         <v>28</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>30</v>
       </c>
       <c r="AL10" t="n">
         <v>500</v>
@@ -1849,7 +1849,7 @@
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AO10" t="n">
         <v>600</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G11" t="n">
         <v>2.72</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.98</v>
-      </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="K11" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L11" t="n">
         <v>1.64</v>
@@ -1906,16 +1906,16 @@
         <v>1.14</v>
       </c>
       <c r="N11" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="O11" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="P11" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="R11" t="n">
         <v>1.16</v>
@@ -1924,22 +1924,22 @@
         <v>6.2</v>
       </c>
       <c r="T11" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="U11" t="n">
         <v>1.72</v>
       </c>
       <c r="V11" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="W11" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="X11" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="Y11" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Z11" t="n">
         <v>970</v>
@@ -1948,22 +1948,22 @@
         <v>900</v>
       </c>
       <c r="AB11" t="n">
-        <v>14</v>
+        <v>7.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD11" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="AE11" t="n">
         <v>500</v>
       </c>
       <c r="AF11" t="n">
-        <v>500</v>
+        <v>15.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>970</v>
@@ -1972,19 +1972,19 @@
         <v>500</v>
       </c>
       <c r="AJ11" t="n">
-        <v>900</v>
+        <v>50</v>
       </c>
       <c r="AK11" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AL11" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="AM11" t="n">
         <v>500</v>
       </c>
       <c r="AN11" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
       <c r="AO11" t="n">
         <v>600</v>
@@ -2029,10 +2029,10 @@
         <v>4.4</v>
       </c>
       <c r="J12" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.56</v>
@@ -2056,16 +2056,16 @@
         <v>1.2</v>
       </c>
       <c r="S12" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="T12" t="n">
         <v>2.06</v>
       </c>
       <c r="U12" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V12" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W12" t="n">
         <v>1.72</v>
@@ -2089,7 +2089,7 @@
         <v>7.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AE12" t="n">
         <v>500</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G13" t="n">
         <v>2.8</v>
       </c>
       <c r="H13" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I13" t="n">
         <v>3.1</v>
@@ -2176,25 +2176,25 @@
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="O13" t="n">
         <v>1.48</v>
       </c>
       <c r="P13" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R13" t="n">
         <v>1.22</v>
       </c>
       <c r="S13" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="T13" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U13" t="n">
         <v>1.89</v>
@@ -2206,13 +2206,13 @@
         <v>1.55</v>
       </c>
       <c r="X13" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="Y13" t="n">
         <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AA13" t="n">
         <v>900</v>
@@ -2224,7 +2224,7 @@
         <v>8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AE13" t="n">
         <v>970</v>
@@ -2236,10 +2236,10 @@
         <v>42</v>
       </c>
       <c r="AH13" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AI13" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="AJ13" t="n">
         <v>900</v>
@@ -2287,100 +2287,100 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="H14" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="I14" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
         <v>3.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O14" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P14" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="R14" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="T14" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="U14" t="n">
         <v>1.76</v>
       </c>
       <c r="V14" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="W14" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="X14" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
         <v>6.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA14" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="AB14" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AF14" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="AG14" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AH14" t="n">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="AI14" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AJ14" t="n">
         <v>900</v>
       </c>
       <c r="AK14" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AL14" t="n">
         <v>500</v>
@@ -2392,7 +2392,7 @@
         <v>500</v>
       </c>
       <c r="AO14" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -2422,40 +2422,40 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="G15" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="H15" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I15" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="L15" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="M15" t="n">
         <v>1.16</v>
       </c>
       <c r="N15" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="O15" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P15" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
         <v>1.14</v>
@@ -2464,19 +2464,19 @@
         <v>6.8</v>
       </c>
       <c r="T15" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="U15" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="V15" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W15" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="Y15" t="n">
         <v>30</v>
@@ -2488,10 +2488,10 @@
         <v>500</v>
       </c>
       <c r="AB15" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>16</v>
+        <v>8.6</v>
       </c>
       <c r="AD15" t="n">
         <v>970</v>
@@ -2500,10 +2500,10 @@
         <v>500</v>
       </c>
       <c r="AF15" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="AG15" t="n">
-        <v>40</v>
+        <v>11.5</v>
       </c>
       <c r="AH15" t="n">
         <v>970</v>
@@ -2515,10 +2515,10 @@
         <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL15" t="n">
-        <v>460</v>
+        <v>240</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
@@ -2557,52 +2557,52 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="G16" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H16" t="n">
         <v>10.5</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J16" t="n">
         <v>5.3</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="R16" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="S16" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="T16" t="n">
         <v>2.22</v>
       </c>
       <c r="U16" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="V16" t="n">
         <v>1.09</v>
@@ -2611,10 +2611,10 @@
         <v>3.6</v>
       </c>
       <c r="X16" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="Y16" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="Z16" t="n">
         <v>110</v>
@@ -2623,46 +2623,46 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AD16" t="n">
         <v>980</v>
       </c>
       <c r="AE16" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AF16" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AG16" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AH16" t="n">
         <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AJ16" t="n">
         <v>23</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="AL16" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AM16" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="AN16" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="AO16" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17">
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H17" t="n">
         <v>2.74</v>
       </c>
       <c r="I17" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J17" t="n">
         <v>3.2</v>
@@ -2734,10 +2734,10 @@
         <v>4.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U17" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V17" t="n">
         <v>1.52</v>
@@ -2767,7 +2767,7 @@
         <v>13.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF17" t="n">
         <v>19.5</v>
@@ -2776,7 +2776,7 @@
         <v>14</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI17" t="n">
         <v>55</v>
@@ -2788,7 +2788,7 @@
         <v>40</v>
       </c>
       <c r="AL17" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
         <v>580</v>
@@ -2797,7 +2797,7 @@
         <v>40</v>
       </c>
       <c r="AO17" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="G18" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="H18" t="n">
         <v>6.4</v>
       </c>
       <c r="I18" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J18" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K18" t="n">
         <v>4.8</v>
@@ -2851,7 +2851,7 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O18" t="n">
         <v>1.22</v>
@@ -2860,28 +2860,28 @@
         <v>2.42</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R18" t="n">
         <v>1.55</v>
       </c>
       <c r="S18" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="T18" t="n">
         <v>1.8</v>
       </c>
       <c r="U18" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W18" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="X18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y18" t="n">
         <v>27</v>
@@ -2890,10 +2890,10 @@
         <v>60</v>
       </c>
       <c r="AA18" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
         <v>10.5</v>
@@ -2911,16 +2911,16 @@
         <v>9.6</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI18" t="n">
         <v>75</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL18" t="n">
         <v>29</v>
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J19" t="n">
         <v>3.8</v>
       </c>
-      <c r="I19" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>3.85</v>
       </c>
-      <c r="K19" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L19" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="R19" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="S19" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="U19" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="V19" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="X19" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
         <v>16.5</v>
@@ -3025,31 +3025,31 @@
         <v>29</v>
       </c>
       <c r="AA19" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
         <v>15.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF19" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG19" t="n">
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AJ19" t="n">
         <v>25</v>
@@ -3061,13 +3061,13 @@
         <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -3097,64 +3097,64 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G20" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N20" t="n">
         <v>3.7</v>
       </c>
-      <c r="J20" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3.95</v>
-      </c>
       <c r="O20" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P20" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="R20" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="S20" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T20" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="U20" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V20" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W20" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X20" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y20" t="n">
         <v>14</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>14.5</v>
       </c>
       <c r="Z20" t="n">
         <v>26</v>
@@ -3163,46 +3163,46 @@
         <v>70</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD20" t="n">
         <v>15</v>
       </c>
       <c r="AE20" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF20" t="n">
         <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI20" t="n">
         <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL20" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO20" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -3232,58 +3232,58 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="G21" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="H21" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="I21" t="n">
-        <v>2.84</v>
+        <v>2.66</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K21" t="n">
         <v>3.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="T21" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="U21" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="V21" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="W21" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="X21" t="n">
         <v>970</v>
@@ -3298,22 +3298,22 @@
         <v>900</v>
       </c>
       <c r="AB21" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AC21" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AE21" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AF21" t="n">
         <v>970</v>
       </c>
       <c r="AG21" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AH21" t="n">
         <v>60</v>
@@ -3334,7 +3334,7 @@
         <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="AO21" t="n">
         <v>55</v>
@@ -3370,16 +3370,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="H22" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="I22" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="J22" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K22" t="n">
         <v>3.85</v>
@@ -3391,7 +3391,7 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O22" t="n">
         <v>1.36</v>
@@ -3400,7 +3400,7 @@
         <v>1.84</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R22" t="n">
         <v>1.31</v>
@@ -3409,16 +3409,16 @@
         <v>3.9</v>
       </c>
       <c r="T22" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U22" t="n">
         <v>1.92</v>
       </c>
       <c r="V22" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="W22" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="X22" t="n">
         <v>22</v>
@@ -3427,7 +3427,7 @@
         <v>14.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AA22" t="n">
         <v>500</v>
@@ -3448,7 +3448,7 @@
         <v>500</v>
       </c>
       <c r="AG22" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AH22" t="n">
         <v>980</v>
@@ -3472,7 +3472,7 @@
         <v>600</v>
       </c>
       <c r="AO22" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G23" t="n">
         <v>5.2</v>
@@ -3514,13 +3514,13 @@
         <v>1.95</v>
       </c>
       <c r="J23" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K23" t="n">
         <v>3.65</v>
       </c>
       <c r="L23" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M23" t="n">
         <v>1.1</v>
@@ -3529,10 +3529,10 @@
         <v>3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="P23" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q23" t="n">
         <v>2.42</v>
@@ -3583,7 +3583,7 @@
         <v>95</v>
       </c>
       <c r="AG23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH23" t="n">
         <v>24</v>
@@ -3598,7 +3598,7 @@
         <v>500</v>
       </c>
       <c r="AL23" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AM23" t="n">
         <v>580</v>
@@ -3637,64 +3637,64 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="G24" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I24" t="n">
         <v>7</v>
       </c>
       <c r="J24" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K24" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L24" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="O24" t="n">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="P24" t="n">
-        <v>1.81</v>
+        <v>1.64</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.12</v>
+        <v>2.52</v>
       </c>
       <c r="R24" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="S24" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="T24" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="U24" t="n">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="V24" t="n">
         <v>1.17</v>
       </c>
       <c r="W24" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="X24" t="n">
-        <v>15.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y24" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Z24" t="n">
         <v>190</v>
@@ -3703,46 +3703,46 @@
         <v>900</v>
       </c>
       <c r="AB24" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="AC24" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF24" t="n">
         <v>9</v>
       </c>
-      <c r="AD24" t="n">
-        <v>46</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AG24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AI24" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AJ24" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AK24" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL24" t="n">
-        <v>290</v>
+        <v>500</v>
       </c>
       <c r="AM24" t="n">
         <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>12.5</v>
+        <v>55</v>
       </c>
       <c r="AO24" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25">
@@ -3772,58 +3772,58 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G25" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="H25" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I25" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J25" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="M25" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="P25" t="n">
-        <v>1.62</v>
+        <v>1.79</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.48</v>
+        <v>2.18</v>
       </c>
       <c r="R25" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="U25" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W25" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X25" t="n">
         <v>17</v>
@@ -3832,19 +3832,19 @@
         <v>46</v>
       </c>
       <c r="Z25" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AA25" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB25" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AC25" t="n">
         <v>14</v>
       </c>
       <c r="AD25" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AE25" t="n">
         <v>500</v>
@@ -3877,7 +3877,7 @@
         <v>970</v>
       </c>
       <c r="AO25" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26">
@@ -3907,25 +3907,25 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="G26" t="n">
         <v>2.94</v>
       </c>
       <c r="H26" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I26" t="n">
         <v>3.15</v>
       </c>
       <c r="J26" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
         <v>3.35</v>
       </c>
       <c r="L26" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M26" t="n">
         <v>1.11</v>
@@ -3934,10 +3934,10 @@
         <v>2.92</v>
       </c>
       <c r="O26" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P26" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q26" t="n">
         <v>2.5</v>
@@ -3949,10 +3949,10 @@
         <v>5</v>
       </c>
       <c r="T26" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="U26" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V26" t="n">
         <v>1.47</v>
@@ -3961,13 +3961,13 @@
         <v>1.52</v>
       </c>
       <c r="X26" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA26" t="n">
         <v>55</v>
@@ -3985,25 +3985,25 @@
         <v>120</v>
       </c>
       <c r="AF26" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG26" t="n">
         <v>13.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="AJ26" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AK26" t="n">
         <v>970</v>
       </c>
       <c r="AL26" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="AM26" t="n">
         <v>580</v>
@@ -4051,10 +4051,10 @@
         <v>2.24</v>
       </c>
       <c r="I27" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J27" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
         <v>3.6</v>
@@ -4072,25 +4072,25 @@
         <v>1.38</v>
       </c>
       <c r="P27" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q27" t="n">
         <v>2.14</v>
       </c>
       <c r="R27" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S27" t="n">
         <v>3.95</v>
       </c>
       <c r="T27" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U27" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V27" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W27" t="n">
         <v>1.3</v>
@@ -4111,7 +4111,7 @@
         <v>12.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD27" t="n">
         <v>12</v>
@@ -4123,7 +4123,7 @@
         <v>25</v>
       </c>
       <c r="AG27" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH27" t="n">
         <v>19.5</v>
@@ -4186,7 +4186,7 @@
         <v>3.55</v>
       </c>
       <c r="I28" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J28" t="n">
         <v>3.25</v>
@@ -4201,34 +4201,34 @@
         <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O28" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P28" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="Q28" t="n">
         <v>2.2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S28" t="n">
         <v>4.1</v>
       </c>
       <c r="T28" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V28" t="n">
         <v>1.35</v>
       </c>
       <c r="W28" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X28" t="n">
         <v>14</v>
@@ -4282,7 +4282,7 @@
         <v>55</v>
       </c>
       <c r="AO28" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29">
@@ -4354,34 +4354,34 @@
         <v>4.1</v>
       </c>
       <c r="T29" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U29" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="V29" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W29" t="n">
         <v>1.54</v>
       </c>
       <c r="X29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y29" t="n">
         <v>12</v>
       </c>
       <c r="Z29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA29" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="AB29" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD29" t="n">
         <v>15</v>
@@ -4417,7 +4417,7 @@
         <v>28</v>
       </c>
       <c r="AO29" t="n">
-        <v>48</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30">
@@ -4450,16 +4450,16 @@
         <v>2.78</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H30" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="I30" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="J30" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K30" t="n">
         <v>3.65</v>
@@ -4483,7 +4483,7 @@
         <v>2.02</v>
       </c>
       <c r="R30" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S30" t="n">
         <v>3.65</v>
@@ -4495,7 +4495,7 @@
         <v>2.08</v>
       </c>
       <c r="V30" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="W30" t="n">
         <v>1.52</v>
@@ -4513,7 +4513,7 @@
         <v>900</v>
       </c>
       <c r="AB30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC30" t="n">
         <v>8.199999999999999</v>
@@ -4522,16 +4522,16 @@
         <v>23</v>
       </c>
       <c r="AE30" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AF30" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AG30" t="n">
         <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
       <c r="AI30" t="n">
         <v>970</v>
@@ -4540,7 +4540,7 @@
         <v>970</v>
       </c>
       <c r="AK30" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AL30" t="n">
         <v>970</v>
@@ -4552,7 +4552,7 @@
         <v>970</v>
       </c>
       <c r="AO30" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31">
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="G31" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="H31" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I31" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="J31" t="n">
         <v>3.65</v>
@@ -4600,43 +4600,43 @@
         <v>3.8</v>
       </c>
       <c r="L31" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O31" t="n">
         <v>1.32</v>
       </c>
       <c r="P31" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R31" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S31" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V31" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W31" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="X31" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y31" t="n">
         <v>17</v>
@@ -4648,34 +4648,34 @@
         <v>500</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="AF31" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
         <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="AJ31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL31" t="n">
         <v>180</v>
@@ -4684,10 +4684,10 @@
         <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32">
@@ -4717,43 +4717,43 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="G32" t="n">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="H32" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="I32" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="J32" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K32" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="L32" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M32" t="n">
         <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O32" t="n">
         <v>1.43</v>
       </c>
       <c r="P32" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q32" t="n">
         <v>2.32</v>
       </c>
       <c r="R32" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S32" t="n">
         <v>4.5</v>
@@ -4762,67 +4762,67 @@
         <v>1.96</v>
       </c>
       <c r="U32" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V32" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="W32" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="X32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y32" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Z32" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AA32" t="n">
         <v>500</v>
       </c>
       <c r="AB32" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC32" t="n">
         <v>7.8</v>
       </c>
-      <c r="AC32" t="n">
-        <v>8</v>
-      </c>
       <c r="AD32" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="AE32" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AF32" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG32" t="n">
         <v>11</v>
       </c>
       <c r="AH32" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AI32" t="n">
-        <v>380</v>
+        <v>75</v>
       </c>
       <c r="AJ32" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AK32" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AL32" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AM32" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="AN32" t="n">
         <v>55</v>
       </c>
       <c r="AO32" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
@@ -4852,19 +4852,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="G33" t="n">
         <v>3.05</v>
       </c>
       <c r="H33" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="I33" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="J33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
         <v>3.3</v>
@@ -4882,37 +4882,37 @@
         <v>1.46</v>
       </c>
       <c r="P33" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="R33" t="n">
         <v>1.24</v>
       </c>
       <c r="S33" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T33" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U33" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="V33" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W33" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X33" t="n">
         <v>11</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z33" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA33" t="n">
         <v>320</v>
@@ -4924,31 +4924,31 @@
         <v>7.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE33" t="n">
         <v>120</v>
       </c>
       <c r="AF33" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG33" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH33" t="n">
         <v>21</v>
       </c>
       <c r="AI33" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL33" t="n">
         <v>150</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>290</v>
       </c>
       <c r="AM33" t="n">
         <v>580</v>
@@ -4957,7 +4957,7 @@
         <v>970</v>
       </c>
       <c r="AO33" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
@@ -4987,31 +4987,31 @@
         </is>
       </c>
       <c r="F34" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I34" t="n">
         <v>2.96</v>
       </c>
-      <c r="G34" t="n">
-        <v>3</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2.94</v>
-      </c>
       <c r="J34" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K34" t="n">
         <v>3.1</v>
       </c>
-      <c r="K34" t="n">
-        <v>3.2</v>
-      </c>
       <c r="L34" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="M34" t="n">
         <v>1.13</v>
       </c>
       <c r="N34" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="O34" t="n">
         <v>1.57</v>
@@ -5029,7 +5029,7 @@
         <v>5.8</v>
       </c>
       <c r="T34" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="U34" t="n">
         <v>1.8</v>
@@ -5041,58 +5041,58 @@
         <v>1.5</v>
       </c>
       <c r="X34" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y34" t="n">
         <v>8.4</v>
       </c>
       <c r="Z34" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="AA34" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="AB34" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC34" t="n">
         <v>7</v>
       </c>
       <c r="AD34" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AE34" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AF34" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK34" t="n">
         <v>44</v>
       </c>
-      <c r="AG34" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>380</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>200</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>970</v>
-      </c>
       <c r="AL34" t="n">
-        <v>380</v>
+        <v>75</v>
       </c>
       <c r="AM34" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN34" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AO34" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
@@ -5128,106 +5128,106 @@
         <v>2.2</v>
       </c>
       <c r="H35" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I35" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K35" t="n">
         <v>3.55</v>
       </c>
       <c r="L35" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M35" t="n">
         <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O35" t="n">
         <v>1.37</v>
       </c>
       <c r="P35" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R35" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S35" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U35" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V35" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W35" t="n">
         <v>1.83</v>
       </c>
       <c r="X35" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AA35" t="n">
-        <v>500</v>
+        <v>190</v>
       </c>
       <c r="AB35" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AC35" t="n">
         <v>8</v>
       </c>
       <c r="AD35" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AE35" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AF35" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="AG35" t="n">
         <v>11.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>290</v>
+        <v>65</v>
       </c>
       <c r="AJ35" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AK35" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AL35" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM35" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN35" t="n">
-        <v>55</v>
+        <v>19.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>220</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36">
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
+        <v>11</v>
+      </c>
+      <c r="G36" t="n">
         <v>11.5</v>
       </c>
-      <c r="G36" t="n">
-        <v>12</v>
-      </c>
       <c r="H36" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="I36" t="n">
         <v>1.34</v>
       </c>
       <c r="J36" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K36" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L36" t="n">
         <v>1.29</v>
@@ -5290,22 +5290,22 @@
         <v>2.6</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R36" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S36" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T36" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U36" t="n">
         <v>1.89</v>
       </c>
       <c r="V36" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="W36" t="n">
         <v>1.09</v>
@@ -5314,16 +5314,16 @@
         <v>25</v>
       </c>
       <c r="Y36" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z36" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AA36" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AB36" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC36" t="n">
         <v>13.5</v>
@@ -5347,10 +5347,10 @@
         <v>38</v>
       </c>
       <c r="AJ36" t="n">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="AK36" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AL36" t="n">
         <v>140</v>
@@ -5359,7 +5359,7 @@
         <v>150</v>
       </c>
       <c r="AN36" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AO36" t="n">
         <v>4.6</v>
@@ -5392,19 +5392,19 @@
         </is>
       </c>
       <c r="F37" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G37" t="n">
         <v>1.43</v>
       </c>
-      <c r="G37" t="n">
-        <v>1.44</v>
-      </c>
       <c r="H37" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I37" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J37" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K37" t="n">
         <v>6</v>
@@ -5416,7 +5416,7 @@
         <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O37" t="n">
         <v>1.17</v>
@@ -5431,7 +5431,7 @@
         <v>1.71</v>
       </c>
       <c r="S37" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T37" t="n">
         <v>1.75</v>
@@ -5440,16 +5440,16 @@
         <v>2.2</v>
       </c>
       <c r="V37" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W37" t="n">
         <v>3.25</v>
       </c>
       <c r="X37" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="Y37" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Z37" t="n">
         <v>190</v>
@@ -5461,7 +5461,7 @@
         <v>12</v>
       </c>
       <c r="AC37" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AD37" t="n">
         <v>75</v>
@@ -5470,7 +5470,7 @@
         <v>290</v>
       </c>
       <c r="AF37" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG37" t="n">
         <v>10.5</v>
@@ -5482,7 +5482,7 @@
         <v>400</v>
       </c>
       <c r="AJ37" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK37" t="n">
         <v>14</v>
@@ -5494,7 +5494,7 @@
         <v>330</v>
       </c>
       <c r="AN37" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AO37" t="n">
         <v>120</v>
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="G38" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H38" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="I38" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="J38" t="n">
         <v>4.1</v>
@@ -5545,7 +5545,7 @@
         <v>4.4</v>
       </c>
       <c r="L38" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M38" t="n">
         <v>1.03</v>
@@ -5554,31 +5554,31 @@
         <v>6</v>
       </c>
       <c r="O38" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P38" t="n">
         <v>2.68</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R38" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S38" t="n">
         <v>2.44</v>
       </c>
       <c r="T38" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="U38" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="V38" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W38" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="X38" t="n">
         <v>26</v>
@@ -5617,7 +5617,7 @@
         <v>27</v>
       </c>
       <c r="AJ38" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="AK38" t="n">
         <v>42</v>
@@ -5629,10 +5629,10 @@
         <v>200</v>
       </c>
       <c r="AN38" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO38" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="39">
@@ -5662,19 +5662,19 @@
         </is>
       </c>
       <c r="F39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G39" t="n">
         <v>1.55</v>
       </c>
-      <c r="G39" t="n">
-        <v>1.59</v>
-      </c>
       <c r="H39" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="I39" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="J39" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K39" t="n">
         <v>5</v>
@@ -5692,37 +5692,37 @@
         <v>1.18</v>
       </c>
       <c r="P39" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R39" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S39" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T39" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U39" t="n">
         <v>2.3</v>
       </c>
       <c r="V39" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W39" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="X39" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="Y39" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="Z39" t="n">
-        <v>230</v>
+        <v>970</v>
       </c>
       <c r="AA39" t="n">
         <v>170</v>
@@ -5734,13 +5734,13 @@
         <v>12</v>
       </c>
       <c r="AD39" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AE39" t="n">
-        <v>320</v>
+        <v>170</v>
       </c>
       <c r="AF39" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG39" t="n">
         <v>11</v>
@@ -5749,13 +5749,13 @@
         <v>25</v>
       </c>
       <c r="AI39" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="AJ39" t="n">
-        <v>36</v>
+        <v>15.5</v>
       </c>
       <c r="AK39" t="n">
-        <v>29</v>
+        <v>15.5</v>
       </c>
       <c r="AL39" t="n">
         <v>65</v>
@@ -5764,7 +5764,7 @@
         <v>580</v>
       </c>
       <c r="AN39" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO39" t="n">
         <v>970</v>
@@ -5803,13 +5803,13 @@
         <v>2.3</v>
       </c>
       <c r="H40" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I40" t="n">
         <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K40" t="n">
         <v>4.6</v>
@@ -5827,22 +5827,22 @@
         <v>1.12</v>
       </c>
       <c r="P40" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R40" t="n">
         <v>1.96</v>
       </c>
       <c r="S40" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="T40" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="U40" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V40" t="n">
         <v>1.5</v>
@@ -5857,7 +5857,7 @@
         <v>970</v>
       </c>
       <c r="Z40" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="AA40" t="n">
         <v>500</v>
@@ -5884,13 +5884,13 @@
         <v>60</v>
       </c>
       <c r="AI40" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="AJ40" t="n">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="AK40" t="n">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="AL40" t="n">
         <v>500</v>
@@ -5899,10 +5899,10 @@
         <v>580</v>
       </c>
       <c r="AN40" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AO40" t="n">
-        <v>970</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41">
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H41" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I41" t="n">
         <v>4.4</v>
       </c>
       <c r="J41" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K41" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="L41" t="n">
         <v>1.28</v>
@@ -5962,7 +5962,7 @@
         <v>1.17</v>
       </c>
       <c r="P41" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="Q41" t="n">
         <v>1.54</v>
@@ -5977,13 +5977,13 @@
         <v>1.51</v>
       </c>
       <c r="U41" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V41" t="n">
         <v>1.3</v>
       </c>
       <c r="W41" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X41" t="n">
         <v>75</v>
@@ -5992,10 +5992,10 @@
         <v>65</v>
       </c>
       <c r="Z41" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AA41" t="n">
-        <v>500</v>
+        <v>310</v>
       </c>
       <c r="AB41" t="n">
         <v>15.5</v>
@@ -6007,37 +6007,37 @@
         <v>27</v>
       </c>
       <c r="AE41" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="AF41" t="n">
         <v>16.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH41" t="n">
         <v>15.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AJ41" t="n">
         <v>44</v>
       </c>
       <c r="AK41" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL41" t="n">
         <v>130</v>
       </c>
       <c r="AM41" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AN41" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO41" t="n">
-        <v>260</v>
+        <v>600</v>
       </c>
     </row>
     <row r="42">
@@ -6067,19 +6067,19 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G42" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I42" t="n">
         <v>3.15</v>
       </c>
-      <c r="I42" t="n">
-        <v>3.35</v>
-      </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K42" t="n">
         <v>4.4</v>
@@ -6097,28 +6097,28 @@
         <v>1.17</v>
       </c>
       <c r="P42" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q42" t="n">
         <v>1.52</v>
       </c>
       <c r="R42" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S42" t="n">
         <v>2.32</v>
       </c>
       <c r="T42" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="U42" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="V42" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="W42" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X42" t="n">
         <v>90</v>
@@ -6127,16 +6127,16 @@
         <v>65</v>
       </c>
       <c r="Z42" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="AA42" t="n">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="AB42" t="n">
         <v>30</v>
       </c>
       <c r="AC42" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AD42" t="n">
         <v>28</v>
@@ -6145,19 +6145,19 @@
         <v>970</v>
       </c>
       <c r="AF42" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AG42" t="n">
         <v>18</v>
       </c>
       <c r="AH42" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AI42" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AJ42" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="AK42" t="n">
         <v>50</v>
@@ -6169,10 +6169,10 @@
         <v>580</v>
       </c>
       <c r="AN42" t="n">
-        <v>36</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO42" t="n">
-        <v>970</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G43" t="n">
         <v>3.3</v>
       </c>
       <c r="H43" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="I43" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="J43" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="K43" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L43" t="n">
         <v>1.29</v>
@@ -6232,46 +6232,46 @@
         <v>1.19</v>
       </c>
       <c r="P43" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="R43" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S43" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="T43" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="U43" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="V43" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="W43" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X43" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y43" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="Z43" t="n">
         <v>970</v>
       </c>
       <c r="AA43" t="n">
-        <v>80</v>
+        <v>970</v>
       </c>
       <c r="AB43" t="n">
         <v>970</v>
       </c>
       <c r="AC43" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="AD43" t="n">
         <v>23</v>
@@ -6283,10 +6283,10 @@
         <v>970</v>
       </c>
       <c r="AG43" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AH43" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AI43" t="n">
         <v>970</v>
@@ -6298,7 +6298,7 @@
         <v>970</v>
       </c>
       <c r="AL43" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AM43" t="n">
         <v>580</v>
@@ -6307,7 +6307,7 @@
         <v>970</v>
       </c>
       <c r="AO43" t="n">
-        <v>55</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="44">
@@ -6337,19 +6337,19 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="G44" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H44" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I44" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J44" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K44" t="n">
         <v>4.3</v>
@@ -6364,34 +6364,34 @@
         <v>4.5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P44" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="R44" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S44" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="T44" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="U44" t="n">
         <v>2.16</v>
       </c>
       <c r="V44" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W44" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="X44" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y44" t="n">
         <v>970</v>
@@ -6403,7 +6403,7 @@
         <v>900</v>
       </c>
       <c r="AB44" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AC44" t="n">
         <v>42</v>
@@ -6439,10 +6439,10 @@
         <v>580</v>
       </c>
       <c r="AN44" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO44" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="G45" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="H45" t="n">
         <v>2.86</v>
@@ -6484,49 +6484,49 @@
         <v>2.88</v>
       </c>
       <c r="J45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K45" t="n">
         <v>3.15</v>
       </c>
-      <c r="K45" t="n">
-        <v>3.2</v>
-      </c>
       <c r="L45" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="M45" t="n">
         <v>1.14</v>
       </c>
       <c r="N45" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="O45" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="P45" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="R45" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S45" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="T45" t="n">
         <v>2.2</v>
       </c>
       <c r="U45" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="V45" t="n">
         <v>1.53</v>
       </c>
       <c r="W45" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="X45" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y45" t="n">
         <v>8.199999999999999</v>
@@ -6535,7 +6535,7 @@
         <v>16.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB45" t="n">
         <v>8.4</v>
@@ -6547,7 +6547,7 @@
         <v>13.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF45" t="n">
         <v>17</v>
@@ -6562,7 +6562,7 @@
         <v>70</v>
       </c>
       <c r="AJ45" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK45" t="n">
         <v>46</v>
@@ -6571,13 +6571,13 @@
         <v>75</v>
       </c>
       <c r="AM45" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN45" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AO45" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
@@ -6607,112 +6607,112 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="G46" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="H46" t="n">
         <v>3.45</v>
       </c>
       <c r="I46" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J46" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K46" t="n">
         <v>3.2</v>
       </c>
-      <c r="K46" t="n">
-        <v>3.25</v>
-      </c>
       <c r="L46" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="M46" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N46" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O46" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="P46" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="R46" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="S46" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="T46" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="U46" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="V46" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W46" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="X46" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y46" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z46" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA46" t="n">
-        <v>250</v>
+        <v>65</v>
       </c>
       <c r="AB46" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC46" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD46" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE46" t="n">
-        <v>250</v>
+        <v>48</v>
       </c>
       <c r="AF46" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG46" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH46" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI46" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="AJ46" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM46" t="n">
         <v>150</v>
       </c>
-      <c r="AK46" t="n">
+      <c r="AN46" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO46" t="n">
         <v>65</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>110</v>
       </c>
     </row>
     <row r="47">
@@ -6742,28 +6742,28 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="G47" t="n">
-        <v>2.98</v>
+        <v>3.7</v>
       </c>
       <c r="H47" t="n">
-        <v>2.76</v>
+        <v>2.34</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>2.52</v>
       </c>
       <c r="J47" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K47" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L47" t="n">
         <v>1.51</v>
       </c>
       <c r="M47" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N47" t="n">
         <v>3.15</v>
@@ -6778,76 +6778,76 @@
         <v>2.28</v>
       </c>
       <c r="R47" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S47" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T47" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="U47" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="V47" t="n">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
       <c r="W47" t="n">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="X47" t="n">
         <v>10.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AB47" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AC47" t="n">
         <v>7.4</v>
       </c>
       <c r="AD47" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AF47" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AG47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH47" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AI47" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN47" t="n">
         <v>55</v>
       </c>
-      <c r="AJ47" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>38</v>
-      </c>
       <c r="AO47" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="G48" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="H48" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="J48" t="n">
         <v>3</v>
@@ -6898,13 +6898,13 @@
         <v>1.53</v>
       </c>
       <c r="M48" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N48" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O48" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P48" t="n">
         <v>1.63</v>
@@ -6925,13 +6925,13 @@
         <v>1.9</v>
       </c>
       <c r="V48" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W48" t="n">
         <v>1.54</v>
       </c>
       <c r="X48" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y48" t="n">
         <v>60</v>
@@ -6952,7 +6952,7 @@
         <v>65</v>
       </c>
       <c r="AE48" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AF48" t="n">
         <v>970</v>
@@ -6964,25 +6964,25 @@
         <v>970</v>
       </c>
       <c r="AI48" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="AJ48" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK48" t="n">
         <v>970</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>500</v>
       </c>
       <c r="AL48" t="n">
         <v>500</v>
       </c>
       <c r="AM48" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN48" t="n">
         <v>970</v>
       </c>
       <c r="AO48" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="49">
@@ -7012,19 +7012,19 @@
         </is>
       </c>
       <c r="F49" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G49" t="n">
         <v>2.24</v>
       </c>
-      <c r="G49" t="n">
-        <v>2.26</v>
-      </c>
       <c r="H49" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I49" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J49" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K49" t="n">
         <v>3.2</v>
@@ -7036,34 +7036,34 @@
         <v>1.13</v>
       </c>
       <c r="N49" t="n">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="O49" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="P49" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="R49" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S49" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="T49" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="U49" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="V49" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="W49" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X49" t="n">
         <v>8.199999999999999</v>
@@ -7078,16 +7078,16 @@
         <v>100</v>
       </c>
       <c r="AB49" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AC49" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD49" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="AF49" t="n">
         <v>12</v>
@@ -7096,10 +7096,10 @@
         <v>12</v>
       </c>
       <c r="AH49" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AI49" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="AJ49" t="n">
         <v>30</v>
@@ -7111,13 +7111,13 @@
         <v>65</v>
       </c>
       <c r="AM49" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN49" t="n">
         <v>32</v>
       </c>
       <c r="AO49" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
     </row>
     <row r="50">
@@ -7147,64 +7147,64 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G50" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="H50" t="n">
         <v>3.35</v>
       </c>
       <c r="I50" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J50" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K50" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L50" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="M50" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N50" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="O50" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P50" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="R50" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S50" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="T50" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="U50" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="V50" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W50" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="X50" t="n">
         <v>11</v>
       </c>
       <c r="Y50" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z50" t="n">
         <v>28</v>
@@ -7213,10 +7213,10 @@
         <v>80</v>
       </c>
       <c r="AB50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC50" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD50" t="n">
         <v>18.5</v>
@@ -7231,10 +7231,10 @@
         <v>14.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI50" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="AJ50" t="n">
         <v>42</v>
@@ -7243,7 +7243,7 @@
         <v>34</v>
       </c>
       <c r="AL50" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AM50" t="n">
         <v>580</v>
@@ -7252,7 +7252,7 @@
         <v>34</v>
       </c>
       <c r="AO50" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
     </row>
     <row r="51">
@@ -7291,13 +7291,13 @@
         <v>6.6</v>
       </c>
       <c r="I51" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J51" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K51" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L51" t="n">
         <v>1.26</v>
@@ -7315,16 +7315,16 @@
         <v>2.88</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="R51" t="n">
         <v>1.75</v>
       </c>
       <c r="S51" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T51" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U51" t="n">
         <v>2.2</v>
@@ -7333,7 +7333,7 @@
         <v>1.13</v>
       </c>
       <c r="W51" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X51" t="n">
         <v>970</v>
@@ -7342,7 +7342,7 @@
         <v>970</v>
       </c>
       <c r="Z51" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AA51" t="n">
         <v>1000</v>
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
       </c>
       <c r="H52" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I52" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J52" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K52" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L52" t="n">
         <v>1.44</v>
@@ -7447,7 +7447,7 @@
         <v>1.36</v>
       </c>
       <c r="P52" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q52" t="n">
         <v>2.06</v>
@@ -7462,16 +7462,16 @@
         <v>1.9</v>
       </c>
       <c r="U52" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V52" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W52" t="n">
         <v>2</v>
       </c>
       <c r="X52" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y52" t="n">
         <v>32</v>
@@ -7489,7 +7489,7 @@
         <v>12.5</v>
       </c>
       <c r="AD52" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AE52" t="n">
         <v>500</v>
@@ -7519,10 +7519,10 @@
         <v>580</v>
       </c>
       <c r="AN52" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="AO52" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="53">
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="G53" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="H53" t="n">
+        <v>20</v>
+      </c>
+      <c r="I53" t="n">
         <v>21</v>
       </c>
-      <c r="I53" t="n">
-        <v>22</v>
-      </c>
       <c r="J53" t="n">
+        <v>8</v>
+      </c>
+      <c r="K53" t="n">
         <v>8.199999999999999</v>
-      </c>
-      <c r="K53" t="n">
-        <v>8.4</v>
       </c>
       <c r="L53" t="n">
         <v>1.28</v>
@@ -7582,28 +7582,28 @@
         <v>1.19</v>
       </c>
       <c r="P53" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="Q53" t="n">
         <v>1.56</v>
       </c>
       <c r="R53" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="S53" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="T53" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="U53" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="V53" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W53" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X53" t="n">
         <v>27</v>
@@ -7621,19 +7621,19 @@
         <v>9.6</v>
       </c>
       <c r="AC53" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AD53" t="n">
         <v>80</v>
       </c>
       <c r="AE53" t="n">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="AF53" t="n">
         <v>7.6</v>
       </c>
       <c r="AG53" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH53" t="n">
         <v>46</v>
@@ -7648,16 +7648,16 @@
         <v>14.5</v>
       </c>
       <c r="AL53" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM53" t="n">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="AN53" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AO53" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
     </row>
     <row r="54">
@@ -7690,7 +7690,7 @@
         <v>3.4</v>
       </c>
       <c r="G54" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H54" t="n">
         <v>2.14</v>
@@ -7699,10 +7699,10 @@
         <v>2.26</v>
       </c>
       <c r="J54" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K54" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L54" t="n">
         <v>1.38</v>
@@ -7720,7 +7720,7 @@
         <v>2.04</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R54" t="n">
         <v>1.4</v>
@@ -7753,7 +7753,7 @@
         <v>970</v>
       </c>
       <c r="AB54" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AC54" t="n">
         <v>14</v>
@@ -7822,16 +7822,16 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G55" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="H55" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I55" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J55" t="n">
         <v>3.4</v>
@@ -7846,7 +7846,7 @@
         <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O55" t="n">
         <v>1.37</v>
@@ -7873,7 +7873,7 @@
         <v>1.42</v>
       </c>
       <c r="W55" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="X55" t="n">
         <v>12.5</v>
@@ -7909,7 +7909,7 @@
         <v>17.5</v>
       </c>
       <c r="AI55" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ55" t="n">
         <v>34</v>
@@ -7957,16 +7957,16 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G56" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H56" t="n">
         <v>4.5</v>
       </c>
       <c r="I56" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J56" t="n">
         <v>3.4</v>
@@ -7975,70 +7975,70 @@
         <v>3.5</v>
       </c>
       <c r="L56" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M56" t="n">
         <v>1.1</v>
       </c>
       <c r="N56" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O56" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P56" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="R56" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S56" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T56" t="n">
         <v>2.04</v>
       </c>
       <c r="U56" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V56" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W56" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="X56" t="n">
         <v>11</v>
       </c>
       <c r="Y56" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z56" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA56" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB56" t="n">
         <v>7.6</v>
       </c>
       <c r="AC56" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD56" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE56" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF56" t="n">
         <v>11</v>
       </c>
       <c r="AG56" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH56" t="n">
         <v>23</v>
@@ -8050,19 +8050,19 @@
         <v>23</v>
       </c>
       <c r="AK56" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL56" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AM56" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN56" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AO56" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57">
@@ -8125,19 +8125,19 @@
         <v>1.8</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R57" t="n">
         <v>1.3</v>
       </c>
       <c r="S57" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T57" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U57" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V57" t="n">
         <v>1.01</v>
@@ -8233,16 +8233,16 @@
         <v>2.58</v>
       </c>
       <c r="H58" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I58" t="n">
         <v>4</v>
       </c>
       <c r="J58" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K58" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8260,7 +8260,7 @@
         <v>1.35</v>
       </c>
       <c r="Q58" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8368,13 +8368,13 @@
         <v>2.6</v>
       </c>
       <c r="H59" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I59" t="n">
         <v>3.85</v>
       </c>
       <c r="J59" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="K59" t="n">
         <v>2.94</v>
@@ -8497,7 +8497,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G60" t="n">
         <v>2.64</v>
@@ -8521,10 +8521,10 @@
         <v>1.1</v>
       </c>
       <c r="N60" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O60" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P60" t="n">
         <v>1.68</v>
@@ -8542,13 +8542,13 @@
         <v>1.89</v>
       </c>
       <c r="U60" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V60" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W60" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X60" t="n">
         <v>11</v>
@@ -8563,7 +8563,7 @@
         <v>900</v>
       </c>
       <c r="AB60" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC60" t="n">
         <v>7.6</v>
@@ -8590,7 +8590,7 @@
         <v>900</v>
       </c>
       <c r="AK60" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="AL60" t="n">
         <v>500</v>
@@ -8632,58 +8632,58 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="G61" t="n">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="H61" t="n">
         <v>3.35</v>
       </c>
       <c r="I61" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="J61" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="K61" t="n">
         <v>3.25</v>
       </c>
       <c r="L61" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M61" t="n">
         <v>1.12</v>
       </c>
       <c r="N61" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="O61" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P61" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.34</v>
+        <v>2.62</v>
       </c>
       <c r="R61" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S61" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="T61" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U61" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V61" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="W61" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="X61" t="n">
         <v>19.5</v>
@@ -8710,13 +8710,13 @@
         <v>500</v>
       </c>
       <c r="AF61" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AG61" t="n">
         <v>90</v>
       </c>
       <c r="AH61" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AI61" t="n">
         <v>500</v>
@@ -8731,7 +8731,7 @@
         <v>500</v>
       </c>
       <c r="AM61" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN61" t="n">
         <v>970</v>
@@ -8773,7 +8773,7 @@
         <v>2.38</v>
       </c>
       <c r="H62" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I62" t="n">
         <v>4.2</v>
@@ -8902,16 +8902,16 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="G63" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="H63" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I63" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="J63" t="n">
         <v>3.4</v>
@@ -8932,10 +8932,10 @@
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -9037,19 +9037,19 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="G64" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H64" t="n">
         <v>5.5</v>
       </c>
       <c r="I64" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J64" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K64" t="n">
         <v>3.7</v>
@@ -9061,13 +9061,13 @@
         <v>1.11</v>
       </c>
       <c r="N64" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O64" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P64" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q64" t="n">
         <v>2.44</v>
@@ -9100,7 +9100,7 @@
         <v>980</v>
       </c>
       <c r="AA64" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB64" t="n">
         <v>7.4</v>
@@ -9139,7 +9139,7 @@
         <v>1000</v>
       </c>
       <c r="AN64" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO64" t="n">
         <v>200</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05:35:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Newcastle Jets</t>
+          <t>Imisli FK</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Wellington Phoenix</t>
+          <t>Araz Nakhchivan PFK</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.71</v>
+        <v>2.92</v>
       </c>
       <c r="G2" t="n">
-        <v>1.72</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="J2" t="n">
-        <v>4.8</v>
+        <v>2.82</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>3.05</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.21</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.34</v>
-      </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S2" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T2" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.26</v>
+        <v>1.46</v>
       </c>
       <c r="W2" t="n">
-        <v>2.4</v>
+        <v>1.45</v>
       </c>
       <c r="X2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>6.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>19.5</v>
+        <v>460</v>
       </c>
       <c r="AE2" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AH2" t="n">
-        <v>14.5</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,123 +788,123 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Imisli FK</t>
+          <t>Kahramanmaras Istiklal Spor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Araz Nakhchivan PFK</t>
+          <t>1461 Trabzon</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.1</v>
+        <v>1.35</v>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>1.41</v>
       </c>
       <c r="H3" t="n">
-        <v>2.58</v>
+        <v>1.02</v>
       </c>
       <c r="I3" t="n">
-        <v>2.78</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>5.6</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3</v>
+        <v>6.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>2.76</v>
+        <v>4.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.57</v>
+        <v>1.28</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.56</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.21</v>
+        <v>1.05</v>
       </c>
       <c r="S3" t="n">
-        <v>5.3</v>
+        <v>1.02</v>
       </c>
       <c r="T3" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>9.4</v>
+        <v>980</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kahramanmaras Istiklal Spor</t>
+          <t>Adana 1954 FK</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1461 Trabzon</t>
+          <t>Beyoglu Yeni Carsi</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.4</v>
+        <v>2.02</v>
       </c>
       <c r="G4" t="n">
-        <v>1.46</v>
+        <v>2.14</v>
       </c>
       <c r="H4" t="n">
-        <v>7.2</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>10.5</v>
+        <v>4.6</v>
       </c>
       <c r="J4" t="n">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>5.8</v>
+        <v>3.65</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32</v>
+        <v>1.69</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>4.7</v>
+        <v>2.74</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="P4" t="n">
-        <v>2.3</v>
+        <v>1.59</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.68</v>
+        <v>2.42</v>
       </c>
       <c r="R4" t="n">
-        <v>1.51</v>
+        <v>1.2</v>
       </c>
       <c r="S4" t="n">
-        <v>2.72</v>
+        <v>4.8</v>
       </c>
       <c r="T4" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="V4" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>3.15</v>
+        <v>1.87</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>11.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
         <v>190</v>
       </c>
-      <c r="AA4" t="n">
-        <v>310</v>
-      </c>
       <c r="AB4" t="n">
-        <v>9.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.4</v>
+        <v>13.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>990</v>
       </c>
       <c r="AI4" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>36</v>
+        <v>550</v>
       </c>
       <c r="AM4" t="n">
-        <v>790</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Adana 1954 FK</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Beyoglu Yeni Carsi</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.86</v>
+        <v>3.2</v>
       </c>
       <c r="G5" t="n">
-        <v>2.04</v>
+        <v>3.45</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>2.32</v>
       </c>
       <c r="I5" t="n">
-        <v>5.2</v>
+        <v>2.44</v>
       </c>
       <c r="J5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
         <v>3.6</v>
       </c>
-      <c r="K5" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.25</v>
-      </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="Q5" t="n">
         <v>2.04</v>
       </c>
       <c r="R5" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T5" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="U5" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.25</v>
+        <v>1.69</v>
       </c>
       <c r="W5" t="n">
-        <v>1.97</v>
+        <v>1.41</v>
       </c>
       <c r="X5" t="n">
-        <v>90</v>
+        <v>15.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="n">
-        <v>24</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG5" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI5" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AJ5" t="n">
-        <v>980</v>
+        <v>220</v>
       </c>
       <c r="AK5" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AM5" t="n">
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>85</v>
+        <v>600</v>
       </c>
       <c r="AO5" t="n">
-        <v>600</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:50:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.15</v>
+        <v>2.14</v>
       </c>
       <c r="G6" t="n">
-        <v>3.45</v>
+        <v>2.28</v>
       </c>
       <c r="H6" t="n">
-        <v>2.34</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>2.48</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
         <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="M6" t="n">
         <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="P6" t="n">
-        <v>1.87</v>
+        <v>1.69</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="R6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.32</v>
       </c>
-      <c r="S6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.68</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.41</v>
+        <v>1.79</v>
       </c>
       <c r="X6" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="n">
         <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>23</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="AF6" t="n">
-        <v>55</v>
+        <v>13.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="AJ6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>840</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO6" t="n">
         <v>500</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>500</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,105 +1328,105 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>JS Omrane</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Esperance Sportive Zarzis</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.1</v>
+        <v>3.55</v>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="H7" t="n">
-        <v>3.65</v>
+        <v>2.52</v>
       </c>
       <c r="I7" t="n">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>2.76</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>2.94</v>
       </c>
       <c r="L7" t="n">
-        <v>1.49</v>
+        <v>1.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="N7" t="n">
-        <v>3.1</v>
+        <v>2.16</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.77</v>
       </c>
       <c r="P7" t="n">
-        <v>1.72</v>
+        <v>1.36</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.24</v>
+        <v>3.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.26</v>
+        <v>1.12</v>
       </c>
       <c r="S7" t="n">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="T7" t="n">
-        <v>1.87</v>
+        <v>2.48</v>
       </c>
       <c r="U7" t="n">
-        <v>1.94</v>
+        <v>1.58</v>
       </c>
       <c r="V7" t="n">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
       <c r="W7" t="n">
-        <v>1.76</v>
+        <v>1.34</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>6.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>26</v>
+        <v>6.6</v>
       </c>
       <c r="Z7" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
-        <v>900</v>
+        <v>210</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>14</v>
+        <v>7.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="AI7" t="n">
         <v>500</v>
@@ -1441,10 +1441,10 @@
         <v>500</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN7" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="AO7" t="n">
         <v>600</v>
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>JS Omrane</t>
+          <t>ES Metlaoui</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Esperance Sportive Zarzis</t>
+          <t>AS Solimane</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.5</v>
+        <v>2.06</v>
       </c>
       <c r="G8" t="n">
-        <v>3.9</v>
+        <v>2.16</v>
       </c>
       <c r="H8" t="n">
-        <v>2.56</v>
+        <v>5.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="K8" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="L8" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="M8" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="N8" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="O8" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P8" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="R8" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="S8" t="n">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T8" t="n">
-        <v>2.42</v>
+        <v>2.72</v>
       </c>
       <c r="U8" t="n">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="V8" t="n">
-        <v>1.56</v>
+        <v>1.22</v>
       </c>
       <c r="W8" t="n">
-        <v>1.35</v>
+        <v>1.87</v>
       </c>
       <c r="X8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.8</v>
+        <v>500</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AA8" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.6</v>
+        <v>5.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.2</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AE8" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AF8" t="n">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="AG8" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="AH8" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AI8" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="AJ8" t="n">
-        <v>230</v>
+        <v>970</v>
       </c>
       <c r="AK8" t="n">
-        <v>170</v>
+        <v>970</v>
       </c>
       <c r="AL8" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="AM8" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AO8" t="n">
         <v>600</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,123 +1598,123 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:40:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ES Metlaoui</t>
+          <t>Al Draih</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AS Solimane</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.22</v>
+        <v>1.65</v>
       </c>
       <c r="G9" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W9" t="n">
         <v>2.34</v>
       </c>
-      <c r="H9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="S9" t="n">
-        <v>9</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.74</v>
-      </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="Z9" t="n">
         <v>970</v>
       </c>
       <c r="AA9" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>42</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="AF9" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="AJ9" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>500</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>970</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO9" t="n">
         <v>600</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10:40:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al Draih</t>
+          <t>ES Mostaganem</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Olympique Akbou</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" t="n">
         <v>1.63</v>
       </c>
-      <c r="G10" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="H10" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="M10" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S10" t="n">
         <v>6.2</v>
       </c>
-      <c r="J10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="T10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.71</v>
       </c>
-      <c r="R10" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.12</v>
-      </c>
       <c r="V10" t="n">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="W10" t="n">
-        <v>2.38</v>
+        <v>1.53</v>
       </c>
       <c r="X10" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="Y10" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AC10" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="AD10" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AH10" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AI10" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AK10" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AL10" t="n">
         <v>500</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN10" t="n">
-        <v>9</v>
+        <v>970</v>
       </c>
       <c r="AO10" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1868,78 +1868,78 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ES Mostaganem</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Olympique Akbou</t>
+          <t>Paradou</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.54</v>
+        <v>2.26</v>
       </c>
       <c r="G11" t="n">
-        <v>2.72</v>
+        <v>2.38</v>
       </c>
       <c r="H11" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J11" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="L11" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="M11" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="N11" t="n">
-        <v>2.48</v>
+        <v>2.78</v>
       </c>
       <c r="O11" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="R11" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="S11" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="T11" t="n">
-        <v>2.16</v>
+        <v>1.05</v>
       </c>
       <c r="U11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.72</v>
       </c>
-      <c r="V11" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.58</v>
-      </c>
       <c r="X11" t="n">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="Y11" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Z11" t="n">
         <v>970</v>
@@ -1948,10 +1948,10 @@
         <v>900</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.2</v>
+        <v>970</v>
       </c>
       <c r="AC11" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="AD11" t="n">
         <v>970</v>
@@ -1960,10 +1960,10 @@
         <v>500</v>
       </c>
       <c r="AF11" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH11" t="n">
         <v>970</v>
@@ -1972,19 +1972,19 @@
         <v>500</v>
       </c>
       <c r="AJ11" t="n">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="AK11" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AL11" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="AM11" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AO11" t="n">
         <v>600</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,49 +2008,49 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>Neftchi Baku</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Paradou</t>
+          <t>Zira</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.72</v>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>2.86</v>
       </c>
       <c r="H12" t="n">
-        <v>3.85</v>
+        <v>2.84</v>
       </c>
       <c r="I12" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L12" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="M12" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="O12" t="n">
         <v>1.51</v>
       </c>
       <c r="P12" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R12" t="n">
         <v>1.2</v>
@@ -2059,22 +2059,22 @@
         <v>5.1</v>
       </c>
       <c r="T12" t="n">
-        <v>2.06</v>
+        <v>1.05</v>
       </c>
       <c r="U12" t="n">
-        <v>1.78</v>
+        <v>1.05</v>
       </c>
       <c r="V12" t="n">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="W12" t="n">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="Y12" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="Z12" t="n">
         <v>970</v>
@@ -2083,40 +2083,40 @@
         <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.6</v>
+        <v>970</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.6</v>
+        <v>42</v>
       </c>
       <c r="AD12" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AE12" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AF12" t="n">
-        <v>75</v>
+        <v>970</v>
       </c>
       <c r="AG12" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AH12" t="n">
-        <v>170</v>
+        <v>970</v>
       </c>
       <c r="AI12" t="n">
         <v>500</v>
       </c>
       <c r="AJ12" t="n">
-        <v>170</v>
+        <v>900</v>
       </c>
       <c r="AK12" t="n">
-        <v>260</v>
+        <v>970</v>
       </c>
       <c r="AL12" t="n">
         <v>500</v>
       </c>
       <c r="AM12" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
         <v>970</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Neftchi Baku</t>
+          <t>FC Metaloglobus Bucuresti</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Zira</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.66</v>
+        <v>5.3</v>
       </c>
       <c r="G13" t="n">
-        <v>2.8</v>
+        <v>5.8</v>
       </c>
       <c r="H13" t="n">
-        <v>2.86</v>
+        <v>1.83</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>1.88</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="M13" t="n">
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="O13" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="P13" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="R13" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S13" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="U13" t="n">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="V13" t="n">
-        <v>1.5</v>
+        <v>2.16</v>
       </c>
       <c r="W13" t="n">
-        <v>1.55</v>
+        <v>1.21</v>
       </c>
       <c r="X13" t="n">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y13" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD13" t="n">
         <v>11</v>
       </c>
-      <c r="Z13" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>36</v>
-      </c>
       <c r="AE13" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AF13" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG13" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="AH13" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="AI13" t="n">
-        <v>460</v>
+        <v>95</v>
       </c>
       <c r="AJ13" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="AK13" t="n">
-        <v>970</v>
+        <v>100</v>
       </c>
       <c r="AL13" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>190</v>
       </c>
       <c r="AN13" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="AO13" t="n">
-        <v>600</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucuresti</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="G14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S14" t="n">
         <v>6.6</v>
       </c>
-      <c r="H14" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4.7</v>
-      </c>
       <c r="T14" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="V14" t="n">
-        <v>2.26</v>
+        <v>1.17</v>
       </c>
       <c r="W14" t="n">
-        <v>1.18</v>
+        <v>2.14</v>
       </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AA14" t="n">
-        <v>19</v>
+        <v>500</v>
       </c>
       <c r="AB14" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AE14" t="n">
-        <v>34</v>
+        <v>500</v>
       </c>
       <c r="AF14" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AI14" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AJ14" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,118 +2413,118 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.79</v>
+        <v>1.37</v>
       </c>
       <c r="G15" t="n">
-        <v>1.87</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
-        <v>5.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>6.6</v>
+        <v>13</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>5.1</v>
       </c>
       <c r="K15" t="n">
-        <v>3.65</v>
+        <v>5.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.67</v>
+        <v>1.39</v>
       </c>
       <c r="M15" t="n">
-        <v>1.16</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>2.36</v>
+        <v>4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>1.43</v>
+        <v>2.04</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>1.89</v>
       </c>
       <c r="R15" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="S15" t="n">
-        <v>6.8</v>
+        <v>3.35</v>
       </c>
       <c r="T15" t="n">
-        <v>2.6</v>
+        <v>1.01</v>
       </c>
       <c r="U15" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="W15" t="n">
-        <v>2.14</v>
+        <v>3.5</v>
       </c>
       <c r="X15" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="Y15" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AE15" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
         <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>240</v>
+        <v>970</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>APOEL</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.34</v>
+        <v>2.86</v>
       </c>
       <c r="G16" t="n">
-        <v>1.39</v>
+        <v>3.05</v>
       </c>
       <c r="H16" t="n">
-        <v>10.5</v>
+        <v>2.74</v>
       </c>
       <c r="I16" t="n">
-        <v>12.5</v>
+        <v>2.92</v>
       </c>
       <c r="J16" t="n">
-        <v>5.3</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="n">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="M16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.05</v>
       </c>
-      <c r="N16" t="n">
-        <v>4</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.22</v>
-      </c>
       <c r="U16" t="n">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="V16" t="n">
-        <v>1.09</v>
+        <v>1.52</v>
       </c>
       <c r="W16" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="X16" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="Y16" t="n">
-        <v>85</v>
+        <v>970</v>
       </c>
       <c r="Z16" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB16" t="n">
-        <v>7.4</v>
+        <v>970</v>
       </c>
       <c r="AC16" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AD16" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AE16" t="n">
-        <v>270</v>
+        <v>970</v>
       </c>
       <c r="AF16" t="n">
-        <v>7.4</v>
+        <v>970</v>
       </c>
       <c r="AG16" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AI16" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>900</v>
       </c>
       <c r="AK16" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AL16" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AM16" t="n">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>7.4</v>
+        <v>970</v>
       </c>
       <c r="AO16" t="n">
-        <v>400</v>
+        <v>970</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Villefranche Beaujolais</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.86</v>
+        <v>1.04</v>
       </c>
       <c r="G17" t="n">
-        <v>3.05</v>
+        <v>700</v>
       </c>
       <c r="H17" t="n">
-        <v>2.74</v>
+        <v>1.04</v>
       </c>
       <c r="I17" t="n">
-        <v>2.9</v>
+        <v>1.09</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="K17" t="n">
-        <v>3.4</v>
+        <v>400</v>
       </c>
       <c r="L17" t="n">
-        <v>1.49</v>
+        <v>1.07</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>3.2</v>
+        <v>1.02</v>
       </c>
       <c r="O17" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.26</v>
+        <v>1.08</v>
       </c>
       <c r="R17" t="n">
-        <v>1.27</v>
+        <v>2.34</v>
       </c>
       <c r="S17" t="n">
-        <v>4.2</v>
+        <v>1.25</v>
       </c>
       <c r="T17" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.52</v>
+        <v>2.18</v>
       </c>
       <c r="W17" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="X17" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2833,16 +2833,16 @@
         <v>1.59</v>
       </c>
       <c r="H18" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I18" t="n">
         <v>6.4</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6.6</v>
       </c>
       <c r="J18" t="n">
         <v>4.7</v>
       </c>
       <c r="K18" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L18" t="n">
         <v>1.33</v>
@@ -2851,7 +2851,7 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O18" t="n">
         <v>1.22</v>
@@ -2860,16 +2860,16 @@
         <v>2.42</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="R18" t="n">
         <v>1.55</v>
       </c>
       <c r="S18" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="T18" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U18" t="n">
         <v>2.2</v>
@@ -2878,43 +2878,43 @@
         <v>1.18</v>
       </c>
       <c r="W18" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="X18" t="n">
         <v>23</v>
       </c>
       <c r="Y18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA18" t="n">
         <v>170</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
         <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="n">
         <v>10.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AH18" t="n">
         <v>19.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ18" t="n">
         <v>15</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G19" t="n">
         <v>2.08</v>
@@ -2971,7 +2971,7 @@
         <v>3.9</v>
       </c>
       <c r="I19" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
         <v>3.8</v>
@@ -2980,7 +2980,7 @@
         <v>3.85</v>
       </c>
       <c r="L19" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -2992,7 +2992,7 @@
         <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q19" t="n">
         <v>1.84</v>
@@ -3001,13 +3001,13 @@
         <v>1.46</v>
       </c>
       <c r="S19" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U19" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V19" t="n">
         <v>1.33</v>
@@ -3028,19 +3028,19 @@
         <v>75</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD19" t="n">
         <v>15.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF19" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG19" t="n">
         <v>10.5</v>
@@ -3049,7 +3049,7 @@
         <v>16.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ19" t="n">
         <v>25</v>
@@ -3067,7 +3067,7 @@
         <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G20" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I20" t="n">
         <v>3.65</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.75</v>
       </c>
       <c r="J20" t="n">
         <v>3.5</v>
@@ -3115,16 +3115,16 @@
         <v>3.55</v>
       </c>
       <c r="L20" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O20" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P20" t="n">
         <v>1.9</v>
@@ -3133,31 +3133,31 @@
         <v>2.06</v>
       </c>
       <c r="R20" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="S20" t="n">
         <v>3.75</v>
       </c>
       <c r="T20" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="U20" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V20" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W20" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="X20" t="n">
         <v>13</v>
       </c>
       <c r="Y20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA20" t="n">
         <v>70</v>
@@ -3178,10 +3178,10 @@
         <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="n">
         <v>55</v>
@@ -3196,10 +3196,10 @@
         <v>40</v>
       </c>
       <c r="AM20" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="AN20" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AO20" t="n">
         <v>44</v>
@@ -3235,46 +3235,46 @@
         <v>2.92</v>
       </c>
       <c r="G21" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="I21" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J21" t="n">
         <v>3.55</v>
       </c>
       <c r="K21" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L21" t="n">
         <v>1.35</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O21" t="n">
         <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R21" t="n">
         <v>1.49</v>
       </c>
       <c r="S21" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="T21" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U21" t="n">
         <v>2.42</v>
@@ -3283,61 +3283,61 @@
         <v>1.6</v>
       </c>
       <c r="W21" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X21" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y21" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Z21" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AA21" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC21" t="n">
-        <v>12.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
         <v>500</v>
       </c>
       <c r="AF21" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
-        <v>970</v>
+        <v>130</v>
       </c>
       <c r="AJ21" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AK21" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AL21" t="n">
-        <v>970</v>
+        <v>130</v>
       </c>
       <c r="AM21" t="n">
         <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AO21" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="G22" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="H22" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="I22" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="J22" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K22" t="n">
         <v>3.85</v>
@@ -3391,13 +3391,13 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P22" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q22" t="n">
         <v>2.1</v>
@@ -3409,52 +3409,52 @@
         <v>3.9</v>
       </c>
       <c r="T22" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="U22" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="V22" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="W22" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.5</v>
+        <v>8</v>
       </c>
       <c r="Z22" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AA22" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="AB22" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="AC22" t="n">
-        <v>15.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AF22" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AG22" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AH22" t="n">
         <v>980</v>
       </c>
       <c r="AI22" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="AJ22" t="n">
         <v>900</v>
@@ -3472,7 +3472,7 @@
         <v>600</v>
       </c>
       <c r="AO22" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
@@ -3502,40 +3502,40 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G23" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H23" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="I23" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K23" t="n">
         <v>3.65</v>
       </c>
       <c r="L23" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M23" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O23" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P23" t="n">
         <v>1.65</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="R23" t="n">
         <v>1.24</v>
@@ -3544,13 +3544,13 @@
         <v>4.8</v>
       </c>
       <c r="T23" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U23" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V23" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W23" t="n">
         <v>1.23</v>
@@ -3565,7 +3565,7 @@
         <v>10.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB23" t="n">
         <v>14.5</v>
@@ -3580,7 +3580,7 @@
         <v>24</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AG23" t="n">
         <v>22</v>
@@ -3595,7 +3595,7 @@
         <v>900</v>
       </c>
       <c r="AK23" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="AL23" t="n">
         <v>500</v>
@@ -3637,109 +3637,109 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="G24" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="H24" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="I24" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J24" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L24" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M24" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N24" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="P24" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="R24" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T24" t="n">
-        <v>2.26</v>
+        <v>2.04</v>
       </c>
       <c r="U24" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="V24" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W24" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="X24" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Y24" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="Z24" t="n">
-        <v>190</v>
+        <v>970</v>
       </c>
       <c r="AA24" t="n">
         <v>900</v>
       </c>
       <c r="AB24" t="n">
-        <v>6.4</v>
+        <v>970</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.4</v>
+        <v>42</v>
       </c>
       <c r="AD24" t="n">
-        <v>150</v>
+        <v>970</v>
       </c>
       <c r="AE24" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AF24" t="n">
-        <v>9</v>
+        <v>970</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AH24" t="n">
-        <v>150</v>
+        <v>970</v>
       </c>
       <c r="AI24" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="AJ24" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AK24" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AL24" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AM24" t="n">
         <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AO24" t="n">
         <v>500</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="G25" t="n">
-        <v>2.44</v>
+        <v>2.64</v>
       </c>
       <c r="H25" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="I25" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K25" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L25" t="n">
         <v>1.47</v>
@@ -3799,10 +3799,10 @@
         <v>3.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P25" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q25" t="n">
         <v>2.18</v>
@@ -3811,64 +3811,64 @@
         <v>1.29</v>
       </c>
       <c r="S25" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T25" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V25" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="W25" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="X25" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y25" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="Z25" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="AA25" t="n">
         <v>500</v>
       </c>
       <c r="AB25" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AD25" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AE25" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="AF25" t="n">
         <v>500</v>
       </c>
       <c r="AG25" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AH25" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AI25" t="n">
         <v>500</v>
       </c>
       <c r="AJ25" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AK25" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AL25" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AM25" t="n">
         <v>580</v>
@@ -3877,7 +3877,7 @@
         <v>970</v>
       </c>
       <c r="AO25" t="n">
-        <v>600</v>
+        <v>970</v>
       </c>
     </row>
     <row r="26">
@@ -3910,94 +3910,94 @@
         <v>2.74</v>
       </c>
       <c r="G26" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="H26" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="I26" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J26" t="n">
         <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L26" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="M26" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N26" t="n">
-        <v>2.92</v>
+        <v>2.72</v>
       </c>
       <c r="O26" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="P26" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="R26" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T26" t="n">
-        <v>2.04</v>
+        <v>1.06</v>
       </c>
       <c r="U26" t="n">
-        <v>1.81</v>
+        <v>1.05</v>
       </c>
       <c r="V26" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W26" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="X26" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="Z26" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AA26" t="n">
-        <v>55</v>
+        <v>900</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.6</v>
+        <v>42</v>
       </c>
       <c r="AD26" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AE26" t="n">
-        <v>120</v>
+        <v>970</v>
       </c>
       <c r="AF26" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AG26" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AH26" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI26" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="AJ26" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AK26" t="n">
         <v>970</v>
@@ -4012,7 +4012,7 @@
         <v>970</v>
       </c>
       <c r="AO26" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
     </row>
     <row r="27">
@@ -4042,112 +4042,112 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G27" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
         <v>2.24</v>
       </c>
       <c r="I27" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K27" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L27" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M27" t="n">
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O27" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P27" t="n">
         <v>1.74</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R27" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S27" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="T27" t="n">
-        <v>1.88</v>
+        <v>1.05</v>
       </c>
       <c r="U27" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="W27" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="X27" t="n">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="Z27" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AA27" t="n">
-        <v>32</v>
+        <v>900</v>
       </c>
       <c r="AB27" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.8</v>
+        <v>42</v>
       </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AE27" t="n">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AG27" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AH27" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AI27" t="n">
-        <v>120</v>
+        <v>970</v>
       </c>
       <c r="AJ27" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="AK27" t="n">
-        <v>120</v>
+        <v>970</v>
       </c>
       <c r="AL27" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="AM27" t="n">
         <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="AO27" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
     </row>
     <row r="28">
@@ -4177,109 +4177,109 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="G28" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H28" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K28" t="n">
         <v>3.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M28" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O28" t="n">
         <v>1.39</v>
       </c>
       <c r="P28" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="Q28" t="n">
         <v>2.2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S28" t="n">
         <v>4.1</v>
       </c>
       <c r="T28" t="n">
-        <v>1.87</v>
+        <v>1.05</v>
       </c>
       <c r="U28" t="n">
-        <v>2.02</v>
+        <v>1.05</v>
       </c>
       <c r="V28" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W28" t="n">
         <v>1.76</v>
       </c>
       <c r="X28" t="n">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="Y28" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="Z28" t="n">
-        <v>85</v>
+        <v>970</v>
       </c>
       <c r="AA28" t="n">
         <v>900</v>
       </c>
       <c r="AB28" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AC28" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="AD28" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AE28" t="n">
         <v>240</v>
       </c>
       <c r="AF28" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AG28" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AH28" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AI28" t="n">
         <v>500</v>
       </c>
       <c r="AJ28" t="n">
-        <v>110</v>
+        <v>900</v>
       </c>
       <c r="AK28" t="n">
-        <v>80</v>
+        <v>970</v>
       </c>
       <c r="AL28" t="n">
-        <v>290</v>
+        <v>970</v>
       </c>
       <c r="AM28" t="n">
         <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="AO28" t="n">
         <v>600</v>
@@ -4315,16 +4315,16 @@
         <v>2.44</v>
       </c>
       <c r="G29" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="H29" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I29" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K29" t="n">
         <v>3.45</v>
@@ -4336,37 +4336,37 @@
         <v>1.09</v>
       </c>
       <c r="N29" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O29" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P29" t="n">
         <v>1.76</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R29" t="n">
         <v>1.28</v>
       </c>
       <c r="S29" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T29" t="n">
-        <v>1.87</v>
+        <v>1.05</v>
       </c>
       <c r="U29" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="V29" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="W29" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="X29" t="n">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="Y29" t="n">
         <v>12</v>
@@ -4375,22 +4375,22 @@
         <v>23</v>
       </c>
       <c r="AA29" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="AB29" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="AE29" t="n">
-        <v>190</v>
+        <v>970</v>
       </c>
       <c r="AF29" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AG29" t="n">
         <v>12.5</v>
@@ -4399,13 +4399,13 @@
         <v>19.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AJ29" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="AK29" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AL29" t="n">
         <v>210</v>
@@ -4414,10 +4414,10 @@
         <v>580</v>
       </c>
       <c r="AN29" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="AO29" t="n">
-        <v>600</v>
+        <v>970</v>
       </c>
     </row>
     <row r="30">
@@ -4447,13 +4447,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="G30" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H30" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I30" t="n">
         <v>2.78</v>
@@ -4465,10 +4465,10 @@
         <v>3.65</v>
       </c>
       <c r="L30" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N30" t="n">
         <v>3.75</v>
@@ -4477,40 +4477,40 @@
         <v>1.34</v>
       </c>
       <c r="P30" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q30" t="n">
         <v>2.02</v>
       </c>
       <c r="R30" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S30" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T30" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U30" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V30" t="n">
         <v>1.56</v>
       </c>
       <c r="W30" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X30" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>500</v>
+        <v>19</v>
       </c>
       <c r="AA30" t="n">
-        <v>900</v>
+        <v>44</v>
       </c>
       <c r="AB30" t="n">
         <v>12</v>
@@ -4519,28 +4519,28 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD30" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="AF30" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG30" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH30" t="n">
         <v>18.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AJ30" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AK30" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AL30" t="n">
         <v>970</v>
@@ -4549,10 +4549,10 @@
         <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AO30" t="n">
-        <v>500</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31">
@@ -4588,49 +4588,49 @@
         <v>1.92</v>
       </c>
       <c r="H31" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I31" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J31" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S31" t="n">
         <v>3.65</v>
       </c>
-      <c r="K31" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.5</v>
-      </c>
       <c r="T31" t="n">
-        <v>1.84</v>
+        <v>1.05</v>
       </c>
       <c r="U31" t="n">
-        <v>2.04</v>
+        <v>1.05</v>
       </c>
       <c r="V31" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W31" t="n">
         <v>2.08</v>
@@ -4642,49 +4642,49 @@
         <v>17</v>
       </c>
       <c r="Z31" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AA31" t="n">
         <v>500</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AC31" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AE31" t="n">
         <v>500</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="AH31" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI31" t="n">
         <v>500</v>
       </c>
       <c r="AJ31" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AK31" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AL31" t="n">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="AM31" t="n">
         <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO31" t="n">
         <v>600</v>
@@ -4717,82 +4717,82 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G32" t="n">
         <v>2.16</v>
       </c>
       <c r="H32" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I32" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J32" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M32" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N32" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P32" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="R32" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S32" t="n">
         <v>4.5</v>
       </c>
       <c r="T32" t="n">
-        <v>1.96</v>
+        <v>1.06</v>
       </c>
       <c r="U32" t="n">
-        <v>1.89</v>
+        <v>1.05</v>
       </c>
       <c r="V32" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W32" t="n">
         <v>1.86</v>
       </c>
       <c r="X32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y32" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Z32" t="n">
         <v>29</v>
       </c>
       <c r="AA32" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="AB32" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="AD32" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE32" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF32" t="n">
         <v>12.5</v>
@@ -4801,10 +4801,10 @@
         <v>11</v>
       </c>
       <c r="AH32" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AI32" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AJ32" t="n">
         <v>26</v>
@@ -4813,16 +4813,16 @@
         <v>26</v>
       </c>
       <c r="AL32" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM32" t="n">
         <v>150</v>
       </c>
       <c r="AN32" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO32" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33">
@@ -4852,103 +4852,103 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H33" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="I33" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K33" t="n">
         <v>3.3</v>
       </c>
       <c r="L33" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="M33" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N33" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="O33" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="P33" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="R33" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S33" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="T33" t="n">
         <v>1.94</v>
       </c>
       <c r="U33" t="n">
-        <v>1.95</v>
+        <v>1.05</v>
       </c>
       <c r="V33" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W33" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="X33" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="Z33" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AA33" t="n">
-        <v>320</v>
+        <v>970</v>
       </c>
       <c r="AB33" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.6</v>
+        <v>42</v>
       </c>
       <c r="AD33" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AE33" t="n">
-        <v>120</v>
+        <v>970</v>
       </c>
       <c r="AF33" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AG33" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AH33" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI33" t="n">
         <v>290</v>
       </c>
       <c r="AJ33" t="n">
-        <v>60</v>
+        <v>320</v>
       </c>
       <c r="AK33" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AL33" t="n">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="AM33" t="n">
         <v>580</v>
@@ -4957,7 +4957,7 @@
         <v>970</v>
       </c>
       <c r="AO33" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
     </row>
     <row r="34">
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="G34" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="H34" t="n">
-        <v>2.92</v>
+        <v>2.68</v>
       </c>
       <c r="I34" t="n">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="J34" t="n">
         <v>3.05</v>
@@ -5008,10 +5008,10 @@
         <v>1.61</v>
       </c>
       <c r="M34" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N34" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="O34" t="n">
         <v>1.57</v>
@@ -5020,79 +5020,79 @@
         <v>1.54</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="R34" t="n">
         <v>1.19</v>
       </c>
       <c r="S34" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="T34" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U34" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V34" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="W34" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X34" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Z34" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AA34" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.6</v>
+        <v>14.5</v>
       </c>
       <c r="AC34" t="n">
         <v>7</v>
       </c>
       <c r="AD34" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF34" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG34" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AH34" t="n">
         <v>24</v>
       </c>
       <c r="AI34" t="n">
-        <v>75</v>
+        <v>380</v>
       </c>
       <c r="AJ34" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AL34" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="n">
         <v>500</v>
       </c>
       <c r="AN34" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AO34" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35">
@@ -5122,79 +5122,79 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G35" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H35" t="n">
         <v>3.85</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J35" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K35" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L35" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M35" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N35" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="O35" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P35" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="R35" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T35" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="U35" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="V35" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W35" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X35" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="Y35" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="Z35" t="n">
         <v>27</v>
       </c>
       <c r="AA35" t="n">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="AB35" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AC35" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE35" t="n">
         <v>55</v>
@@ -5203,31 +5203,31 @@
         <v>13</v>
       </c>
       <c r="AG35" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AI35" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ35" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AK35" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AL35" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AM35" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN35" t="n">
-        <v>19.5</v>
+        <v>60</v>
       </c>
       <c r="AO35" t="n">
-        <v>60</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36">
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="G36" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="H36" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I36" t="n">
         <v>1.33</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1.34</v>
       </c>
       <c r="J36" t="n">
         <v>6.2</v>
@@ -5278,52 +5278,52 @@
         <v>1.29</v>
       </c>
       <c r="M36" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O36" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P36" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R36" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="S36" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T36" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U36" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V36" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="W36" t="n">
         <v>1.09</v>
       </c>
       <c r="X36" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Y36" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z36" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AA36" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AC36" t="n">
         <v>13.5</v>
@@ -5341,19 +5341,19 @@
         <v>40</v>
       </c>
       <c r="AH36" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI36" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ36" t="n">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="AK36" t="n">
         <v>160</v>
       </c>
       <c r="AL36" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AM36" t="n">
         <v>150</v>
@@ -5362,7 +5362,7 @@
         <v>220</v>
       </c>
       <c r="AO36" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="37">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G37" t="n">
         <v>1.43</v>
@@ -5401,13 +5401,13 @@
         <v>7.6</v>
       </c>
       <c r="I37" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J37" t="n">
         <v>5.6</v>
       </c>
       <c r="K37" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L37" t="n">
         <v>1.27</v>
@@ -5416,28 +5416,28 @@
         <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O37" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P37" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R37" t="n">
         <v>1.71</v>
       </c>
       <c r="S37" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T37" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="U37" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V37" t="n">
         <v>1.13</v>
@@ -5446,58 +5446,58 @@
         <v>3.25</v>
       </c>
       <c r="X37" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="Y37" t="n">
-        <v>100</v>
+        <v>970</v>
       </c>
       <c r="Z37" t="n">
         <v>190</v>
       </c>
       <c r="AA37" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AC37" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="AD37" t="n">
-        <v>75</v>
+        <v>970</v>
       </c>
       <c r="AE37" t="n">
         <v>290</v>
       </c>
       <c r="AF37" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AG37" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AH37" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AI37" t="n">
         <v>400</v>
       </c>
       <c r="AJ37" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AK37" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AL37" t="n">
-        <v>75</v>
+        <v>970</v>
       </c>
       <c r="AM37" t="n">
         <v>330</v>
       </c>
       <c r="AN37" t="n">
-        <v>5.2</v>
+        <v>29</v>
       </c>
       <c r="AO37" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
@@ -5533,22 +5533,22 @@
         <v>4.3</v>
       </c>
       <c r="H38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I38" t="n">
         <v>1.88</v>
       </c>
-      <c r="I38" t="n">
-        <v>1.94</v>
-      </c>
       <c r="J38" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K38" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L38" t="n">
         <v>1.29</v>
       </c>
       <c r="M38" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N38" t="n">
         <v>6</v>
@@ -5557,82 +5557,82 @@
         <v>1.18</v>
       </c>
       <c r="P38" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="Q38" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T38" t="n">
         <v>1.57</v>
       </c>
-      <c r="R38" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S38" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.58</v>
-      </c>
       <c r="U38" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V38" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="W38" t="n">
         <v>1.3</v>
       </c>
       <c r="X38" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="Y38" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="Z38" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AA38" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AB38" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AC38" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD38" t="n">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="AE38" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AF38" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AG38" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AH38" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AI38" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AJ38" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AK38" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AL38" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AM38" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN38" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AO38" t="n">
-        <v>8.6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
@@ -5662,61 +5662,61 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="G39" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H39" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="I39" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="J39" t="n">
         <v>4.8</v>
       </c>
       <c r="K39" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="L39" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M39" t="n">
         <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="O39" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P39" t="n">
-        <v>2.7</v>
+        <v>2.56</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="R39" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="S39" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T39" t="n">
         <v>1.69</v>
       </c>
       <c r="U39" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V39" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="W39" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="X39" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="Y39" t="n">
         <v>970</v>
@@ -5725,13 +5725,13 @@
         <v>970</v>
       </c>
       <c r="AA39" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AC39" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AD39" t="n">
         <v>970</v>
@@ -5740,34 +5740,34 @@
         <v>170</v>
       </c>
       <c r="AF39" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AG39" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AH39" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AI39" t="n">
         <v>160</v>
       </c>
       <c r="AJ39" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AK39" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AL39" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AM39" t="n">
         <v>580</v>
       </c>
       <c r="AN39" t="n">
-        <v>6.2</v>
+        <v>29</v>
       </c>
       <c r="AO39" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G40" t="n">
         <v>2.3</v>
@@ -5809,10 +5809,10 @@
         <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K40" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L40" t="n">
         <v>1.23</v>
@@ -5821,28 +5821,28 @@
         <v>1.02</v>
       </c>
       <c r="N40" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="O40" t="n">
         <v>1.12</v>
       </c>
       <c r="P40" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R40" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="S40" t="n">
         <v>1.99</v>
       </c>
       <c r="T40" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="U40" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="V40" t="n">
         <v>1.5</v>
@@ -5857,52 +5857,52 @@
         <v>970</v>
       </c>
       <c r="Z40" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="AA40" t="n">
+        <v>970</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG40" t="n">
         <v>500</v>
       </c>
-      <c r="AB40" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>70</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>48</v>
-      </c>
       <c r="AH40" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AI40" t="n">
-        <v>270</v>
+        <v>970</v>
       </c>
       <c r="AJ40" t="n">
-        <v>140</v>
+        <v>970</v>
       </c>
       <c r="AK40" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AL40" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>970</v>
+      </c>
+      <c r="AN40" t="n">
         <v>500</v>
       </c>
-      <c r="AM40" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>36</v>
-      </c>
       <c r="AO40" t="n">
-        <v>600</v>
+        <v>970</v>
       </c>
     </row>
     <row r="41">
@@ -5932,28 +5932,28 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="G41" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H41" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J41" t="n">
         <v>3.95</v>
       </c>
       <c r="K41" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L41" t="n">
         <v>1.28</v>
       </c>
       <c r="M41" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N41" t="n">
         <v>6.2</v>
@@ -5962,82 +5962,82 @@
         <v>1.17</v>
       </c>
       <c r="P41" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="Q41" t="n">
         <v>1.54</v>
       </c>
       <c r="R41" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="S41" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T41" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="U41" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V41" t="n">
         <v>1.3</v>
       </c>
       <c r="W41" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X41" t="n">
-        <v>75</v>
+        <v>970</v>
       </c>
       <c r="Y41" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="Z41" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AA41" t="n">
-        <v>310</v>
+        <v>500</v>
       </c>
       <c r="AB41" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AC41" t="n">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="AD41" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AE41" t="n">
-        <v>170</v>
+        <v>970</v>
       </c>
       <c r="AF41" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AG41" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AH41" t="n">
-        <v>15.5</v>
+        <v>85</v>
       </c>
       <c r="AI41" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AJ41" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AK41" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AL41" t="n">
-        <v>130</v>
+        <v>970</v>
       </c>
       <c r="AM41" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN41" t="n">
-        <v>8.4</v>
+        <v>85</v>
       </c>
       <c r="AO41" t="n">
-        <v>600</v>
+        <v>970</v>
       </c>
     </row>
     <row r="42">
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G42" t="n">
         <v>2.22</v>
       </c>
-      <c r="G42" t="n">
-        <v>2.24</v>
-      </c>
       <c r="H42" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I42" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="J42" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K42" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L42" t="n">
         <v>1.27</v>
@@ -6109,16 +6109,16 @@
         <v>2.32</v>
       </c>
       <c r="T42" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="U42" t="n">
         <v>2.82</v>
       </c>
       <c r="V42" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="W42" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X42" t="n">
         <v>90</v>
@@ -6130,16 +6130,16 @@
         <v>90</v>
       </c>
       <c r="AA42" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AB42" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AC42" t="n">
         <v>11</v>
       </c>
       <c r="AD42" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE42" t="n">
         <v>970</v>
@@ -6148,22 +6148,22 @@
         <v>34</v>
       </c>
       <c r="AG42" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AH42" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AI42" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AJ42" t="n">
         <v>120</v>
       </c>
       <c r="AK42" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AL42" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AM42" t="n">
         <v>580</v>
@@ -6172,7 +6172,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AO42" t="n">
-        <v>600</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
@@ -6205,13 +6205,13 @@
         <v>3.1</v>
       </c>
       <c r="G43" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H43" t="n">
         <v>2.22</v>
       </c>
       <c r="I43" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J43" t="n">
         <v>3.95</v>
@@ -6223,7 +6223,7 @@
         <v>1.29</v>
       </c>
       <c r="M43" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N43" t="n">
         <v>5.7</v>
@@ -6232,34 +6232,34 @@
         <v>1.19</v>
       </c>
       <c r="P43" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="R43" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="S43" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="T43" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="U43" t="n">
-        <v>2.48</v>
+        <v>1.98</v>
       </c>
       <c r="V43" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="W43" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X43" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="Y43" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="Z43" t="n">
         <v>970</v>
@@ -6271,10 +6271,10 @@
         <v>970</v>
       </c>
       <c r="AC43" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AD43" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AE43" t="n">
         <v>970</v>
@@ -6286,7 +6286,7 @@
         <v>970</v>
       </c>
       <c r="AH43" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AI43" t="n">
         <v>970</v>
@@ -6298,7 +6298,7 @@
         <v>970</v>
       </c>
       <c r="AL43" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AM43" t="n">
         <v>580</v>
@@ -6307,7 +6307,7 @@
         <v>970</v>
       </c>
       <c r="AO43" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
     </row>
     <row r="44">
@@ -6337,61 +6337,61 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H44" t="n">
         <v>6</v>
       </c>
       <c r="I44" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J44" t="n">
         <v>4</v>
       </c>
       <c r="K44" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L44" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M44" t="n">
         <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O44" t="n">
         <v>1.25</v>
       </c>
       <c r="P44" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="R44" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="S44" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="T44" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="U44" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V44" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W44" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="X44" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="Y44" t="n">
         <v>970</v>
@@ -6403,46 +6403,46 @@
         <v>900</v>
       </c>
       <c r="AB44" t="n">
-        <v>29</v>
+        <v>10.5</v>
       </c>
       <c r="AC44" t="n">
         <v>42</v>
       </c>
       <c r="AD44" t="n">
-        <v>970</v>
+        <v>150</v>
       </c>
       <c r="AE44" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AF44" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AG44" t="n">
         <v>38</v>
       </c>
       <c r="AH44" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AI44" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AJ44" t="n">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="AK44" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AL44" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AM44" t="n">
         <v>580</v>
       </c>
       <c r="AN44" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO44" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="G45" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H45" t="n">
         <v>2.86</v>
@@ -6484,31 +6484,31 @@
         <v>2.88</v>
       </c>
       <c r="J45" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K45" t="n">
         <v>3.1</v>
-      </c>
-      <c r="K45" t="n">
-        <v>3.15</v>
       </c>
       <c r="L45" t="n">
         <v>1.63</v>
       </c>
       <c r="M45" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N45" t="n">
         <v>2.66</v>
       </c>
       <c r="O45" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="P45" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="R45" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S45" t="n">
         <v>5.8</v>
@@ -6523,7 +6523,7 @@
         <v>1.53</v>
       </c>
       <c r="W45" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="X45" t="n">
         <v>8.199999999999999</v>
@@ -6532,10 +6532,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="Z45" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA45" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB45" t="n">
         <v>8.4</v>
@@ -6571,7 +6571,7 @@
         <v>75</v>
       </c>
       <c r="AM45" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN45" t="n">
         <v>55</v>
@@ -6610,7 +6610,7 @@
         <v>2.48</v>
       </c>
       <c r="G46" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H46" t="n">
         <v>3.45</v>
@@ -6625,46 +6625,46 @@
         <v>3.2</v>
       </c>
       <c r="L46" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="M46" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N46" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O46" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="P46" t="n">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.44</v>
+        <v>2.26</v>
       </c>
       <c r="R46" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="S46" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="T46" t="n">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="U46" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="V46" t="n">
         <v>1.39</v>
       </c>
       <c r="W46" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X46" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z46" t="n">
         <v>23</v>
@@ -6673,46 +6673,46 @@
         <v>65</v>
       </c>
       <c r="AB46" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AC46" t="n">
         <v>7.2</v>
       </c>
       <c r="AD46" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF46" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AJ46" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK46" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AL46" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM46" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN46" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AO46" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47">
@@ -6745,109 +6745,109 @@
         <v>3.3</v>
       </c>
       <c r="G47" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H47" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="I47" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="J47" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K47" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L47" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M47" t="n">
         <v>1.09</v>
       </c>
       <c r="N47" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O47" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="P47" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R47" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S47" t="n">
         <v>4.4</v>
       </c>
       <c r="T47" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U47" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="V47" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="W47" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X47" t="n">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="Z47" t="n">
         <v>14.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB47" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AC47" t="n">
         <v>7.4</v>
       </c>
       <c r="AD47" t="n">
-        <v>11.5</v>
+        <v>30</v>
       </c>
       <c r="AE47" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF47" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG47" t="n">
         <v>15</v>
       </c>
       <c r="AH47" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI47" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AK47" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AL47" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AM47" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN47" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO47" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48">
@@ -6880,10 +6880,10 @@
         <v>2.58</v>
       </c>
       <c r="G48" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I48" t="n">
         <v>3.35</v>
@@ -6895,16 +6895,16 @@
         <v>3.35</v>
       </c>
       <c r="L48" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M48" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N48" t="n">
         <v>2.94</v>
       </c>
       <c r="O48" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P48" t="n">
         <v>1.63</v>
@@ -6919,52 +6919,52 @@
         <v>4.7</v>
       </c>
       <c r="T48" t="n">
-        <v>1.94</v>
+        <v>1.05</v>
       </c>
       <c r="U48" t="n">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="V48" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W48" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X48" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="Y48" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="Z48" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>350</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI48" t="n">
         <v>500</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>65</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>380</v>
       </c>
       <c r="AJ48" t="n">
         <v>170</v>
@@ -7012,97 +7012,97 @@
         </is>
       </c>
       <c r="F49" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G49" t="n">
         <v>2.22</v>
       </c>
-      <c r="G49" t="n">
-        <v>2.24</v>
-      </c>
       <c r="H49" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I49" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J49" t="n">
         <v>3.1</v>
       </c>
       <c r="K49" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L49" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="M49" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N49" t="n">
         <v>2.64</v>
       </c>
       <c r="O49" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="P49" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="R49" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S49" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="T49" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U49" t="n">
         <v>1.76</v>
       </c>
       <c r="V49" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W49" t="n">
         <v>1.81</v>
       </c>
       <c r="X49" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Y49" t="n">
         <v>11</v>
       </c>
       <c r="Z49" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AA49" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AB49" t="n">
         <v>6.8</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD49" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF49" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG49" t="n">
         <v>12</v>
       </c>
       <c r="AH49" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI49" t="n">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="AJ49" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK49" t="n">
         <v>32</v>
@@ -7111,13 +7111,13 @@
         <v>65</v>
       </c>
       <c r="AM49" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="AN49" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO49" t="n">
-        <v>600</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50">
@@ -7150,109 +7150,109 @@
         <v>2.34</v>
       </c>
       <c r="G50" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="H50" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I50" t="n">
         <v>3.65</v>
       </c>
       <c r="J50" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K50" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L50" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="M50" t="n">
         <v>1.1</v>
       </c>
       <c r="N50" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O50" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="P50" t="n">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="R50" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S50" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="T50" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="U50" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="V50" t="n">
         <v>1.38</v>
       </c>
       <c r="W50" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="X50" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y50" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>440</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF50" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z50" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AG50" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AH50" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI50" t="n">
         <v>250</v>
       </c>
       <c r="AJ50" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AK50" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL50" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AM50" t="n">
         <v>580</v>
       </c>
       <c r="AN50" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AO50" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51">
@@ -7282,61 +7282,61 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="G51" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H51" t="n">
         <v>6.6</v>
       </c>
       <c r="I51" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="J51" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K51" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="L51" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M51" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N51" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="O51" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P51" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W51" t="n">
         <v>2.88</v>
       </c>
-      <c r="Q51" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S51" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T51" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U51" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V51" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W51" t="n">
-        <v>3.05</v>
-      </c>
       <c r="X51" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y51" t="n">
         <v>970</v>
@@ -7345,13 +7345,13 @@
         <v>190</v>
       </c>
       <c r="AA51" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB51" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AC51" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AD51" t="n">
         <v>970</v>
@@ -7363,7 +7363,7 @@
         <v>23</v>
       </c>
       <c r="AG51" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AH51" t="n">
         <v>970</v>
@@ -7372,7 +7372,7 @@
         <v>400</v>
       </c>
       <c r="AJ51" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AK51" t="n">
         <v>970</v>
@@ -7384,7 +7384,7 @@
         <v>330</v>
       </c>
       <c r="AN51" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AO51" t="n">
         <v>500</v>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -7426,103 +7426,103 @@
         <v>4.3</v>
       </c>
       <c r="I52" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J52" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K52" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L52" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M52" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N52" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O52" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="P52" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="R52" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="S52" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="T52" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="U52" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="V52" t="n">
         <v>1.27</v>
       </c>
       <c r="W52" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X52" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Y52" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="Z52" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL52" t="n">
         <v>500</v>
       </c>
-      <c r="AA52" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>46</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>500</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>970</v>
-      </c>
       <c r="AM52" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="AN52" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO52" t="n">
-        <v>600</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53">
@@ -7558,16 +7558,16 @@
         <v>1.22</v>
       </c>
       <c r="H53" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I53" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="J53" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K53" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L53" t="n">
         <v>1.28</v>
@@ -7579,22 +7579,22 @@
         <v>6</v>
       </c>
       <c r="O53" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P53" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q53" t="n">
         <v>1.56</v>
       </c>
       <c r="R53" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S53" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="T53" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="U53" t="n">
         <v>1.67</v>
@@ -7606,43 +7606,43 @@
         <v>5.7</v>
       </c>
       <c r="X53" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y53" t="n">
         <v>60</v>
       </c>
       <c r="Z53" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="AA53" t="n">
         <v>1000</v>
       </c>
       <c r="AB53" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC53" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AD53" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AE53" t="n">
-        <v>520</v>
+        <v>390</v>
       </c>
       <c r="AF53" t="n">
         <v>7.6</v>
       </c>
       <c r="AG53" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AI53" t="n">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="AJ53" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AK53" t="n">
         <v>14.5</v>
@@ -7651,7 +7651,7 @@
         <v>46</v>
       </c>
       <c r="AM53" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AN53" t="n">
         <v>3.65</v>
@@ -7687,34 +7687,34 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G54" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H54" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I54" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="J54" t="n">
         <v>3.6</v>
       </c>
       <c r="K54" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L54" t="n">
         <v>1.38</v>
       </c>
       <c r="M54" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N54" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O54" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P54" t="n">
         <v>2.04</v>
@@ -7726,7 +7726,7 @@
         <v>1.4</v>
       </c>
       <c r="S54" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T54" t="n">
         <v>1.69</v>
@@ -7735,49 +7735,49 @@
         <v>2.2</v>
       </c>
       <c r="V54" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W54" t="n">
         <v>1.37</v>
       </c>
       <c r="X54" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y54" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Z54" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AA54" t="n">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="AB54" t="n">
         <v>30</v>
       </c>
       <c r="AC54" t="n">
-        <v>14</v>
+        <v>8.6</v>
       </c>
       <c r="AD54" t="n">
-        <v>40</v>
+        <v>11.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AF54" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AG54" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AH54" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="AI54" t="n">
         <v>970</v>
       </c>
       <c r="AJ54" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AK54" t="n">
         <v>970</v>
@@ -7822,16 +7822,16 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="G55" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H55" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I55" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="J55" t="n">
         <v>3.4</v>
@@ -7846,7 +7846,7 @@
         <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O55" t="n">
         <v>1.37</v>
@@ -7855,7 +7855,7 @@
         <v>1.87</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R55" t="n">
         <v>1.33</v>
@@ -7864,16 +7864,16 @@
         <v>3.9</v>
       </c>
       <c r="T55" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U55" t="n">
         <v>2.14</v>
       </c>
       <c r="V55" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="W55" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="X55" t="n">
         <v>12.5</v>
@@ -7882,13 +7882,13 @@
         <v>12</v>
       </c>
       <c r="Z55" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AA55" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB55" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC55" t="n">
         <v>7.2</v>
@@ -7897,37 +7897,37 @@
         <v>14</v>
       </c>
       <c r="AE55" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AF55" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG55" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH55" t="n">
         <v>17.5</v>
       </c>
       <c r="AI55" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ55" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK55" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL55" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO55" t="n">
         <v>42</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="56">
@@ -7957,64 +7957,64 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="G56" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="H56" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I56" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="J56" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K56" t="n">
         <v>3.4</v>
       </c>
-      <c r="K56" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L56" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="M56" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N56" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="O56" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="P56" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R56" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S56" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="T56" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U56" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W56" t="n">
         <v>1.87</v>
       </c>
-      <c r="V56" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W56" t="n">
-        <v>1.94</v>
-      </c>
       <c r="X56" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y56" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z56" t="n">
         <v>30</v>
@@ -8023,19 +8023,19 @@
         <v>110</v>
       </c>
       <c r="AB56" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC56" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD56" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE56" t="n">
         <v>70</v>
       </c>
       <c r="AF56" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG56" t="n">
         <v>11</v>
@@ -8044,25 +8044,25 @@
         <v>23</v>
       </c>
       <c r="AI56" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ56" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK56" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AL56" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM56" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN56" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO56" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57">
@@ -8116,7 +8116,7 @@
         <v>1.08</v>
       </c>
       <c r="N57" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O57" t="n">
         <v>1.37</v>
@@ -8230,19 +8230,19 @@
         <v>2.5</v>
       </c>
       <c r="G58" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H58" t="n">
         <v>3.85</v>
       </c>
       <c r="I58" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J58" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="K58" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8257,10 +8257,10 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q58" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8374,10 +8374,10 @@
         <v>3.85</v>
       </c>
       <c r="J59" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="K59" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8395,7 +8395,7 @@
         <v>1.43</v>
       </c>
       <c r="Q59" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8497,19 +8497,19 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="G60" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H60" t="n">
         <v>3.25</v>
       </c>
       <c r="I60" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J60" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K60" t="n">
         <v>3.3</v>
@@ -8521,13 +8521,13 @@
         <v>1.1</v>
       </c>
       <c r="N60" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O60" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P60" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q60" t="n">
         <v>2.34</v>
@@ -8536,25 +8536,25 @@
         <v>1.26</v>
       </c>
       <c r="S60" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T60" t="n">
-        <v>1.89</v>
+        <v>1.05</v>
       </c>
       <c r="U60" t="n">
-        <v>1.92</v>
+        <v>1.05</v>
       </c>
       <c r="V60" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W60" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X60" t="n">
         <v>11</v>
       </c>
       <c r="Y60" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z60" t="n">
         <v>100</v>
@@ -8569,19 +8569,19 @@
         <v>7.6</v>
       </c>
       <c r="AD60" t="n">
-        <v>75</v>
+        <v>15.5</v>
       </c>
       <c r="AE60" t="n">
         <v>970</v>
       </c>
       <c r="AF60" t="n">
-        <v>190</v>
+        <v>970</v>
       </c>
       <c r="AG60" t="n">
         <v>13</v>
       </c>
       <c r="AH60" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AI60" t="n">
         <v>500</v>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="F61" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G61" t="n">
         <v>2.46</v>
       </c>
-      <c r="G61" t="n">
-        <v>2.58</v>
-      </c>
       <c r="H61" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="I61" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="J61" t="n">
         <v>3.05</v>
@@ -8674,22 +8674,22 @@
         <v>5.3</v>
       </c>
       <c r="T61" t="n">
-        <v>2.04</v>
+        <v>1.05</v>
       </c>
       <c r="U61" t="n">
-        <v>1.79</v>
+        <v>1.05</v>
       </c>
       <c r="V61" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="W61" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="X61" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Y61" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="Z61" t="n">
         <v>970</v>
@@ -8698,25 +8698,25 @@
         <v>500</v>
       </c>
       <c r="AB61" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AC61" t="n">
-        <v>7.4</v>
+        <v>42</v>
       </c>
       <c r="AD61" t="n">
-        <v>85</v>
+        <v>970</v>
       </c>
       <c r="AE61" t="n">
         <v>500</v>
       </c>
       <c r="AF61" t="n">
-        <v>80</v>
+        <v>970</v>
       </c>
       <c r="AG61" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="AH61" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AI61" t="n">
         <v>500</v>
@@ -8782,7 +8782,7 @@
         <v>3</v>
       </c>
       <c r="K62" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -8797,10 +8797,10 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G63" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H63" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="I63" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J63" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K63" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -9037,61 +9037,61 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="G64" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H64" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="I64" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J64" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="K64" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="L64" t="n">
         <v>1.52</v>
       </c>
       <c r="M64" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N64" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="O64" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P64" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="R64" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S64" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T64" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="U64" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="V64" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W64" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="X64" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y64" t="n">
         <v>1000</v>
@@ -9100,40 +9100,40 @@
         <v>980</v>
       </c>
       <c r="AA64" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB64" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC64" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD64" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE64" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF64" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG64" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH64" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI64" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ64" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK64" t="n">
         <v>980</v>
       </c>
       <c r="AL64" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM64" t="n">
         <v>1000</v>
@@ -9142,7 +9142,7 @@
         <v>1000</v>
       </c>
       <c r="AO64" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO57"/>
+  <dimension ref="A1:AO53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ES Mostaganem</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Olympique Akbou</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1.19</v>
+        <v>1.02</v>
       </c>
       <c r="H2" t="n">
-        <v>34</v>
+        <v>270</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>6.6</v>
+        <v>55</v>
       </c>
       <c r="K2" t="n">
-        <v>9.6</v>
+        <v>110</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,34 +691,34 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.01</v>
+        <v>3.6</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>1.37</v>
       </c>
       <c r="T2" t="n">
-        <v>4.4</v>
+        <v>2.22</v>
       </c>
       <c r="U2" t="n">
-        <v>1.12</v>
+        <v>1.72</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>4.5</v>
+        <v>50</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.33</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -748,7 +748,7 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -757,19 +757,19 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>2.12</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,114 +788,114 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Paradou</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.35</v>
+        <v>2.1</v>
       </c>
       <c r="G3" t="n">
-        <v>690</v>
+        <v>2.16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>820</v>
+        <v>7.4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>2.62</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="N3" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.02</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.13</v>
-      </c>
       <c r="S3" t="n">
-        <v>6.6</v>
+        <v>38</v>
       </c>
       <c r="T3" t="n">
-        <v>1.09</v>
+        <v>5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.77</v>
+        <v>1.22</v>
       </c>
       <c r="V3" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>3.6</v>
+        <v>1.82</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>650</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>880</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>650</v>
+        <v>9.6</v>
       </c>
       <c r="AG3" t="n">
-        <v>990</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
-        <v>990</v>
+        <v>150</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Neftchi Baku</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Zira</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.2</v>
+        <v>1.46</v>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.65</v>
+        <v>12.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.95</v>
+        <v>13.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>2.34</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AL4" t="n">
         <v>12</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="S4" t="n">
-        <v>32</v>
-      </c>
-      <c r="T4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="X4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>290</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>150</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN4" t="n">
-        <v>580</v>
+        <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,111 +1058,111 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucuresti</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="G5" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="I5" t="n">
-        <v>2.44</v>
+        <v>1.01</v>
       </c>
       <c r="J5" t="n">
-        <v>2.32</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>2.34</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.11</v>
+        <v>2.78</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.199999999999999</v>
+        <v>1.53</v>
       </c>
       <c r="R5" t="n">
-        <v>1.02</v>
+        <v>1.35</v>
       </c>
       <c r="S5" t="n">
-        <v>34</v>
+        <v>3.5</v>
       </c>
       <c r="T5" t="n">
-        <v>5.2</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.69</v>
+        <v>100</v>
       </c>
       <c r="W5" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AA5" t="n">
-        <v>55</v>
+        <v>3.85</v>
       </c>
       <c r="AB5" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>170</v>
+        <v>960</v>
       </c>
       <c r="AF5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AJ5" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
         <v>1000</v>
@@ -1177,13 +1177,13 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>250</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,118 +1198,118 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K6" t="n">
         <v>2.08</v>
       </c>
-      <c r="G6" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.15</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.43</v>
+        <v>2.52</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.15</v>
+        <v>1.63</v>
       </c>
       <c r="R6" t="n">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="W6" t="n">
-        <v>1.84</v>
+        <v>1.67</v>
       </c>
       <c r="X6" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.6</v>
+        <v>2.52</v>
       </c>
       <c r="AD6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL6" t="n">
         <v>60</v>
       </c>
-      <c r="AE6" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>500</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>500</v>
-      </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>600</v>
+        <v>70</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>APOEL</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.36</v>
+        <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>1.38</v>
+        <v>24</v>
       </c>
       <c r="H7" t="n">
-        <v>12.5</v>
+        <v>1.19</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>1.2</v>
       </c>
       <c r="J7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD7" t="n">
         <v>5.2</v>
       </c>
-      <c r="K7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W7" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="X7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>600</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>980</v>
-      </c>
       <c r="AE7" t="n">
-        <v>240</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="AI7" t="n">
-        <v>220</v>
+        <v>19.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
         <v>48</v>
       </c>
       <c r="AM7" t="n">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.8</v>
+        <v>140</v>
       </c>
       <c r="AO7" t="n">
-        <v>370</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Villefranche Beaujolais</t>
+          <t>SV Darmstadt</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>Nurnberg</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.58</v>
+        <v>2.98</v>
       </c>
       <c r="G8" t="n">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="H8" t="n">
-        <v>2.92</v>
+        <v>3.45</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>2.64</v>
       </c>
       <c r="K8" t="n">
-        <v>3.45</v>
+        <v>2.66</v>
       </c>
       <c r="L8" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="N8" t="n">
-        <v>3.3</v>
+        <v>1.86</v>
       </c>
       <c r="O8" t="n">
-        <v>1.43</v>
+        <v>2.14</v>
       </c>
       <c r="P8" t="n">
-        <v>1.75</v>
+        <v>1.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.24</v>
+        <v>5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.27</v>
+        <v>1.07</v>
       </c>
       <c r="S8" t="n">
-        <v>4.3</v>
+        <v>14.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.89</v>
+        <v>3.15</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="V8" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="W8" t="n">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="X8" t="n">
-        <v>11.5</v>
+        <v>5</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>6.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.6</v>
+        <v>6</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE8" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AF8" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="AH8" t="n">
-        <v>19.5</v>
+        <v>55</v>
       </c>
       <c r="AI8" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="AJ8" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AL8" t="n">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="AO8" t="n">
-        <v>42</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Viktoria Koln</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Saarbrucken</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>13.5</v>
+        <v>1.69</v>
       </c>
       <c r="G9" t="n">
-        <v>100</v>
+        <v>1.72</v>
       </c>
       <c r="H9" t="n">
-        <v>1.03</v>
+        <v>5.6</v>
       </c>
       <c r="I9" t="n">
-        <v>1.05</v>
+        <v>5.9</v>
       </c>
       <c r="J9" t="n">
-        <v>15.5</v>
+        <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>400</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1.9</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.08</v>
+        <v>1.45</v>
       </c>
       <c r="R9" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W9" t="n">
         <v>2.4</v>
       </c>
-      <c r="S9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.01</v>
-      </c>
       <c r="X9" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>490</v>
+        <v>8.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>620</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Academico de Viseu</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.62</v>
+        <v>6.2</v>
       </c>
       <c r="G10" t="n">
-        <v>1.63</v>
+        <v>6.8</v>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>1.77</v>
       </c>
       <c r="I10" t="n">
-        <v>6.2</v>
+        <v>1.8</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.33</v>
+        <v>2.02</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.16</v>
       </c>
       <c r="N10" t="n">
-        <v>5.2</v>
+        <v>2.38</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.69</v>
       </c>
       <c r="P10" t="n">
-        <v>2.42</v>
+        <v>1.45</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.68</v>
+        <v>3.15</v>
       </c>
       <c r="R10" t="n">
-        <v>1.56</v>
+        <v>1.16</v>
       </c>
       <c r="S10" t="n">
-        <v>2.72</v>
+        <v>7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.77</v>
+        <v>2.76</v>
       </c>
       <c r="U10" t="n">
-        <v>2.22</v>
+        <v>1.51</v>
       </c>
       <c r="V10" t="n">
-        <v>1.18</v>
+        <v>2.18</v>
       </c>
       <c r="W10" t="n">
-        <v>2.6</v>
+        <v>1.17</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>7.8</v>
       </c>
       <c r="Y10" t="n">
-        <v>25</v>
+        <v>5.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="AA10" t="n">
-        <v>160</v>
+        <v>19.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AF10" t="n">
-        <v>10.5</v>
+        <v>60</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.4</v>
+        <v>30</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AI10" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AJ10" t="n">
-        <v>16.5</v>
+        <v>330</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c r="AL10" t="n">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="AM10" t="n">
-        <v>90</v>
+        <v>540</v>
       </c>
       <c r="AN10" t="n">
-        <v>7.4</v>
+        <v>490</v>
       </c>
       <c r="AO10" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L11" t="n">
         <v>2.34</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.47</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V11" t="n">
-        <v>1.39</v>
+        <v>1.92</v>
       </c>
       <c r="W11" t="n">
-        <v>1.73</v>
+        <v>1.21</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>5.8</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="Z11" t="n">
-        <v>23</v>
+        <v>9.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AH11" t="n">
-        <v>17.5</v>
+        <v>46</v>
       </c>
       <c r="AI11" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>320</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>480</v>
+      </c>
+      <c r="AO11" t="n">
         <v>55</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SV Darmstadt</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Nurnberg</t>
+          <t>Etoile Carouge</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>3.35</v>
       </c>
       <c r="G12" t="n">
-        <v>2.04</v>
+        <v>3.55</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>2.28</v>
       </c>
       <c r="I12" t="n">
-        <v>4.2</v>
+        <v>2.38</v>
       </c>
       <c r="J12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N12" t="n">
         <v>3.75</v>
       </c>
-      <c r="K12" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4.5</v>
-      </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>2.18</v>
+        <v>1.96</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="R12" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="S12" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U12" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
-        <v>1.31</v>
+        <v>1.72</v>
       </c>
       <c r="W12" t="n">
-        <v>1.97</v>
+        <v>1.4</v>
       </c>
       <c r="X12" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AA12" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO12" t="n">
         <v>24</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Academico de Viseu</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.6</v>
+        <v>2.48</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="H13" t="n">
-        <v>1.77</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>1.81</v>
+        <v>3.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="L13" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P13" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="R13" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="V13" t="n">
-        <v>2.22</v>
+        <v>1.35</v>
       </c>
       <c r="W13" t="n">
-        <v>1.2</v>
+        <v>1.53</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH13" t="n">
         <v>19.5</v>
       </c>
-      <c r="AB13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>30</v>
-      </c>
       <c r="AI13" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AK13" t="n">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="AL13" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AM13" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="AO13" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.8</v>
+        <v>2.14</v>
       </c>
       <c r="G14" t="n">
-        <v>5.1</v>
+        <v>2.18</v>
       </c>
       <c r="H14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.93</v>
       </c>
-      <c r="I14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.1</v>
-      </c>
       <c r="U14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W14" t="n">
         <v>1.84</v>
       </c>
-      <c r="V14" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.24</v>
-      </c>
       <c r="X14" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.2</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
-        <v>10.5</v>
+        <v>27</v>
       </c>
       <c r="AA14" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="AB14" t="n">
-        <v>14</v>
+        <v>8.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AF14" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="AG14" t="n">
-        <v>19.5</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AJ14" t="n">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="AK14" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AL14" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="AN14" t="n">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,126 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Viktoria Koln</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Saarbrucken</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="G15" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="H15" t="n">
-        <v>2.54</v>
+        <v>2.74</v>
       </c>
       <c r="I15" t="n">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="L15" t="n">
-        <v>1.35</v>
+        <v>1.51</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="P15" t="n">
-        <v>2.22</v>
+        <v>1.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.77</v>
+        <v>2.24</v>
       </c>
       <c r="R15" t="n">
-        <v>1.49</v>
+        <v>1.27</v>
       </c>
       <c r="S15" t="n">
-        <v>2.92</v>
+        <v>4.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.64</v>
+        <v>1.93</v>
       </c>
       <c r="U15" t="n">
-        <v>2.42</v>
+        <v>1.98</v>
       </c>
       <c r="V15" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="W15" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="X15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z15" t="n">
         <v>17</v>
       </c>
-      <c r="Y15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>18</v>
-      </c>
       <c r="AA15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK15" t="n">
         <v>36</v>
       </c>
-      <c r="AB15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI15" t="n">
+      <c r="AL15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>48</v>
+      </c>
+      <c r="AO15" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.79</v>
+        <v>3.3</v>
       </c>
       <c r="G16" t="n">
-        <v>1.85</v>
+        <v>3.45</v>
       </c>
      